--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719EE423-D8BA-4033-A6AA-3554B956591F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE90E5B-0CB0-413E-A10C-D7ED6C4BA75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="arr_ccf" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">arr_ccf!$A$1:$AG$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">arr_ccf!$A$1:$AH$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="189">
   <si>
     <t>Flow</t>
   </si>
@@ -458,6 +458,153 @@
   </si>
   <si>
     <t>CLRSS</t>
+  </si>
+  <si>
+    <t>VFDM</t>
+  </si>
+  <si>
+    <t>SLL1DATR</t>
+  </si>
+  <si>
+    <t>SLL1TAGR</t>
+  </si>
+  <si>
+    <t>SLL1RFR</t>
+  </si>
+  <si>
+    <t>SLL0DATR</t>
+  </si>
+  <si>
+    <t>SLL0TAGR</t>
+  </si>
+  <si>
+    <t>SLL0RFR</t>
+  </si>
+  <si>
+    <t>SLL3DATR</t>
+  </si>
+  <si>
+    <t>SLL3TAGR</t>
+  </si>
+  <si>
+    <t>SLL3RFR</t>
+  </si>
+  <si>
+    <t>SLL2DATR</t>
+  </si>
+  <si>
+    <t>SLL2TAGR</t>
+  </si>
+  <si>
+    <t>SLL2RFR</t>
+  </si>
+  <si>
+    <t>vfdmRun</t>
+  </si>
+  <si>
+    <t>iCVFDMTest</t>
+  </si>
+  <si>
+    <t>iCUserFuncTest</t>
+  </si>
+  <si>
+    <t>vfdmUserFunc</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>CBO0_LLC_DAT</t>
+  </si>
+  <si>
+    <t>VFDM_UF</t>
+  </si>
+  <si>
+    <t>CBO0_LLC_TAG</t>
+  </si>
+  <si>
+    <t>CBO0_RF</t>
+  </si>
+  <si>
+    <t>CBO1_LLC_DAT</t>
+  </si>
+  <si>
+    <t>CBO1_LLC_TAG</t>
+  </si>
+  <si>
+    <t>CBO2_LLC_DAT_BISR</t>
+  </si>
+  <si>
+    <t>CBO2_LLC_DAT_RASTER</t>
+  </si>
+  <si>
+    <t>CBO2_LLC_TAG_BISR</t>
+  </si>
+  <si>
+    <t>CBO2_LLC_TAG_RASTER</t>
+  </si>
+  <si>
+    <t>CBO2_SAR_BISR</t>
+  </si>
+  <si>
+    <t>CBO2_SAR_RASTER</t>
+  </si>
+  <si>
+    <t>CBO2_LSA_ALL</t>
+  </si>
+  <si>
+    <t>CBO3_LLC_DAT_BISR</t>
+  </si>
+  <si>
+    <t>CBO3_LLC_DAT_RASTER</t>
+  </si>
+  <si>
+    <t>CBO3_LLC_TAG_BISR</t>
+  </si>
+  <si>
+    <t>CBO3_LLC_TAG_RASTER</t>
+  </si>
+  <si>
+    <t>CBO3_SAR_BISR</t>
+  </si>
+  <si>
+    <t>CBO3_SAR_RASTER</t>
+  </si>
+  <si>
+    <t>CBO3_LSA_ALL</t>
+  </si>
+  <si>
+    <t>CBO1_RF</t>
+  </si>
+  <si>
+    <t>CBO3_LLC_DAT</t>
+  </si>
+  <si>
+    <t>CBO2_LLC_DAT</t>
+  </si>
+  <si>
+    <t>CBO3_LLC_TAG</t>
+  </si>
+  <si>
+    <t>CBO3_RF</t>
+  </si>
+  <si>
+    <t>CBO2_LLC_TAG</t>
+  </si>
+  <si>
+    <t>CBO2_RF</t>
+  </si>
+  <si>
+    <t>CBO01_SAR</t>
+  </si>
+  <si>
+    <t>CBO23_SAR</t>
+  </si>
+  <si>
+    <t>SLL0SARR</t>
+  </si>
+  <si>
+    <t>SLL1SARR</t>
   </si>
 </sst>
 </file>
@@ -1067,6 +1214,7 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,7 +1227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1602,7 +1749,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -1613,7 +1760,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="9" t="s">
         <v>59</v>
       </c>
@@ -1622,7 +1769,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
@@ -1631,7 +1778,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="9" t="s">
         <v>45</v>
       </c>
@@ -1640,7 +1787,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="9" t="s">
@@ -1651,7 +1798,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="9" t="s">
         <v>59</v>
       </c>
@@ -1660,7 +1807,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="9" t="s">
         <v>61</v>
       </c>
@@ -1669,7 +1816,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
         <v>45</v>
       </c>
@@ -1679,22 +1826,22 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1724,7 +1871,7 @@
       <c r="I12" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="13" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="9" t="s">
@@ -2038,12 +2185,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG70"/>
+  <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J60" sqref="J60:J63"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,11 +2201,13 @@
     <col min="4" max="4" width="83.5703125" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2120,46 +2269,49 @@
         <v>137</v>
       </c>
       <c r="U1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>15</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -2174,7 +2326,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
@@ -2189,7 +2341,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2203,22 +2355,22 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="X4" t="str">
-        <f>D22</f>
+      <c r="Y4" t="str">
+        <f>D38</f>
         <v>REPAIR</v>
       </c>
-      <c r="Y4" t="str">
-        <f>D22</f>
+      <c r="Z4" t="str">
+        <f>D38</f>
         <v>REPAIR</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -2279,23 +2431,19 @@
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="U5" t="b">
+      <c r="V5" t="b">
         <v>0</v>
       </c>
-      <c r="V5">
-        <f>COUNTA(X5:AG5)</f>
+      <c r="W5">
+        <f>COUNTA(Y5:AH5)</f>
         <v>9</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>39</v>
       </c>
-      <c r="X5" t="str">
-        <f t="shared" ref="X5:X19" si="1">D6</f>
+      <c r="Y5" t="str">
+        <f t="shared" ref="Y5:Y20" si="1">D6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_RASTER</v>
-      </c>
-      <c r="Y5" t="str">
-        <f>D7</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="Z5" t="str">
         <f>D7</f>
@@ -2310,11 +2458,11 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="AC5" t="str">
-        <f t="shared" ref="AC5:AC19" si="2">D6</f>
-        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_RASTER</v>
+        <f>D7</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="AD5" t="str">
-        <f>D6</f>
+        <f t="shared" ref="AD5:AD20" si="2">D6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_RASTER</v>
       </c>
       <c r="AE5" t="str">
@@ -2325,8 +2473,12 @@
         <f>D6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_RASTER</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG5" t="str">
+        <f>D6</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_RASTER</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,22 +2539,18 @@
       <c r="S6">
         <v>1</v>
       </c>
-      <c r="U6" t="b">
+      <c r="V6" t="b">
         <v>0</v>
       </c>
-      <c r="V6">
-        <f t="shared" ref="V6:V26" si="3">COUNTA(X6:AG6)</f>
+      <c r="W6">
+        <f t="shared" ref="W6:W57" si="3">COUNTA(Y6:AH6)</f>
         <v>6</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>1</v>
       </c>
-      <c r="X6" t="str">
+      <c r="Y6" t="str">
         <f t="shared" si="1"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
-      </c>
-      <c r="Y6" t="str">
-        <f>D7</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="Z6" t="str">
@@ -2418,11 +2566,15 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="AC6" t="str">
+        <f>D7</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
+      </c>
+      <c r="AD6" t="str">
         <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2483,23 +2635,19 @@
       <c r="S7">
         <v>2</v>
       </c>
-      <c r="U7" t="b">
+      <c r="V7" t="b">
         <v>0</v>
       </c>
-      <c r="V7">
-        <f t="shared" ref="V7:V13" si="4">COUNTA(X7:AG7)</f>
+      <c r="W7">
+        <f t="shared" ref="W7:W13" si="4">COUNTA(Y7:AH7)</f>
         <v>9</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>39</v>
       </c>
-      <c r="X7" t="str">
+      <c r="Y7" t="str">
         <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_RASTER</v>
-      </c>
-      <c r="Y7" t="str">
-        <f>D9</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="Z7" t="str">
         <f>D9</f>
@@ -2514,11 +2662,11 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="AC7" t="str">
+        <f>D9</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
+      </c>
+      <c r="AD7" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_RASTER</v>
-      </c>
-      <c r="AD7" t="str">
-        <f>D8</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_RASTER</v>
       </c>
       <c r="AE7" t="str">
@@ -2529,8 +2677,12 @@
         <f>D8</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_RASTER</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG7" t="str">
+        <f>D8</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_RASTER</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -2591,22 +2743,18 @@
       <c r="S8">
         <v>3</v>
       </c>
-      <c r="U8" t="b">
+      <c r="V8" t="b">
         <v>0</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1</v>
       </c>
-      <c r="X8" t="str">
+      <c r="Y8" t="str">
         <f t="shared" si="1"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
-      </c>
-      <c r="Y8" t="str">
-        <f>D9</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="Z8" t="str">
@@ -2622,11 +2770,15 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="AC8" t="str">
+        <f>D9</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
+      </c>
+      <c r="AD8" t="str">
         <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_BISR</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2687,23 +2839,19 @@
       <c r="S9">
         <v>4</v>
       </c>
-      <c r="U9" t="b">
+      <c r="V9" t="b">
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>39</v>
       </c>
-      <c r="X9" t="str">
+      <c r="Y9" t="str">
         <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_RASTER</v>
-      </c>
-      <c r="Y9" t="str">
-        <f>D11</f>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="Z9" t="str">
         <f>D11</f>
@@ -2718,11 +2866,11 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AC9" t="str">
+        <f>D11</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
+      </c>
+      <c r="AD9" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_RASTER</v>
-      </c>
-      <c r="AD9" t="str">
-        <f>D10</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_RASTER</v>
       </c>
       <c r="AE9" t="str">
@@ -2733,8 +2881,12 @@
         <f>D10</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_RASTER</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG9" t="str">
+        <f>D10</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_RASTER</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -2795,22 +2947,18 @@
       <c r="S10">
         <v>5</v>
       </c>
-      <c r="U10" t="b">
+      <c r="V10" t="b">
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>1</v>
       </c>
-      <c r="X10" t="str">
+      <c r="Y10" t="str">
         <f t="shared" si="1"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
-      </c>
-      <c r="Y10" t="str">
-        <f>D11</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="Z10" t="str">
@@ -2826,11 +2974,15 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AC10" t="str">
+        <f>D11</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
+      </c>
+      <c r="AD10" t="str">
         <f t="shared" si="2"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -2891,23 +3043,19 @@
       <c r="S11">
         <v>6</v>
       </c>
-      <c r="U11" t="b">
+      <c r="V11" t="b">
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>39</v>
       </c>
-      <c r="X11" t="str">
+      <c r="Y11" t="str">
         <f t="shared" si="1"/>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
-      </c>
-      <c r="Y11" t="str">
-        <f>D13</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="Z11" t="str">
         <f>D13</f>
@@ -2922,11 +3070,11 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="AC11" t="str">
+        <f>D13</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
+      </c>
+      <c r="AD11" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
-      </c>
-      <c r="AD11" t="str">
-        <f>D12</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AE11" t="str">
@@ -2937,8 +3085,12 @@
         <f>D12</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG11" t="str">
+        <f>D12</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -2999,22 +3151,18 @@
       <c r="S12">
         <v>7</v>
       </c>
-      <c r="U12" t="b">
+      <c r="V12" t="b">
         <v>0</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1</v>
       </c>
-      <c r="X12" t="str">
+      <c r="Y12" t="str">
         <f t="shared" si="1"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
-      </c>
-      <c r="Y12" t="str">
-        <f>D13</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="Z12" t="str">
@@ -3030,11 +3178,15 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="AC12" t="str">
+        <f>D13</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
+      </c>
+      <c r="AD12" t="str">
         <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -3095,23 +3247,19 @@
       <c r="S13">
         <v>8</v>
       </c>
-      <c r="U13" t="b">
+      <c r="V13" t="b">
         <v>0</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>39</v>
       </c>
-      <c r="X13" t="str">
+      <c r="Y13" t="str">
         <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_RASTER</v>
-      </c>
-      <c r="Y13" t="str">
-        <f>D15</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="Z13" t="str">
         <f>D15</f>
@@ -3126,11 +3274,11 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="AC13" t="str">
+        <f>D15</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
+      </c>
+      <c r="AD13" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_RASTER</v>
-      </c>
-      <c r="AD13" t="str">
-        <f>D14</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_RASTER</v>
       </c>
       <c r="AE13" t="str">
@@ -3141,8 +3289,12 @@
         <f>D14</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_RASTER</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG13" t="str">
+        <f>D14</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_RASTER</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -3203,22 +3355,18 @@
       <c r="S14">
         <v>9</v>
       </c>
-      <c r="U14" t="b">
+      <c r="V14" t="b">
         <v>0</v>
       </c>
-      <c r="V14">
-        <f t="shared" ref="V14" si="5">COUNTA(X14:AG14)</f>
+      <c r="W14">
+        <f t="shared" ref="W14" si="5">COUNTA(Y14:AH14)</f>
         <v>6</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1</v>
       </c>
-      <c r="X14" t="str">
+      <c r="Y14" t="str">
         <f t="shared" si="1"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
-      </c>
-      <c r="Y14" t="str">
-        <f>D15</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="Z14" t="str">
@@ -3234,11 +3382,15 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="AC14" t="str">
+        <f>D15</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
+      </c>
+      <c r="AD14" t="str">
         <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -3299,23 +3451,19 @@
       <c r="S15">
         <v>10</v>
       </c>
-      <c r="U15" t="b">
+      <c r="V15" t="b">
         <v>0</v>
       </c>
-      <c r="V15">
-        <f t="shared" ref="V15:V20" si="6">COUNTA(X15:AG15)</f>
+      <c r="W15">
+        <f t="shared" ref="W15:W20" si="6">COUNTA(Y15:AH15)</f>
         <v>9</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>39</v>
       </c>
-      <c r="X15" t="str">
+      <c r="Y15" t="str">
         <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_RASTER</v>
-      </c>
-      <c r="Y15" t="str">
-        <f>D17</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="Z15" t="str">
         <f>D17</f>
@@ -3330,11 +3478,11 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="AC15" t="str">
+        <f>D17</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
+      </c>
+      <c r="AD15" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_RASTER</v>
-      </c>
-      <c r="AD15" t="str">
-        <f>D16</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_RASTER</v>
       </c>
       <c r="AE15" t="str">
@@ -3345,8 +3493,12 @@
         <f>D16</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_RASTER</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG15" t="str">
+        <f>D16</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_RASTER</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -3407,22 +3559,18 @@
       <c r="S16">
         <v>11</v>
       </c>
-      <c r="U16" t="b">
+      <c r="V16" t="b">
         <v>0</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1</v>
       </c>
-      <c r="X16" t="str">
+      <c r="Y16" t="str">
         <f t="shared" si="1"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
-      </c>
-      <c r="Y16" t="str">
-        <f>D17</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="Z16" t="str">
@@ -3438,11 +3586,15 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="AC16" t="str">
+        <f>D17</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
+      </c>
+      <c r="AD16" t="str">
         <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_BISR</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -3503,23 +3655,19 @@
       <c r="S17">
         <v>12</v>
       </c>
-      <c r="U17" t="b">
+      <c r="V17" t="b">
         <v>0</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>39</v>
       </c>
-      <c r="X17" t="str">
+      <c r="Y17" t="str">
         <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_RASTER</v>
-      </c>
-      <c r="Y17" t="str">
-        <f>D19</f>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="Z17" t="str">
         <f>D19</f>
@@ -3534,11 +3682,11 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AC17" t="str">
+        <f>D19</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
+      </c>
+      <c r="AD17" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_RASTER</v>
-      </c>
-      <c r="AD17" t="str">
-        <f>D18</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_RASTER</v>
       </c>
       <c r="AE17" t="str">
@@ -3549,8 +3697,12 @@
         <f>D18</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_RASTER</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" t="str">
+        <f>D18</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_RASTER</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -3611,22 +3763,18 @@
       <c r="S18">
         <v>13</v>
       </c>
-      <c r="U18" t="b">
+      <c r="V18" t="b">
         <v>0</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>1</v>
       </c>
-      <c r="X18" t="str">
+      <c r="Y18" t="str">
         <f t="shared" si="1"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
-      </c>
-      <c r="Y18" t="str">
-        <f>D19</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="Z18" t="str">
@@ -3642,11 +3790,15 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AC18" t="str">
+        <f>D19</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
+      </c>
+      <c r="AD18" t="str">
         <f t="shared" si="2"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -3707,38 +3859,38 @@
       <c r="S19">
         <v>14</v>
       </c>
-      <c r="U19" t="b">
+      <c r="V19" t="b">
         <v>0</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>39</v>
       </c>
-      <c r="X19" t="str">
+      <c r="Y19" t="str">
         <f t="shared" si="1"/>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
-      <c r="Y19">
-        <v>1</v>
-      </c>
-      <c r="Z19">
-        <v>1</v>
-      </c>
-      <c r="AA19">
-        <v>1</v>
-      </c>
-      <c r="AB19">
-        <v>1</v>
+      <c r="Z19" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="AA19" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="AB19" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
       </c>
       <c r="AC19" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="AD19" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
-      </c>
-      <c r="AD19" t="str">
-        <f>D20</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AE19" t="str">
@@ -3749,8 +3901,12 @@
         <f>D20</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG19" t="str">
+        <f>D20</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -3811,100 +3967,268 @@
       <c r="S20">
         <v>15</v>
       </c>
-      <c r="U20" t="b">
+      <c r="V20" t="b">
         <v>0</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
       <c r="X20">
         <v>1</v>
       </c>
-      <c r="Y20">
-        <v>1</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
-        <v>1</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Y20" t="str">
+        <f t="shared" si="1"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="Z20" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="AA20" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="AB20" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="AC20" t="str">
+        <f>D21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="AD20" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="str">
         <f>VLOOKUP(B21,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ref="D21:D36" si="7">E21&amp;"_"&amp;F21&amp;"_"&amp;G21&amp;"_"&amp;H21&amp;"_"&amp;A21&amp;"_"&amp;I21&amp;"_"&amp;J21&amp;"_"&amp;K21&amp;"_"&amp;L21&amp;"_"&amp;M21</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_BISR</v>
+      </c>
+      <c r="E21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" t="s">
+        <v>139</v>
+      </c>
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" t="s">
+        <v>164</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21">
+        <f>VLOOKUP(E21,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>16</v>
+      </c>
+      <c r="V21" t="b">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>COUNTA(Y21:AH21)</f>
+        <v>9</v>
+      </c>
+      <c r="X21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" ref="Y21:Y35" si="8">D22</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_RASTER</v>
+      </c>
+      <c r="Z21" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AA21" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AB21" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AC21" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AD21" t="str">
+        <f t="shared" ref="AD21:AD35" si="9">D22</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_RASTER</v>
+      </c>
+      <c r="AE21" t="str">
+        <f>D22</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_RASTER</v>
+      </c>
+      <c r="AF21" t="str">
+        <f>D22</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_RASTER</v>
+      </c>
+      <c r="AG21" t="str">
+        <f>D22</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_RASTER</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2" t="str">
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="str">
         <f>VLOOKUP(B22,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="V22">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_DAT_RASTER</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" t="s">
+        <v>165</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22">
+        <f>VLOOKUP(E22,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R22">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+      <c r="V22" t="b">
+        <v>0</v>
       </c>
       <c r="W22">
+        <f t="shared" ref="W22:W36" si="10">COUNTA(Y22:AH22)</f>
+        <v>6</v>
+      </c>
+      <c r="X22">
         <v>1</v>
       </c>
-      <c r="X22" t="str">
-        <f>D25</f>
-        <v>POST_REPAIR</v>
-      </c>
       <c r="Y22" t="str">
-        <f>D25</f>
-        <v>POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+        <f t="shared" si="8"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="Z22" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AA22" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AB22" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AC22" t="str">
+        <f>D23</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+      <c r="AD22" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2" t="str">
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="1" t="str">
         <f>VLOOKUP(B23,templateLookup!A:B,2,0)</f>
-        <v>PrimePatConfigTestMethod</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D23" t="str">
-        <f>E23&amp;"_"&amp;F23&amp;"_"&amp;G23&amp;"_"&amp;H23&amp;"_"&amp;A23&amp;"_"&amp;I23&amp;"_"&amp;J23&amp;"_"&amp;K23&amp;"_"&amp;L23&amp;"_"&amp;M23</f>
-        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
+        <f t="shared" si="7"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
         <v>34</v>
@@ -3913,7 +4237,7 @@
         <v>124</v>
       </c>
       <c r="J23" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s">
         <v>56</v>
@@ -3922,7 +4246,7 @@
         <v>35</v>
       </c>
       <c r="M23" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="N23" t="s">
         <v>36</v>
@@ -3941,79 +4265,273 @@
         <v>10</v>
       </c>
       <c r="S23">
-        <v>50</v>
-      </c>
-      <c r="U23" t="b">
+        <v>18</v>
+      </c>
+      <c r="V23" t="b">
         <v>0</v>
       </c>
-      <c r="V23">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
       <c r="W23">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="X23" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="8"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_RASTER</v>
+      </c>
+      <c r="Z23" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AA23" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AB23" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AC23" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AD23" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_RASTER</v>
+      </c>
+      <c r="AE23" t="str">
+        <f>D24</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_RASTER</v>
+      </c>
+      <c r="AF23" t="str">
+        <f>D24</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_RASTER</v>
+      </c>
+      <c r="AG23" t="str">
+        <f>D24</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_RASTER</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>VLOOKUP(B24,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_LLC_TAG_RASTER</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" t="s">
+        <v>56</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" t="s">
+        <v>167</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24">
+        <f>VLOOKUP(E24,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R24">
+        <v>10</v>
+      </c>
+      <c r="S24">
+        <v>19</v>
+      </c>
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X24">
         <v>1</v>
       </c>
-      <c r="X23">
-        <v>1</v>
-      </c>
-      <c r="Y23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="Y24" t="str">
+        <f t="shared" si="8"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="Z24" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AA24" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AB24" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AC24" t="str">
+        <f>D25</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="AD24" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="2" t="str">
-        <f>VLOOKUP(B24,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_BISR</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" t="s">
+        <v>168</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25">
+        <f>VLOOKUP(E25,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R25">
+        <v>10</v>
+      </c>
+      <c r="S25">
+        <v>20</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="X25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="8"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_RASTER</v>
+      </c>
+      <c r="Z25" t="str">
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+      <c r="AA25" t="str">
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+      <c r="AB25" t="str">
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+      <c r="AC25" t="str">
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+      <c r="AD25" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_RASTER</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>D26</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_RASTER</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>D26</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_RASTER</v>
+      </c>
+      <c r="AG25" t="str">
+        <f>D26</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_RASTER</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="3" t="str">
-        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D25" t="s">
-        <v>43</v>
-      </c>
-      <c r="V25">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>1</v>
-      </c>
-      <c r="Y25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="3" t="str">
+      <c r="B26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="1" t="str">
         <f>VLOOKUP(B26,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
+        <v>MbistRasterTC</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ref="D26:D33" si="7">E26&amp;"_"&amp;F26&amp;"_"&amp;G26&amp;"_"&amp;H26&amp;"_"&amp;A26&amp;"_"&amp;I26&amp;"_"&amp;J26&amp;"_"&amp;K26&amp;"_"&amp;L26&amp;"_"&amp;M26</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_POST_REPAIR</v>
+        <f t="shared" si="7"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO2_SAR_RASTER</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
@@ -4022,7 +4540,7 @@
         <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s">
         <v>34</v>
@@ -4040,7 +4558,7 @@
         <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="N26" t="s">
         <v>36</v>
@@ -4059,72 +4577,60 @@
         <v>10</v>
       </c>
       <c r="S26">
-        <v>100</v>
-      </c>
-      <c r="U26" t="b">
+        <v>21</v>
+      </c>
+      <c r="V26" t="b">
         <v>0</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
       <c r="W26">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X26">
         <v>1</v>
       </c>
-      <c r="X26" t="str">
-        <f t="shared" ref="X26:X32" si="8">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
-      </c>
       <c r="Y26" t="str">
-        <f t="shared" ref="Y26:Y32" si="9">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+        <f t="shared" si="8"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="Z26" t="str">
-        <f t="shared" ref="Z26:Z32" si="10">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" ref="AA26:AA32" si="11">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AB26" t="str">
-        <f t="shared" ref="AB26:AB32" si="12">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AC26" t="str">
-        <f t="shared" ref="AC26:AC32" si="13">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+        <f>D27</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AD26" t="str">
-        <f t="shared" ref="AD26:AD32" si="14">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AE26" t="str">
-        <f t="shared" ref="AE26:AE32" si="15">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AF26" t="str">
-        <f t="shared" ref="AF26:AF32" si="16">D27</f>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+        <f t="shared" si="9"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="3" t="str">
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="str">
         <f>VLOOKUP(B27,templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>32</v>
@@ -4139,7 +4645,7 @@
         <v>124</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K27" t="s">
         <v>56</v>
@@ -4148,7 +4654,7 @@
         <v>35</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="N27" t="s">
         <v>36</v>
@@ -4161,84 +4667,84 @@
       </c>
       <c r="Q27">
         <f>VLOOKUP(E27,binningRules!$B$6:$C$9,2,0)</f>
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="R27">
         <v>10</v>
       </c>
       <c r="S27">
-        <v>101</v>
-      </c>
-      <c r="U27" t="b">
+        <v>22</v>
+      </c>
+      <c r="V27" t="b">
         <v>0</v>
       </c>
-      <c r="V27">
-        <f t="shared" ref="V27:V33" si="17">COUNTA(X27:AG27)</f>
+      <c r="W27">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27" t="str">
+      <c r="X27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y27" t="str">
         <f t="shared" si="8"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="Y27" t="str">
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+      <c r="Z27" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AA27" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AB27" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AC27" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AD27" t="str">
         <f t="shared" si="9"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="Z27" t="str">
-        <f t="shared" si="10"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AA27" t="str">
-        <f t="shared" si="11"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AB27" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AC27" t="str">
-        <f t="shared" si="13"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AD27" t="str">
-        <f t="shared" si="14"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AE27" t="str">
-        <f t="shared" si="15"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+        <f>D28</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AF27" t="str">
-        <f t="shared" si="16"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+        <f>D28</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+      <c r="AG27" t="str">
+        <f>D28</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="3" t="str">
+      <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="str">
         <f>VLOOKUP(B28,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
+        <v>MbistRasterTC</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
         <v>34</v>
@@ -4247,7 +4753,7 @@
         <v>124</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K28" t="s">
         <v>56</v>
@@ -4256,7 +4762,7 @@
         <v>35</v>
       </c>
       <c r="M28" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="N28" t="s">
         <v>36</v>
@@ -4269,78 +4775,66 @@
       </c>
       <c r="Q28">
         <f>VLOOKUP(E28,binningRules!$B$6:$C$9,2,0)</f>
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="R28">
         <v>10</v>
       </c>
       <c r="S28">
-        <v>102</v>
-      </c>
-      <c r="U28" t="b">
+        <v>23</v>
+      </c>
+      <c r="V28" t="b">
         <v>0</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
       <c r="W28">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X28">
         <v>1</v>
       </c>
-      <c r="X28" t="str">
+      <c r="Y28" t="str">
         <f t="shared" si="8"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="Y28" t="str">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="Z28" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AA28" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AB28" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AC28" t="str">
+        <f>D29</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+      <c r="AD28" t="str">
         <f t="shared" si="9"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="Z28" t="str">
-        <f t="shared" si="10"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AA28" t="str">
-        <f t="shared" si="11"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AB28" t="str">
-        <f t="shared" si="12"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AC28" t="str">
-        <f t="shared" si="13"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AD28" t="str">
-        <f t="shared" si="14"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AE28" t="str">
-        <f t="shared" si="15"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AF28" t="str">
-        <f t="shared" si="16"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="3" t="str">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
         <v>32</v>
@@ -4355,7 +4849,7 @@
         <v>124</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K29" t="s">
         <v>56</v>
@@ -4364,7 +4858,7 @@
         <v>35</v>
       </c>
       <c r="M29" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="N29" t="s">
         <v>36</v>
@@ -4377,75 +4871,75 @@
       </c>
       <c r="Q29">
         <f>VLOOKUP(E29,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="R29">
         <v>10</v>
       </c>
       <c r="S29">
-        <v>103</v>
-      </c>
-      <c r="U29" t="b">
+        <v>24</v>
+      </c>
+      <c r="V29" t="b">
         <v>0</v>
       </c>
-      <c r="V29">
-        <f t="shared" si="17"/>
+      <c r="W29">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29" t="str">
+      <c r="X29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y29" t="str">
         <f t="shared" si="8"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="Y29" t="str">
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_RASTER</v>
+      </c>
+      <c r="Z29" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AA29" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AB29" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AC29" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AD29" t="str">
         <f t="shared" si="9"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="Z29" t="str">
-        <f t="shared" si="10"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="AA29" t="str">
-        <f t="shared" si="11"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="AB29" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="AC29" t="str">
-        <f t="shared" si="13"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="AD29" t="str">
-        <f t="shared" si="14"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="AE29" t="str">
-        <f t="shared" si="15"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+        <f>D30</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="AF29" t="str">
-        <f t="shared" si="16"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+        <f>D30</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_RASTER</v>
+      </c>
+      <c r="AG29" t="str">
+        <f>D30</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_RASTER</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3" t="str">
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="str">
         <f>VLOOKUP(B30,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
+        <v>MbistRasterTC</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="E30" t="s">
         <v>31</v>
@@ -4454,7 +4948,7 @@
         <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s">
         <v>34</v>
@@ -4472,7 +4966,7 @@
         <v>35</v>
       </c>
       <c r="M30" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="N30" t="s">
         <v>36</v>
@@ -4491,69 +4985,57 @@
         <v>10</v>
       </c>
       <c r="S30">
-        <v>104</v>
-      </c>
-      <c r="U30" t="b">
+        <v>25</v>
+      </c>
+      <c r="V30" t="b">
         <v>0</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
       <c r="W30">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X30">
         <v>1</v>
       </c>
-      <c r="X30" t="str">
+      <c r="Y30" t="str">
         <f t="shared" si="8"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="Y30" t="str">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="Z30" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AA30" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AB30" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AC30" t="str">
+        <f>D31</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+      <c r="AD30" t="str">
         <f t="shared" si="9"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="Z30" t="str">
-        <f t="shared" si="10"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AA30" t="str">
-        <f t="shared" si="11"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AB30" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AC30" t="str">
-        <f t="shared" si="13"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AD30" t="str">
-        <f t="shared" si="14"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AE30" t="str">
-        <f t="shared" si="15"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AF30" t="str">
-        <f t="shared" si="16"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="3" t="str">
+      <c r="B31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="str">
         <f>VLOOKUP(B31,templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="E31" t="s">
         <v>31</v>
@@ -4580,7 +5062,7 @@
         <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="N31" t="s">
         <v>36</v>
@@ -4599,69 +5081,69 @@
         <v>10</v>
       </c>
       <c r="S31">
-        <v>105</v>
-      </c>
-      <c r="U31" t="b">
+        <v>26</v>
+      </c>
+      <c r="V31" t="b">
         <v>0</v>
       </c>
-      <c r="V31">
-        <f t="shared" si="17"/>
+      <c r="W31">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31" t="str">
+      <c r="X31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y31" t="str">
         <f t="shared" si="8"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="Y31" t="str">
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_RASTER</v>
+      </c>
+      <c r="Z31" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AA31" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AB31" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AC31" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AD31" t="str">
         <f t="shared" si="9"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="Z31" t="str">
-        <f t="shared" si="10"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AA31" t="str">
-        <f t="shared" si="11"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AB31" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AC31" t="str">
-        <f t="shared" si="13"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AD31" t="str">
-        <f t="shared" si="14"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="AE31" t="str">
-        <f t="shared" si="15"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+        <f>D32</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="AF31" t="str">
-        <f t="shared" si="16"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+        <f>D32</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_RASTER</v>
+      </c>
+      <c r="AG31" t="str">
+        <f>D32</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_RASTER</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="3" t="str">
+      <c r="B32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="str">
         <f>VLOOKUP(B32,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
+        <v>MbistRasterTC</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="E32" t="s">
         <v>31</v>
@@ -4670,7 +5152,7 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
         <v>34</v>
@@ -4688,7 +5170,7 @@
         <v>35</v>
       </c>
       <c r="M32" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="N32" t="s">
         <v>36</v>
@@ -4707,72 +5189,60 @@
         <v>10</v>
       </c>
       <c r="S32">
-        <v>106</v>
-      </c>
-      <c r="U32" t="b">
+        <v>27</v>
+      </c>
+      <c r="V32" t="b">
         <v>0</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="17"/>
-        <v>9</v>
-      </c>
       <c r="W32">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X32">
         <v>1</v>
       </c>
-      <c r="X32" t="str">
+      <c r="Y32" t="str">
         <f t="shared" si="8"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="Y32" t="str">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="Z32" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AA32" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AB32" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AC32" t="str">
+        <f>D33</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+      <c r="AD32" t="str">
         <f t="shared" si="9"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="Z32" t="str">
-        <f t="shared" si="10"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AA32" t="str">
-        <f t="shared" si="11"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AB32" t="str">
-        <f t="shared" si="12"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AC32" t="str">
-        <f t="shared" si="13"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AD32" t="str">
-        <f t="shared" si="14"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AE32" t="str">
-        <f t="shared" si="15"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AF32" t="str">
-        <f t="shared" si="16"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="3" t="str">
+      <c r="B33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1" t="str">
         <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F33" t="s">
         <v>32</v>
@@ -4787,7 +5257,7 @@
         <v>124</v>
       </c>
       <c r="J33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K33" t="s">
         <v>56</v>
@@ -4796,7 +5266,7 @@
         <v>35</v>
       </c>
       <c r="M33" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="N33" t="s">
         <v>36</v>
@@ -4809,298 +5279,433 @@
       </c>
       <c r="Q33">
         <f>VLOOKUP(E33,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="R33">
         <v>10</v>
       </c>
       <c r="S33">
-        <v>107</v>
-      </c>
-      <c r="U33" t="b">
+        <v>28</v>
+      </c>
+      <c r="V33" t="b">
         <v>0</v>
       </c>
-      <c r="V33">
-        <f t="shared" si="17"/>
+      <c r="W33">
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
-      <c r="W33">
+      <c r="X33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="8"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_RASTER</v>
+      </c>
+      <c r="Z33" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AA33" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AB33" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AC33" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_RASTER</v>
+      </c>
+      <c r="AE33" t="str">
+        <f>D34</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_RASTER</v>
+      </c>
+      <c r="AF33" t="str">
+        <f>D34</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_RASTER</v>
+      </c>
+      <c r="AG33" t="str">
+        <f>D34</f>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_RASTER</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO3_SAR_RASTER</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" t="s">
+        <v>176</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34">
+        <f>VLOOKUP(E34,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R34">
+        <v>10</v>
+      </c>
+      <c r="S34">
+        <v>29</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X34">
         <v>1</v>
       </c>
-      <c r="X33">
+      <c r="Y34" t="str">
+        <f t="shared" si="8"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="Z34" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AA34" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AB34" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AC34" t="str">
+        <f>D35</f>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AD34" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" t="s">
+        <v>56</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" t="s">
+        <v>177</v>
+      </c>
+      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35">
+        <f>VLOOKUP(E35,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R35">
+        <v>10</v>
+      </c>
+      <c r="S35">
+        <v>30</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="X35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="8"/>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="Z35">
         <v>1</v>
       </c>
-      <c r="Y33">
+      <c r="AA35">
         <v>1</v>
       </c>
-      <c r="Z33">
+      <c r="AB35">
         <v>1</v>
       </c>
-      <c r="AA33">
+      <c r="AC35">
         <v>1</v>
       </c>
-      <c r="AB33">
+      <c r="AD35" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AE35" t="str">
+        <f>D36</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AF35" t="str">
+        <f>D36</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="AG35" t="str">
+        <f>D36</f>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_MAX_LFM_CBO3_LSA_ALL</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>124</v>
+      </c>
+      <c r="J36" t="s">
+        <v>138</v>
+      </c>
+      <c r="K36" t="s">
+        <v>56</v>
+      </c>
+      <c r="L36" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36">
+        <f>VLOOKUP(E36,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R36">
+        <v>10</v>
+      </c>
+      <c r="S36">
+        <v>31</v>
+      </c>
+      <c r="V36" t="b">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X36">
         <v>1</v>
       </c>
-      <c r="AC33">
+      <c r="Y36">
         <v>1</v>
       </c>
-      <c r="AD33">
+      <c r="Z36">
         <v>1</v>
       </c>
-      <c r="AE33">
+      <c r="AA36">
         <v>1</v>
       </c>
-      <c r="AF33">
+      <c r="AB36">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="AC36">
+        <v>1</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="3" t="str">
-        <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(B37,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
-    <row r="35" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="7" t="str">
-        <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
+      <c r="B38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f>VLOOKUP(B38,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="7" t="str">
-        <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="4" t="str">
-        <f>VLOOKUP(B37,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D37" t="str">
-        <f t="shared" ref="D37:D42" si="18">E37&amp;"_"&amp;F37&amp;"_"&amp;G37&amp;"_"&amp;H37&amp;"_"&amp;A37&amp;"_"&amp;I37&amp;"_"&amp;J37&amp;"_"&amp;K37&amp;"_"&amp;L37&amp;"_"&amp;M37</f>
-        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
+      </c>
+      <c r="Y38" t="str">
+        <f>D56</f>
+        <v>POST_REPAIR</v>
+      </c>
+      <c r="Z38" t="str">
+        <f>D56</f>
+        <v>POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D39" t="str">
+        <f>E39&amp;"_"&amp;F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;"_"&amp;A39&amp;"_"&amp;I39&amp;"_"&amp;J39&amp;"_"&amp;K39&amp;"_"&amp;L39&amp;"_"&amp;M39</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_DAT</v>
+      </c>
+      <c r="E39" t="s">
         <v>31</v>
-      </c>
-      <c r="F37" t="s">
-        <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" t="s">
-        <v>124</v>
-      </c>
-      <c r="J37" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37" t="s">
-        <v>55</v>
-      </c>
-      <c r="L37" t="s">
-        <v>35</v>
-      </c>
-      <c r="M37" t="s">
-        <v>57</v>
-      </c>
-      <c r="N37" t="s">
-        <v>36</v>
-      </c>
-      <c r="O37" t="s">
-        <v>37</v>
-      </c>
-      <c r="P37" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q37">
-        <f>VLOOKUP(E37,binningRules!$B$6:$C$9,2,0)</f>
-        <v>61</v>
-      </c>
-      <c r="R37">
-        <v>11</v>
-      </c>
-      <c r="S37">
-        <v>200</v>
-      </c>
-      <c r="T37">
-        <v>2000</v>
-      </c>
-      <c r="U37" t="b">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <f t="shared" ref="V37:V42" si="19">COUNTA(X37:AG37)</f>
-        <v>2</v>
-      </c>
-      <c r="W37">
-        <v>1</v>
-      </c>
-      <c r="X37" t="str">
-        <f>D38</f>
-        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
-      </c>
-      <c r="Y37" t="str">
-        <f>D38</f>
-        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="4" t="str">
-        <f>VLOOKUP(B38,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D38" t="str">
-        <f t="shared" si="18"/>
-        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
-      </c>
-      <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" t="s">
-        <v>139</v>
-      </c>
-      <c r="K38" t="s">
-        <v>55</v>
-      </c>
-      <c r="L38" t="s">
-        <v>35</v>
-      </c>
-      <c r="M38" t="s">
-        <v>58</v>
-      </c>
-      <c r="N38" t="s">
-        <v>36</v>
-      </c>
-      <c r="O38" t="s">
-        <v>37</v>
-      </c>
-      <c r="P38" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q38">
-        <f>VLOOKUP(E38,binningRules!$B$6:$C$9,2,0)</f>
-        <v>61</v>
-      </c>
-      <c r="R38">
-        <v>11</v>
-      </c>
-      <c r="S38">
-        <v>201</v>
-      </c>
-      <c r="T38">
-        <v>2001</v>
-      </c>
-      <c r="U38" t="b">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="W38">
-        <v>1</v>
-      </c>
-      <c r="X38" t="str">
-        <f>D39</f>
-        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
-      </c>
-      <c r="Y38" t="str">
-        <f>D39</f>
-        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4" t="str">
-        <f>VLOOKUP(B39,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D39" t="str">
-        <f t="shared" si="18"/>
-        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
-      </c>
-      <c r="E39" t="s">
-        <v>59</v>
       </c>
       <c r="F39" t="s">
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I39" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L39" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M39" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="N39" t="s">
         <v>36</v>
@@ -5112,78 +5717,80 @@
         <v>38</v>
       </c>
       <c r="Q39">
-        <f>VLOOKUP(E39,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="R39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S39">
-        <v>202</v>
-      </c>
-      <c r="T39">
-        <v>2002</v>
-      </c>
-      <c r="U39" t="b">
+        <v>35</v>
+      </c>
+      <c r="U39" t="s">
+        <v>144</v>
+      </c>
+      <c r="V39" t="b">
         <v>0</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
       <c r="W39">
-        <v>1</v>
-      </c>
-      <c r="X39" t="str">
-        <f>D40</f>
-        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X39" t="s">
+        <v>120</v>
       </c>
       <c r="Y39" t="str">
         <f>D40</f>
-        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="4" t="str">
-        <f>VLOOKUP(B40,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_TAG</v>
+      </c>
+      <c r="Z39" t="str">
+        <f>D40</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_TAG</v>
+      </c>
+      <c r="AA39" t="str">
+        <f>D40</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_TAG</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="18"/>
-        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+        <f>E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;"_"&amp;A40&amp;"_"&amp;I40&amp;"_"&amp;J40&amp;"_"&amp;K40&amp;"_"&amp;L40&amp;"_"&amp;M40</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_TAG</v>
       </c>
       <c r="E40" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
         <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L40" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M40" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="N40" t="s">
         <v>36</v>
@@ -5195,78 +5802,80 @@
         <v>38</v>
       </c>
       <c r="Q40">
-        <f>VLOOKUP(E40,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="R40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S40">
-        <v>203</v>
-      </c>
-      <c r="T40">
-        <v>2003</v>
-      </c>
-      <c r="U40" t="b">
+        <v>36</v>
+      </c>
+      <c r="U40" t="s">
+        <v>145</v>
+      </c>
+      <c r="V40" t="b">
         <v>0</v>
       </c>
-      <c r="V40">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
       <c r="W40">
-        <v>1</v>
-      </c>
-      <c r="X40" t="str">
-        <f>D41</f>
-        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X40" t="s">
+        <v>120</v>
       </c>
       <c r="Y40" t="str">
-        <f>D41</f>
-        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="4" t="str">
-        <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <f t="shared" ref="Y40:Y53" si="11">D41</f>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" ref="Z40:Z53" si="12">D41</f>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
+      </c>
+      <c r="AA40" t="str">
+        <f t="shared" ref="AA40:AA53" si="13">D41</f>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="18"/>
-        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
+        <f>E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;"_"&amp;A41&amp;"_"&amp;I41&amp;"_"&amp;J41&amp;"_"&amp;K41&amp;"_"&amp;L41&amp;"_"&amp;M41</f>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
         <v>138</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L41" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M41" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="N41" t="s">
         <v>36</v>
@@ -5278,78 +5887,80 @@
         <v>38</v>
       </c>
       <c r="Q41">
-        <f>VLOOKUP(E41,binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S41">
-        <v>204</v>
-      </c>
-      <c r="T41">
-        <v>2004</v>
-      </c>
-      <c r="U41" t="b">
+        <v>37</v>
+      </c>
+      <c r="U41" t="s">
+        <v>146</v>
+      </c>
+      <c r="V41" t="b">
         <v>0</v>
       </c>
-      <c r="V41">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
       <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41" t="str">
-        <f>D42</f>
-        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X41" t="s">
+        <v>120</v>
       </c>
       <c r="Y41" t="str">
-        <f>D42</f>
-        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="4" t="str">
-        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
+      </c>
+      <c r="AA41" t="str">
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="18"/>
-        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+        <f t="shared" ref="D42:D53" si="14">E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
       </c>
       <c r="E42" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K42" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L42" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M42" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="N42" t="s">
         <v>36</v>
@@ -5361,103 +5972,250 @@
         <v>38</v>
       </c>
       <c r="Q42">
-        <f>VLOOKUP(E42,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>38</v>
+      </c>
+      <c r="U42" t="s">
+        <v>141</v>
+      </c>
+      <c r="V42" t="b">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X42" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
+      </c>
+      <c r="AA42" t="str">
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="14"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>139</v>
+      </c>
+      <c r="K43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" t="s">
+        <v>163</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43">
+        <v>61</v>
+      </c>
+      <c r="R43">
+        <v>10</v>
+      </c>
+      <c r="S43">
+        <v>39</v>
+      </c>
+      <c r="U43" t="s">
+        <v>142</v>
+      </c>
+      <c r="V43" t="b">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X43" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="12"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
+      </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
+      </c>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="14"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>140</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>178</v>
+      </c>
+      <c r="N44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44">
         <v>21</v>
       </c>
-      <c r="R42">
-        <v>11</v>
-      </c>
-      <c r="S42">
-        <v>205</v>
-      </c>
-      <c r="T42">
-        <v>2005</v>
-      </c>
-      <c r="U42" t="b">
+      <c r="R44">
+        <v>10</v>
+      </c>
+      <c r="S44">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s">
+        <v>143</v>
+      </c>
+      <c r="V44" t="b">
         <v>0</v>
       </c>
-      <c r="V42">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>1</v>
-      </c>
-      <c r="X42">
-        <v>1</v>
-      </c>
-      <c r="Y42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="7" t="str">
-        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="44" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="7" t="str">
-        <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="6" t="str">
-        <f>VLOOKUP(B45,templateLookup!A:B,2,0)</f>
-        <v>PrimeHvqkTestMethod</v>
+      <c r="W44">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X44" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
+      </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D45" t="str">
-        <f>E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
-        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_CBO_SBO</v>
+        <f t="shared" ref="D45" si="15">E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
         <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H45" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I45" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J45" t="s">
         <v>139</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="L45" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M45" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="N45" t="s">
         <v>36</v>
@@ -5469,83 +6227,80 @@
         <v>38</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="R45">
-        <f>VLOOKUP(E45,binningRules!$B$6:$C$9,2,0)</f>
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="S45">
-        <v>300</v>
-      </c>
-      <c r="U45" t="b">
+        <v>41</v>
+      </c>
+      <c r="U45" t="s">
+        <v>187</v>
+      </c>
+      <c r="V45" t="b">
         <v>0</v>
       </c>
-      <c r="V45">
-        <f t="shared" ref="V45:V46" si="20">COUNTA(X45:AG45)</f>
-        <v>4</v>
-      </c>
-      <c r="W45" t="s">
+      <c r="W45">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X45" t="s">
         <v>120</v>
       </c>
-      <c r="X45" t="str">
-        <f>D46</f>
-        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
-      </c>
       <c r="Y45" t="str">
-        <f>D46</f>
-        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
       </c>
       <c r="Z45" t="str">
-        <f>D46</f>
-        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
       </c>
       <c r="AA45" t="str">
-        <f>D46</f>
-        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
-      </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" s="6" t="str">
-        <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
-        <v>PrimeHvqkTestMethod</v>
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D46" t="str">
         <f>E46&amp;"_"&amp;F46&amp;"_"&amp;G46&amp;"_"&amp;H46&amp;"_"&amp;A46&amp;"_"&amp;I46&amp;"_"&amp;J46&amp;"_"&amp;K46&amp;"_"&amp;L46&amp;"_"&amp;M46</f>
-        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
         <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J46" t="s">
         <v>139</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="L46" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M46" t="s">
-        <v>58</v>
+        <v>180</v>
       </c>
       <c r="N46" t="s">
         <v>36</v>
@@ -5557,79 +6312,223 @@
         <v>38</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="R46">
-        <f>VLOOKUP(E46,binningRules!$B$6:$C$9,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="S46">
+        <v>42</v>
+      </c>
+      <c r="U46" t="s">
+        <v>150</v>
+      </c>
+      <c r="V46" t="b">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X46" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
+      </c>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" t="str">
+        <f>E47&amp;"_"&amp;F47&amp;"_"&amp;G47&amp;"_"&amp;H47&amp;"_"&amp;A47&amp;"_"&amp;I47&amp;"_"&amp;J47&amp;"_"&amp;K47&amp;"_"&amp;L47&amp;"_"&amp;M47</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>140</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" t="s">
+        <v>139</v>
+      </c>
+      <c r="K47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" t="s">
+        <v>183</v>
+      </c>
+      <c r="N47" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q47">
         <v>61</v>
       </c>
-      <c r="S46">
-        <v>301</v>
-      </c>
-      <c r="U46" t="b">
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>43</v>
+      </c>
+      <c r="U47" t="s">
+        <v>151</v>
+      </c>
+      <c r="V47" t="b">
         <v>0</v>
       </c>
-      <c r="V46">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="W46" t="s">
+      <c r="W47">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X47" t="s">
         <v>120</v>
       </c>
-      <c r="X46">
-        <v>1</v>
-      </c>
-      <c r="Y46">
-        <v>1</v>
-      </c>
-      <c r="Z46">
-        <v>1</v>
-      </c>
-      <c r="AA46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="7" t="str">
-        <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="48" spans="1:32" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="7" t="str">
-        <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="5" t="str">
-        <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+      <c r="Y47" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="12"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="str">
+        <f>E48&amp;"_"&amp;F48&amp;"_"&amp;G48&amp;"_"&amp;H48&amp;"_"&amp;A48&amp;"_"&amp;I48&amp;"_"&amp;J48&amp;"_"&amp;K48&amp;"_"&amp;L48&amp;"_"&amp;M48</f>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" t="s">
+        <v>138</v>
+      </c>
+      <c r="K48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" t="s">
+        <v>184</v>
+      </c>
+      <c r="N48" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q48">
+        <v>21</v>
+      </c>
+      <c r="R48">
+        <v>10</v>
+      </c>
+      <c r="S48">
+        <v>44</v>
+      </c>
+      <c r="U48" t="s">
+        <v>152</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X48" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
+      </c>
+      <c r="AA48" t="str">
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" ref="D49:D54" si="21">E49&amp;"_"&amp;F49&amp;"_"&amp;G49&amp;"_"&amp;H49&amp;"_"&amp;A49&amp;"_"&amp;I49&amp;"_"&amp;J49&amp;"_"&amp;K49&amp;"_"&amp;L49&amp;"_"&amp;M49</f>
-        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
+        <f t="shared" si="14"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
       </c>
       <c r="E49" t="s">
         <v>31</v>
@@ -5638,25 +6537,25 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I49" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J49" t="s">
         <v>139</v>
       </c>
       <c r="K49" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M49" t="s">
-        <v>57</v>
+        <v>179</v>
       </c>
       <c r="N49" t="s">
         <v>36</v>
@@ -5668,51 +6567,53 @@
         <v>38</v>
       </c>
       <c r="Q49">
+        <v>61</v>
+      </c>
+      <c r="R49">
+        <v>10</v>
+      </c>
+      <c r="S49">
+        <v>45</v>
+      </c>
+      <c r="U49" t="s">
+        <v>147</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
+      </c>
+      <c r="AA49" t="str">
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
+      </c>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R49">
-        <f>VLOOKUP(E49,binningRules!$B$6:$C$9,2,0)</f>
-        <v>61</v>
-      </c>
-      <c r="S49">
-        <v>400</v>
-      </c>
-      <c r="T49">
-        <v>2010</v>
-      </c>
-      <c r="U49" t="b">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <f t="shared" ref="V49:V54" si="22">COUNTA(X49:AG49)</f>
-        <v>2</v>
-      </c>
-      <c r="W49">
-        <v>1</v>
-      </c>
-      <c r="X49" t="str">
-        <f>D50</f>
-        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
-      </c>
-      <c r="Y49" t="str">
-        <f>D50</f>
-        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
-      </c>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="5" t="str">
-        <f>VLOOKUP(B50,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+      <c r="B50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="21"/>
-        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
+        <f t="shared" si="14"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
       </c>
       <c r="E50" t="s">
         <v>31</v>
@@ -5721,25 +6622,25 @@
         <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I50" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J50" t="s">
         <v>139</v>
       </c>
       <c r="K50" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L50" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M50" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="N50" t="s">
         <v>36</v>
@@ -5751,51 +6652,53 @@
         <v>38</v>
       </c>
       <c r="Q50">
+        <v>61</v>
+      </c>
+      <c r="R50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>46</v>
+      </c>
+      <c r="U50" t="s">
+        <v>148</v>
+      </c>
+      <c r="V50" t="b">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X50" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="12"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
+      </c>
+      <c r="AA50" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
+      </c>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R50">
-        <f>VLOOKUP(E50,binningRules!$B$6:$C$9,2,0)</f>
-        <v>61</v>
-      </c>
-      <c r="S50">
-        <v>401</v>
-      </c>
-      <c r="T50">
-        <v>2011</v>
-      </c>
-      <c r="U50" t="b">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="W50">
-        <v>1</v>
-      </c>
-      <c r="X50" t="str">
-        <f>D51</f>
-        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
-      </c>
-      <c r="Y50" t="str">
-        <f>D51</f>
-        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
-      </c>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="5" t="str">
-        <f>VLOOKUP(B51,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+      <c r="B51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="21"/>
-        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
+        <f t="shared" si="14"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
       </c>
       <c r="E51" t="s">
         <v>59</v>
@@ -5804,25 +6707,25 @@
         <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J51" t="s">
         <v>138</v>
       </c>
       <c r="K51" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L51" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M51" t="s">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="N51" t="s">
         <v>36</v>
@@ -5834,78 +6737,80 @@
         <v>38</v>
       </c>
       <c r="Q51">
+        <v>21</v>
+      </c>
+      <c r="R51">
+        <v>10</v>
+      </c>
+      <c r="S51">
+        <v>47</v>
+      </c>
+      <c r="U51" t="s">
+        <v>149</v>
+      </c>
+      <c r="V51" t="b">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X51" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="11"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="12"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
+      </c>
+      <c r="AA51" t="str">
+        <f t="shared" si="13"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R51">
-        <f>VLOOKUP(E51,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="S51">
-        <v>402</v>
-      </c>
-      <c r="T51">
-        <v>2012</v>
-      </c>
-      <c r="U51" t="b">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>1</v>
-      </c>
-      <c r="X51" t="str">
-        <f>D52</f>
-        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-      <c r="Y51" t="str">
-        <f>D52</f>
-        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="5" t="str">
-        <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+      <c r="B52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="21"/>
-        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+        <f t="shared" ref="D52" si="16">E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I52" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K52" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L52" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M52" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="N52" t="s">
         <v>36</v>
@@ -5917,78 +6822,80 @@
         <v>38</v>
       </c>
       <c r="Q52">
+        <v>61</v>
+      </c>
+      <c r="R52">
+        <v>10</v>
+      </c>
+      <c r="S52">
+        <v>48</v>
+      </c>
+      <c r="U52" t="s">
+        <v>188</v>
+      </c>
+      <c r="V52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X52" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="11"/>
+        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="12"/>
+        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="13"/>
+        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R52">
-        <f>VLOOKUP(E52,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="S52">
-        <v>403</v>
-      </c>
-      <c r="T52">
-        <v>2013</v>
-      </c>
-      <c r="U52" t="b">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="W52">
-        <v>1</v>
-      </c>
-      <c r="X52" t="str">
-        <f>D53</f>
-        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
-      </c>
-      <c r="Y52" t="str">
-        <f>D53</f>
-        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="5" t="str">
-        <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+      <c r="B53" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="21"/>
-        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
+        <f t="shared" si="14"/>
+        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
         <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="H53" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s">
-        <v>124</v>
+        <v>6</v>
       </c>
       <c r="J53" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K53" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="L53" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M53" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="N53" t="s">
         <v>36</v>
@@ -6000,78 +6907,78 @@
         <v>38</v>
       </c>
       <c r="Q53">
+        <v>90</v>
+      </c>
+      <c r="R53">
+        <v>61</v>
+      </c>
+      <c r="S53">
+        <v>49</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="X53" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="11"/>
+        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="12"/>
+        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
+      </c>
+      <c r="AA53" t="str">
+        <f t="shared" si="13"/>
+        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
+      </c>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="R53">
-        <f>VLOOKUP(E53,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
-      </c>
-      <c r="S53">
-        <v>404</v>
-      </c>
-      <c r="T53">
-        <v>2014</v>
-      </c>
-      <c r="U53" t="b">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="W53">
-        <v>1</v>
-      </c>
-      <c r="X53" t="str">
-        <f>D54</f>
-        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-      <c r="Y53" t="str">
-        <f>D54</f>
-        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="5" t="str">
+      <c r="B54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="2" t="str">
         <f>VLOOKUP(B54,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="21"/>
-        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+        <f>E54&amp;"_"&amp;F54&amp;"_"&amp;G54&amp;"_"&amp;H54&amp;"_"&amp;A54&amp;"_"&amp;I54&amp;"_"&amp;J54&amp;"_"&amp;K54&amp;"_"&amp;L54&amp;"_"&amp;M54</f>
+        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="H54" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s">
         <v>124</v>
       </c>
       <c r="J54" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L54" t="s">
         <v>35</v>
       </c>
       <c r="M54" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="N54" t="s">
         <v>36</v>
@@ -6083,27 +6990,21 @@
         <v>38</v>
       </c>
       <c r="Q54">
-        <v>26</v>
+        <f>VLOOKUP(E54,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
       </c>
       <c r="R54">
-        <f>VLOOKUP(E54,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="S54">
-        <v>405</v>
-      </c>
-      <c r="T54">
-        <v>2015</v>
-      </c>
-      <c r="U54" t="b">
+        <v>50</v>
+      </c>
+      <c r="V54" t="b">
         <v>0</v>
       </c>
-      <c r="V54">
-        <f t="shared" si="22"/>
+      <c r="W54">
+        <f t="shared" si="3"/>
         <v>2</v>
-      </c>
-      <c r="W54">
-        <v>1</v>
       </c>
       <c r="X54">
         <v>1</v>
@@ -6111,78 +7012,172 @@
       <c r="Y54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="Z54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="7" t="str">
+      <c r="C55" s="2" t="str">
         <f>VLOOKUP(B55,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
-    <row r="56" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="7" t="str">
+      <c r="C56" s="3" t="str">
         <f>VLOOKUP(B56,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="5" t="str">
+      <c r="D56" t="s">
+        <v>43</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>1</v>
+      </c>
+      <c r="Y56">
+        <v>1</v>
+      </c>
+      <c r="Z56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="3" t="str">
         <f>VLOOKUP(B57,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D57" t="s">
-        <v>66</v>
-      </c>
-      <c r="V57">
-        <f t="shared" ref="V57" si="23">COUNTA(X57:AG57)</f>
-        <v>2</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" ref="D57:D64" si="17">E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"_"&amp;A57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>32</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s">
+        <v>124</v>
+      </c>
+      <c r="J57" t="s">
+        <v>139</v>
+      </c>
+      <c r="K57" t="s">
+        <v>56</v>
+      </c>
+      <c r="L57" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
+        <v>83</v>
+      </c>
+      <c r="N57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P57" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57">
+        <f>VLOOKUP(E57,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R57">
+        <v>10</v>
+      </c>
+      <c r="S57">
+        <v>100</v>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
       </c>
       <c r="W57">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="X57">
         <v>1</v>
       </c>
-      <c r="X57" t="str">
-        <f>D65</f>
-        <v>VMAX</v>
-      </c>
       <c r="Y57" t="str">
-        <f>D65</f>
-        <v>VMAX</v>
-      </c>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="5" t="str">
+        <f t="shared" ref="Y57:Y63" si="18">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" ref="Z57:Z63" si="19">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AA57" t="str">
+        <f t="shared" ref="AA57:AA63" si="20">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AB57" t="str">
+        <f t="shared" ref="AB57:AB63" si="21">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AC57" t="str">
+        <f t="shared" ref="AC57:AC63" si="22">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AD57" t="str">
+        <f t="shared" ref="AD57:AD63" si="23">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AE57" t="str">
+        <f t="shared" ref="AE57:AE63" si="24">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AF57" t="str">
+        <f t="shared" ref="AF57:AF63" si="25">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AG57" t="str">
+        <f t="shared" ref="AG57:AG63" si="26">D58</f>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="3" t="str">
         <f>VLOOKUP(B58,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" ref="D58:D63" si="24">E58&amp;"_"&amp;F58&amp;"_"&amp;G58&amp;"_"&amp;H58&amp;"_"&amp;A58&amp;"_"&amp;I58&amp;"_"&amp;J58&amp;"_"&amp;K58&amp;"_"&amp;L58&amp;"_"&amp;M58</f>
-        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_CBO</v>
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="E58" t="s">
         <v>31</v>
@@ -6191,10 +7186,10 @@
         <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H58" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I58" t="s">
         <v>124</v>
@@ -6203,13 +7198,13 @@
         <v>139</v>
       </c>
       <c r="K58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L58" t="s">
         <v>35</v>
       </c>
       <c r="M58" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="N58" t="s">
         <v>36</v>
@@ -6225,47 +7220,72 @@
         <v>61</v>
       </c>
       <c r="R58">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S58">
-        <v>500</v>
-      </c>
-      <c r="T58">
-        <v>2020</v>
-      </c>
-      <c r="U58" t="b">
+        <v>101</v>
+      </c>
+      <c r="V58" t="b">
         <v>0</v>
       </c>
-      <c r="V58">
-        <f t="shared" ref="V58:V63" si="25">COUNTA(X58:AG58)</f>
-        <v>2</v>
-      </c>
       <c r="W58">
+        <f t="shared" ref="W58:W64" si="27">COUNTA(Y58:AH58)</f>
+        <v>9</v>
+      </c>
+      <c r="X58">
         <v>1</v>
       </c>
-      <c r="X58" t="str">
-        <f>D59</f>
-        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
-      </c>
       <c r="Y58" t="str">
-        <f>D59</f>
-        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
-      </c>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="19"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AA58" t="str">
+        <f t="shared" si="20"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AB58" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AC58" t="str">
+        <f t="shared" si="22"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AD58" t="str">
+        <f t="shared" si="23"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AE58" t="str">
+        <f t="shared" si="24"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AF58" t="str">
+        <f t="shared" si="25"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AG58" t="str">
+        <f t="shared" si="26"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="3" t="str">
         <f>VLOOKUP(B59,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="24"/>
-        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="E59" t="s">
         <v>31</v>
@@ -6274,10 +7294,10 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H59" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s">
         <v>124</v>
@@ -6286,13 +7306,13 @@
         <v>139</v>
       </c>
       <c r="K59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L59" t="s">
         <v>35</v>
       </c>
       <c r="M59" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="N59" t="s">
         <v>36</v>
@@ -6308,47 +7328,72 @@
         <v>61</v>
       </c>
       <c r="R59">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S59">
-        <v>501</v>
-      </c>
-      <c r="T59">
-        <v>2021</v>
-      </c>
-      <c r="U59" t="b">
+        <v>102</v>
+      </c>
+      <c r="V59" t="b">
         <v>0</v>
       </c>
-      <c r="V59">
+      <c r="W59">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="18"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="19"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AA59" t="str">
+        <f t="shared" si="20"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AB59" t="str">
+        <f t="shared" si="21"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AC59" t="str">
+        <f t="shared" si="22"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AD59" t="str">
+        <f t="shared" si="23"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AE59" t="str">
+        <f t="shared" si="24"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AF59" t="str">
         <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59" t="str">
-        <f>D60</f>
-        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
-      </c>
-      <c r="Y59" t="str">
-        <f>D60</f>
-        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
-      </c>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="5" t="str">
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AG59" t="str">
+        <f t="shared" si="26"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="3" t="str">
         <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="24"/>
-        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
+        <f t="shared" si="17"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="E60" t="s">
         <v>59</v>
@@ -6357,10 +7402,10 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I60" t="s">
         <v>124</v>
@@ -6369,13 +7414,13 @@
         <v>138</v>
       </c>
       <c r="K60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L60" t="s">
         <v>35</v>
       </c>
       <c r="M60" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="N60" t="s">
         <v>36</v>
@@ -6391,74 +7436,99 @@
         <v>21</v>
       </c>
       <c r="R60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S60">
-        <v>502</v>
-      </c>
-      <c r="T60">
-        <v>2022</v>
-      </c>
-      <c r="U60" t="b">
+        <v>103</v>
+      </c>
+      <c r="V60" t="b">
         <v>0</v>
       </c>
-      <c r="V60">
+      <c r="W60">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="18"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="19"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AA60" t="str">
+        <f t="shared" si="20"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AB60" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AC60" t="str">
+        <f t="shared" si="22"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AD60" t="str">
+        <f t="shared" si="23"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AE60" t="str">
+        <f t="shared" si="24"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AF60" t="str">
         <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60" t="str">
-        <f>D61</f>
-        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-      <c r="Y60" t="str">
-        <f>D61</f>
-        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="5" t="str">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AG60" t="str">
+        <f t="shared" si="26"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="3" t="str">
         <f>VLOOKUP(B61,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="24"/>
-        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
       </c>
       <c r="G61" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I61" t="s">
         <v>124</v>
       </c>
       <c r="J61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L61" t="s">
         <v>35</v>
       </c>
       <c r="M61" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="N61" t="s">
         <v>36</v>
@@ -6471,77 +7541,102 @@
       </c>
       <c r="Q61">
         <f>VLOOKUP(E61,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="R61">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S61">
-        <v>503</v>
-      </c>
-      <c r="T61">
-        <v>2023</v>
-      </c>
-      <c r="U61" t="b">
+        <v>104</v>
+      </c>
+      <c r="V61" t="b">
         <v>0</v>
       </c>
-      <c r="V61">
+      <c r="W61">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="18"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="19"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AA61" t="str">
+        <f t="shared" si="20"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AB61" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AC61" t="str">
+        <f t="shared" si="22"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AD61" t="str">
+        <f t="shared" si="23"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AE61" t="str">
+        <f t="shared" si="24"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AF61" t="str">
         <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61" t="str">
-        <f>D62</f>
-        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
-      </c>
-      <c r="Y61" t="str">
-        <f>D62</f>
-        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
-      </c>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="5" t="str">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AG61" t="str">
+        <f t="shared" si="26"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="3" t="str">
         <f>VLOOKUP(B62,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="24"/>
-        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="E62" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H62" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s">
         <v>124</v>
       </c>
       <c r="J62" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L62" t="s">
         <v>35</v>
       </c>
       <c r="M62" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="N62" t="s">
         <v>36</v>
@@ -6554,77 +7649,102 @@
       </c>
       <c r="Q62">
         <f>VLOOKUP(E62,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="R62">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S62">
-        <v>504</v>
-      </c>
-      <c r="T62">
-        <v>2024</v>
-      </c>
-      <c r="U62" t="b">
+        <v>105</v>
+      </c>
+      <c r="V62" t="b">
         <v>0</v>
       </c>
-      <c r="V62">
+      <c r="W62">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="18"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="19"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AA62" t="str">
+        <f t="shared" si="20"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AB62" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AC62" t="str">
+        <f t="shared" si="22"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AD62" t="str">
+        <f t="shared" si="23"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AE62" t="str">
+        <f t="shared" si="24"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AF62" t="str">
         <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62" t="str">
-        <f>D63</f>
-        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-      <c r="Y62" t="str">
-        <f>D63</f>
-        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
-      </c>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="5" t="str">
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AG62" t="str">
+        <f t="shared" si="26"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="3" t="str">
         <f>VLOOKUP(B63,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
+        <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="24"/>
-        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="E63" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="F63" t="s">
         <v>32</v>
       </c>
       <c r="G63" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H63" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="I63" t="s">
         <v>124</v>
       </c>
       <c r="J63" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L63" t="s">
         <v>35</v>
       </c>
       <c r="M63" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="N63" t="s">
         <v>36</v>
@@ -6637,277 +7757,2213 @@
       </c>
       <c r="Q63">
         <f>VLOOKUP(E63,binningRules!$B$6:$C$9,2,0)</f>
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="R63">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S63">
-        <v>505</v>
-      </c>
-      <c r="T63">
-        <v>2025</v>
-      </c>
-      <c r="U63" t="b">
+        <v>106</v>
+      </c>
+      <c r="V63" t="b">
         <v>0</v>
       </c>
-      <c r="V63">
-        <f t="shared" si="25"/>
-        <v>2</v>
-      </c>
       <c r="W63">
-        <v>1</v>
+        <f t="shared" si="27"/>
+        <v>9</v>
       </c>
       <c r="X63">
         <v>1</v>
       </c>
-      <c r="Y63">
+      <c r="Y63" t="str">
+        <f t="shared" si="18"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="19"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AA63" t="str">
+        <f t="shared" si="20"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AB63" t="str">
+        <f t="shared" si="21"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AC63" t="str">
+        <f t="shared" si="22"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AD63" t="str">
+        <f t="shared" si="23"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AE63" t="str">
+        <f t="shared" si="24"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AF63" t="str">
+        <f t="shared" si="25"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AG63" t="str">
+        <f t="shared" si="26"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="3" t="str">
+        <f>VLOOKUP(B64,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="17"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" t="s">
+        <v>138</v>
+      </c>
+      <c r="K64" t="s">
+        <v>56</v>
+      </c>
+      <c r="L64" t="s">
+        <v>35</v>
+      </c>
+      <c r="M64" t="s">
+        <v>88</v>
+      </c>
+      <c r="N64" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64" t="s">
+        <v>37</v>
+      </c>
+      <c r="P64" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64">
+        <f>VLOOKUP(E64,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R64">
+        <v>10</v>
+      </c>
+      <c r="S64">
+        <v>107</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="X64">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
+      <c r="Y64">
+        <v>1</v>
+      </c>
+      <c r="Z64">
+        <v>1</v>
+      </c>
+      <c r="AA64">
+        <v>1</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64">
+        <v>1</v>
+      </c>
+      <c r="AG64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C64" s="5" t="str">
-        <f>VLOOKUP(B64,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="8" t="str">
+      <c r="C65" s="3" t="str">
         <f>VLOOKUP(B65,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D65" t="s">
+    </row>
+    <row r="66" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="7" t="str">
+        <f>VLOOKUP(B66,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="7" t="str">
+        <f>VLOOKUP(B67,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="4" t="str">
+        <f>VLOOKUP(B68,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" ref="D68:D73" si="28">E68&amp;"_"&amp;F68&amp;"_"&amp;G68&amp;"_"&amp;H68&amp;"_"&amp;A68&amp;"_"&amp;I68&amp;"_"&amp;J68&amp;"_"&amp;K68&amp;"_"&amp;L68&amp;"_"&amp;M68</f>
+        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
+      </c>
+      <c r="E68" t="s">
+        <v>31</v>
+      </c>
+      <c r="F68" t="s">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" t="s">
+        <v>51</v>
+      </c>
+      <c r="I68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J68" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68" t="s">
+        <v>55</v>
+      </c>
+      <c r="L68" t="s">
+        <v>35</v>
+      </c>
+      <c r="M68" t="s">
+        <v>57</v>
+      </c>
+      <c r="N68" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68">
+        <f>VLOOKUP(E68,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R68">
+        <v>11</v>
+      </c>
+      <c r="S68">
+        <v>200</v>
+      </c>
+      <c r="T68">
+        <v>2000</v>
+      </c>
+      <c r="V68" t="b">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="shared" ref="W68:W73" si="29">COUNTA(Y68:AH68)</f>
+        <v>2</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68" t="str">
+        <f>D69</f>
+        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+      <c r="Z68" t="str">
+        <f>D69</f>
+        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="4" t="str">
+        <f>VLOOKUP(B69,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="28"/>
+        <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" t="s">
+        <v>124</v>
+      </c>
+      <c r="J69" t="s">
+        <v>139</v>
+      </c>
+      <c r="K69" t="s">
+        <v>55</v>
+      </c>
+      <c r="L69" t="s">
+        <v>35</v>
+      </c>
+      <c r="M69" t="s">
+        <v>58</v>
+      </c>
+      <c r="N69" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69" t="s">
+        <v>37</v>
+      </c>
+      <c r="P69" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q69">
+        <f>VLOOKUP(E69,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R69">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <v>201</v>
+      </c>
+      <c r="T69">
+        <v>2001</v>
+      </c>
+      <c r="V69" t="b">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69" t="str">
+        <f>D70</f>
+        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+      <c r="Z69" t="str">
+        <f>D70</f>
+        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="4" t="str">
+        <f>VLOOKUP(B70,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="28"/>
+        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+      <c r="E70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" t="s">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" t="s">
+        <v>51</v>
+      </c>
+      <c r="I70" t="s">
+        <v>124</v>
+      </c>
+      <c r="J70" t="s">
+        <v>138</v>
+      </c>
+      <c r="K70" t="s">
+        <v>55</v>
+      </c>
+      <c r="L70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M70" t="s">
+        <v>57</v>
+      </c>
+      <c r="N70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O70" t="s">
+        <v>37</v>
+      </c>
+      <c r="P70" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70">
+        <f>VLOOKUP(E70,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R70">
+        <v>11</v>
+      </c>
+      <c r="S70">
+        <v>202</v>
+      </c>
+      <c r="T70">
+        <v>2002</v>
+      </c>
+      <c r="V70" t="b">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70" t="str">
+        <f>D71</f>
+        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="Z70" t="str">
+        <f>D71</f>
+        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="4" t="str">
+        <f>VLOOKUP(B71,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="28"/>
+        <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="E71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" t="s">
+        <v>124</v>
+      </c>
+      <c r="J71" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71" t="s">
+        <v>55</v>
+      </c>
+      <c r="L71" t="s">
+        <v>35</v>
+      </c>
+      <c r="M71" t="s">
+        <v>60</v>
+      </c>
+      <c r="N71" t="s">
+        <v>36</v>
+      </c>
+      <c r="O71" t="s">
+        <v>37</v>
+      </c>
+      <c r="P71" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q71">
+        <f>VLOOKUP(E71,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R71">
+        <v>11</v>
+      </c>
+      <c r="S71">
+        <v>203</v>
+      </c>
+      <c r="T71">
+        <v>2003</v>
+      </c>
+      <c r="V71" t="b">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71" t="str">
+        <f>D72</f>
+        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+      <c r="Z71" t="str">
+        <f>D72</f>
+        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="4" t="str">
+        <f>VLOOKUP(B72,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="28"/>
+        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+      <c r="E72" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" t="s">
+        <v>51</v>
+      </c>
+      <c r="I72" t="s">
+        <v>124</v>
+      </c>
+      <c r="J72" t="s">
+        <v>138</v>
+      </c>
+      <c r="K72" t="s">
+        <v>55</v>
+      </c>
+      <c r="L72" t="s">
+        <v>35</v>
+      </c>
+      <c r="M72" t="s">
+        <v>58</v>
+      </c>
+      <c r="N72" t="s">
+        <v>36</v>
+      </c>
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q72">
+        <f>VLOOKUP(E72,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R72">
+        <v>11</v>
+      </c>
+      <c r="S72">
+        <v>204</v>
+      </c>
+      <c r="T72">
+        <v>2004</v>
+      </c>
+      <c r="V72" t="b">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72" t="str">
+        <f>D73</f>
+        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="Z72" t="str">
+        <f>D73</f>
+        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="4" t="str">
+        <f>VLOOKUP(B73,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="28"/>
+        <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="E73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F73" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" t="s">
+        <v>50</v>
+      </c>
+      <c r="H73" t="s">
+        <v>51</v>
+      </c>
+      <c r="I73" t="s">
+        <v>124</v>
+      </c>
+      <c r="J73" t="s">
+        <v>138</v>
+      </c>
+      <c r="K73" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" t="s">
+        <v>60</v>
+      </c>
+      <c r="N73" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P73" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q73">
+        <f>VLOOKUP(E73,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R73">
+        <v>11</v>
+      </c>
+      <c r="S73">
+        <v>205</v>
+      </c>
+      <c r="T73">
+        <v>2005</v>
+      </c>
+      <c r="V73" t="b">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>1</v>
+      </c>
+      <c r="Z73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="7" t="str">
+        <f>VLOOKUP(B74,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="7" t="str">
+        <f>VLOOKUP(B75,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" s="6" t="str">
+        <f>VLOOKUP(B76,templateLookup!A:B,2,0)</f>
+        <v>PrimeHvqkTestMethod</v>
+      </c>
+      <c r="D76" t="str">
+        <f>E76&amp;"_"&amp;F76&amp;"_"&amp;G76&amp;"_"&amp;H76&amp;"_"&amp;A76&amp;"_"&amp;I76&amp;"_"&amp;J76&amp;"_"&amp;K76&amp;"_"&amp;L76&amp;"_"&amp;M76</f>
+        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_CBO_SBO</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>32</v>
+      </c>
+      <c r="G76" t="s">
+        <v>125</v>
+      </c>
+      <c r="H76" t="s">
+        <v>51</v>
+      </c>
+      <c r="I76" t="s">
+        <v>124</v>
+      </c>
+      <c r="J76" t="s">
+        <v>139</v>
+      </c>
+      <c r="K76" t="s">
+        <v>56</v>
+      </c>
+      <c r="L76" t="s">
+        <v>35</v>
+      </c>
+      <c r="M76" t="s">
+        <v>68</v>
+      </c>
+      <c r="N76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P76" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q76">
+        <v>17</v>
+      </c>
+      <c r="R76">
+        <f>VLOOKUP(E76,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="S76">
+        <v>300</v>
+      </c>
+      <c r="V76" t="b">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" ref="W76:W77" si="30">COUNTA(Y76:AH76)</f>
+        <v>4</v>
+      </c>
+      <c r="X76" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y76" t="str">
+        <f>D77</f>
+        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+      </c>
+      <c r="Z76" t="str">
+        <f>D77</f>
+        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+      </c>
+      <c r="AA76" t="str">
+        <f>D77</f>
+        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+      </c>
+      <c r="AB76" t="str">
+        <f>D77</f>
+        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="6" t="str">
+        <f>VLOOKUP(B77,templateLookup!A:B,2,0)</f>
+        <v>PrimeHvqkTestMethod</v>
+      </c>
+      <c r="D77" t="str">
+        <f>E77&amp;"_"&amp;F77&amp;"_"&amp;G77&amp;"_"&amp;H77&amp;"_"&amp;A77&amp;"_"&amp;I77&amp;"_"&amp;J77&amp;"_"&amp;K77&amp;"_"&amp;L77&amp;"_"&amp;M77</f>
+        <v>ALL_CCF_HVQK_K_STRESS_TITO_CLRSS_MAX_LFM_PMA</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>125</v>
+      </c>
+      <c r="H77" t="s">
+        <v>51</v>
+      </c>
+      <c r="I77" t="s">
+        <v>124</v>
+      </c>
+      <c r="J77" t="s">
+        <v>139</v>
+      </c>
+      <c r="K77" t="s">
+        <v>56</v>
+      </c>
+      <c r="L77" t="s">
+        <v>35</v>
+      </c>
+      <c r="M77" t="s">
+        <v>58</v>
+      </c>
+      <c r="N77" t="s">
+        <v>36</v>
+      </c>
+      <c r="O77" t="s">
+        <v>37</v>
+      </c>
+      <c r="P77" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q77">
+        <v>17</v>
+      </c>
+      <c r="R77">
+        <f>VLOOKUP(E77,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="S77">
+        <v>301</v>
+      </c>
+      <c r="V77" t="b">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="X77" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>1</v>
+      </c>
+      <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C78" s="7" t="str">
+        <f>VLOOKUP(B78,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="7" t="str">
+        <f>VLOOKUP(B79,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="5" t="str">
+        <f>VLOOKUP(B80,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" ref="D80:D85" si="31">E80&amp;"_"&amp;F80&amp;"_"&amp;G80&amp;"_"&amp;H80&amp;"_"&amp;A80&amp;"_"&amp;I80&amp;"_"&amp;J80&amp;"_"&amp;K80&amp;"_"&amp;L80&amp;"_"&amp;M80</f>
+        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80" t="s">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" t="s">
+        <v>51</v>
+      </c>
+      <c r="I80" t="s">
+        <v>124</v>
+      </c>
+      <c r="J80" t="s">
+        <v>139</v>
+      </c>
+      <c r="K80" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" t="s">
+        <v>35</v>
+      </c>
+      <c r="M80" t="s">
+        <v>57</v>
+      </c>
+      <c r="N80" t="s">
+        <v>36</v>
+      </c>
+      <c r="O80" t="s">
+        <v>37</v>
+      </c>
+      <c r="P80" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q80">
+        <v>26</v>
+      </c>
+      <c r="R80">
+        <f>VLOOKUP(E80,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="S80">
+        <v>400</v>
+      </c>
+      <c r="T80">
+        <v>2010</v>
+      </c>
+      <c r="V80" t="b">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f t="shared" ref="W80:W85" si="32">COUNTA(Y80:AH80)</f>
+        <v>2</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80" t="str">
+        <f>D81</f>
+        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+      <c r="Z80" t="str">
+        <f>D81</f>
+        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="5" t="str">
+        <f>VLOOKUP(B81,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="31"/>
+        <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+      <c r="E81" t="s">
+        <v>31</v>
+      </c>
+      <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" t="s">
+        <v>51</v>
+      </c>
+      <c r="I81" t="s">
+        <v>124</v>
+      </c>
+      <c r="J81" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81" t="s">
+        <v>55</v>
+      </c>
+      <c r="L81" t="s">
+        <v>35</v>
+      </c>
+      <c r="M81" t="s">
+        <v>58</v>
+      </c>
+      <c r="N81" t="s">
+        <v>36</v>
+      </c>
+      <c r="O81" t="s">
+        <v>37</v>
+      </c>
+      <c r="P81" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q81">
+        <v>26</v>
+      </c>
+      <c r="R81">
+        <f>VLOOKUP(E81,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="S81">
+        <v>401</v>
+      </c>
+      <c r="T81">
+        <v>2011</v>
+      </c>
+      <c r="V81" t="b">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81" t="str">
+        <f>D82</f>
+        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+      <c r="Z81" t="str">
+        <f>D82</f>
+        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="5" t="str">
+        <f>VLOOKUP(B82,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="31"/>
+        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+      <c r="E82" t="s">
+        <v>59</v>
+      </c>
+      <c r="F82" t="s">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" t="s">
+        <v>51</v>
+      </c>
+      <c r="I82" t="s">
+        <v>124</v>
+      </c>
+      <c r="J82" t="s">
+        <v>138</v>
+      </c>
+      <c r="K82" t="s">
+        <v>55</v>
+      </c>
+      <c r="L82" t="s">
+        <v>35</v>
+      </c>
+      <c r="M82" t="s">
+        <v>57</v>
+      </c>
+      <c r="N82" t="s">
+        <v>36</v>
+      </c>
+      <c r="O82" t="s">
+        <v>37</v>
+      </c>
+      <c r="P82" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q82">
+        <v>26</v>
+      </c>
+      <c r="R82">
+        <f>VLOOKUP(E82,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="S82">
+        <v>402</v>
+      </c>
+      <c r="T82">
+        <v>2012</v>
+      </c>
+      <c r="V82" t="b">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X82">
+        <v>1</v>
+      </c>
+      <c r="Y82" t="str">
+        <f>D83</f>
+        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="Z82" t="str">
+        <f>D83</f>
+        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f>VLOOKUP(B83,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="31"/>
+        <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="E83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" t="s">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s">
+        <v>50</v>
+      </c>
+      <c r="H83" t="s">
+        <v>51</v>
+      </c>
+      <c r="I83" t="s">
+        <v>124</v>
+      </c>
+      <c r="J83" t="s">
+        <v>138</v>
+      </c>
+      <c r="K83" t="s">
+        <v>55</v>
+      </c>
+      <c r="L83" t="s">
+        <v>35</v>
+      </c>
+      <c r="M83" t="s">
+        <v>60</v>
+      </c>
+      <c r="N83" t="s">
+        <v>36</v>
+      </c>
+      <c r="O83" t="s">
+        <v>37</v>
+      </c>
+      <c r="P83" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q83">
+        <v>26</v>
+      </c>
+      <c r="R83">
+        <f>VLOOKUP(E83,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="S83">
+        <v>403</v>
+      </c>
+      <c r="T83">
+        <v>2013</v>
+      </c>
+      <c r="V83" t="b">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X83">
+        <v>1</v>
+      </c>
+      <c r="Y83" t="str">
+        <f>D84</f>
+        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+      <c r="Z83" t="str">
+        <f>D84</f>
+        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="5" t="str">
+        <f>VLOOKUP(B84,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="31"/>
+        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+      <c r="E84" t="s">
+        <v>61</v>
+      </c>
+      <c r="F84" t="s">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>50</v>
+      </c>
+      <c r="H84" t="s">
+        <v>51</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+      <c r="J84" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84" t="s">
+        <v>55</v>
+      </c>
+      <c r="L84" t="s">
+        <v>35</v>
+      </c>
+      <c r="M84" t="s">
+        <v>58</v>
+      </c>
+      <c r="N84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" t="s">
+        <v>37</v>
+      </c>
+      <c r="P84" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q84">
+        <v>26</v>
+      </c>
+      <c r="R84">
+        <f>VLOOKUP(E84,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="S84">
+        <v>404</v>
+      </c>
+      <c r="T84">
+        <v>2014</v>
+      </c>
+      <c r="V84" t="b">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X84">
+        <v>1</v>
+      </c>
+      <c r="Y84" t="str">
+        <f>D85</f>
+        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="Z84" t="str">
+        <f>D85</f>
+        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f>VLOOKUP(B85,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="31"/>
+        <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="E85" t="s">
+        <v>61</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>50</v>
+      </c>
+      <c r="H85" t="s">
+        <v>51</v>
+      </c>
+      <c r="I85" t="s">
+        <v>124</v>
+      </c>
+      <c r="J85" t="s">
+        <v>138</v>
+      </c>
+      <c r="K85" t="s">
+        <v>55</v>
+      </c>
+      <c r="L85" t="s">
+        <v>35</v>
+      </c>
+      <c r="M85" t="s">
+        <v>60</v>
+      </c>
+      <c r="N85" t="s">
+        <v>36</v>
+      </c>
+      <c r="O85" t="s">
+        <v>37</v>
+      </c>
+      <c r="P85" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q85">
+        <v>26</v>
+      </c>
+      <c r="R85">
+        <f>VLOOKUP(E85,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="S85">
+        <v>405</v>
+      </c>
+      <c r="T85">
+        <v>2015</v>
+      </c>
+      <c r="V85" t="b">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+      <c r="X85">
+        <v>1</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="7" t="str">
+        <f>VLOOKUP(B86,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="7" t="str">
+        <f>VLOOKUP(B87,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="5" t="str">
+        <f>VLOOKUP(B88,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D88" t="s">
+        <v>66</v>
+      </c>
+      <c r="W88">
+        <f t="shared" ref="W88" si="33">COUNTA(Y88:AH88)</f>
+        <v>2</v>
+      </c>
+      <c r="X88">
+        <v>1</v>
+      </c>
+      <c r="Y88" t="str">
+        <f>D96</f>
+        <v>VMAX</v>
+      </c>
+      <c r="Z88" t="str">
+        <f>D96</f>
+        <v>VMAX</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="5" t="str">
+        <f>VLOOKUP(B89,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" ref="D89:D94" si="34">E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;"_"&amp;A89&amp;"_"&amp;I89&amp;"_"&amp;J89&amp;"_"&amp;K89&amp;"_"&amp;L89&amp;"_"&amp;M89</f>
+        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_CBO</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" t="s">
+        <v>35</v>
+      </c>
+      <c r="M89" t="s">
+        <v>57</v>
+      </c>
+      <c r="N89" t="s">
+        <v>36</v>
+      </c>
+      <c r="O89" t="s">
+        <v>37</v>
+      </c>
+      <c r="P89" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q89">
+        <f>VLOOKUP(E89,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R89">
+        <v>12</v>
+      </c>
+      <c r="S89">
+        <v>500</v>
+      </c>
+      <c r="T89">
+        <v>2020</v>
+      </c>
+      <c r="V89" t="b">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <f t="shared" ref="W89:W94" si="35">COUNTA(Y89:AH89)</f>
+        <v>2</v>
+      </c>
+      <c r="X89">
+        <v>1</v>
+      </c>
+      <c r="Y89" t="str">
+        <f>D90</f>
+        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+      <c r="Z89" t="str">
+        <f>D90</f>
+        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="5" t="str">
+        <f>VLOOKUP(B90,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="34"/>
+        <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
+      </c>
+      <c r="E90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" t="s">
+        <v>32</v>
+      </c>
+      <c r="G90" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J90" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" t="s">
+        <v>35</v>
+      </c>
+      <c r="M90" t="s">
+        <v>58</v>
+      </c>
+      <c r="N90" t="s">
+        <v>36</v>
+      </c>
+      <c r="O90" t="s">
+        <v>37</v>
+      </c>
+      <c r="P90" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q90">
+        <f>VLOOKUP(E90,binningRules!$B$6:$C$9,2,0)</f>
+        <v>61</v>
+      </c>
+      <c r="R90">
+        <v>12</v>
+      </c>
+      <c r="S90">
+        <v>501</v>
+      </c>
+      <c r="T90">
+        <v>2021</v>
+      </c>
+      <c r="V90" t="b">
+        <v>0</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="X90">
+        <v>1</v>
+      </c>
+      <c r="Y90" t="str">
+        <f>D91</f>
+        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+      <c r="Z90" t="str">
+        <f>D91</f>
+        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="5" t="str">
+        <f>VLOOKUP(B91,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="34"/>
+        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
+      </c>
+      <c r="E91" t="s">
+        <v>59</v>
+      </c>
+      <c r="F91" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+      <c r="J91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K91" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" t="s">
+        <v>35</v>
+      </c>
+      <c r="M91" t="s">
+        <v>57</v>
+      </c>
+      <c r="N91" t="s">
+        <v>36</v>
+      </c>
+      <c r="O91" t="s">
+        <v>37</v>
+      </c>
+      <c r="P91" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q91">
+        <f>VLOOKUP(E91,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R91">
+        <v>12</v>
+      </c>
+      <c r="S91">
+        <v>502</v>
+      </c>
+      <c r="T91">
+        <v>2022</v>
+      </c>
+      <c r="V91" t="b">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91" t="str">
+        <f>D92</f>
+        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="Z91" t="str">
+        <f>D92</f>
+        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="5" t="str">
+        <f>VLOOKUP(B92,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="34"/>
+        <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="E92" t="s">
+        <v>59</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" t="s">
+        <v>51</v>
+      </c>
+      <c r="I92" t="s">
+        <v>124</v>
+      </c>
+      <c r="J92" t="s">
+        <v>138</v>
+      </c>
+      <c r="K92" t="s">
+        <v>55</v>
+      </c>
+      <c r="L92" t="s">
+        <v>35</v>
+      </c>
+      <c r="M92" t="s">
+        <v>60</v>
+      </c>
+      <c r="N92" t="s">
+        <v>36</v>
+      </c>
+      <c r="O92" t="s">
+        <v>37</v>
+      </c>
+      <c r="P92" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q92">
+        <f>VLOOKUP(E92,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R92">
+        <v>12</v>
+      </c>
+      <c r="S92">
+        <v>503</v>
+      </c>
+      <c r="T92">
+        <v>2023</v>
+      </c>
+      <c r="V92" t="b">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="X92">
+        <v>1</v>
+      </c>
+      <c r="Y92" t="str">
+        <f>D93</f>
+        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+      <c r="Z92" t="str">
+        <f>D93</f>
+        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="5" t="str">
+        <f>VLOOKUP(B93,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="34"/>
+        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
+      </c>
+      <c r="E93" t="s">
+        <v>61</v>
+      </c>
+      <c r="F93" t="s">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" t="s">
+        <v>51</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+      <c r="J93" t="s">
+        <v>138</v>
+      </c>
+      <c r="K93" t="s">
+        <v>55</v>
+      </c>
+      <c r="L93" t="s">
+        <v>35</v>
+      </c>
+      <c r="M93" t="s">
+        <v>58</v>
+      </c>
+      <c r="N93" t="s">
+        <v>36</v>
+      </c>
+      <c r="O93" t="s">
+        <v>37</v>
+      </c>
+      <c r="P93" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q93">
+        <f>VLOOKUP(E93,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R93">
+        <v>12</v>
+      </c>
+      <c r="S93">
+        <v>504</v>
+      </c>
+      <c r="T93">
+        <v>2024</v>
+      </c>
+      <c r="V93" t="b">
+        <v>0</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+      <c r="Y93" t="str">
+        <f>D94</f>
+        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="Z93" t="str">
+        <f>D94</f>
+        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C94" s="5" t="str">
+        <f>VLOOKUP(B94,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="34"/>
+        <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
+      </c>
+      <c r="E94" t="s">
+        <v>61</v>
+      </c>
+      <c r="F94" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+      <c r="J94" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94" t="s">
+        <v>55</v>
+      </c>
+      <c r="L94" t="s">
+        <v>35</v>
+      </c>
+      <c r="M94" t="s">
+        <v>60</v>
+      </c>
+      <c r="N94" t="s">
+        <v>36</v>
+      </c>
+      <c r="O94" t="s">
+        <v>37</v>
+      </c>
+      <c r="P94" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q94">
+        <f>VLOOKUP(E94,binningRules!$B$6:$C$9,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="R94">
+        <v>12</v>
+      </c>
+      <c r="S94">
+        <v>505</v>
+      </c>
+      <c r="T94">
+        <v>2025</v>
+      </c>
+      <c r="V94" t="b">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+      <c r="X94">
+        <v>1</v>
+      </c>
+      <c r="Y94">
+        <v>1</v>
+      </c>
+      <c r="Z94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <f>VLOOKUP(B95,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="8" t="str">
+        <f>VLOOKUP(B96,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D96" t="s">
         <v>67</v>
       </c>
-      <c r="V65">
-        <f t="shared" ref="V65" si="26">COUNTA(X65:AG65)</f>
+      <c r="W96">
+        <f t="shared" ref="W96" si="36">COUNTA(Y96:AH96)</f>
         <v>2</v>
       </c>
-      <c r="W65">
+      <c r="X96">
         <v>1</v>
       </c>
-      <c r="X65">
+      <c r="Y96">
         <v>1</v>
       </c>
-      <c r="Y65">
+      <c r="Z96">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C66" s="8" t="str">
-        <f>VLOOKUP(B66,templateLookup!A:B,2,0)</f>
+      <c r="C97" s="8" t="str">
+        <f>VLOOKUP(B97,templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
-      <c r="D66" t="str">
-        <f>E66&amp;"_"&amp;F66&amp;"_"&amp;G66&amp;"_"&amp;H66&amp;"_"&amp;A66&amp;"_"&amp;I66&amp;"_"&amp;J66&amp;"_"&amp;K66&amp;"_"&amp;L66&amp;"_"&amp;M66</f>
+      <c r="D97" t="str">
+        <f>E97&amp;"_"&amp;F97&amp;"_"&amp;G97&amp;"_"&amp;H97&amp;"_"&amp;A97&amp;"_"&amp;I97&amp;"_"&amp;J97&amp;"_"&amp;K97&amp;"_"&amp;L97&amp;"_"&amp;M97</f>
         <v>SSA_CCF_SB_K_END_TITO_CLRSS_MIN_LFM_CBO</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E97" t="s">
         <v>31</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F97" t="s">
         <v>32</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G97" t="s">
         <v>126</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H97" t="s">
         <v>51</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I97" t="s">
         <v>124</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J97" t="s">
         <v>139</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K97" t="s">
         <v>55</v>
       </c>
-      <c r="L66" t="s">
+      <c r="L97" t="s">
         <v>35</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M97" t="s">
         <v>57</v>
       </c>
-      <c r="N66" t="s">
+      <c r="N97" t="s">
         <v>36</v>
       </c>
-      <c r="O66" t="s">
+      <c r="O97" t="s">
         <v>37</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P97" t="s">
         <v>38</v>
       </c>
-      <c r="Q66">
+      <c r="Q97">
         <v>17</v>
       </c>
-      <c r="R66">
+      <c r="R97">
         <v>13</v>
       </c>
-      <c r="S66">
+      <c r="S97">
         <v>600</v>
       </c>
-      <c r="T66">
+      <c r="T97">
         <v>2030</v>
       </c>
-      <c r="U66" t="b">
+      <c r="V97" t="b">
         <v>0</v>
       </c>
-      <c r="V66">
-        <f t="shared" ref="V66:V67" si="27">COUNTA(X66:AG66)</f>
+      <c r="W97">
+        <f t="shared" ref="W97:W98" si="37">COUNTA(Y97:AH97)</f>
         <v>2</v>
       </c>
-      <c r="W66">
+      <c r="X97">
         <v>1</v>
       </c>
-      <c r="X66" t="str">
-        <f>D67</f>
+      <c r="Y97" t="str">
+        <f>D98</f>
         <v>SSA_CCF_SB_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
-      <c r="Y66" t="str">
-        <f>D67</f>
+      <c r="Z97" t="str">
+        <f>D98</f>
         <v>SSA_CCF_SB_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f>VLOOKUP(B67,templateLookup!A:B,2,0)</f>
+      <c r="C98" s="8" t="str">
+        <f>VLOOKUP(B98,templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
-      <c r="D67" t="str">
-        <f>E67&amp;"_"&amp;F67&amp;"_"&amp;G67&amp;"_"&amp;H67&amp;"_"&amp;A67&amp;"_"&amp;I67&amp;"_"&amp;J67&amp;"_"&amp;K67&amp;"_"&amp;L67&amp;"_"&amp;M67</f>
+      <c r="D98" t="str">
+        <f>E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;"_"&amp;A98&amp;"_"&amp;I98&amp;"_"&amp;J98&amp;"_"&amp;K98&amp;"_"&amp;L98&amp;"_"&amp;M98</f>
         <v>SSA_CCF_SB_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E98" t="s">
         <v>31</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F98" t="s">
         <v>32</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G98" t="s">
         <v>126</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H98" t="s">
         <v>51</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I98" t="s">
         <v>124</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J98" t="s">
         <v>139</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K98" t="s">
         <v>55</v>
       </c>
-      <c r="L67" t="s">
+      <c r="L98" t="s">
         <v>35</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M98" t="s">
         <v>58</v>
       </c>
-      <c r="N67" t="s">
+      <c r="N98" t="s">
         <v>36</v>
       </c>
-      <c r="O67" t="s">
+      <c r="O98" t="s">
         <v>37</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P98" t="s">
         <v>38</v>
       </c>
-      <c r="Q67">
+      <c r="Q98">
         <v>17</v>
       </c>
-      <c r="R67">
+      <c r="R98">
         <v>13</v>
       </c>
-      <c r="S67">
+      <c r="S98">
         <v>601</v>
       </c>
-      <c r="T67">
+      <c r="T98">
         <v>2031</v>
       </c>
-      <c r="U67" t="b">
+      <c r="V98" t="b">
         <v>0</v>
       </c>
-      <c r="V67">
-        <f t="shared" si="27"/>
+      <c r="W98">
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
-      <c r="W67">
+      <c r="X98">
         <v>1</v>
       </c>
-      <c r="X67">
+      <c r="Y98">
         <v>1</v>
       </c>
-      <c r="Y67">
+      <c r="Z98">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B99" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="8" t="str">
-        <f>VLOOKUP(B68,templateLookup!A:B,2,0)</f>
+      <c r="C99" s="8" t="str">
+        <f>VLOOKUP(B99,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
-    <row r="69" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="100" spans="1:26" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B100" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="7" t="str">
-        <f>VLOOKUP(B69,templateLookup!A:B,2,0)</f>
+      <c r="C100" s="7" t="str">
+        <f>VLOOKUP(B100,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>92</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B101" t="s">
         <v>93</v>
       </c>
-      <c r="C70" t="str">
-        <f>VLOOKUP(B70,templateLookup!A:B,2,0)</f>
+      <c r="C101" t="str">
+        <f>VLOOKUP(B101,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D101" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG70" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:AH101" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE90E5B-0CB0-413E-A10C-D7ED6C4BA75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E347848-835C-4F73-8966-1FB2959BF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
     <sheet name="binningRules" sheetId="4" r:id="rId2"/>
     <sheet name="arr_ccf" sheetId="2" r:id="rId3"/>
+    <sheet name="arr_atom" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">arr_atom!$A$1:$AN$115</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">arr_ccf!$A$1:$AH$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="292">
   <si>
     <t>Flow</t>
   </si>
@@ -605,13 +607,322 @@
   </si>
   <si>
     <t>SLL1SARR</t>
+  </si>
+  <si>
+    <t>VCCL2</t>
+  </si>
+  <si>
+    <t>iCCapturePacketsTest</t>
+  </si>
+  <si>
+    <t>capturePackets</t>
+  </si>
+  <si>
+    <t>pbistRepair</t>
+  </si>
+  <si>
+    <t>iCRepairTest</t>
+  </si>
+  <si>
+    <t>pbistRepair2Fuse</t>
+  </si>
+  <si>
+    <t>iCHSRTest</t>
+  </si>
+  <si>
+    <t>NOM</t>
+  </si>
+  <si>
+    <t>CAPTURE</t>
+  </si>
+  <si>
+    <t>L2_DAT_CAPTURE</t>
+  </si>
+  <si>
+    <t>L2_DAT_REPAIR</t>
+  </si>
+  <si>
+    <t>L2_DAT_REPAIR_TO_FUSE</t>
+  </si>
+  <si>
+    <t>L2_ALL_PRE_HRY</t>
+  </si>
+  <si>
+    <t>L2_SSA_NOM_REP</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>L2_C6S_CAPTURE</t>
+  </si>
+  <si>
+    <t>L2_C6S_REPAIR</t>
+  </si>
+  <si>
+    <t>L2_C6S_REPAIR_TO_FUSE</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>L2_TSP_CAPTURE</t>
+  </si>
+  <si>
+    <t>L2_TSP_REPAIR</t>
+  </si>
+  <si>
+    <t>L2_TSP_REPAIR_TO_FUSE</t>
+  </si>
+  <si>
+    <t>L2_ALL</t>
+  </si>
+  <si>
+    <t>L2_ALL_VFDM</t>
+  </si>
+  <si>
+    <t>L2_ALL_VFDM_APPLY</t>
+  </si>
+  <si>
+    <t>L2_ALL_FUSE</t>
+  </si>
+  <si>
+    <t>L2_ALL_POST_HRY</t>
+  </si>
+  <si>
+    <t>REP_FLAG_L2_NOM</t>
+  </si>
+  <si>
+    <t>L2_SSA_MIN_REP</t>
+  </si>
+  <si>
+    <t>L2_ALL_VFDM_MIN</t>
+  </si>
+  <si>
+    <t>L2_ALL_VFDM_APPLY_MIN</t>
+  </si>
+  <si>
+    <t>L2_ALL_FUSE_MIN</t>
+  </si>
+  <si>
+    <t>REP_FLAG_L2_MIN</t>
+  </si>
+  <si>
+    <t>L2_LRU_PRE_HRY</t>
+  </si>
+  <si>
+    <t>L2_LRU_CAPTURE</t>
+  </si>
+  <si>
+    <t>L2_LRU_REPAIR</t>
+  </si>
+  <si>
+    <t>L2_LRU_REPAIR_TO_FUSE</t>
+  </si>
+  <si>
+    <t>L2_LRU_MIN_REP</t>
+  </si>
+  <si>
+    <t>L2_LRU_NOM_REP</t>
+  </si>
+  <si>
+    <t>REP_FLAG_L2</t>
+  </si>
+  <si>
+    <t>RF_NOM_REP</t>
+  </si>
+  <si>
+    <t>VCCATOM</t>
+  </si>
+  <si>
+    <t>pbistLsaHry</t>
+  </si>
+  <si>
+    <t>pbistLsaRaster</t>
+  </si>
+  <si>
+    <t>PrimeLSARasterTestMethod</t>
+  </si>
+  <si>
+    <t>RF_PRE_HRY</t>
+  </si>
+  <si>
+    <t>RF_RASTER</t>
+  </si>
+  <si>
+    <t>RF_REPAIR</t>
+  </si>
+  <si>
+    <t>RF_REPAIR_TO_FUSE</t>
+  </si>
+  <si>
+    <t>AUX</t>
+  </si>
+  <si>
+    <t>RF_VFDM</t>
+  </si>
+  <si>
+    <t>RF_VFDM_APPLY</t>
+  </si>
+  <si>
+    <t>RF_FUSE</t>
+  </si>
+  <si>
+    <t>RF_POST_HRY</t>
+  </si>
+  <si>
+    <t>REP_FLAG_RF</t>
+  </si>
+  <si>
+    <t>L2_LRU_VFDM_MIN</t>
+  </si>
+  <si>
+    <t>L2_LRU_VFDM_APPLY_MIN</t>
+  </si>
+  <si>
+    <t>L2_LRU_FUSE_MIN</t>
+  </si>
+  <si>
+    <t>L2_LRU_POST_HRY</t>
+  </si>
+  <si>
+    <t>L2_LRU_VFDM</t>
+  </si>
+  <si>
+    <t>L2_LRU_VFDM_APPLY</t>
+  </si>
+  <si>
+    <t>L2_LRU_FUSE</t>
+  </si>
+  <si>
+    <t>RF_MIN_REP</t>
+  </si>
+  <si>
+    <t>REP_FLAG_RF_MIN</t>
+  </si>
+  <si>
+    <t>RF_VFDM_MIN</t>
+  </si>
+  <si>
+    <t>RF_VFDM_APPLY_MIN</t>
+  </si>
+  <si>
+    <t>RF_FUSE_MIN</t>
+  </si>
+  <si>
+    <t>RF_NON_REPAIRABLE</t>
+  </si>
+  <si>
+    <t>RF_NON_REP_HRY</t>
+  </si>
+  <si>
+    <t>RF_NON_REP_RASTER</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>LSA_ROM</t>
+  </si>
+  <si>
+    <t>L2_LRU</t>
+  </si>
+  <si>
+    <t>RF_ALL</t>
+  </si>
+  <si>
+    <t>SSKTR</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>resultToken</t>
+  </si>
+  <si>
+    <t>G.U.S.DEFECTREPAIR_ATOM</t>
+  </si>
+  <si>
+    <t>G.U.S.DEFECTREPAIR_ATOM_VMIN</t>
+  </si>
+  <si>
+    <t>AuxiliaryTC</t>
+  </si>
+  <si>
+    <t>repairTag</t>
+  </si>
+  <si>
+    <t>bypassGlobal</t>
+  </si>
+  <si>
+    <t>L2DAT</t>
+  </si>
+  <si>
+    <t>L2C6S</t>
+  </si>
+  <si>
+    <t>L2TSP</t>
+  </si>
+  <si>
+    <t>L2LRU</t>
+  </si>
+  <si>
+    <t>ATOMRF</t>
+  </si>
+  <si>
+    <t>repairLabel</t>
+  </si>
+  <si>
+    <t>l2dat</t>
+  </si>
+  <si>
+    <t>l2c6</t>
+  </si>
+  <si>
+    <t>l2tsp</t>
+  </si>
+  <si>
+    <t>l2lru</t>
+  </si>
+  <si>
+    <t>modeOfDecoding</t>
+  </si>
+  <si>
+    <t>raster(module0)</t>
+  </si>
+  <si>
+    <t>lsaraster</t>
+  </si>
+  <si>
+    <t>corerfall</t>
+  </si>
+  <si>
+    <t>rasterDataLog</t>
+  </si>
+  <si>
+    <t>T-File</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>hsrPre</t>
+  </si>
+  <si>
+    <t>hsrPost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,8 +1057,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -987,6 +1304,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1200,7 +1529,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -1227,6 +1556,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1582,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335B2182-EA68-41EA-9EA9-384E14E7AACA}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1639,7 +1971,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -1648,7 +1980,7 @@
       <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -1657,7 +1989,7 @@
       <c r="C7" s="12"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -1668,7 +2000,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -1679,7 +2011,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1690,7 +2022,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1698,6 +2030,86 @@
       </c>
       <c r="C11" s="12" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1709,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8E28AB-C6A9-4AC0-A975-B939A492DE78}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2187,10 +2599,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="R99" sqref="R99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2198,13 +2610,14 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.5703125" customWidth="1"/>
+    <col min="4" max="4" width="83.5703125" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" customWidth="1"/>
     <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -5673,8 +6086,9 @@
       <c r="B39" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>154</v>
+      <c r="C39" s="2" t="str">
+        <f>VLOOKUP(B39,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D39" t="str">
         <f>E39&amp;"_"&amp;F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;"_"&amp;A39&amp;"_"&amp;I39&amp;"_"&amp;J39&amp;"_"&amp;K39&amp;"_"&amp;L39&amp;"_"&amp;M39</f>
@@ -5758,8 +6172,9 @@
       <c r="B40" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>154</v>
+      <c r="C40" s="2" t="str">
+        <f>VLOOKUP(B40,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D40" t="str">
         <f>E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;"_"&amp;A40&amp;"_"&amp;I40&amp;"_"&amp;J40&amp;"_"&amp;K40&amp;"_"&amp;L40&amp;"_"&amp;M40</f>
@@ -5843,8 +6258,9 @@
       <c r="B41" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>154</v>
+      <c r="C41" s="2" t="str">
+        <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D41" t="str">
         <f>E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;"_"&amp;A41&amp;"_"&amp;I41&amp;"_"&amp;J41&amp;"_"&amp;K41&amp;"_"&amp;L41&amp;"_"&amp;M41</f>
@@ -5928,8 +6344,9 @@
       <c r="B42" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>154</v>
+      <c r="C42" s="2" t="str">
+        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" ref="D42:D53" si="14">E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
@@ -6013,8 +6430,9 @@
       <c r="B43" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>154</v>
+      <c r="C43" s="2" t="str">
+        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="14"/>
@@ -6098,8 +6516,9 @@
       <c r="B44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>154</v>
+      <c r="C44" s="2" t="str">
+        <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="14"/>
@@ -6183,8 +6602,9 @@
       <c r="B45" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>154</v>
+      <c r="C45" s="2" t="str">
+        <f>VLOOKUP(B45,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" ref="D45" si="15">E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
@@ -6268,8 +6688,9 @@
       <c r="B46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>154</v>
+      <c r="C46" s="2" t="str">
+        <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D46" t="str">
         <f>E46&amp;"_"&amp;F46&amp;"_"&amp;G46&amp;"_"&amp;H46&amp;"_"&amp;A46&amp;"_"&amp;I46&amp;"_"&amp;J46&amp;"_"&amp;K46&amp;"_"&amp;L46&amp;"_"&amp;M46</f>
@@ -6353,8 +6774,9 @@
       <c r="B47" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>154</v>
+      <c r="C47" s="2" t="str">
+        <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D47" t="str">
         <f>E47&amp;"_"&amp;F47&amp;"_"&amp;G47&amp;"_"&amp;H47&amp;"_"&amp;A47&amp;"_"&amp;I47&amp;"_"&amp;J47&amp;"_"&amp;K47&amp;"_"&amp;L47&amp;"_"&amp;M47</f>
@@ -6438,8 +6860,9 @@
       <c r="B48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>154</v>
+      <c r="C48" s="2" t="str">
+        <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D48" t="str">
         <f>E48&amp;"_"&amp;F48&amp;"_"&amp;G48&amp;"_"&amp;H48&amp;"_"&amp;A48&amp;"_"&amp;I48&amp;"_"&amp;J48&amp;"_"&amp;K48&amp;"_"&amp;L48&amp;"_"&amp;M48</f>
@@ -6523,8 +6946,9 @@
       <c r="B49" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>154</v>
+      <c r="C49" s="2" t="str">
+        <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="14"/>
@@ -6608,8 +7032,9 @@
       <c r="B50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>154</v>
+      <c r="C50" s="2" t="str">
+        <f>VLOOKUP(B50,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="14"/>
@@ -6693,8 +7118,9 @@
       <c r="B51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>154</v>
+      <c r="C51" s="2" t="str">
+        <f>VLOOKUP(B51,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="14"/>
@@ -6778,8 +7204,9 @@
       <c r="B52" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>154</v>
+      <c r="C52" s="2" t="str">
+        <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" ref="D52" si="16">E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
@@ -6863,8 +7290,9 @@
       <c r="B53" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>155</v>
+      <c r="C53" s="2" t="str">
+        <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="14"/>
@@ -9816,7 +10244,7 @@
         <v>17</v>
       </c>
       <c r="R97">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="S97">
         <v>600</v>
@@ -9898,7 +10326,7 @@
         <v>17</v>
       </c>
       <c r="R98">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="S98">
         <v>601</v>
@@ -9966,4 +10394,8619 @@
   <autoFilter ref="A1:AH101" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
+  <dimension ref="A1:AN115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="27" width="9.140625" customWidth="1"/>
+    <col min="31" max="31" width="25.42578125" customWidth="1"/>
+    <col min="32" max="32" width="28.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" t="s">
+        <v>266</v>
+      </c>
+      <c r="W1" t="s">
+        <v>271</v>
+      </c>
+      <c r="X1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7" t="str">
+        <f>VLOOKUP(B3,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
+      <c r="AF3" s="7"/>
+      <c r="AG3" s="7"/>
+      <c r="AH3" s="7"/>
+      <c r="AI3" s="7"/>
+      <c r="AJ3" s="7"/>
+      <c r="AK3" s="7"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(B4,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC4">
+        <f>COUNTA(AE4:AN4)</f>
+        <v>3</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" t="str">
+        <f>D38</f>
+        <v>L2_LRU_NOM_REP</v>
+      </c>
+      <c r="AF4" t="str">
+        <f>D21</f>
+        <v>L2_SSA_MIN_REP</v>
+      </c>
+      <c r="AG4" t="str">
+        <f>D38</f>
+        <v>L2_LRU_NOM_REP</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>VLOOKUP(B5,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:D8" si="0">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_ALL_PRE_HRY</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5">
+        <v>60</v>
+      </c>
+      <c r="R5">
+        <v>60</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f>COUNTA(AE5:AN5)</f>
+        <v>4</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE5" t="str">
+        <f>D6</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_CAPTURE</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="str">
+        <f>D6</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_CAPTURE</v>
+      </c>
+      <c r="AH5" t="str">
+        <f>D6</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_CAPTURE</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(B6,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_CAPTURE</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6">
+        <v>60</v>
+      </c>
+      <c r="R6">
+        <v>60</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC8" si="1">COUNTA(AE6:AN6)</f>
+        <v>3</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE6" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AF6" t="str">
+        <f>D7</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_REPAIR</v>
+      </c>
+      <c r="AG6" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(B7,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_REPAIR</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>199</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7">
+        <v>60</v>
+      </c>
+      <c r="R7">
+        <v>60</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="X7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE7" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AF7" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AG7" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AH7" t="str">
+        <f>D8</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI7" t="str">
+        <f>D8</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ7" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>VLOOKUP(B8,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_DAT_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" t="s">
+        <v>200</v>
+      </c>
+      <c r="N8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8">
+        <v>60</v>
+      </c>
+      <c r="R8">
+        <v>60</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE8" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AF8" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AG8" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AH8" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AI8" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AJ8" t="str">
+        <f>D9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>VLOOKUP(B9,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:D11" si="2">E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;"_"&amp;A9&amp;"_"&amp;I9&amp;"_"&amp;J9&amp;"_"&amp;K9&amp;"_"&amp;L9&amp;"_"&amp;M9</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" t="s">
+        <v>204</v>
+      </c>
+      <c r="N9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9">
+        <v>60</v>
+      </c>
+      <c r="R9">
+        <v>60</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="X9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ref="AC9:AC19" si="3">COUNTA(AE9:AN9)</f>
+        <v>3</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE9" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AF9" t="str">
+        <f>D10</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_REPAIR</v>
+      </c>
+      <c r="AG9" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>VLOOKUP(B10,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_REPAIR</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10">
+        <v>60</v>
+      </c>
+      <c r="R10">
+        <v>60</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="X10" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE10" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AF10" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AG10" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AH10" t="str">
+        <f>D11</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI10" t="str">
+        <f>D11</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ10" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>VLOOKUP(B11,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_C6S_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+      <c r="L11" t="s">
+        <v>35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11">
+        <v>60</v>
+      </c>
+      <c r="R11">
+        <v>60</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE11" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AF11" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AG11" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AH11" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AI11" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AJ11" t="str">
+        <f>D12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>VLOOKUP(B12,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ref="D12:D16" si="4">E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;"_"&amp;A12&amp;"_"&amp;I12&amp;"_"&amp;J12&amp;"_"&amp;K12&amp;"_"&amp;L12&amp;"_"&amp;M12</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" t="s">
+        <v>208</v>
+      </c>
+      <c r="N12" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12">
+        <v>60</v>
+      </c>
+      <c r="R12">
+        <v>60</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="X12" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE12" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AF12" t="str">
+        <f>D13</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_REPAIR</v>
+      </c>
+      <c r="AG12" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>VLOOKUP(B13,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_REPAIR</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" t="s">
+        <v>196</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13">
+        <v>60</v>
+      </c>
+      <c r="R13">
+        <v>60</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE13" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AF13" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AG13" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AH13" t="str">
+        <f>D14</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI13" t="str">
+        <f>D14</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ13" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>VLOOKUP(B14,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_TSP_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" t="s">
+        <v>35</v>
+      </c>
+      <c r="M14" t="s">
+        <v>210</v>
+      </c>
+      <c r="N14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14">
+        <v>60</v>
+      </c>
+      <c r="R14">
+        <v>60</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="X14" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE14" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AF14" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AG14" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AH14" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AI14" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="AJ14" t="str">
+        <f>D15</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>VLOOKUP(B15,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>212</v>
+      </c>
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15">
+        <v>60</v>
+      </c>
+      <c r="R15">
+        <v>60</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="U15" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE15" t="str">
+        <f>D18</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="AF15" t="str">
+        <f>D16</f>
+        <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY</v>
+      </c>
+      <c r="AG15" t="str">
+        <f>D16</f>
+        <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>VLOOKUP(B16,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>213</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16">
+        <v>60</v>
+      </c>
+      <c r="R16">
+        <v>60</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16" t="str">
+        <f>D18</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="AF16" t="str">
+        <f>D17</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE</v>
+      </c>
+      <c r="AG16" t="str">
+        <f>D17</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>VLOOKUP(B17,templateLookup!A:B,2,0)</f>
+        <v>PrimePatConfigTestMethod</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17:D18" si="5">E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;"_"&amp;A17&amp;"_"&amp;I17&amp;"_"&amp;J17&amp;"_"&amp;K17&amp;"_"&amp;L17&amp;"_"&amp;M17</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>214</v>
+      </c>
+      <c r="N17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17">
+        <v>60</v>
+      </c>
+      <c r="R17">
+        <v>60</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="str">
+        <f>D18</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="AF17" t="str">
+        <f>D18</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_ALL_POST_HRY</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f>VLOOKUP(B18,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_NOM_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>124</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>196</v>
+      </c>
+      <c r="L18" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18">
+        <v>60</v>
+      </c>
+      <c r="R18">
+        <v>60</v>
+      </c>
+      <c r="S18">
+        <v>13</v>
+      </c>
+      <c r="AB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE18">
+        <v>2</v>
+      </c>
+      <c r="AF18" t="str">
+        <f>D19</f>
+        <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_NOM</v>
+      </c>
+      <c r="AG18">
+        <v>2</v>
+      </c>
+      <c r="AH18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f>VLOOKUP(B19,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19" si="6">E19&amp;"_"&amp;F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;"_"&amp;A19&amp;"_"&amp;I19&amp;"_"&amp;J19&amp;"_"&amp;K19&amp;"_"&amp;L19&amp;"_"&amp;M19</f>
+        <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_NOM</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>216</v>
+      </c>
+      <c r="N19" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19">
+        <v>60</v>
+      </c>
+      <c r="R19">
+        <v>60</v>
+      </c>
+      <c r="S19">
+        <v>14</v>
+      </c>
+      <c r="U19" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f>VLOOKUP(B20,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="18" t="str">
+        <f>VLOOKUP(B21,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC21">
+        <f>COUNTA(AE21:AN21)</f>
+        <v>3</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE21" t="str">
+        <f>D38</f>
+        <v>L2_LRU_NOM_REP</v>
+      </c>
+      <c r="AF21" t="str">
+        <f>D38</f>
+        <v>L2_LRU_NOM_REP</v>
+      </c>
+      <c r="AG21" t="str">
+        <f>D38</f>
+        <v>L2_LRU_NOM_REP</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C22" s="18" t="str">
+        <f>VLOOKUP(B22,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ref="D22:D36" si="7">E22&amp;"_"&amp;F22&amp;"_"&amp;G22&amp;"_"&amp;H22&amp;"_"&amp;A22&amp;"_"&amp;I22&amp;"_"&amp;J22&amp;"_"&amp;K22&amp;"_"&amp;L22&amp;"_"&amp;M22</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_ALL_PRE_HRY</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" t="s">
+        <v>124</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M22" t="s">
+        <v>201</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22">
+        <v>60</v>
+      </c>
+      <c r="R22">
+        <v>60</v>
+      </c>
+      <c r="S22">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <f>COUNTA(AE22:AN22)</f>
+        <v>4</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE22" t="str">
+        <f>D23</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_CAPTURE</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22" t="str">
+        <f>D23</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_CAPTURE</v>
+      </c>
+      <c r="AH22" t="str">
+        <f>D23</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_CAPTURE</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="18" t="str">
+        <f>VLOOKUP(B23,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_CAPTURE</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M23" t="s">
+        <v>198</v>
+      </c>
+      <c r="N23" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23">
+        <v>60</v>
+      </c>
+      <c r="R23">
+        <v>60</v>
+      </c>
+      <c r="S23">
+        <v>21</v>
+      </c>
+      <c r="X23" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" ref="AC23:AC36" si="8">COUNTA(AE23:AN23)</f>
+        <v>3</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE23" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AF23" t="str">
+        <f>D24</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_REPAIR</v>
+      </c>
+      <c r="AG23" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" s="18" t="str">
+        <f>VLOOKUP(B24,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_REPAIR</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="J24" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" t="s">
+        <v>35</v>
+      </c>
+      <c r="M24" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24">
+        <v>60</v>
+      </c>
+      <c r="R24">
+        <v>60</v>
+      </c>
+      <c r="S24">
+        <v>22</v>
+      </c>
+      <c r="X24" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE24" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AF24" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AG24" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AH24" t="str">
+        <f>D25</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI24" t="str">
+        <f>D25</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ24" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="18" t="str">
+        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_DAT_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" t="s">
+        <v>200</v>
+      </c>
+      <c r="N25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25">
+        <v>60</v>
+      </c>
+      <c r="R25">
+        <v>60</v>
+      </c>
+      <c r="S25">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE25" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AF25" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AG25" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AH25" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AI25" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="AJ25" t="str">
+        <f>D26</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="18" t="str">
+        <f>VLOOKUP(B26,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_CAPTURE</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>55</v>
+      </c>
+      <c r="L26" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" t="s">
+        <v>204</v>
+      </c>
+      <c r="N26" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26">
+        <v>60</v>
+      </c>
+      <c r="R26">
+        <v>60</v>
+      </c>
+      <c r="S26">
+        <v>24</v>
+      </c>
+      <c r="X26" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE26" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AF26" t="str">
+        <f>D27</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_REPAIR</v>
+      </c>
+      <c r="AG26" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C27" s="18" t="str">
+        <f>VLOOKUP(B27,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_REPAIR</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M27" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27">
+        <v>60</v>
+      </c>
+      <c r="R27">
+        <v>60</v>
+      </c>
+      <c r="S27">
+        <v>25</v>
+      </c>
+      <c r="X27" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE27" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AF27" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AG27" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AH27" t="str">
+        <f>D28</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI27" t="str">
+        <f>D28</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ27" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="18" t="str">
+        <f>VLOOKUP(B28,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_C6S_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>189</v>
+      </c>
+      <c r="K28" t="s">
+        <v>55</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="M28" t="s">
+        <v>206</v>
+      </c>
+      <c r="N28" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28">
+        <v>60</v>
+      </c>
+      <c r="R28">
+        <v>60</v>
+      </c>
+      <c r="S28">
+        <v>26</v>
+      </c>
+      <c r="X28" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AF28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AG28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AH28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AI28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="AJ28" t="str">
+        <f>D29</f>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="18" t="str">
+        <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_CAPTURE</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" t="s">
+        <v>189</v>
+      </c>
+      <c r="K29" t="s">
+        <v>55</v>
+      </c>
+      <c r="L29" t="s">
+        <v>35</v>
+      </c>
+      <c r="M29" t="s">
+        <v>208</v>
+      </c>
+      <c r="N29" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29">
+        <v>60</v>
+      </c>
+      <c r="R29">
+        <v>60</v>
+      </c>
+      <c r="S29">
+        <v>27</v>
+      </c>
+      <c r="X29" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE29" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AF29" t="str">
+        <f>D30</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_REPAIR</v>
+      </c>
+      <c r="AG29" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="18" t="str">
+        <f>VLOOKUP(B30,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_REPAIR</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>189</v>
+      </c>
+      <c r="K30" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" t="s">
+        <v>209</v>
+      </c>
+      <c r="N30" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30">
+        <v>60</v>
+      </c>
+      <c r="R30">
+        <v>60</v>
+      </c>
+      <c r="S30">
+        <v>28</v>
+      </c>
+      <c r="X30" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE30" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AF30" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AG30" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AH30" t="str">
+        <f>D31</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI30" t="str">
+        <f>D31</f>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ30" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="18" t="str">
+        <f>VLOOKUP(B31,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_TSP_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" t="s">
+        <v>189</v>
+      </c>
+      <c r="K31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" t="s">
+        <v>35</v>
+      </c>
+      <c r="M31" t="s">
+        <v>210</v>
+      </c>
+      <c r="N31" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31">
+        <v>60</v>
+      </c>
+      <c r="R31">
+        <v>60</v>
+      </c>
+      <c r="S31">
+        <v>29</v>
+      </c>
+      <c r="X31" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE31" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AF31" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AG31" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AH31" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AI31" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="AJ31" t="str">
+        <f>D32</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="18" t="str">
+        <f>VLOOKUP(B32,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" t="s">
+        <v>218</v>
+      </c>
+      <c r="N32" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32">
+        <v>60</v>
+      </c>
+      <c r="R32">
+        <v>60</v>
+      </c>
+      <c r="S32">
+        <v>30</v>
+      </c>
+      <c r="U32" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE32" t="str">
+        <f>D35</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="AF32" t="str">
+        <f>D33</f>
+        <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY_MIN</v>
+      </c>
+      <c r="AG32" t="str">
+        <f>D33</f>
+        <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY_MIN</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="18" t="str">
+        <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY_MIN</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" t="s">
+        <v>6</v>
+      </c>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" t="s">
+        <v>219</v>
+      </c>
+      <c r="N33" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q33">
+        <v>60</v>
+      </c>
+      <c r="R33">
+        <v>60</v>
+      </c>
+      <c r="S33">
+        <v>31</v>
+      </c>
+      <c r="AB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33" t="str">
+        <f>D35</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="AF33" t="str">
+        <f>D34</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE_MIN</v>
+      </c>
+      <c r="AG33" t="str">
+        <f>D34</f>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE_MIN</v>
+      </c>
+    </row>
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="18" t="str">
+        <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
+        <v>PrimePatConfigTestMethod</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE_MIN</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" t="s">
+        <v>220</v>
+      </c>
+      <c r="N34" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34">
+        <v>60</v>
+      </c>
+      <c r="R34">
+        <v>60</v>
+      </c>
+      <c r="S34">
+        <v>32</v>
+      </c>
+      <c r="AB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34" t="str">
+        <f>D35</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="AF34" t="str">
+        <f>D35</f>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_ALL_POST_HRY</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="18" t="str">
+        <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_HRY_E_BEGIN_TITO_VCCL2_MIN_LFM_L2_ALL_POST_HRY</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" t="s">
+        <v>189</v>
+      </c>
+      <c r="K35" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" t="s">
+        <v>35</v>
+      </c>
+      <c r="M35" t="s">
+        <v>215</v>
+      </c>
+      <c r="N35" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35">
+        <v>60</v>
+      </c>
+      <c r="R35">
+        <v>60</v>
+      </c>
+      <c r="S35">
+        <v>33</v>
+      </c>
+      <c r="AB35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE35">
+        <v>2</v>
+      </c>
+      <c r="AF35" t="str">
+        <f>D36</f>
+        <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_MIN</v>
+      </c>
+      <c r="AG35">
+        <v>2</v>
+      </c>
+      <c r="AH35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C36" s="18" t="str">
+        <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_MIN</v>
+      </c>
+      <c r="E36" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" t="s">
+        <v>6</v>
+      </c>
+      <c r="K36" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" t="s">
+        <v>221</v>
+      </c>
+      <c r="N36" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36">
+        <v>60</v>
+      </c>
+      <c r="R36">
+        <v>60</v>
+      </c>
+      <c r="S36">
+        <v>34</v>
+      </c>
+      <c r="U36" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE36">
+        <v>2</v>
+      </c>
+      <c r="AF36">
+        <v>1</v>
+      </c>
+      <c r="AG36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="18" t="str">
+        <f>VLOOKUP(B37,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>VLOOKUP(B38,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D38" t="s">
+        <v>227</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC38">
+        <f>COUNTA(AE38:AN38)</f>
+        <v>3</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE38" t="str">
+        <f>D60</f>
+        <v>RF_NOM_REP</v>
+      </c>
+      <c r="AF38" t="str">
+        <f>D49</f>
+        <v>L2_LRU_MIN_REP</v>
+      </c>
+      <c r="AG38" t="str">
+        <f>D60</f>
+        <v>RF_NOM_REP</v>
+      </c>
+    </row>
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f>VLOOKUP(B39,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" ref="D39:D47" si="9">E39&amp;"_"&amp;F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;"_"&amp;A39&amp;"_"&amp;I39&amp;"_"&amp;J39&amp;"_"&amp;K39&amp;"_"&amp;L39&amp;"_"&amp;M39</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_PRE_HRY</v>
+      </c>
+      <c r="E39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39" t="s">
+        <v>196</v>
+      </c>
+      <c r="L39" t="s">
+        <v>35</v>
+      </c>
+      <c r="M39" t="s">
+        <v>222</v>
+      </c>
+      <c r="N39" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q39">
+        <v>20</v>
+      </c>
+      <c r="R39">
+        <v>60</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <f>COUNTA(AE39:AN39)</f>
+        <v>4</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE39" t="str">
+        <f>D40</f>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_CAPTURE</v>
+      </c>
+      <c r="AF39">
+        <v>1</v>
+      </c>
+      <c r="AG39" t="str">
+        <f>D40</f>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_CAPTURE</v>
+      </c>
+      <c r="AH39" t="str">
+        <f>D40</f>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_CAPTURE</v>
+      </c>
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f>VLOOKUP(B40,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_CAPTURE</v>
+      </c>
+      <c r="E40" t="s">
+        <v>59</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>124</v>
+      </c>
+      <c r="J40" t="s">
+        <v>230</v>
+      </c>
+      <c r="K40" t="s">
+        <v>196</v>
+      </c>
+      <c r="L40" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" t="s">
+        <v>223</v>
+      </c>
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40">
+        <v>20</v>
+      </c>
+      <c r="R40">
+        <v>60</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="X40" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" ref="AC40:AC47" si="10">COUNTA(AE40:AN40)</f>
+        <v>3</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE40" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF40" t="str">
+        <f>D41</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_REPAIR</v>
+      </c>
+      <c r="AG40" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_POST_HRY</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="6" t="str">
+        <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_REPAIR</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F41" t="s">
+        <v>109</v>
+      </c>
+      <c r="G41" t="s">
+        <v>29</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>124</v>
+      </c>
+      <c r="J41" t="s">
+        <v>230</v>
+      </c>
+      <c r="K41" t="s">
+        <v>196</v>
+      </c>
+      <c r="L41" t="s">
+        <v>35</v>
+      </c>
+      <c r="M41" t="s">
+        <v>224</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q41">
+        <v>20</v>
+      </c>
+      <c r="R41">
+        <v>60</v>
+      </c>
+      <c r="S41">
+        <v>2</v>
+      </c>
+      <c r="X41" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE41" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AF41" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AG41" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AH41" t="str">
+        <f>D42</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI41" t="str">
+        <f>D42</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ41" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="6" t="str">
+        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" t="s">
+        <v>230</v>
+      </c>
+      <c r="K42" t="s">
+        <v>196</v>
+      </c>
+      <c r="L42" t="s">
+        <v>35</v>
+      </c>
+      <c r="M42" t="s">
+        <v>225</v>
+      </c>
+      <c r="N42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42">
+        <v>20</v>
+      </c>
+      <c r="R42">
+        <v>60</v>
+      </c>
+      <c r="S42">
+        <v>3</v>
+      </c>
+      <c r="X42" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE42" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AF42" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AG42" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AH42" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AI42" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="AJ42" t="str">
+        <f>D43</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" t="s">
+        <v>140</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" t="s">
+        <v>6</v>
+      </c>
+      <c r="K43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" t="s">
+        <v>248</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43">
+        <v>20</v>
+      </c>
+      <c r="R43">
+        <v>60</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="U43" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE43" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF43" t="str">
+        <f>D44</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY</v>
+      </c>
+      <c r="AG43" t="str">
+        <f>D44</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="6" t="str">
+        <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>249</v>
+      </c>
+      <c r="N44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44">
+        <v>20</v>
+      </c>
+      <c r="R44">
+        <v>60</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF44" t="str">
+        <f>D45</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE</v>
+      </c>
+      <c r="AG44" t="str">
+        <f>D45</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="6" t="str">
+        <f>VLOOKUP(B45,templateLookup!A:B,2,0)</f>
+        <v>PrimePatConfigTestMethod</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G45" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" t="s">
+        <v>6</v>
+      </c>
+      <c r="K45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" t="s">
+        <v>250</v>
+      </c>
+      <c r="N45" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45">
+        <v>20</v>
+      </c>
+      <c r="R45">
+        <v>60</v>
+      </c>
+      <c r="S45">
+        <v>6</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF45" t="str">
+        <f>D46</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_POST_HRY</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="6" t="str">
+        <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>124</v>
+      </c>
+      <c r="J46" t="s">
+        <v>230</v>
+      </c>
+      <c r="K46" t="s">
+        <v>196</v>
+      </c>
+      <c r="L46" t="s">
+        <v>35</v>
+      </c>
+      <c r="M46" t="s">
+        <v>247</v>
+      </c>
+      <c r="N46" t="s">
+        <v>36</v>
+      </c>
+      <c r="O46" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q46">
+        <v>20</v>
+      </c>
+      <c r="R46">
+        <v>60</v>
+      </c>
+      <c r="S46">
+        <v>7</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE46">
+        <v>2</v>
+      </c>
+      <c r="AF46" t="str">
+        <f>D47</f>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2</v>
+      </c>
+      <c r="AG46">
+        <v>2</v>
+      </c>
+      <c r="AH46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="6" t="str">
+        <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G47" t="s">
+        <v>238</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>6</v>
+      </c>
+      <c r="J47" t="s">
+        <v>6</v>
+      </c>
+      <c r="K47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" t="s">
+        <v>228</v>
+      </c>
+      <c r="N47" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q47">
+        <v>20</v>
+      </c>
+      <c r="R47">
+        <v>60</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="U47" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE47">
+        <v>2</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="6" t="str">
+        <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="19" t="str">
+        <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC49">
+        <f>COUNTA(AE49:AN49)</f>
+        <v>3</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE49" t="str">
+        <f>D60</f>
+        <v>RF_NOM_REP</v>
+      </c>
+      <c r="AF49" t="str">
+        <f>D60</f>
+        <v>RF_NOM_REP</v>
+      </c>
+      <c r="AG49" t="str">
+        <f>D60</f>
+        <v>RF_NOM_REP</v>
+      </c>
+    </row>
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" s="19" t="str">
+        <f>VLOOKUP(B50,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" ref="D50:D58" si="11">E50&amp;"_"&amp;F50&amp;"_"&amp;G50&amp;"_"&amp;H50&amp;"_"&amp;A50&amp;"_"&amp;I50&amp;"_"&amp;J50&amp;"_"&amp;K50&amp;"_"&amp;L50&amp;"_"&amp;M50</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_PRE_HRY</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s">
+        <v>124</v>
+      </c>
+      <c r="J50" t="s">
+        <v>230</v>
+      </c>
+      <c r="K50" t="s">
+        <v>55</v>
+      </c>
+      <c r="L50" t="s">
+        <v>35</v>
+      </c>
+      <c r="M50" t="s">
+        <v>222</v>
+      </c>
+      <c r="N50" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q50">
+        <v>20</v>
+      </c>
+      <c r="R50">
+        <v>60</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f>COUNTA(AE50:AN50)</f>
+        <v>4</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE50" t="str">
+        <f>D51</f>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_CAPTURE</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="str">
+        <f>D51</f>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_CAPTURE</v>
+      </c>
+      <c r="AH50" t="str">
+        <f>D51</f>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_CAPTURE</v>
+      </c>
+    </row>
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="19" t="str">
+        <f>VLOOKUP(B51,templateLookup!A:B,2,0)</f>
+        <v>iCCapturePacketsTest</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_CAPTURE</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" t="s">
+        <v>230</v>
+      </c>
+      <c r="K51" t="s">
+        <v>55</v>
+      </c>
+      <c r="L51" t="s">
+        <v>35</v>
+      </c>
+      <c r="M51" t="s">
+        <v>223</v>
+      </c>
+      <c r="N51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" t="s">
+        <v>37</v>
+      </c>
+      <c r="P51" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q51">
+        <v>20</v>
+      </c>
+      <c r="R51">
+        <v>60</v>
+      </c>
+      <c r="S51">
+        <v>11</v>
+      </c>
+      <c r="X51" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" ref="AC51:AC58" si="12">COUNTA(AE51:AN51)</f>
+        <v>3</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE51" t="str">
+        <f>D57</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF51" t="str">
+        <f>D52</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_REPAIR</v>
+      </c>
+      <c r="AG51" t="str">
+        <f>D57</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_POST_HRY</v>
+      </c>
+    </row>
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="19" t="str">
+        <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_REPAIR</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s">
+        <v>124</v>
+      </c>
+      <c r="J52" t="s">
+        <v>230</v>
+      </c>
+      <c r="K52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" t="s">
+        <v>35</v>
+      </c>
+      <c r="M52" t="s">
+        <v>224</v>
+      </c>
+      <c r="N52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
+      </c>
+      <c r="R52">
+        <v>60</v>
+      </c>
+      <c r="S52">
+        <v>12</v>
+      </c>
+      <c r="X52" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE52" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AF52" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AG52" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AH52" t="str">
+        <f>D53</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI52" t="str">
+        <f>D53</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ52" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="19" t="str">
+        <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>124</v>
+      </c>
+      <c r="J53" t="s">
+        <v>230</v>
+      </c>
+      <c r="K53" t="s">
+        <v>55</v>
+      </c>
+      <c r="L53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M53" t="s">
+        <v>225</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" t="s">
+        <v>37</v>
+      </c>
+      <c r="P53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q53">
+        <v>20</v>
+      </c>
+      <c r="R53">
+        <v>60</v>
+      </c>
+      <c r="S53">
+        <v>13</v>
+      </c>
+      <c r="X53" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE53" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AF53" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AG53" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AH53" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AI53" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="AJ53" t="str">
+        <f>D54</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="19" t="str">
+        <f>VLOOKUP(B54,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" t="s">
+        <v>244</v>
+      </c>
+      <c r="N54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>60</v>
+      </c>
+      <c r="S54">
+        <v>14</v>
+      </c>
+      <c r="U54" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE54" t="str">
+        <f>D57</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF54" t="str">
+        <f>D55</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY_MIN</v>
+      </c>
+      <c r="AG54" t="str">
+        <f>D55</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY_MIN</v>
+      </c>
+    </row>
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="19" t="str">
+        <f>VLOOKUP(B55,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY_MIN</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>109</v>
+      </c>
+      <c r="G55" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s">
+        <v>6</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>6</v>
+      </c>
+      <c r="L55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>245</v>
+      </c>
+      <c r="N55" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+      <c r="R55">
+        <v>60</v>
+      </c>
+      <c r="S55">
+        <v>15</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55" t="str">
+        <f>D57</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF55" t="str">
+        <f>D56</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE_MIN</v>
+      </c>
+      <c r="AG55" t="str">
+        <f>D56</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE_MIN</v>
+      </c>
+    </row>
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="19" t="str">
+        <f>VLOOKUP(B56,templateLookup!A:B,2,0)</f>
+        <v>PrimePatConfigTestMethod</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE_MIN</v>
+      </c>
+      <c r="E56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
+        <v>140</v>
+      </c>
+      <c r="H56" t="s">
+        <v>34</v>
+      </c>
+      <c r="I56" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" t="s">
+        <v>6</v>
+      </c>
+      <c r="M56" t="s">
+        <v>246</v>
+      </c>
+      <c r="N56" t="s">
+        <v>36</v>
+      </c>
+      <c r="O56" t="s">
+        <v>37</v>
+      </c>
+      <c r="P56" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q56">
+        <v>20</v>
+      </c>
+      <c r="R56">
+        <v>60</v>
+      </c>
+      <c r="S56">
+        <v>16</v>
+      </c>
+      <c r="AB56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56" t="str">
+        <f>D57</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="AF56" t="str">
+        <f>D57</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_POST_HRY</v>
+      </c>
+    </row>
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="19" t="str">
+        <f>VLOOKUP(B57,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_L2_LRU_POST_HRY</v>
+      </c>
+      <c r="E57" t="s">
+        <v>59</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" t="s">
+        <v>124</v>
+      </c>
+      <c r="J57" t="s">
+        <v>230</v>
+      </c>
+      <c r="K57" t="s">
+        <v>55</v>
+      </c>
+      <c r="L57" t="s">
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
+        <v>247</v>
+      </c>
+      <c r="N57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O57" t="s">
+        <v>37</v>
+      </c>
+      <c r="P57" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q57">
+        <v>20</v>
+      </c>
+      <c r="R57">
+        <v>60</v>
+      </c>
+      <c r="S57">
+        <v>17</v>
+      </c>
+      <c r="AB57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE57">
+        <v>2</v>
+      </c>
+      <c r="AF57" t="str">
+        <f>D58</f>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_MIN</v>
+      </c>
+      <c r="AG57">
+        <v>2</v>
+      </c>
+      <c r="AH57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" s="19" t="str">
+        <f>VLOOKUP(B58,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_MIN</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+      <c r="F58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G58" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" t="s">
+        <v>6</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" t="s">
+        <v>221</v>
+      </c>
+      <c r="N58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" t="s">
+        <v>37</v>
+      </c>
+      <c r="P58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q58">
+        <v>20</v>
+      </c>
+      <c r="R58">
+        <v>60</v>
+      </c>
+      <c r="S58">
+        <v>18</v>
+      </c>
+      <c r="U58" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE58">
+        <v>2</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="19" t="str">
+        <f>VLOOKUP(B59,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="8" t="str">
+        <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D60" t="s">
+        <v>229</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC60">
+        <f>COUNTA(AE60:AN60)</f>
+        <v>3</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE60" t="str">
+        <f>D82</f>
+        <v>RF_NON_REPAIRABLE</v>
+      </c>
+      <c r="AF60" t="str">
+        <f>D71</f>
+        <v>RF_MIN_REP</v>
+      </c>
+      <c r="AG60" t="str">
+        <f>D82</f>
+        <v>RF_NON_REPAIRABLE</v>
+      </c>
+    </row>
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="8" t="str">
+        <f>VLOOKUP(B61,templateLookup!A:B,2,0)</f>
+        <v>PrimeLSARasterTestMethod</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" ref="D61:D69" si="13">E61&amp;"_"&amp;F61&amp;"_"&amp;G61&amp;"_"&amp;H61&amp;"_"&amp;A61&amp;"_"&amp;I61&amp;"_"&amp;J61&amp;"_"&amp;K61&amp;"_"&amp;L61&amp;"_"&amp;M61</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_PRE_HRY</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s">
+        <v>124</v>
+      </c>
+      <c r="J61" t="s">
+        <v>230</v>
+      </c>
+      <c r="K61" t="s">
+        <v>196</v>
+      </c>
+      <c r="L61" t="s">
+        <v>35</v>
+      </c>
+      <c r="M61" t="s">
+        <v>234</v>
+      </c>
+      <c r="N61" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q61">
+        <v>20</v>
+      </c>
+      <c r="R61">
+        <v>60</v>
+      </c>
+      <c r="S61">
+        <v>20</v>
+      </c>
+      <c r="X61" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA61" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <f>COUNTA(AE61:AN61)</f>
+        <v>4</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE61" t="str">
+        <f>D62</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_RASTER</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61" t="str">
+        <f>D62</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_RASTER</v>
+      </c>
+      <c r="AH61" t="str">
+        <f>D62</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_RASTER</v>
+      </c>
+    </row>
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="8" t="str">
+        <f>VLOOKUP(B62,templateLookup!A:B,2,0)</f>
+        <v>PrimeLSARasterTestMethod</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_RASTER</v>
+      </c>
+      <c r="E62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F62" t="s">
+        <v>109</v>
+      </c>
+      <c r="G62" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s">
+        <v>124</v>
+      </c>
+      <c r="J62" t="s">
+        <v>230</v>
+      </c>
+      <c r="K62" t="s">
+        <v>196</v>
+      </c>
+      <c r="L62" t="s">
+        <v>35</v>
+      </c>
+      <c r="M62" t="s">
+        <v>235</v>
+      </c>
+      <c r="N62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P62" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q62">
+        <v>20</v>
+      </c>
+      <c r="R62">
+        <v>60</v>
+      </c>
+      <c r="S62">
+        <v>21</v>
+      </c>
+      <c r="X62" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA62" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" ref="AC62:AC69" si="14">COUNTA(AE62:AN62)</f>
+        <v>3</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE62" t="str">
+        <f>D68</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF62" t="str">
+        <f>D63</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_REPAIR</v>
+      </c>
+      <c r="AG62" t="str">
+        <f>D68</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_POST_HRY</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="8" t="str">
+        <f>VLOOKUP(B63,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_REPAIR</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>109</v>
+      </c>
+      <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" t="s">
+        <v>230</v>
+      </c>
+      <c r="K63" t="s">
+        <v>196</v>
+      </c>
+      <c r="L63" t="s">
+        <v>35</v>
+      </c>
+      <c r="M63" t="s">
+        <v>236</v>
+      </c>
+      <c r="N63" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63" t="s">
+        <v>37</v>
+      </c>
+      <c r="P63" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q63">
+        <v>20</v>
+      </c>
+      <c r="R63">
+        <v>60</v>
+      </c>
+      <c r="S63">
+        <v>22</v>
+      </c>
+      <c r="X63" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE63" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AF63" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AG63" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AH63" t="str">
+        <f>D64</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI63" t="str">
+        <f>D64</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ63" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="8" t="str">
+        <f>VLOOKUP(B64,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E64" t="s">
+        <v>59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>109</v>
+      </c>
+      <c r="G64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>124</v>
+      </c>
+      <c r="J64" t="s">
+        <v>230</v>
+      </c>
+      <c r="K64" t="s">
+        <v>196</v>
+      </c>
+      <c r="L64" t="s">
+        <v>35</v>
+      </c>
+      <c r="M64" t="s">
+        <v>237</v>
+      </c>
+      <c r="N64" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64" t="s">
+        <v>37</v>
+      </c>
+      <c r="P64" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64">
+        <v>20</v>
+      </c>
+      <c r="R64">
+        <v>60</v>
+      </c>
+      <c r="S64">
+        <v>23</v>
+      </c>
+      <c r="X64" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE64" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AF64" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AG64" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AH64" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AI64" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="AJ64" t="str">
+        <f>D65</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="8" t="str">
+        <f>VLOOKUP(B65,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
+      </c>
+      <c r="E65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" t="s">
+        <v>140</v>
+      </c>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s">
+        <v>6</v>
+      </c>
+      <c r="J65" t="s">
+        <v>6</v>
+      </c>
+      <c r="K65" t="s">
+        <v>6</v>
+      </c>
+      <c r="L65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" t="s">
+        <v>239</v>
+      </c>
+      <c r="N65" t="s">
+        <v>36</v>
+      </c>
+      <c r="O65" t="s">
+        <v>37</v>
+      </c>
+      <c r="P65" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q65">
+        <v>20</v>
+      </c>
+      <c r="R65">
+        <v>60</v>
+      </c>
+      <c r="S65">
+        <v>24</v>
+      </c>
+      <c r="U65" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE65" t="str">
+        <f>D68</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF65" t="str">
+        <f>D66</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY</v>
+      </c>
+      <c r="AG65" t="str">
+        <f>D66</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="8" t="str">
+        <f>VLOOKUP(B66,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY</v>
+      </c>
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" t="s">
+        <v>157</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" t="s">
+        <v>240</v>
+      </c>
+      <c r="N66" t="s">
+        <v>36</v>
+      </c>
+      <c r="O66" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q66">
+        <v>20</v>
+      </c>
+      <c r="R66">
+        <v>60</v>
+      </c>
+      <c r="S66">
+        <v>25</v>
+      </c>
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66" t="str">
+        <f>D68</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF66" t="str">
+        <f>D67</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE</v>
+      </c>
+      <c r="AG66" t="str">
+        <f>D67</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE</v>
+      </c>
+    </row>
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="8" t="str">
+        <f>VLOOKUP(B67,templateLookup!A:B,2,0)</f>
+        <v>PrimePatConfigTestMethod</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE</v>
+      </c>
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" t="s">
+        <v>6</v>
+      </c>
+      <c r="L67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" t="s">
+        <v>241</v>
+      </c>
+      <c r="N67" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" t="s">
+        <v>37</v>
+      </c>
+      <c r="P67" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q67">
+        <v>20</v>
+      </c>
+      <c r="R67">
+        <v>60</v>
+      </c>
+      <c r="S67">
+        <v>26</v>
+      </c>
+      <c r="AB67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67" t="str">
+        <f>D68</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF67" t="str">
+        <f>D68</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_POST_HRY</v>
+      </c>
+    </row>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="8" t="str">
+        <f>VLOOKUP(B68,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="E68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s">
+        <v>124</v>
+      </c>
+      <c r="J68" t="s">
+        <v>230</v>
+      </c>
+      <c r="K68" t="s">
+        <v>196</v>
+      </c>
+      <c r="L68" t="s">
+        <v>35</v>
+      </c>
+      <c r="M68" t="s">
+        <v>242</v>
+      </c>
+      <c r="N68" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68">
+        <v>20</v>
+      </c>
+      <c r="R68">
+        <v>60</v>
+      </c>
+      <c r="S68">
+        <v>27</v>
+      </c>
+      <c r="AB68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE68">
+        <v>2</v>
+      </c>
+      <c r="AF68" t="str">
+        <f>D69</f>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_RF</v>
+      </c>
+      <c r="AG68">
+        <v>2</v>
+      </c>
+      <c r="AH68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C69" s="8" t="str">
+        <f>VLOOKUP(B69,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="13"/>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_RF</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" t="s">
+        <v>238</v>
+      </c>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s">
+        <v>6</v>
+      </c>
+      <c r="J69" t="s">
+        <v>6</v>
+      </c>
+      <c r="K69" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69" t="s">
+        <v>243</v>
+      </c>
+      <c r="N69" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69" t="s">
+        <v>37</v>
+      </c>
+      <c r="P69" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q69">
+        <v>20</v>
+      </c>
+      <c r="R69">
+        <v>60</v>
+      </c>
+      <c r="S69">
+        <v>28</v>
+      </c>
+      <c r="U69" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE69">
+        <v>2</v>
+      </c>
+      <c r="AF69">
+        <v>1</v>
+      </c>
+      <c r="AG69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="8" t="str">
+        <f>VLOOKUP(B70,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="6" t="str">
+        <f>VLOOKUP(B71,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D71" t="s">
+        <v>251</v>
+      </c>
+      <c r="F71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC71">
+        <f>COUNTA(AE71:AN71)</f>
+        <v>3</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE71" t="str">
+        <f>D82</f>
+        <v>RF_NON_REPAIRABLE</v>
+      </c>
+      <c r="AF71" t="str">
+        <f>D82</f>
+        <v>RF_NON_REPAIRABLE</v>
+      </c>
+      <c r="AG71" t="str">
+        <f>D82</f>
+        <v>RF_NON_REPAIRABLE</v>
+      </c>
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="6" t="str">
+        <f>VLOOKUP(B72,templateLookup!A:B,2,0)</f>
+        <v>PrimeLSARasterTestMethod</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" ref="D72:D80" si="15">E72&amp;"_"&amp;F72&amp;"_"&amp;G72&amp;"_"&amp;H72&amp;"_"&amp;A72&amp;"_"&amp;I72&amp;"_"&amp;J72&amp;"_"&amp;K72&amp;"_"&amp;L72&amp;"_"&amp;M72</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_PRE_HRY</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>124</v>
+      </c>
+      <c r="J72" t="s">
+        <v>230</v>
+      </c>
+      <c r="K72" t="s">
+        <v>55</v>
+      </c>
+      <c r="L72" t="s">
+        <v>35</v>
+      </c>
+      <c r="M72" t="s">
+        <v>234</v>
+      </c>
+      <c r="N72" t="s">
+        <v>36</v>
+      </c>
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q72">
+        <v>20</v>
+      </c>
+      <c r="R72">
+        <v>60</v>
+      </c>
+      <c r="S72">
+        <v>30</v>
+      </c>
+      <c r="X72" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA72" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <f>COUNTA(AE72:AN72)</f>
+        <v>4</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE72" t="str">
+        <f>D73</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_RASTER</v>
+      </c>
+      <c r="AF72">
+        <v>1</v>
+      </c>
+      <c r="AG72" t="str">
+        <f>D73</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_RASTER</v>
+      </c>
+      <c r="AH72" t="str">
+        <f>D73</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_RASTER</v>
+      </c>
+    </row>
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="6" t="str">
+        <f>VLOOKUP(B73,templateLookup!A:B,2,0)</f>
+        <v>PrimeLSARasterTestMethod</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_RASTER</v>
+      </c>
+      <c r="E73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" t="s">
+        <v>41</v>
+      </c>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s">
+        <v>124</v>
+      </c>
+      <c r="J73" t="s">
+        <v>230</v>
+      </c>
+      <c r="K73" t="s">
+        <v>55</v>
+      </c>
+      <c r="L73" t="s">
+        <v>35</v>
+      </c>
+      <c r="M73" t="s">
+        <v>235</v>
+      </c>
+      <c r="N73" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P73" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q73">
+        <v>20</v>
+      </c>
+      <c r="R73">
+        <v>60</v>
+      </c>
+      <c r="S73">
+        <v>31</v>
+      </c>
+      <c r="X73" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA73" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" ref="AC73:AC80" si="16">COUNTA(AE73:AN73)</f>
+        <v>3</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE73" t="str">
+        <f>D79</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF73" t="str">
+        <f>D74</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_REPAIR</v>
+      </c>
+      <c r="AG73" t="str">
+        <f>D79</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_POST_HRY</v>
+      </c>
+    </row>
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C74" s="6" t="str">
+        <f>VLOOKUP(B74,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_REPAIR</v>
+      </c>
+      <c r="E74" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" t="s">
+        <v>109</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
+        <v>124</v>
+      </c>
+      <c r="J74" t="s">
+        <v>230</v>
+      </c>
+      <c r="K74" t="s">
+        <v>55</v>
+      </c>
+      <c r="L74" t="s">
+        <v>35</v>
+      </c>
+      <c r="M74" t="s">
+        <v>236</v>
+      </c>
+      <c r="N74" t="s">
+        <v>36</v>
+      </c>
+      <c r="O74" t="s">
+        <v>37</v>
+      </c>
+      <c r="P74" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q74">
+        <v>20</v>
+      </c>
+      <c r="R74">
+        <v>60</v>
+      </c>
+      <c r="S74">
+        <v>32</v>
+      </c>
+      <c r="X74" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC74">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE74" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AF74" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AG74" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AH74" t="str">
+        <f>D75</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AI74" t="str">
+        <f>D75</f>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="AJ74" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C75" s="6" t="str">
+        <f>VLOOKUP(B75,templateLookup!A:B,2,0)</f>
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_REPAIR_TO_FUSE</v>
+      </c>
+      <c r="E75" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s">
+        <v>124</v>
+      </c>
+      <c r="J75" t="s">
+        <v>230</v>
+      </c>
+      <c r="K75" t="s">
+        <v>55</v>
+      </c>
+      <c r="L75" t="s">
+        <v>35</v>
+      </c>
+      <c r="M75" t="s">
+        <v>237</v>
+      </c>
+      <c r="N75" t="s">
+        <v>36</v>
+      </c>
+      <c r="O75" t="s">
+        <v>37</v>
+      </c>
+      <c r="P75" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q75">
+        <v>20</v>
+      </c>
+      <c r="R75">
+        <v>60</v>
+      </c>
+      <c r="S75">
+        <v>33</v>
+      </c>
+      <c r="X75" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="AD75" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE75" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AF75" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AG75" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AH75" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AI75" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="AJ75" t="str">
+        <f>D76</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="6" t="str">
+        <f>VLOOKUP(B76,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
+      </c>
+      <c r="E76" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" t="s">
+        <v>140</v>
+      </c>
+      <c r="H76" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" t="s">
+        <v>6</v>
+      </c>
+      <c r="K76" t="s">
+        <v>6</v>
+      </c>
+      <c r="L76" t="s">
+        <v>6</v>
+      </c>
+      <c r="M76" t="s">
+        <v>253</v>
+      </c>
+      <c r="N76" t="s">
+        <v>36</v>
+      </c>
+      <c r="O76" t="s">
+        <v>37</v>
+      </c>
+      <c r="P76" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q76">
+        <v>20</v>
+      </c>
+      <c r="R76">
+        <v>60</v>
+      </c>
+      <c r="S76">
+        <v>34</v>
+      </c>
+      <c r="U76" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE76" t="str">
+        <f>D79</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF76" t="str">
+        <f>D77</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY_MIN</v>
+      </c>
+      <c r="AG76" t="str">
+        <f>D77</f>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY_MIN</v>
+      </c>
+    </row>
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="6" t="str">
+        <f>VLOOKUP(B77,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY_MIN</v>
+      </c>
+      <c r="E77" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" t="s">
+        <v>109</v>
+      </c>
+      <c r="G77" t="s">
+        <v>157</v>
+      </c>
+      <c r="H77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" t="s">
+        <v>6</v>
+      </c>
+      <c r="J77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K77" t="s">
+        <v>6</v>
+      </c>
+      <c r="L77" t="s">
+        <v>6</v>
+      </c>
+      <c r="M77" t="s">
+        <v>254</v>
+      </c>
+      <c r="N77" t="s">
+        <v>36</v>
+      </c>
+      <c r="O77" t="s">
+        <v>37</v>
+      </c>
+      <c r="P77" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q77">
+        <v>20</v>
+      </c>
+      <c r="R77">
+        <v>60</v>
+      </c>
+      <c r="S77">
+        <v>35</v>
+      </c>
+      <c r="AB77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AD77">
+        <v>1</v>
+      </c>
+      <c r="AE77" t="str">
+        <f>D79</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF77" t="str">
+        <f>D78</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE_MIN</v>
+      </c>
+      <c r="AG77" t="str">
+        <f>D78</f>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE_MIN</v>
+      </c>
+    </row>
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="6" t="str">
+        <f>VLOOKUP(B78,templateLookup!A:B,2,0)</f>
+        <v>PrimePatConfigTestMethod</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE_MIN</v>
+      </c>
+      <c r="E78" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" t="s">
+        <v>140</v>
+      </c>
+      <c r="H78" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" t="s">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>6</v>
+      </c>
+      <c r="L78" t="s">
+        <v>6</v>
+      </c>
+      <c r="M78" t="s">
+        <v>255</v>
+      </c>
+      <c r="N78" t="s">
+        <v>36</v>
+      </c>
+      <c r="O78" t="s">
+        <v>37</v>
+      </c>
+      <c r="P78" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q78">
+        <v>20</v>
+      </c>
+      <c r="R78">
+        <v>60</v>
+      </c>
+      <c r="S78">
+        <v>36</v>
+      </c>
+      <c r="AB78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="AD78">
+        <v>1</v>
+      </c>
+      <c r="AE78" t="str">
+        <f>D79</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="AF78" t="str">
+        <f>D79</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_POST_HRY</v>
+      </c>
+    </row>
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C79" s="6" t="str">
+        <f>VLOOKUP(B79,templateLookup!A:B,2,0)</f>
+        <v>iCHSRTest</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_MIN_LFM_RF_POST_HRY</v>
+      </c>
+      <c r="E79" t="s">
+        <v>59</v>
+      </c>
+      <c r="F79" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s">
+        <v>124</v>
+      </c>
+      <c r="J79" t="s">
+        <v>230</v>
+      </c>
+      <c r="K79" t="s">
+        <v>55</v>
+      </c>
+      <c r="L79" t="s">
+        <v>35</v>
+      </c>
+      <c r="M79" t="s">
+        <v>242</v>
+      </c>
+      <c r="N79" t="s">
+        <v>36</v>
+      </c>
+      <c r="O79" t="s">
+        <v>37</v>
+      </c>
+      <c r="P79" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q79">
+        <v>20</v>
+      </c>
+      <c r="R79">
+        <v>60</v>
+      </c>
+      <c r="S79">
+        <v>37</v>
+      </c>
+      <c r="AB79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE79">
+        <v>2</v>
+      </c>
+      <c r="AF79" t="str">
+        <f>D80</f>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_RF_MIN</v>
+      </c>
+      <c r="AG79">
+        <v>2</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="6" t="str">
+        <f>VLOOKUP(B80,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="15"/>
+        <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_RF_MIN</v>
+      </c>
+      <c r="E80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" t="s">
+        <v>238</v>
+      </c>
+      <c r="H80" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" t="s">
+        <v>6</v>
+      </c>
+      <c r="K80" t="s">
+        <v>6</v>
+      </c>
+      <c r="L80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M80" t="s">
+        <v>252</v>
+      </c>
+      <c r="N80" t="s">
+        <v>36</v>
+      </c>
+      <c r="O80" t="s">
+        <v>37</v>
+      </c>
+      <c r="P80" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q80">
+        <v>20</v>
+      </c>
+      <c r="R80">
+        <v>60</v>
+      </c>
+      <c r="S80">
+        <v>38</v>
+      </c>
+      <c r="U80" t="s">
+        <v>268</v>
+      </c>
+      <c r="AB80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="AD80" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE80">
+        <v>2</v>
+      </c>
+      <c r="AF80">
+        <v>1</v>
+      </c>
+      <c r="AG80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="6" t="str">
+        <f>VLOOKUP(B81,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="82" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="5" t="str">
+        <f>VLOOKUP(B82,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D82" t="s">
+        <v>256</v>
+      </c>
+      <c r="F82" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC82">
+        <f>COUNTA(AE82:AN82)</f>
+        <v>3</v>
+      </c>
+      <c r="AD82" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
+      </c>
+      <c r="AF82">
+        <v>1</v>
+      </c>
+      <c r="AG82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f>VLOOKUP(B83,templateLookup!A:B,2,0)</f>
+        <v>PrimeLSARasterTestMethod</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" ref="D83:D84" si="17">E83&amp;"_"&amp;F83&amp;"_"&amp;G83&amp;"_"&amp;H83&amp;"_"&amp;A83&amp;"_"&amp;I83&amp;"_"&amp;J83&amp;"_"&amp;K83&amp;"_"&amp;L83&amp;"_"&amp;M83</f>
+        <v>LSA_ATOM_HRY_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_NON_REP_HRY</v>
+      </c>
+      <c r="E83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I83" t="s">
+        <v>124</v>
+      </c>
+      <c r="J83" t="s">
+        <v>230</v>
+      </c>
+      <c r="K83" t="s">
+        <v>196</v>
+      </c>
+      <c r="L83" t="s">
+        <v>35</v>
+      </c>
+      <c r="M83" t="s">
+        <v>257</v>
+      </c>
+      <c r="N83" t="s">
+        <v>36</v>
+      </c>
+      <c r="O83" t="s">
+        <v>37</v>
+      </c>
+      <c r="P83" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q83">
+        <v>20</v>
+      </c>
+      <c r="R83">
+        <v>60</v>
+      </c>
+      <c r="S83">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC83">
+        <f>COUNTA(AE83:AN83)</f>
+        <v>4</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE83" t="str">
+        <f>D84</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_NON_REP_RASTER</v>
+      </c>
+      <c r="AF83">
+        <v>1</v>
+      </c>
+      <c r="AG83" t="str">
+        <f>D84</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_NON_REP_RASTER</v>
+      </c>
+      <c r="AH83" t="str">
+        <f>D84</f>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_NON_REP_RASTER</v>
+      </c>
+    </row>
+    <row r="84" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C84" s="5" t="str">
+        <f>VLOOKUP(B84,templateLookup!A:B,2,0)</f>
+        <v>PrimeLSARasterTestMethod</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="17"/>
+        <v>LSA_ATOM_RASTER_E_BEGIN_TITO_VCCATOM_NOM_LFM_RF_NON_REP_RASTER</v>
+      </c>
+      <c r="E84" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>41</v>
+      </c>
+      <c r="H84" t="s">
+        <v>34</v>
+      </c>
+      <c r="I84" t="s">
+        <v>124</v>
+      </c>
+      <c r="J84" t="s">
+        <v>230</v>
+      </c>
+      <c r="K84" t="s">
+        <v>196</v>
+      </c>
+      <c r="L84" t="s">
+        <v>35</v>
+      </c>
+      <c r="M84" t="s">
+        <v>258</v>
+      </c>
+      <c r="N84" t="s">
+        <v>36</v>
+      </c>
+      <c r="O84" t="s">
+        <v>37</v>
+      </c>
+      <c r="P84" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q84">
+        <v>20</v>
+      </c>
+      <c r="R84">
+        <v>60</v>
+      </c>
+      <c r="S84">
+        <v>41</v>
+      </c>
+      <c r="AB84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC84">
+        <f t="shared" ref="AC84" si="18">COUNTA(AE84:AN84)</f>
+        <v>3</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
+      </c>
+      <c r="AF84">
+        <v>1</v>
+      </c>
+      <c r="AG84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f>VLOOKUP(B85,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="86" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="7" t="str">
+        <f>VLOOKUP(B86,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="7" t="str">
+        <f>VLOOKUP(B87,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="4" t="str">
+        <f>VLOOKUP(B88,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" ref="D88:D91" si="19">E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;"_"&amp;A88&amp;"_"&amp;I88&amp;"_"&amp;J88&amp;"_"&amp;K88&amp;"_"&amp;L88&amp;"_"&amp;M88</f>
+        <v>LSA_ATOM_VMIN_K_PREHVQK_TITO_VCCATOM_MIN_LFM_LRU</v>
+      </c>
+      <c r="E88" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" t="s">
+        <v>109</v>
+      </c>
+      <c r="G88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" t="s">
+        <v>51</v>
+      </c>
+      <c r="I88" t="s">
+        <v>124</v>
+      </c>
+      <c r="J88" t="s">
+        <v>230</v>
+      </c>
+      <c r="K88" t="s">
+        <v>55</v>
+      </c>
+      <c r="L88" t="s">
+        <v>35</v>
+      </c>
+      <c r="M88" t="s">
+        <v>259</v>
+      </c>
+      <c r="N88" t="s">
+        <v>36</v>
+      </c>
+      <c r="O88" t="s">
+        <v>37</v>
+      </c>
+      <c r="P88" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q88">
+        <v>20</v>
+      </c>
+      <c r="R88">
+        <v>61</v>
+      </c>
+      <c r="S88">
+        <v>200</v>
+      </c>
+      <c r="T88">
+        <v>2100</v>
+      </c>
+      <c r="AB88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC88">
+        <f t="shared" ref="AC88:AC91" si="20">COUNTA(AE88:AN88)</f>
+        <v>2</v>
+      </c>
+      <c r="AD88">
+        <v>1</v>
+      </c>
+      <c r="AE88" t="str">
+        <f>D89</f>
+        <v>LSA_ATOM_VMIN_K_PREHVQK_TITO_VCCATOM_MIN_LFM_RF</v>
+      </c>
+      <c r="AF88" t="str">
+        <f>D89</f>
+        <v>LSA_ATOM_VMIN_K_PREHVQK_TITO_VCCATOM_MIN_LFM_RF</v>
+      </c>
+    </row>
+    <row r="89" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="4" t="str">
+        <f>VLOOKUP(B89,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="19"/>
+        <v>LSA_ATOM_VMIN_K_PREHVQK_TITO_VCCATOM_MIN_LFM_RF</v>
+      </c>
+      <c r="E89" t="s">
+        <v>59</v>
+      </c>
+      <c r="F89" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" t="s">
+        <v>51</v>
+      </c>
+      <c r="I89" t="s">
+        <v>124</v>
+      </c>
+      <c r="J89" t="s">
+        <v>230</v>
+      </c>
+      <c r="K89" t="s">
+        <v>55</v>
+      </c>
+      <c r="L89" t="s">
+        <v>35</v>
+      </c>
+      <c r="M89" t="s">
+        <v>260</v>
+      </c>
+      <c r="N89" t="s">
+        <v>36</v>
+      </c>
+      <c r="O89" t="s">
+        <v>37</v>
+      </c>
+      <c r="P89" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q89">
+        <v>20</v>
+      </c>
+      <c r="R89">
+        <v>61</v>
+      </c>
+      <c r="S89">
+        <v>201</v>
+      </c>
+      <c r="T89">
+        <v>2101</v>
+      </c>
+      <c r="AB89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC89">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AD89">
+        <v>1</v>
+      </c>
+      <c r="AE89" t="str">
+        <f>D90</f>
+        <v>ROM_ATOM_VMIN_K_PREHVQK_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+      <c r="AF89" t="str">
+        <f>D90</f>
+        <v>ROM_ATOM_VMIN_K_PREHVQK_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="4" t="str">
+        <f>VLOOKUP(B90,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="19"/>
+        <v>ROM_ATOM_VMIN_K_PREHVQK_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+      <c r="E90" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" t="s">
+        <v>50</v>
+      </c>
+      <c r="H90" t="s">
+        <v>51</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+      <c r="J90" t="s">
+        <v>230</v>
+      </c>
+      <c r="K90" t="s">
+        <v>55</v>
+      </c>
+      <c r="L90" t="s">
+        <v>35</v>
+      </c>
+      <c r="M90" t="s">
+        <v>61</v>
+      </c>
+      <c r="N90" t="s">
+        <v>36</v>
+      </c>
+      <c r="O90" t="s">
+        <v>37</v>
+      </c>
+      <c r="P90" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q90">
+        <v>20</v>
+      </c>
+      <c r="R90">
+        <v>61</v>
+      </c>
+      <c r="S90">
+        <v>202</v>
+      </c>
+      <c r="T90">
+        <v>2102</v>
+      </c>
+      <c r="AB90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC90">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AD90">
+        <v>1</v>
+      </c>
+      <c r="AE90" t="str">
+        <f>D91</f>
+        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_VCCL2_MIN_LFM_L2_ALL</v>
+      </c>
+      <c r="AF90" t="str">
+        <f>D91</f>
+        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_VCCL2_MIN_LFM_L2_ALL</v>
+      </c>
+    </row>
+    <row r="91" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="4" t="str">
+        <f>VLOOKUP(B91,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="19"/>
+        <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_VCCL2_MIN_LFM_L2_ALL</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" t="s">
+        <v>51</v>
+      </c>
+      <c r="I91" t="s">
+        <v>124</v>
+      </c>
+      <c r="J91" t="s">
+        <v>189</v>
+      </c>
+      <c r="K91" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" t="s">
+        <v>35</v>
+      </c>
+      <c r="M91" t="s">
+        <v>211</v>
+      </c>
+      <c r="N91" t="s">
+        <v>36</v>
+      </c>
+      <c r="O91" t="s">
+        <v>37</v>
+      </c>
+      <c r="P91" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q91">
+        <v>60</v>
+      </c>
+      <c r="R91">
+        <v>61</v>
+      </c>
+      <c r="S91">
+        <v>203</v>
+      </c>
+      <c r="T91">
+        <v>2103</v>
+      </c>
+      <c r="AB91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+      <c r="AD91">
+        <v>1</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
+      </c>
+      <c r="AF91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A92" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" s="7" t="str">
+        <f>VLOOKUP(B92,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="7"/>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="7" t="str">
+        <f>VLOOKUP(B93,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" t="s">
+        <v>109</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="7"/>
+      <c r="R93" s="7"/>
+      <c r="S93" s="7"/>
+      <c r="T93" s="7"/>
+      <c r="U93" s="7"/>
+      <c r="V93" s="7"/>
+      <c r="W93" s="7"/>
+      <c r="X93" s="7"/>
+      <c r="Y93" s="7"/>
+      <c r="Z93" s="7"/>
+      <c r="AA93" s="7"/>
+      <c r="AB93" s="7"/>
+      <c r="AC93" s="7"/>
+      <c r="AD93" s="7"/>
+      <c r="AE93" s="7"/>
+      <c r="AF93" s="7"/>
+      <c r="AG93" s="7"/>
+      <c r="AH93" s="7"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="7"/>
+      <c r="AM93" s="7"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" s="6" t="str">
+        <f>VLOOKUP(B94,templateLookup!A:B,2,0)</f>
+        <v>PrimeHvqkTestMethod</v>
+      </c>
+      <c r="D94" t="str">
+        <f>E94&amp;"_"&amp;F94&amp;"_"&amp;G94&amp;"_"&amp;H94&amp;"_"&amp;A94&amp;"_"&amp;I94&amp;"_"&amp;J94&amp;"_"&amp;K94&amp;"_"&amp;L94&amp;"_"&amp;M94</f>
+        <v>ALL_ATOM_HVQK_K_STRESS_TITO_VCCATOM_MAX_LFM_LSA_ROM</v>
+      </c>
+      <c r="E94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>109</v>
+      </c>
+      <c r="G94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H94" t="s">
+        <v>51</v>
+      </c>
+      <c r="I94" t="s">
+        <v>124</v>
+      </c>
+      <c r="J94" t="s">
+        <v>230</v>
+      </c>
+      <c r="K94" t="s">
+        <v>56</v>
+      </c>
+      <c r="L94" t="s">
+        <v>35</v>
+      </c>
+      <c r="M94" t="s">
+        <v>261</v>
+      </c>
+      <c r="N94" t="s">
+        <v>36</v>
+      </c>
+      <c r="O94" t="s">
+        <v>37</v>
+      </c>
+      <c r="P94" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q94">
+        <v>17</v>
+      </c>
+      <c r="R94">
+        <v>20</v>
+      </c>
+      <c r="S94">
+        <v>300</v>
+      </c>
+      <c r="AB94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC94">
+        <f t="shared" ref="AC94:AC95" si="21">COUNTA(AE94:AN94)</f>
+        <v>4</v>
+      </c>
+      <c r="AD94" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE94" t="str">
+        <f>D95</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_VCCL2_MAX_LFM_SSA</v>
+      </c>
+      <c r="AF94" t="str">
+        <f>D95</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_VCCL2_MAX_LFM_SSA</v>
+      </c>
+      <c r="AG94" t="str">
+        <f>D95</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_VCCL2_MAX_LFM_SSA</v>
+      </c>
+      <c r="AH94" t="str">
+        <f>D95</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_VCCL2_MAX_LFM_SSA</v>
+      </c>
+    </row>
+    <row r="95" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" s="6" t="str">
+        <f>VLOOKUP(B95,templateLookup!A:B,2,0)</f>
+        <v>PrimeHvqkTestMethod</v>
+      </c>
+      <c r="D95" t="str">
+        <f>E95&amp;"_"&amp;F95&amp;"_"&amp;G95&amp;"_"&amp;H95&amp;"_"&amp;A95&amp;"_"&amp;I95&amp;"_"&amp;J95&amp;"_"&amp;K95&amp;"_"&amp;L95&amp;"_"&amp;M95</f>
+        <v>SSA_ATOM_HVQK_K_STRESS_TITO_VCCL2_MAX_LFM_SSA</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
+        <v>109</v>
+      </c>
+      <c r="G95" t="s">
+        <v>125</v>
+      </c>
+      <c r="H95" t="s">
+        <v>51</v>
+      </c>
+      <c r="I95" t="s">
+        <v>124</v>
+      </c>
+      <c r="J95" t="s">
+        <v>189</v>
+      </c>
+      <c r="K95" t="s">
+        <v>56</v>
+      </c>
+      <c r="L95" t="s">
+        <v>35</v>
+      </c>
+      <c r="M95" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" t="s">
+        <v>36</v>
+      </c>
+      <c r="O95" t="s">
+        <v>37</v>
+      </c>
+      <c r="P95" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q95">
+        <v>17</v>
+      </c>
+      <c r="R95">
+        <v>60</v>
+      </c>
+      <c r="S95">
+        <v>301</v>
+      </c>
+      <c r="AB95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC95">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="AD95" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
+      </c>
+      <c r="AF95">
+        <v>1</v>
+      </c>
+      <c r="AG95">
+        <v>1</v>
+      </c>
+      <c r="AH95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A96" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="7" t="str">
+        <f>VLOOKUP(B96,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="7"/>
+      <c r="R96" s="7"/>
+      <c r="S96" s="7"/>
+      <c r="T96" s="7"/>
+      <c r="U96" s="7"/>
+      <c r="V96" s="7"/>
+      <c r="W96" s="7"/>
+      <c r="X96" s="7"/>
+      <c r="Y96" s="7"/>
+      <c r="Z96" s="7"/>
+      <c r="AA96" s="7"/>
+      <c r="AB96" s="7"/>
+      <c r="AC96" s="7"/>
+      <c r="AD96" s="7"/>
+      <c r="AE96" s="7"/>
+      <c r="AF96" s="7"/>
+      <c r="AG96" s="7"/>
+      <c r="AH96" s="7"/>
+      <c r="AI96" s="7"/>
+      <c r="AJ96" s="7"/>
+      <c r="AK96" s="7"/>
+      <c r="AL96" s="7"/>
+      <c r="AM96" s="7"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="7" t="str">
+        <f>VLOOKUP(B97,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" t="s">
+        <v>109</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="7"/>
+      <c r="R97" s="7"/>
+      <c r="S97" s="7"/>
+      <c r="T97" s="7"/>
+      <c r="U97" s="7"/>
+      <c r="V97" s="7"/>
+      <c r="W97" s="7"/>
+      <c r="X97" s="7"/>
+      <c r="Y97" s="7"/>
+      <c r="Z97" s="7"/>
+      <c r="AA97" s="7"/>
+      <c r="AB97" s="7"/>
+      <c r="AC97" s="7"/>
+      <c r="AD97" s="7"/>
+      <c r="AE97" s="7"/>
+      <c r="AF97" s="7"/>
+      <c r="AG97" s="7"/>
+      <c r="AH97" s="7"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="7"/>
+      <c r="AM97" s="7"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="5" t="str">
+        <f>VLOOKUP(B98,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" ref="D98:D101" si="22">E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;"_"&amp;A98&amp;"_"&amp;I98&amp;"_"&amp;J98&amp;"_"&amp;K98&amp;"_"&amp;L98&amp;"_"&amp;M98</f>
+        <v>LSA_ATOM_VMIN_K_POSTHVQK_TITO_VCCATOM_MIN_LFM_LRU</v>
+      </c>
+      <c r="E98" t="s">
+        <v>59</v>
+      </c>
+      <c r="F98" t="s">
+        <v>109</v>
+      </c>
+      <c r="G98" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98" t="s">
+        <v>51</v>
+      </c>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+      <c r="J98" t="s">
+        <v>230</v>
+      </c>
+      <c r="K98" t="s">
+        <v>55</v>
+      </c>
+      <c r="L98" t="s">
+        <v>35</v>
+      </c>
+      <c r="M98" t="s">
+        <v>259</v>
+      </c>
+      <c r="N98" t="s">
+        <v>36</v>
+      </c>
+      <c r="O98" t="s">
+        <v>37</v>
+      </c>
+      <c r="P98" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q98">
+        <v>26</v>
+      </c>
+      <c r="R98">
+        <v>20</v>
+      </c>
+      <c r="S98">
+        <v>400</v>
+      </c>
+      <c r="T98">
+        <v>2010</v>
+      </c>
+      <c r="AB98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC98">
+        <f t="shared" ref="AC98:AC101" si="23">COUNTA(AE98:AN98)</f>
+        <v>2</v>
+      </c>
+      <c r="AD98">
+        <v>1</v>
+      </c>
+      <c r="AE98" t="str">
+        <f>D99</f>
+        <v>LSA_ATOM_VMIN_K_POSTHVQK_TITO_VCCATOM_MIN_LFM_RF</v>
+      </c>
+      <c r="AF98" t="str">
+        <f>D99</f>
+        <v>LSA_ATOM_VMIN_K_POSTHVQK_TITO_VCCATOM_MIN_LFM_RF</v>
+      </c>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" s="5" t="str">
+        <f>VLOOKUP(B99,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="22"/>
+        <v>LSA_ATOM_VMIN_K_POSTHVQK_TITO_VCCATOM_MIN_LFM_RF</v>
+      </c>
+      <c r="E99" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" t="s">
+        <v>109</v>
+      </c>
+      <c r="G99" t="s">
+        <v>50</v>
+      </c>
+      <c r="H99" t="s">
+        <v>51</v>
+      </c>
+      <c r="I99" t="s">
+        <v>124</v>
+      </c>
+      <c r="J99" t="s">
+        <v>230</v>
+      </c>
+      <c r="K99" t="s">
+        <v>55</v>
+      </c>
+      <c r="L99" t="s">
+        <v>35</v>
+      </c>
+      <c r="M99" t="s">
+        <v>260</v>
+      </c>
+      <c r="N99" t="s">
+        <v>36</v>
+      </c>
+      <c r="O99" t="s">
+        <v>37</v>
+      </c>
+      <c r="P99" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q99">
+        <v>26</v>
+      </c>
+      <c r="R99">
+        <v>20</v>
+      </c>
+      <c r="S99">
+        <v>401</v>
+      </c>
+      <c r="T99">
+        <v>2011</v>
+      </c>
+      <c r="AB99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC99">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AD99">
+        <v>1</v>
+      </c>
+      <c r="AE99" t="str">
+        <f>D100</f>
+        <v>ROM_ATOM_VMIN_K_POSTHVQK_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+      <c r="AF99" t="str">
+        <f>D100</f>
+        <v>ROM_ATOM_VMIN_K_POSTHVQK_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" s="5" t="str">
+        <f>VLOOKUP(B100,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="22"/>
+        <v>ROM_ATOM_VMIN_K_POSTHVQK_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+      <c r="E100" t="s">
+        <v>61</v>
+      </c>
+      <c r="F100" t="s">
+        <v>109</v>
+      </c>
+      <c r="G100" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" t="s">
+        <v>51</v>
+      </c>
+      <c r="I100" t="s">
+        <v>124</v>
+      </c>
+      <c r="J100" t="s">
+        <v>230</v>
+      </c>
+      <c r="K100" t="s">
+        <v>55</v>
+      </c>
+      <c r="L100" t="s">
+        <v>35</v>
+      </c>
+      <c r="M100" t="s">
+        <v>61</v>
+      </c>
+      <c r="N100" t="s">
+        <v>36</v>
+      </c>
+      <c r="O100" t="s">
+        <v>37</v>
+      </c>
+      <c r="P100" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q100">
+        <v>26</v>
+      </c>
+      <c r="R100">
+        <v>20</v>
+      </c>
+      <c r="S100">
+        <v>402</v>
+      </c>
+      <c r="T100">
+        <v>2012</v>
+      </c>
+      <c r="AB100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC100">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AD100">
+        <v>1</v>
+      </c>
+      <c r="AE100" t="str">
+        <f>D101</f>
+        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_VCCL2_MIN_LFM_L2_ALL</v>
+      </c>
+      <c r="AF100" t="str">
+        <f>D101</f>
+        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_VCCL2_MIN_LFM_L2_ALL</v>
+      </c>
+    </row>
+    <row r="101" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C101" s="5" t="str">
+        <f>VLOOKUP(B101,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="22"/>
+        <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_VCCL2_MIN_LFM_L2_ALL</v>
+      </c>
+      <c r="E101" t="s">
+        <v>31</v>
+      </c>
+      <c r="F101" t="s">
+        <v>109</v>
+      </c>
+      <c r="G101" t="s">
+        <v>50</v>
+      </c>
+      <c r="H101" t="s">
+        <v>51</v>
+      </c>
+      <c r="I101" t="s">
+        <v>124</v>
+      </c>
+      <c r="J101" t="s">
+        <v>189</v>
+      </c>
+      <c r="K101" t="s">
+        <v>55</v>
+      </c>
+      <c r="L101" t="s">
+        <v>35</v>
+      </c>
+      <c r="M101" t="s">
+        <v>211</v>
+      </c>
+      <c r="N101" t="s">
+        <v>36</v>
+      </c>
+      <c r="O101" t="s">
+        <v>37</v>
+      </c>
+      <c r="P101" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q101">
+        <v>26</v>
+      </c>
+      <c r="R101">
+        <v>60</v>
+      </c>
+      <c r="S101">
+        <v>403</v>
+      </c>
+      <c r="T101">
+        <v>2013</v>
+      </c>
+      <c r="AB101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC101">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="AD101">
+        <v>1</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
+      </c>
+      <c r="AF101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A102" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="7" t="str">
+        <f>VLOOKUP(B102,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
+      <c r="Y102" s="7"/>
+      <c r="Z102" s="7"/>
+      <c r="AA102" s="7"/>
+      <c r="AB102" s="7"/>
+      <c r="AC102" s="7"/>
+      <c r="AD102" s="7"/>
+      <c r="AE102" s="7"/>
+      <c r="AF102" s="7"/>
+      <c r="AG102" s="7"/>
+      <c r="AH102" s="7"/>
+      <c r="AI102" s="7"/>
+      <c r="AJ102" s="7"/>
+      <c r="AK102" s="7"/>
+      <c r="AL102" s="7"/>
+      <c r="AM102" s="7"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A103" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="7" t="str">
+        <f>VLOOKUP(B103,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" s="7"/>
+      <c r="F103" t="s">
+        <v>109</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="7"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="7"/>
+      <c r="L103" s="7"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="7"/>
+      <c r="R103" s="7"/>
+      <c r="S103" s="7"/>
+      <c r="T103" s="7"/>
+      <c r="U103" s="7"/>
+      <c r="V103" s="7"/>
+      <c r="W103" s="7"/>
+      <c r="X103" s="7"/>
+      <c r="Y103" s="7"/>
+      <c r="Z103" s="7"/>
+      <c r="AA103" s="7"/>
+      <c r="AB103" s="7"/>
+      <c r="AC103" s="7"/>
+      <c r="AD103" s="7"/>
+      <c r="AE103" s="7"/>
+      <c r="AF103" s="7"/>
+      <c r="AG103" s="7"/>
+      <c r="AH103" s="7"/>
+      <c r="AI103" s="7"/>
+      <c r="AJ103" s="7"/>
+      <c r="AK103" s="7"/>
+      <c r="AL103" s="7"/>
+      <c r="AM103" s="7"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" s="5" t="str">
+        <f>VLOOKUP(B104,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D104" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC104">
+        <f t="shared" ref="AC104:AC108" si="24">COUNTA(AE104:AN104)</f>
+        <v>2</v>
+      </c>
+      <c r="AD104">
+        <v>1</v>
+      </c>
+      <c r="AE104" t="str">
+        <f>D110</f>
+        <v>VMAX</v>
+      </c>
+      <c r="AF104" t="str">
+        <f>D110</f>
+        <v>VMAX</v>
+      </c>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="5" t="str">
+        <f>VLOOKUP(B105,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" ref="D105:D108" si="25">E105&amp;"_"&amp;F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;"_"&amp;A105&amp;"_"&amp;I105&amp;"_"&amp;J105&amp;"_"&amp;K105&amp;"_"&amp;L105&amp;"_"&amp;M105</f>
+        <v>SSA_ATOM_VMIN_K_END_TITO_VCCL2_MIN_LFM_L2_ALL</v>
+      </c>
+      <c r="E105" t="s">
+        <v>31</v>
+      </c>
+      <c r="F105" t="s">
+        <v>109</v>
+      </c>
+      <c r="G105" t="s">
+        <v>50</v>
+      </c>
+      <c r="H105" t="s">
+        <v>51</v>
+      </c>
+      <c r="I105" t="s">
+        <v>124</v>
+      </c>
+      <c r="J105" t="s">
+        <v>189</v>
+      </c>
+      <c r="K105" t="s">
+        <v>55</v>
+      </c>
+      <c r="L105" t="s">
+        <v>35</v>
+      </c>
+      <c r="M105" t="s">
+        <v>211</v>
+      </c>
+      <c r="N105" t="s">
+        <v>36</v>
+      </c>
+      <c r="O105" t="s">
+        <v>37</v>
+      </c>
+      <c r="P105" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q105">
+        <v>60</v>
+      </c>
+      <c r="R105">
+        <v>62</v>
+      </c>
+      <c r="S105">
+        <v>500</v>
+      </c>
+      <c r="T105">
+        <v>2020</v>
+      </c>
+      <c r="AB105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AD105">
+        <v>1</v>
+      </c>
+      <c r="AE105" t="str">
+        <f>D106</f>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCL2_MIN_LFM_L2_LRU</v>
+      </c>
+      <c r="AF105" t="str">
+        <f>D106</f>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCL2_MIN_LFM_L2_LRU</v>
+      </c>
+    </row>
+    <row r="106" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="5" t="str">
+        <f>VLOOKUP(B106,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="25"/>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCL2_MIN_LFM_L2_LRU</v>
+      </c>
+      <c r="E106" t="s">
+        <v>59</v>
+      </c>
+      <c r="F106" t="s">
+        <v>109</v>
+      </c>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" t="s">
+        <v>51</v>
+      </c>
+      <c r="I106" t="s">
+        <v>124</v>
+      </c>
+      <c r="J106" t="s">
+        <v>189</v>
+      </c>
+      <c r="K106" t="s">
+        <v>55</v>
+      </c>
+      <c r="L106" t="s">
+        <v>35</v>
+      </c>
+      <c r="M106" t="s">
+        <v>262</v>
+      </c>
+      <c r="N106" t="s">
+        <v>36</v>
+      </c>
+      <c r="O106" t="s">
+        <v>37</v>
+      </c>
+      <c r="P106" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q106">
+        <v>60</v>
+      </c>
+      <c r="R106">
+        <v>62</v>
+      </c>
+      <c r="S106">
+        <v>501</v>
+      </c>
+      <c r="T106">
+        <v>2021</v>
+      </c>
+      <c r="AB106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AD106">
+        <v>1</v>
+      </c>
+      <c r="AE106" t="str">
+        <f>D107</f>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCATOM_MIN_LFM_RF_ALL</v>
+      </c>
+      <c r="AF106" t="str">
+        <f>D107</f>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCATOM_MIN_LFM_RF_ALL</v>
+      </c>
+    </row>
+    <row r="107" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A107" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="5" t="str">
+        <f>VLOOKUP(B107,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="25"/>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCATOM_MIN_LFM_RF_ALL</v>
+      </c>
+      <c r="E107" t="s">
+        <v>59</v>
+      </c>
+      <c r="F107" t="s">
+        <v>109</v>
+      </c>
+      <c r="G107" t="s">
+        <v>50</v>
+      </c>
+      <c r="H107" t="s">
+        <v>51</v>
+      </c>
+      <c r="I107" t="s">
+        <v>124</v>
+      </c>
+      <c r="J107" t="s">
+        <v>230</v>
+      </c>
+      <c r="K107" t="s">
+        <v>55</v>
+      </c>
+      <c r="L107" t="s">
+        <v>35</v>
+      </c>
+      <c r="M107" t="s">
+        <v>263</v>
+      </c>
+      <c r="N107" t="s">
+        <v>36</v>
+      </c>
+      <c r="O107" t="s">
+        <v>37</v>
+      </c>
+      <c r="P107" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q107">
+        <v>20</v>
+      </c>
+      <c r="R107">
+        <v>62</v>
+      </c>
+      <c r="S107">
+        <v>502</v>
+      </c>
+      <c r="T107">
+        <v>2022</v>
+      </c>
+      <c r="AB107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AD107">
+        <v>1</v>
+      </c>
+      <c r="AE107" t="str">
+        <f>D108</f>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+      <c r="AF107" t="str">
+        <f>D108</f>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="5" t="str">
+        <f>VLOOKUP(B108,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="25"/>
+        <v>LSA_ATOM_VMIN_K_END_TITO_VCCATOM_MIN_LFM_ROM</v>
+      </c>
+      <c r="E108" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" t="s">
+        <v>109</v>
+      </c>
+      <c r="G108" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" t="s">
+        <v>51</v>
+      </c>
+      <c r="I108" t="s">
+        <v>124</v>
+      </c>
+      <c r="J108" t="s">
+        <v>230</v>
+      </c>
+      <c r="K108" t="s">
+        <v>55</v>
+      </c>
+      <c r="L108" t="s">
+        <v>35</v>
+      </c>
+      <c r="M108" t="s">
+        <v>61</v>
+      </c>
+      <c r="N108" t="s">
+        <v>36</v>
+      </c>
+      <c r="O108" t="s">
+        <v>37</v>
+      </c>
+      <c r="P108" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q108">
+        <v>20</v>
+      </c>
+      <c r="R108">
+        <v>62</v>
+      </c>
+      <c r="S108">
+        <v>503</v>
+      </c>
+      <c r="T108">
+        <v>2023</v>
+      </c>
+      <c r="AB108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" si="24"/>
+        <v>2</v>
+      </c>
+      <c r="AD108">
+        <v>1</v>
+      </c>
+      <c r="AE108">
+        <v>1</v>
+      </c>
+      <c r="AF108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A109" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="5" t="str">
+        <f>VLOOKUP(B109,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="110" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="8" t="str">
+        <f>VLOOKUP(B110,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D110" t="s">
+        <v>67</v>
+      </c>
+      <c r="F110" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC110">
+        <f t="shared" ref="AC110:AC112" si="26">COUNTA(AE110:AN110)</f>
+        <v>2</v>
+      </c>
+      <c r="AD110">
+        <v>1</v>
+      </c>
+      <c r="AE110">
+        <v>1</v>
+      </c>
+      <c r="AF110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="8" t="str">
+        <f>VLOOKUP(B111,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D111" t="str">
+        <f>E111&amp;"_"&amp;F111&amp;"_"&amp;G111&amp;"_"&amp;H111&amp;"_"&amp;A111&amp;"_"&amp;I111&amp;"_"&amp;J111&amp;"_"&amp;K111&amp;"_"&amp;L111&amp;"_"&amp;M111</f>
+        <v>ALL_ATOM_SB_K_END_TITO_VCCATOM_MIN_LFM_LSA_ROM</v>
+      </c>
+      <c r="E111" t="s">
+        <v>45</v>
+      </c>
+      <c r="F111" t="s">
+        <v>109</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
+      <c r="H111" t="s">
+        <v>51</v>
+      </c>
+      <c r="I111" t="s">
+        <v>124</v>
+      </c>
+      <c r="J111" t="s">
+        <v>230</v>
+      </c>
+      <c r="K111" t="s">
+        <v>55</v>
+      </c>
+      <c r="L111" t="s">
+        <v>35</v>
+      </c>
+      <c r="M111" t="s">
+        <v>261</v>
+      </c>
+      <c r="N111" t="s">
+        <v>36</v>
+      </c>
+      <c r="O111" t="s">
+        <v>37</v>
+      </c>
+      <c r="P111" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q111">
+        <v>17</v>
+      </c>
+      <c r="R111">
+        <v>20</v>
+      </c>
+      <c r="S111">
+        <v>600</v>
+      </c>
+      <c r="T111">
+        <v>2030</v>
+      </c>
+      <c r="AB111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AD111">
+        <v>1</v>
+      </c>
+      <c r="AE111" t="str">
+        <f>D112</f>
+        <v>SSA_ATOM_SB_K_END_TITO_VCCL2_MIN_LFM_SSA</v>
+      </c>
+      <c r="AF111" t="str">
+        <f>D112</f>
+        <v>SSA_ATOM_SB_K_END_TITO_VCCL2_MIN_LFM_SSA</v>
+      </c>
+    </row>
+    <row r="112" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="8" t="str">
+        <f>VLOOKUP(B112,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D112" t="str">
+        <f>E112&amp;"_"&amp;F112&amp;"_"&amp;G112&amp;"_"&amp;H112&amp;"_"&amp;A112&amp;"_"&amp;I112&amp;"_"&amp;J112&amp;"_"&amp;K112&amp;"_"&amp;L112&amp;"_"&amp;M112</f>
+        <v>SSA_ATOM_SB_K_END_TITO_VCCL2_MIN_LFM_SSA</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" t="s">
+        <v>109</v>
+      </c>
+      <c r="G112" t="s">
+        <v>126</v>
+      </c>
+      <c r="H112" t="s">
+        <v>51</v>
+      </c>
+      <c r="I112" t="s">
+        <v>124</v>
+      </c>
+      <c r="J112" t="s">
+        <v>189</v>
+      </c>
+      <c r="K112" t="s">
+        <v>55</v>
+      </c>
+      <c r="L112" t="s">
+        <v>35</v>
+      </c>
+      <c r="M112" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" t="s">
+        <v>36</v>
+      </c>
+      <c r="O112" t="s">
+        <v>37</v>
+      </c>
+      <c r="P112" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q112">
+        <v>17</v>
+      </c>
+      <c r="R112">
+        <v>60</v>
+      </c>
+      <c r="S112">
+        <v>601</v>
+      </c>
+      <c r="T112">
+        <v>2031</v>
+      </c>
+      <c r="AB112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC112">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="AD112">
+        <v>1</v>
+      </c>
+      <c r="AE112">
+        <v>1</v>
+      </c>
+      <c r="AF112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" s="8" t="str">
+        <f>VLOOKUP(B113,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A114" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="7" t="str">
+        <f>VLOOKUP(B114,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7"/>
+      <c r="L114" s="7"/>
+      <c r="M114" s="7"/>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="7"/>
+      <c r="R114" s="7"/>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7"/>
+      <c r="U114" s="7"/>
+      <c r="V114" s="7"/>
+      <c r="W114" s="7"/>
+      <c r="X114" s="7"/>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7"/>
+      <c r="AB114" s="7"/>
+      <c r="AC114" s="7"/>
+      <c r="AD114" s="7"/>
+      <c r="AE114" s="7"/>
+      <c r="AF114" s="7"/>
+      <c r="AG114" s="7"/>
+      <c r="AH114" s="7"/>
+      <c r="AI114" s="7"/>
+      <c r="AJ114" s="7"/>
+      <c r="AK114" s="7"/>
+      <c r="AL114" s="7"/>
+      <c r="AM114" s="7"/>
+      <c r="AN114" s="7"/>
+    </row>
+    <row r="115" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>92</v>
+      </c>
+      <c r="B115" t="s">
+        <v>93</v>
+      </c>
+      <c r="C115" t="str">
+        <f>VLOOKUP(B115,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D115" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AN115" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E347848-835C-4F73-8966-1FB2959BF479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E231F871-FE35-4D92-BE5D-2075CBB49386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2829" uniqueCount="292">
   <si>
     <t>Flow</t>
   </si>
@@ -2599,10 +2599,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="R99" sqref="R99"/>
+      <selection pane="bottomLeft" activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2753,6 +2753,9 @@
       <c r="D3" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -2768,6 +2771,9 @@
       <c r="D4" t="s">
         <v>28</v>
       </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
       <c r="W4">
         <v>2</v>
       </c>
@@ -6063,6 +6069,9 @@
       <c r="D38" t="s">
         <v>29</v>
       </c>
+      <c r="F38" t="s">
+        <v>32</v>
+      </c>
       <c r="W38">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -7470,6 +7479,9 @@
       <c r="D56" t="s">
         <v>43</v>
       </c>
+      <c r="F56" t="s">
+        <v>32</v>
+      </c>
       <c r="W56">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -8377,6 +8389,9 @@
       <c r="D67" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="F67" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
@@ -8900,6 +8915,9 @@
       <c r="D75" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="F75" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -9099,6 +9117,9 @@
       <c r="D79" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
@@ -9622,6 +9643,9 @@
       <c r="D87" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="F87" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
@@ -9637,6 +9661,9 @@
       <c r="D88" t="s">
         <v>66</v>
       </c>
+      <c r="F88" t="s">
+        <v>32</v>
+      </c>
       <c r="W88">
         <f t="shared" ref="W88" si="33">COUNTA(Y88:AH88)</f>
         <v>2</v>
@@ -10174,6 +10201,9 @@
       </c>
       <c r="D96" t="s">
         <v>67</v>
+      </c>
+      <c r="F96" t="s">
+        <v>32</v>
       </c>
       <c r="W96">
         <f t="shared" ref="W96" si="36">COUNTA(Y96:AH96)</f>
@@ -10400,8 +10430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
   <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10473,16 +10503,16 @@
         <v>94</v>
       </c>
       <c r="T1" t="s">
+        <v>271</v>
+      </c>
+      <c r="U1" t="s">
         <v>137</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>140</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>266</v>
-      </c>
-      <c r="W1" t="s">
-        <v>271</v>
       </c>
       <c r="X1" t="s">
         <v>270</v>
@@ -10701,6 +10731,9 @@
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
       <c r="AB5" t="b">
         <v>0</v>
       </c>
@@ -10787,6 +10820,9 @@
       <c r="S6">
         <v>1</v>
       </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
       <c r="X6" t="s">
         <v>272</v>
       </c>
@@ -10873,6 +10909,9 @@
       <c r="S7">
         <v>2</v>
       </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
       <c r="X7" t="s">
         <v>272</v>
       </c>
@@ -10980,6 +11019,9 @@
       <c r="S8">
         <v>3</v>
       </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
       <c r="X8" t="s">
         <v>272</v>
       </c>
@@ -11087,6 +11129,9 @@
       <c r="S9">
         <v>4</v>
       </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
       <c r="X9" t="s">
         <v>273</v>
       </c>
@@ -11173,6 +11218,9 @@
       <c r="S10">
         <v>5</v>
       </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
       <c r="X10" t="s">
         <v>273</v>
       </c>
@@ -11280,6 +11328,9 @@
       <c r="S11">
         <v>6</v>
       </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
       <c r="X11" t="s">
         <v>273</v>
       </c>
@@ -11387,6 +11438,9 @@
       <c r="S12">
         <v>7</v>
       </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
       <c r="X12" t="s">
         <v>274</v>
       </c>
@@ -11473,6 +11527,9 @@
       <c r="S13">
         <v>8</v>
       </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
       <c r="X13" t="s">
         <v>274</v>
       </c>
@@ -11580,6 +11637,9 @@
       <c r="S14">
         <v>9</v>
       </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
       <c r="X14" t="s">
         <v>274</v>
       </c>
@@ -11687,7 +11747,10 @@
       <c r="S15">
         <v>10</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
         <v>264</v>
       </c>
       <c r="AB15" t="b">
@@ -11773,6 +11836,9 @@
       <c r="S16">
         <v>11</v>
       </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
       <c r="AB16" t="b">
         <v>0</v>
       </c>
@@ -11856,6 +11922,9 @@
       <c r="S17">
         <v>12</v>
       </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
       <c r="AB17" t="b">
         <v>0</v>
       </c>
@@ -11935,6 +12004,9 @@
       <c r="S18">
         <v>13</v>
       </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
       <c r="AB18" t="b">
         <v>0</v>
       </c>
@@ -12019,7 +12091,10 @@
       <c r="S19">
         <v>14</v>
       </c>
-      <c r="U19" t="s">
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>267</v>
       </c>
       <c r="AB19" t="b">
@@ -12151,6 +12226,9 @@
       <c r="S22">
         <v>20</v>
       </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
       <c r="AB22" t="b">
         <v>0</v>
       </c>
@@ -12237,6 +12315,9 @@
       <c r="S23">
         <v>21</v>
       </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
       <c r="X23" t="s">
         <v>272</v>
       </c>
@@ -12323,6 +12404,9 @@
       <c r="S24">
         <v>22</v>
       </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
       <c r="X24" t="s">
         <v>272</v>
       </c>
@@ -12430,6 +12514,9 @@
       <c r="S25">
         <v>23</v>
       </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
       <c r="X25" t="s">
         <v>272</v>
       </c>
@@ -12537,6 +12624,9 @@
       <c r="S26">
         <v>24</v>
       </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
       <c r="X26" t="s">
         <v>273</v>
       </c>
@@ -12623,6 +12713,9 @@
       <c r="S27">
         <v>25</v>
       </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
       <c r="X27" t="s">
         <v>273</v>
       </c>
@@ -12730,6 +12823,9 @@
       <c r="S28">
         <v>26</v>
       </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
       <c r="X28" t="s">
         <v>273</v>
       </c>
@@ -12837,6 +12933,9 @@
       <c r="S29">
         <v>27</v>
       </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
       <c r="X29" t="s">
         <v>274</v>
       </c>
@@ -12923,6 +13022,9 @@
       <c r="S30">
         <v>28</v>
       </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
       <c r="X30" t="s">
         <v>274</v>
       </c>
@@ -13030,6 +13132,9 @@
       <c r="S31">
         <v>29</v>
       </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
       <c r="X31" t="s">
         <v>274</v>
       </c>
@@ -13137,7 +13242,10 @@
       <c r="S32">
         <v>30</v>
       </c>
-      <c r="U32" t="s">
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
         <v>264</v>
       </c>
       <c r="AB32" t="b">
@@ -13223,6 +13331,9 @@
       <c r="S33">
         <v>31</v>
       </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
       <c r="AB33" t="b">
         <v>0</v>
       </c>
@@ -13306,6 +13417,9 @@
       <c r="S34">
         <v>32</v>
       </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
       <c r="AB34" t="b">
         <v>0</v>
       </c>
@@ -13385,6 +13499,9 @@
       <c r="S35">
         <v>33</v>
       </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
       <c r="AB35" t="b">
         <v>0</v>
       </c>
@@ -13469,7 +13586,10 @@
       <c r="S36">
         <v>34</v>
       </c>
-      <c r="U36" t="s">
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
         <v>268</v>
       </c>
       <c r="AB36" t="b">
@@ -13601,6 +13721,9 @@
       <c r="S39">
         <v>0</v>
       </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
       <c r="AB39" t="b">
         <v>0</v>
       </c>
@@ -13687,6 +13810,9 @@
       <c r="S40">
         <v>1</v>
       </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
       <c r="X40" t="s">
         <v>275</v>
       </c>
@@ -13773,6 +13899,9 @@
       <c r="S41">
         <v>2</v>
       </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
       <c r="X41" t="s">
         <v>275</v>
       </c>
@@ -13880,6 +14009,9 @@
       <c r="S42">
         <v>3</v>
       </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
       <c r="X42" t="s">
         <v>275</v>
       </c>
@@ -13987,7 +14119,10 @@
       <c r="S43">
         <v>4</v>
       </c>
-      <c r="U43" t="s">
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
         <v>264</v>
       </c>
       <c r="AB43" t="b">
@@ -14073,6 +14208,9 @@
       <c r="S44">
         <v>5</v>
       </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
       <c r="AB44" t="b">
         <v>0</v>
       </c>
@@ -14156,6 +14294,9 @@
       <c r="S45">
         <v>6</v>
       </c>
+      <c r="T45">
+        <v>1</v>
+      </c>
       <c r="AB45" t="b">
         <v>0</v>
       </c>
@@ -14235,6 +14376,9 @@
       <c r="S46">
         <v>7</v>
       </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
       <c r="AB46" t="b">
         <v>0</v>
       </c>
@@ -14319,7 +14463,10 @@
       <c r="S47">
         <v>8</v>
       </c>
-      <c r="U47" t="s">
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="V47" t="s">
         <v>267</v>
       </c>
       <c r="AB47" t="b">
@@ -14451,6 +14598,9 @@
       <c r="S50">
         <v>10</v>
       </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
       <c r="AB50" t="b">
         <v>0</v>
       </c>
@@ -14537,6 +14687,9 @@
       <c r="S51">
         <v>11</v>
       </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
       <c r="X51" t="s">
         <v>275</v>
       </c>
@@ -14623,6 +14776,9 @@
       <c r="S52">
         <v>12</v>
       </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
       <c r="X52" t="s">
         <v>275</v>
       </c>
@@ -14730,6 +14886,9 @@
       <c r="S53">
         <v>13</v>
       </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
       <c r="X53" t="s">
         <v>275</v>
       </c>
@@ -14837,7 +14996,10 @@
       <c r="S54">
         <v>14</v>
       </c>
-      <c r="U54" t="s">
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="V54" t="s">
         <v>264</v>
       </c>
       <c r="AB54" t="b">
@@ -14923,6 +15085,9 @@
       <c r="S55">
         <v>15</v>
       </c>
+      <c r="T55">
+        <v>1</v>
+      </c>
       <c r="AB55" t="b">
         <v>0</v>
       </c>
@@ -15006,6 +15171,9 @@
       <c r="S56">
         <v>16</v>
       </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
       <c r="AB56" t="b">
         <v>0</v>
       </c>
@@ -15085,6 +15253,9 @@
       <c r="S57">
         <v>17</v>
       </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
       <c r="AB57" t="b">
         <v>0</v>
       </c>
@@ -15169,7 +15340,10 @@
       <c r="S58">
         <v>18</v>
       </c>
-      <c r="U58" t="s">
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="V58" t="s">
         <v>268</v>
       </c>
       <c r="AB58" t="b">
@@ -15301,6 +15475,9 @@
       <c r="S61">
         <v>20</v>
       </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
       <c r="X61" t="s">
         <v>276</v>
       </c>
@@ -15393,6 +15570,9 @@
       <c r="S62">
         <v>21</v>
       </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
       <c r="X62" t="s">
         <v>276</v>
       </c>
@@ -15482,6 +15662,9 @@
       <c r="S63">
         <v>22</v>
       </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
       <c r="X63" t="s">
         <v>276</v>
       </c>
@@ -15589,6 +15772,9 @@
       <c r="S64">
         <v>23</v>
       </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
       <c r="X64" t="s">
         <v>276</v>
       </c>
@@ -15696,7 +15882,10 @@
       <c r="S65">
         <v>24</v>
       </c>
-      <c r="U65" t="s">
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="V65" t="s">
         <v>264</v>
       </c>
       <c r="AB65" t="b">
@@ -15782,6 +15971,9 @@
       <c r="S66">
         <v>25</v>
       </c>
+      <c r="T66">
+        <v>1</v>
+      </c>
       <c r="AB66" t="b">
         <v>0</v>
       </c>
@@ -15865,6 +16057,9 @@
       <c r="S67">
         <v>26</v>
       </c>
+      <c r="T67">
+        <v>1</v>
+      </c>
       <c r="AB67" t="b">
         <v>0</v>
       </c>
@@ -15944,6 +16139,9 @@
       <c r="S68">
         <v>27</v>
       </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
       <c r="AB68" t="b">
         <v>0</v>
       </c>
@@ -16028,7 +16226,10 @@
       <c r="S69">
         <v>28</v>
       </c>
-      <c r="U69" t="s">
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="V69" t="s">
         <v>267</v>
       </c>
       <c r="AB69" t="b">
@@ -16160,6 +16361,9 @@
       <c r="S72">
         <v>30</v>
       </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
       <c r="X72" t="s">
         <v>276</v>
       </c>
@@ -16252,6 +16456,9 @@
       <c r="S73">
         <v>31</v>
       </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
       <c r="X73" t="s">
         <v>276</v>
       </c>
@@ -16341,6 +16548,9 @@
       <c r="S74">
         <v>32</v>
       </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
       <c r="X74" t="s">
         <v>276</v>
       </c>
@@ -16448,6 +16658,9 @@
       <c r="S75">
         <v>33</v>
       </c>
+      <c r="T75">
+        <v>1</v>
+      </c>
       <c r="X75" t="s">
         <v>276</v>
       </c>
@@ -16555,7 +16768,10 @@
       <c r="S76">
         <v>34</v>
       </c>
-      <c r="U76" t="s">
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="V76" t="s">
         <v>264</v>
       </c>
       <c r="AB76" t="b">
@@ -16641,6 +16857,9 @@
       <c r="S77">
         <v>35</v>
       </c>
+      <c r="T77">
+        <v>1</v>
+      </c>
       <c r="AB77" t="b">
         <v>0</v>
       </c>
@@ -16724,6 +16943,9 @@
       <c r="S78">
         <v>36</v>
       </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
       <c r="AB78" t="b">
         <v>0</v>
       </c>
@@ -16803,6 +17025,9 @@
       <c r="S79">
         <v>37</v>
       </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
       <c r="AB79" t="b">
         <v>0</v>
       </c>
@@ -16887,7 +17112,10 @@
       <c r="S80">
         <v>38</v>
       </c>
-      <c r="U80" t="s">
+      <c r="T80">
+        <v>1</v>
+      </c>
+      <c r="V80" t="s">
         <v>268</v>
       </c>
       <c r="AB80" t="b">
@@ -17016,6 +17244,9 @@
       <c r="S83">
         <v>40</v>
       </c>
+      <c r="T83">
+        <v>1</v>
+      </c>
       <c r="AB83" t="b">
         <v>0</v>
       </c>
@@ -17101,6 +17332,9 @@
       </c>
       <c r="S84">
         <v>41</v>
+      </c>
+      <c r="T84">
+        <v>1</v>
       </c>
       <c r="AB84" t="b">
         <v>0</v>
@@ -17296,7 +17530,7 @@
       <c r="S88">
         <v>200</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>2100</v>
       </c>
       <c r="AB88" t="b">
@@ -17378,7 +17612,7 @@
       <c r="S89">
         <v>201</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>2101</v>
       </c>
       <c r="AB89" t="b">
@@ -17460,7 +17694,7 @@
       <c r="S90">
         <v>202</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>2102</v>
       </c>
       <c r="AB90" t="b">
@@ -17542,7 +17776,7 @@
       <c r="S91">
         <v>203</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>2103</v>
       </c>
       <c r="AB91" t="b">
@@ -17996,7 +18230,7 @@
       <c r="S98">
         <v>400</v>
       </c>
-      <c r="T98">
+      <c r="U98">
         <v>2010</v>
       </c>
       <c r="AB98" t="b">
@@ -18078,7 +18312,7 @@
       <c r="S99">
         <v>401</v>
       </c>
-      <c r="T99">
+      <c r="U99">
         <v>2011</v>
       </c>
       <c r="AB99" t="b">
@@ -18160,7 +18394,7 @@
       <c r="S100">
         <v>402</v>
       </c>
-      <c r="T100">
+      <c r="U100">
         <v>2012</v>
       </c>
       <c r="AB100" t="b">
@@ -18242,7 +18476,7 @@
       <c r="S101">
         <v>403</v>
       </c>
-      <c r="T101">
+      <c r="U101">
         <v>2013</v>
       </c>
       <c r="AB101" t="b">
@@ -18457,7 +18691,7 @@
       <c r="S105">
         <v>500</v>
       </c>
-      <c r="T105">
+      <c r="U105">
         <v>2020</v>
       </c>
       <c r="AB105" t="b">
@@ -18539,7 +18773,7 @@
       <c r="S106">
         <v>501</v>
       </c>
-      <c r="T106">
+      <c r="U106">
         <v>2021</v>
       </c>
       <c r="AB106" t="b">
@@ -18621,7 +18855,7 @@
       <c r="S107">
         <v>502</v>
       </c>
-      <c r="T107">
+      <c r="U107">
         <v>2022</v>
       </c>
       <c r="AB107" t="b">
@@ -18703,7 +18937,7 @@
       <c r="S108">
         <v>503</v>
       </c>
-      <c r="T108">
+      <c r="U108">
         <v>2023</v>
       </c>
       <c r="AB108" t="b">
@@ -18826,7 +19060,7 @@
       <c r="S111">
         <v>600</v>
       </c>
-      <c r="T111">
+      <c r="U111">
         <v>2030</v>
       </c>
       <c r="AB111" t="b">
@@ -18908,7 +19142,7 @@
       <c r="S112">
         <v>601</v>
       </c>
-      <c r="T112">
+      <c r="U112">
         <v>2031</v>
       </c>
       <c r="AB112" t="b">

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DB927-017B-4962-A6D5-14FEA5FA24DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075908B-91DE-4699-8E68-201A72418397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2612,9 +2612,9 @@
   <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,6 +2868,9 @@
       <c r="S5">
         <v>0</v>
       </c>
+      <c r="T5">
+        <v>-1</v>
+      </c>
       <c r="X5" t="b">
         <v>0</v>
       </c>
@@ -2976,6 +2979,9 @@
       <c r="S6">
         <v>1</v>
       </c>
+      <c r="T6">
+        <v>-1</v>
+      </c>
       <c r="X6" t="b">
         <v>0</v>
       </c>
@@ -3072,6 +3078,9 @@
       <c r="S7">
         <v>2</v>
       </c>
+      <c r="T7">
+        <v>-1</v>
+      </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
@@ -3180,6 +3189,9 @@
       <c r="S8">
         <v>3</v>
       </c>
+      <c r="T8">
+        <v>-1</v>
+      </c>
       <c r="X8" t="b">
         <v>0</v>
       </c>
@@ -3276,6 +3288,9 @@
       <c r="S9">
         <v>4</v>
       </c>
+      <c r="T9">
+        <v>-1</v>
+      </c>
       <c r="X9" t="b">
         <v>0</v>
       </c>
@@ -3384,6 +3399,9 @@
       <c r="S10">
         <v>5</v>
       </c>
+      <c r="T10">
+        <v>-1</v>
+      </c>
       <c r="X10" t="b">
         <v>0</v>
       </c>
@@ -3480,6 +3498,9 @@
       <c r="S11">
         <v>6</v>
       </c>
+      <c r="T11">
+        <v>-1</v>
+      </c>
       <c r="X11" t="b">
         <v>0</v>
       </c>
@@ -3588,6 +3609,9 @@
       <c r="S12">
         <v>7</v>
       </c>
+      <c r="T12">
+        <v>-1</v>
+      </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
@@ -3684,6 +3708,9 @@
       <c r="S13">
         <v>8</v>
       </c>
+      <c r="T13">
+        <v>-1</v>
+      </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
@@ -3792,6 +3819,9 @@
       <c r="S14">
         <v>9</v>
       </c>
+      <c r="T14">
+        <v>-1</v>
+      </c>
       <c r="X14" t="b">
         <v>0</v>
       </c>
@@ -3888,6 +3918,9 @@
       <c r="S15">
         <v>10</v>
       </c>
+      <c r="T15">
+        <v>-1</v>
+      </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
@@ -3996,6 +4029,9 @@
       <c r="S16">
         <v>11</v>
       </c>
+      <c r="T16">
+        <v>-1</v>
+      </c>
       <c r="X16" t="b">
         <v>0</v>
       </c>
@@ -4092,6 +4128,9 @@
       <c r="S17">
         <v>12</v>
       </c>
+      <c r="T17">
+        <v>-1</v>
+      </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
@@ -4200,6 +4239,9 @@
       <c r="S18">
         <v>13</v>
       </c>
+      <c r="T18">
+        <v>-1</v>
+      </c>
       <c r="X18" t="b">
         <v>0</v>
       </c>
@@ -4296,6 +4338,9 @@
       <c r="S19">
         <v>14</v>
       </c>
+      <c r="T19">
+        <v>-1</v>
+      </c>
       <c r="X19" t="b">
         <v>0</v>
       </c>
@@ -4404,6 +4449,9 @@
       <c r="S20">
         <v>15</v>
       </c>
+      <c r="T20">
+        <v>-1</v>
+      </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
@@ -4500,6 +4548,9 @@
       <c r="S21">
         <v>16</v>
       </c>
+      <c r="T21">
+        <v>-1</v>
+      </c>
       <c r="X21" t="b">
         <v>0</v>
       </c>
@@ -4608,6 +4659,9 @@
       <c r="S22">
         <v>17</v>
       </c>
+      <c r="T22">
+        <v>-1</v>
+      </c>
       <c r="X22" t="b">
         <v>0</v>
       </c>
@@ -4704,6 +4758,9 @@
       <c r="S23">
         <v>18</v>
       </c>
+      <c r="T23">
+        <v>-1</v>
+      </c>
       <c r="X23" t="b">
         <v>0</v>
       </c>
@@ -4812,6 +4869,9 @@
       <c r="S24">
         <v>19</v>
       </c>
+      <c r="T24">
+        <v>-1</v>
+      </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
@@ -4908,6 +4968,9 @@
       <c r="S25">
         <v>20</v>
       </c>
+      <c r="T25">
+        <v>-1</v>
+      </c>
       <c r="X25" t="b">
         <v>0</v>
       </c>
@@ -5016,6 +5079,9 @@
       <c r="S26">
         <v>21</v>
       </c>
+      <c r="T26">
+        <v>-1</v>
+      </c>
       <c r="X26" t="b">
         <v>0</v>
       </c>
@@ -5112,6 +5178,9 @@
       <c r="S27">
         <v>22</v>
       </c>
+      <c r="T27">
+        <v>-1</v>
+      </c>
       <c r="X27" t="b">
         <v>0</v>
       </c>
@@ -5220,6 +5289,9 @@
       <c r="S28">
         <v>23</v>
       </c>
+      <c r="T28">
+        <v>-1</v>
+      </c>
       <c r="X28" t="b">
         <v>0</v>
       </c>
@@ -5316,6 +5388,9 @@
       <c r="S29">
         <v>24</v>
       </c>
+      <c r="T29">
+        <v>-1</v>
+      </c>
       <c r="X29" t="b">
         <v>0</v>
       </c>
@@ -5424,6 +5499,9 @@
       <c r="S30">
         <v>25</v>
       </c>
+      <c r="T30">
+        <v>-1</v>
+      </c>
       <c r="X30" t="b">
         <v>0</v>
       </c>
@@ -5520,6 +5598,9 @@
       <c r="S31">
         <v>26</v>
       </c>
+      <c r="T31">
+        <v>-1</v>
+      </c>
       <c r="X31" t="b">
         <v>0</v>
       </c>
@@ -5628,6 +5709,9 @@
       <c r="S32">
         <v>27</v>
       </c>
+      <c r="T32">
+        <v>-1</v>
+      </c>
       <c r="X32" t="b">
         <v>0</v>
       </c>
@@ -5724,6 +5808,9 @@
       <c r="S33">
         <v>28</v>
       </c>
+      <c r="T33">
+        <v>-1</v>
+      </c>
       <c r="X33" t="b">
         <v>0</v>
       </c>
@@ -5832,6 +5919,9 @@
       <c r="S34">
         <v>29</v>
       </c>
+      <c r="T34">
+        <v>-1</v>
+      </c>
       <c r="X34" t="b">
         <v>0</v>
       </c>
@@ -5928,6 +6018,9 @@
       <c r="S35">
         <v>30</v>
       </c>
+      <c r="T35">
+        <v>-1</v>
+      </c>
       <c r="X35" t="b">
         <v>0</v>
       </c>
@@ -6032,6 +6125,9 @@
       <c r="S36">
         <v>31</v>
       </c>
+      <c r="T36">
+        <v>-1</v>
+      </c>
       <c r="X36" t="b">
         <v>0</v>
       </c>
@@ -6166,6 +6262,9 @@
       <c r="S39">
         <v>35</v>
       </c>
+      <c r="T39">
+        <v>-1</v>
+      </c>
       <c r="W39" t="s">
         <v>144</v>
       </c>
@@ -6252,6 +6351,9 @@
       <c r="S40">
         <v>36</v>
       </c>
+      <c r="T40">
+        <v>-1</v>
+      </c>
       <c r="W40" t="s">
         <v>145</v>
       </c>
@@ -6338,6 +6440,9 @@
       <c r="S41">
         <v>37</v>
       </c>
+      <c r="T41">
+        <v>-1</v>
+      </c>
       <c r="W41" t="s">
         <v>146</v>
       </c>
@@ -6424,6 +6529,9 @@
       <c r="S42">
         <v>38</v>
       </c>
+      <c r="T42">
+        <v>-1</v>
+      </c>
       <c r="W42" t="s">
         <v>141</v>
       </c>
@@ -6510,6 +6618,9 @@
       <c r="S43">
         <v>39</v>
       </c>
+      <c r="T43">
+        <v>-1</v>
+      </c>
       <c r="W43" t="s">
         <v>142</v>
       </c>
@@ -6596,6 +6707,9 @@
       <c r="S44">
         <v>40</v>
       </c>
+      <c r="T44">
+        <v>-1</v>
+      </c>
       <c r="W44" t="s">
         <v>143</v>
       </c>
@@ -6682,6 +6796,9 @@
       <c r="S45">
         <v>41</v>
       </c>
+      <c r="T45">
+        <v>-1</v>
+      </c>
       <c r="W45" t="s">
         <v>187</v>
       </c>
@@ -6768,6 +6885,9 @@
       <c r="S46">
         <v>42</v>
       </c>
+      <c r="T46">
+        <v>-1</v>
+      </c>
       <c r="W46" t="s">
         <v>150</v>
       </c>
@@ -6854,6 +6974,9 @@
       <c r="S47">
         <v>43</v>
       </c>
+      <c r="T47">
+        <v>-1</v>
+      </c>
       <c r="W47" t="s">
         <v>151</v>
       </c>
@@ -6940,6 +7063,9 @@
       <c r="S48">
         <v>44</v>
       </c>
+      <c r="T48">
+        <v>-1</v>
+      </c>
       <c r="W48" t="s">
         <v>152</v>
       </c>
@@ -7026,6 +7152,9 @@
       <c r="S49">
         <v>45</v>
       </c>
+      <c r="T49">
+        <v>-1</v>
+      </c>
       <c r="W49" t="s">
         <v>147</v>
       </c>
@@ -7112,6 +7241,9 @@
       <c r="S50">
         <v>46</v>
       </c>
+      <c r="T50">
+        <v>-1</v>
+      </c>
       <c r="W50" t="s">
         <v>148</v>
       </c>
@@ -7198,6 +7330,9 @@
       <c r="S51">
         <v>47</v>
       </c>
+      <c r="T51">
+        <v>-1</v>
+      </c>
       <c r="W51" t="s">
         <v>149</v>
       </c>
@@ -7284,6 +7419,9 @@
       <c r="S52">
         <v>48</v>
       </c>
+      <c r="T52">
+        <v>-1</v>
+      </c>
       <c r="W52" t="s">
         <v>188</v>
       </c>
@@ -7370,6 +7508,9 @@
       <c r="S53">
         <v>49</v>
       </c>
+      <c r="T53">
+        <v>-1</v>
+      </c>
       <c r="X53" t="b">
         <v>1</v>
       </c>
@@ -7454,6 +7595,9 @@
       <c r="S54">
         <v>50</v>
       </c>
+      <c r="T54">
+        <v>-1</v>
+      </c>
       <c r="X54" t="b">
         <v>0</v>
       </c>
@@ -7575,6 +7719,9 @@
       <c r="S57">
         <v>100</v>
       </c>
+      <c r="T57">
+        <v>-1</v>
+      </c>
       <c r="X57" t="b">
         <v>0</v>
       </c>
@@ -7683,6 +7830,9 @@
       <c r="S58">
         <v>101</v>
       </c>
+      <c r="T58">
+        <v>-1</v>
+      </c>
       <c r="X58" t="b">
         <v>0</v>
       </c>
@@ -7791,6 +7941,9 @@
       <c r="S59">
         <v>102</v>
       </c>
+      <c r="T59">
+        <v>-1</v>
+      </c>
       <c r="X59" t="b">
         <v>0</v>
       </c>
@@ -7899,6 +8052,9 @@
       <c r="S60">
         <v>103</v>
       </c>
+      <c r="T60">
+        <v>-1</v>
+      </c>
       <c r="X60" t="b">
         <v>0</v>
       </c>
@@ -8007,6 +8163,9 @@
       <c r="S61">
         <v>104</v>
       </c>
+      <c r="T61">
+        <v>-1</v>
+      </c>
       <c r="X61" t="b">
         <v>0</v>
       </c>
@@ -8115,6 +8274,9 @@
       <c r="S62">
         <v>105</v>
       </c>
+      <c r="T62">
+        <v>-1</v>
+      </c>
       <c r="X62" t="b">
         <v>0</v>
       </c>
@@ -8223,6 +8385,9 @@
       <c r="S63">
         <v>106</v>
       </c>
+      <c r="T63">
+        <v>-1</v>
+      </c>
       <c r="X63" t="b">
         <v>0</v>
       </c>
@@ -8331,6 +8496,9 @@
       <c r="S64">
         <v>107</v>
       </c>
+      <c r="T64">
+        <v>-1</v>
+      </c>
       <c r="X64" t="b">
         <v>0</v>
       </c>
@@ -8472,6 +8640,9 @@
       <c r="S68">
         <v>200</v>
       </c>
+      <c r="T68">
+        <v>-1</v>
+      </c>
       <c r="U68" t="s">
         <v>294</v>
       </c>
@@ -8558,6 +8729,9 @@
       <c r="S69">
         <v>201</v>
       </c>
+      <c r="T69">
+        <v>-1</v>
+      </c>
       <c r="U69" t="s">
         <v>295</v>
       </c>
@@ -8644,6 +8818,9 @@
       <c r="S70">
         <v>202</v>
       </c>
+      <c r="T70">
+        <v>-1</v>
+      </c>
       <c r="U70" t="s">
         <v>294</v>
       </c>
@@ -8730,6 +8907,9 @@
       <c r="S71">
         <v>203</v>
       </c>
+      <c r="T71">
+        <v>-1</v>
+      </c>
       <c r="U71" t="s">
         <v>294</v>
       </c>
@@ -8816,6 +8996,9 @@
       <c r="S72">
         <v>204</v>
       </c>
+      <c r="T72">
+        <v>-1</v>
+      </c>
       <c r="U72" t="s">
         <v>295</v>
       </c>
@@ -8902,6 +9085,9 @@
       <c r="S73">
         <v>205</v>
       </c>
+      <c r="T73">
+        <v>-1</v>
+      </c>
       <c r="U73" t="s">
         <v>294</v>
       </c>
@@ -9016,6 +9202,9 @@
       <c r="S76">
         <v>300</v>
       </c>
+      <c r="T76">
+        <v>-1</v>
+      </c>
       <c r="U76" t="s">
         <v>294</v>
       </c>
@@ -9107,6 +9296,9 @@
       <c r="S77">
         <v>301</v>
       </c>
+      <c r="T77">
+        <v>-1</v>
+      </c>
       <c r="U77" t="s">
         <v>295</v>
       </c>
@@ -9224,6 +9416,9 @@
       <c r="S80">
         <v>400</v>
       </c>
+      <c r="T80">
+        <v>-1</v>
+      </c>
       <c r="U80" t="s">
         <v>294</v>
       </c>
@@ -9310,6 +9505,9 @@
       <c r="S81">
         <v>401</v>
       </c>
+      <c r="T81">
+        <v>-1</v>
+      </c>
       <c r="U81" t="s">
         <v>295</v>
       </c>
@@ -9396,6 +9594,9 @@
       <c r="S82">
         <v>402</v>
       </c>
+      <c r="T82">
+        <v>-1</v>
+      </c>
       <c r="U82" t="s">
         <v>294</v>
       </c>
@@ -9482,6 +9683,9 @@
       <c r="S83">
         <v>403</v>
       </c>
+      <c r="T83">
+        <v>-1</v>
+      </c>
       <c r="U83" t="s">
         <v>294</v>
       </c>
@@ -9568,6 +9772,9 @@
       <c r="S84">
         <v>404</v>
       </c>
+      <c r="T84">
+        <v>-1</v>
+      </c>
       <c r="U84" t="s">
         <v>295</v>
       </c>
@@ -9654,6 +9861,9 @@
       <c r="S85">
         <v>405</v>
       </c>
+      <c r="T85">
+        <v>-1</v>
+      </c>
       <c r="U85" t="s">
         <v>294</v>
       </c>
@@ -9801,6 +10011,9 @@
       <c r="S89">
         <v>500</v>
       </c>
+      <c r="T89">
+        <v>-1</v>
+      </c>
       <c r="U89" t="s">
         <v>294</v>
       </c>
@@ -9887,6 +10100,9 @@
       <c r="S90">
         <v>501</v>
       </c>
+      <c r="T90">
+        <v>-1</v>
+      </c>
       <c r="U90" t="s">
         <v>295</v>
       </c>
@@ -9973,6 +10189,9 @@
       <c r="S91">
         <v>502</v>
       </c>
+      <c r="T91">
+        <v>-1</v>
+      </c>
       <c r="U91" t="s">
         <v>294</v>
       </c>
@@ -10059,6 +10278,9 @@
       <c r="S92">
         <v>503</v>
       </c>
+      <c r="T92">
+        <v>-1</v>
+      </c>
       <c r="U92" t="s">
         <v>294</v>
       </c>
@@ -10145,6 +10367,9 @@
       <c r="S93">
         <v>504</v>
       </c>
+      <c r="T93">
+        <v>-1</v>
+      </c>
       <c r="U93" t="s">
         <v>295</v>
       </c>
@@ -10231,6 +10456,9 @@
       <c r="S94">
         <v>505</v>
       </c>
+      <c r="T94">
+        <v>-1</v>
+      </c>
       <c r="U94" t="s">
         <v>294</v>
       </c>
@@ -10357,6 +10585,9 @@
       <c r="S97">
         <v>600</v>
       </c>
+      <c r="T97">
+        <v>-1</v>
+      </c>
       <c r="U97" t="s">
         <v>294</v>
       </c>
@@ -10441,6 +10672,9 @@
       </c>
       <c r="S98">
         <v>601</v>
+      </c>
+      <c r="T98">
+        <v>-1</v>
       </c>
       <c r="U98" t="s">
         <v>295</v>
@@ -10514,8 +10748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
   <dimension ref="A1:AO115"/>
   <sheetViews>
-    <sheetView topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="U101" sqref="U101"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T105" sqref="T105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17624,6 +17858,9 @@
       <c r="S88">
         <v>200</v>
       </c>
+      <c r="T88">
+        <v>-1</v>
+      </c>
       <c r="U88" t="s">
         <v>292</v>
       </c>
@@ -17709,6 +17946,9 @@
       <c r="S89">
         <v>201</v>
       </c>
+      <c r="T89">
+        <v>-1</v>
+      </c>
       <c r="U89" t="s">
         <v>292</v>
       </c>
@@ -17794,6 +18034,9 @@
       <c r="S90">
         <v>202</v>
       </c>
+      <c r="T90">
+        <v>-1</v>
+      </c>
       <c r="U90" t="s">
         <v>292</v>
       </c>
@@ -17878,6 +18121,9 @@
       </c>
       <c r="S91">
         <v>203</v>
+      </c>
+      <c r="T91">
+        <v>-1</v>
       </c>
       <c r="U91" t="s">
         <v>293</v>
@@ -18066,6 +18312,9 @@
       <c r="S94">
         <v>300</v>
       </c>
+      <c r="T94">
+        <v>-1</v>
+      </c>
       <c r="U94" t="s">
         <v>292</v>
       </c>
@@ -18155,6 +18404,9 @@
       </c>
       <c r="S95">
         <v>301</v>
+      </c>
+      <c r="T95">
+        <v>-1</v>
       </c>
       <c r="U95" t="s">
         <v>293</v>
@@ -18346,6 +18598,9 @@
       <c r="S98">
         <v>400</v>
       </c>
+      <c r="T98">
+        <v>-1</v>
+      </c>
       <c r="U98" t="s">
         <v>292</v>
       </c>
@@ -18431,6 +18686,9 @@
       <c r="S99">
         <v>401</v>
       </c>
+      <c r="T99">
+        <v>-1</v>
+      </c>
       <c r="U99" t="s">
         <v>292</v>
       </c>
@@ -18516,6 +18774,9 @@
       <c r="S100">
         <v>402</v>
       </c>
+      <c r="T100">
+        <v>-1</v>
+      </c>
       <c r="U100" t="s">
         <v>292</v>
       </c>
@@ -18600,6 +18861,9 @@
       </c>
       <c r="S101">
         <v>403</v>
+      </c>
+      <c r="T101">
+        <v>-1</v>
       </c>
       <c r="U101" t="s">
         <v>293</v>
@@ -18821,6 +19085,9 @@
       <c r="S105">
         <v>500</v>
       </c>
+      <c r="T105">
+        <v>-1</v>
+      </c>
       <c r="U105" t="s">
         <v>293</v>
       </c>
@@ -18906,6 +19173,9 @@
       <c r="S106">
         <v>501</v>
       </c>
+      <c r="T106">
+        <v>-1</v>
+      </c>
       <c r="U106" t="s">
         <v>292</v>
       </c>
@@ -18991,6 +19261,9 @@
       <c r="S107">
         <v>502</v>
       </c>
+      <c r="T107">
+        <v>-1</v>
+      </c>
       <c r="U107" t="s">
         <v>292</v>
       </c>
@@ -19076,6 +19349,9 @@
       <c r="S108">
         <v>503</v>
       </c>
+      <c r="T108">
+        <v>-1</v>
+      </c>
       <c r="U108" t="s">
         <v>292</v>
       </c>
@@ -19202,6 +19478,9 @@
       <c r="S111">
         <v>600</v>
       </c>
+      <c r="T111">
+        <v>-1</v>
+      </c>
       <c r="U111" t="s">
         <v>292</v>
       </c>
@@ -19286,6 +19565,9 @@
       </c>
       <c r="S112">
         <v>601</v>
+      </c>
+      <c r="T112">
+        <v>-1</v>
       </c>
       <c r="U112" t="s">
         <v>293</v>

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B075908B-91DE-4699-8E68-201A72418397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B01F49-8D93-4379-859C-686FCB62F7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
@@ -2612,9 +2612,9 @@
   <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomLeft" activeCell="T78" sqref="T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -2980,7 +2980,7 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6" t="b">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>2</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X7" t="b">
         <v>0</v>
@@ -3190,7 +3190,7 @@
         <v>3</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X8" t="b">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X9" t="b">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X10" t="b">
         <v>0</v>
@@ -3499,7 +3499,7 @@
         <v>6</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X11" t="b">
         <v>0</v>
@@ -3610,7 +3610,7 @@
         <v>7</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X12" t="b">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>8</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13" t="b">
         <v>0</v>
@@ -3820,7 +3820,7 @@
         <v>9</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X14" t="b">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>10</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X15" t="b">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>11</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" t="b">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17" t="b">
         <v>0</v>
@@ -4240,7 +4240,7 @@
         <v>13</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" t="b">
         <v>0</v>
@@ -4339,7 +4339,7 @@
         <v>14</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X19" t="b">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>15</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X20" t="b">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>16</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -4660,7 +4660,7 @@
         <v>17</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X22" t="b">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>18</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X23" t="b">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>19</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X24" t="b">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>20</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X25" t="b">
         <v>0</v>
@@ -5080,7 +5080,7 @@
         <v>21</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X26" t="b">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>22</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X27" t="b">
         <v>0</v>
@@ -5290,7 +5290,7 @@
         <v>23</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28" t="b">
         <v>0</v>
@@ -5389,7 +5389,7 @@
         <v>24</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X29" t="b">
         <v>0</v>
@@ -5500,7 +5500,7 @@
         <v>25</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X30" t="b">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         <v>26</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X31" t="b">
         <v>0</v>
@@ -5710,7 +5710,7 @@
         <v>27</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X32" t="b">
         <v>0</v>
@@ -5809,7 +5809,7 @@
         <v>28</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X33" t="b">
         <v>0</v>
@@ -5920,7 +5920,7 @@
         <v>29</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X34" t="b">
         <v>0</v>
@@ -6019,7 +6019,7 @@
         <v>30</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X35" t="b">
         <v>0</v>
@@ -6126,7 +6126,7 @@
         <v>31</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X36" t="b">
         <v>0</v>
@@ -6263,7 +6263,7 @@
         <v>35</v>
       </c>
       <c r="T39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W39" t="s">
         <v>144</v>
@@ -6352,7 +6352,7 @@
         <v>36</v>
       </c>
       <c r="T40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W40" t="s">
         <v>145</v>
@@ -6441,7 +6441,7 @@
         <v>37</v>
       </c>
       <c r="T41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W41" t="s">
         <v>146</v>
@@ -6530,7 +6530,7 @@
         <v>38</v>
       </c>
       <c r="T42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W42" t="s">
         <v>141</v>
@@ -6619,7 +6619,7 @@
         <v>39</v>
       </c>
       <c r="T43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W43" t="s">
         <v>142</v>
@@ -6708,7 +6708,7 @@
         <v>40</v>
       </c>
       <c r="T44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W44" t="s">
         <v>143</v>
@@ -6797,7 +6797,7 @@
         <v>41</v>
       </c>
       <c r="T45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W45" t="s">
         <v>187</v>
@@ -6886,7 +6886,7 @@
         <v>42</v>
       </c>
       <c r="T46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W46" t="s">
         <v>150</v>
@@ -6975,7 +6975,7 @@
         <v>43</v>
       </c>
       <c r="T47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W47" t="s">
         <v>151</v>
@@ -7064,7 +7064,7 @@
         <v>44</v>
       </c>
       <c r="T48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W48" t="s">
         <v>152</v>
@@ -7153,7 +7153,7 @@
         <v>45</v>
       </c>
       <c r="T49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W49" t="s">
         <v>147</v>
@@ -7242,7 +7242,7 @@
         <v>46</v>
       </c>
       <c r="T50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W50" t="s">
         <v>148</v>
@@ -7331,7 +7331,7 @@
         <v>47</v>
       </c>
       <c r="T51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W51" t="s">
         <v>149</v>
@@ -7420,7 +7420,7 @@
         <v>48</v>
       </c>
       <c r="T52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W52" t="s">
         <v>188</v>
@@ -7509,7 +7509,7 @@
         <v>49</v>
       </c>
       <c r="T53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X53" t="b">
         <v>1</v>
@@ -7596,7 +7596,7 @@
         <v>50</v>
       </c>
       <c r="T54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X54" t="b">
         <v>0</v>
@@ -7720,7 +7720,7 @@
         <v>100</v>
       </c>
       <c r="T57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X57" t="b">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>101</v>
       </c>
       <c r="T58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X58" t="b">
         <v>0</v>
@@ -7942,7 +7942,7 @@
         <v>102</v>
       </c>
       <c r="T59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X59" t="b">
         <v>0</v>
@@ -8053,7 +8053,7 @@
         <v>103</v>
       </c>
       <c r="T60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X60" t="b">
         <v>0</v>
@@ -8164,7 +8164,7 @@
         <v>104</v>
       </c>
       <c r="T61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X61" t="b">
         <v>0</v>
@@ -8275,7 +8275,7 @@
         <v>105</v>
       </c>
       <c r="T62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X62" t="b">
         <v>0</v>
@@ -8386,7 +8386,7 @@
         <v>106</v>
       </c>
       <c r="T63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X63" t="b">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>107</v>
       </c>
       <c r="T64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X64" t="b">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>300</v>
       </c>
       <c r="T76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U76" t="s">
         <v>294</v>
@@ -9297,7 +9297,7 @@
         <v>301</v>
       </c>
       <c r="T77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U77" t="s">
         <v>295</v>
@@ -10748,8 +10748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
   <dimension ref="A1:AO115"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T105" sqref="T105"/>
+    <sheetView topLeftCell="E79" workbookViewId="0">
+      <selection activeCell="T96" sqref="T96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18313,7 +18313,7 @@
         <v>300</v>
       </c>
       <c r="T94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U94" t="s">
         <v>292</v>
@@ -18406,7 +18406,7 @@
         <v>301</v>
       </c>
       <c r="T95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U95" t="s">
         <v>293</v>

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adambyrn\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF51A0E-E8F1-4FA8-91CF-2616938D0C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0830F-E4A6-4CF4-A969-A2295BAE235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6186" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6187" uniqueCount="431">
   <si>
     <t>Flow</t>
   </si>
@@ -1213,102 +1213,6 @@
     <t>MBIST_PMUCS</t>
   </si>
   <si>
-    <t>SSA_BIRA_BUTTRESS</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_BUTTRESS</t>
-  </si>
-  <si>
-    <t>SSA_BISR_BUTTRESS</t>
-  </si>
-  <si>
-    <t>LSA_BISR_BUTTRESS</t>
-  </si>
-  <si>
-    <t>SSA_BIRA_SPINE</t>
-  </si>
-  <si>
-    <t>SSA_BISR_SPINE</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_SPINE</t>
-  </si>
-  <si>
-    <t>LSA_BISR_SPINE</t>
-  </si>
-  <si>
-    <t>SSA_BIRA_TILE_SHAVE_0</t>
-  </si>
-  <si>
-    <t>SSA_BISR_TILE_SHAVE_0</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_TILE_SHAVE_0</t>
-  </si>
-  <si>
-    <t>LSA_BISR_TILE_SHAVE_0</t>
-  </si>
-  <si>
-    <t>SSA_BIRA_TILE_SHAVE_1</t>
-  </si>
-  <si>
-    <t>SSA_BISR_TILE_SHAVE_1</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_TILE_SHAVE_1</t>
-  </si>
-  <si>
-    <t>LSA_BISR_TILE_SHAVE_1</t>
-  </si>
-  <si>
-    <t>SSA_BIRA_TILE_SHAVE_2</t>
-  </si>
-  <si>
-    <t>SSA_BISR_TILE_SHAVE_2</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_TILE_SHAVE_2</t>
-  </si>
-  <si>
-    <t>LSA_BISR_TILE_SHAVE_2</t>
-  </si>
-  <si>
-    <t>SSA_BIRA_TILE_SHAVE_3</t>
-  </si>
-  <si>
-    <t>SSA_BISR_TILE_SHAVE_3</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_TILE_SHAVE_3</t>
-  </si>
-  <si>
-    <t>LSA_BISR_TILE_SHAVE_3</t>
-  </si>
-  <si>
-    <t>SSA_BIRA_TILE_SHAVE_4</t>
-  </si>
-  <si>
-    <t>SSA_BISR_TILE_SHAVE_4</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_TILE_SHAVE_4</t>
-  </si>
-  <si>
-    <t>LSA_BISR_TILE_SHAVE_4</t>
-  </si>
-  <si>
-    <t>SSA_BIRA_TILE_SHAVE_5</t>
-  </si>
-  <si>
-    <t>SSA_BISR_TILE_SHAVE_5</t>
-  </si>
-  <si>
-    <t>LSA_BIRA_TILE_SHAVE_5</t>
-  </si>
-  <si>
-    <t>LSA_BISR_TILE_SHAVE_5</t>
-  </si>
-  <si>
     <t>SVPUBUTR</t>
   </si>
   <si>
@@ -1331,54 +1235,6 @@
   </si>
   <si>
     <t>SVPUTL5R</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_BUTTRESS</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_BUTTRESS</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_SPINE</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_SPINE</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_TILE_SHAVE_0</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_TILE_SHAVE_0</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_TILE_SHAVE_1</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_TILE_SHAVE_1</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_TILE_SHAVE_2</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_TILE_SHAVE_2</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_TILE_SHAVE_3</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_TILE_SHAVE_3</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_TILE_SHAVE_4</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_TILE_SHAVE_4</t>
-  </si>
-  <si>
-    <t>SSA_POSTHRY_TILE_SHAVE_5</t>
-  </si>
-  <si>
-    <t>LSA_POSTHRY_TILE_SHAVE_5</t>
   </si>
   <si>
     <t>BUTTRESS</t>
@@ -1406,6 +1262,81 @@
   </si>
   <si>
     <t>VPU_ALL</t>
+  </si>
+  <si>
+    <t>BIRA_BUTTRESS</t>
+  </si>
+  <si>
+    <t>BISR_BUTTRESS</t>
+  </si>
+  <si>
+    <t>BIRA_SPINE</t>
+  </si>
+  <si>
+    <t>BISR_SPINE</t>
+  </si>
+  <si>
+    <t>BIRA_TILE_SHAVE_0</t>
+  </si>
+  <si>
+    <t>BISR_TILE_SHAVE_0</t>
+  </si>
+  <si>
+    <t>BIRA_TILE_SHAVE_1</t>
+  </si>
+  <si>
+    <t>BISR_TILE_SHAVE_1</t>
+  </si>
+  <si>
+    <t>BIRA_TILE_SHAVE_2</t>
+  </si>
+  <si>
+    <t>BISR_TILE_SHAVE_2</t>
+  </si>
+  <si>
+    <t>BIRA_TILE_SHAVE_3</t>
+  </si>
+  <si>
+    <t>BISR_TILE_SHAVE_3</t>
+  </si>
+  <si>
+    <t>BIRA_TILE_SHAVE_4</t>
+  </si>
+  <si>
+    <t>BISR_TILE_SHAVE_4</t>
+  </si>
+  <si>
+    <t>BIRA_TILE_SHAVE_5</t>
+  </si>
+  <si>
+    <t>BISR_TILE_SHAVE_5</t>
+  </si>
+  <si>
+    <t>POSTHRY_BUTTRESS</t>
+  </si>
+  <si>
+    <t>POSTHRY_SPINE</t>
+  </si>
+  <si>
+    <t>POSTHRY_TILE_SHAVE_0</t>
+  </si>
+  <si>
+    <t>POSTHRY_TILE_SHAVE_1</t>
+  </si>
+  <si>
+    <t>POSTHRY_TILE_SHAVE_2</t>
+  </si>
+  <si>
+    <t>POSTHRY_TILE_SHAVE_3</t>
+  </si>
+  <si>
+    <t>POSTHRY_TILE_SHAVE_4</t>
+  </si>
+  <si>
+    <t>POSTHRY_TILE_SHAVE_5</t>
+  </si>
+  <si>
+    <t>G.U.S.DEFECTREPAIR_CORE</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2404,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C19"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3087,7 @@
   <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="T78" sqref="T78"/>
     </sheetView>
@@ -11292,8 +11223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
   <dimension ref="A1:AO115"/>
   <sheetViews>
-    <sheetView topLeftCell="D61" workbookViewId="0">
-      <selection activeCell="T96" sqref="T96"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20224,8 +20155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B8437-3DCF-4B36-BC4E-3AB927DD0A96}">
   <dimension ref="A1:AN125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="U91" sqref="U91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20544,9 +20475,7 @@
       <c r="S5" s="6">
         <v>0</v>
       </c>
-      <c r="T5" s="6">
-        <v>1000</v>
-      </c>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -20662,9 +20591,7 @@
       <c r="S6" s="6">
         <v>1</v>
       </c>
-      <c r="T6" s="6">
-        <v>1001</v>
-      </c>
+      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -20771,9 +20698,7 @@
       <c r="S7" s="6">
         <v>2</v>
       </c>
-      <c r="T7" s="6">
-        <v>1002</v>
-      </c>
+      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -20889,9 +20814,7 @@
       <c r="S8" s="6">
         <v>3</v>
       </c>
-      <c r="T8" s="6">
-        <v>1003</v>
-      </c>
+      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -20998,9 +20921,7 @@
       <c r="S9" s="6">
         <v>4</v>
       </c>
-      <c r="T9" s="6">
-        <v>1004</v>
-      </c>
+      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -21116,9 +21037,7 @@
       <c r="S10" s="6">
         <v>5</v>
       </c>
-      <c r="T10" s="6">
-        <v>1005</v>
-      </c>
+      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -21225,9 +21144,7 @@
       <c r="S11" s="6">
         <v>6</v>
       </c>
-      <c r="T11" s="6">
-        <v>1006</v>
-      </c>
+      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -21343,9 +21260,7 @@
       <c r="S12" s="6">
         <v>7</v>
       </c>
-      <c r="T12" s="6">
-        <v>1007</v>
-      </c>
+      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -21452,9 +21367,7 @@
       <c r="S13" s="6">
         <v>8</v>
       </c>
-      <c r="T13" s="6">
-        <v>1008</v>
-      </c>
+      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -21570,9 +21483,7 @@
       <c r="S14" s="6">
         <v>9</v>
       </c>
-      <c r="T14" s="6">
-        <v>1009</v>
-      </c>
+      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -21679,9 +21590,7 @@
       <c r="S15" s="6">
         <v>10</v>
       </c>
-      <c r="T15" s="6">
-        <v>1010</v>
-      </c>
+      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -21797,9 +21706,7 @@
       <c r="S16" s="6">
         <v>11</v>
       </c>
-      <c r="T16" s="6">
-        <v>1011</v>
-      </c>
+      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -21906,9 +21813,7 @@
       <c r="S17" s="6">
         <v>12</v>
       </c>
-      <c r="T17" s="6">
-        <v>1012</v>
-      </c>
+      <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -22024,9 +21929,7 @@
       <c r="S18" s="6">
         <v>13</v>
       </c>
-      <c r="T18" s="6">
-        <v>1013</v>
-      </c>
+      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -22133,9 +22036,7 @@
       <c r="S19" s="6">
         <v>14</v>
       </c>
-      <c r="T19" s="6">
-        <v>1014</v>
-      </c>
+      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -22251,9 +22152,7 @@
       <c r="S20" s="6">
         <v>15</v>
       </c>
-      <c r="T20" s="6">
-        <v>1015</v>
-      </c>
+      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -22360,9 +22259,7 @@
       <c r="S21" s="6">
         <v>16</v>
       </c>
-      <c r="T21" s="6">
-        <v>1016</v>
-      </c>
+      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -22478,9 +22375,7 @@
       <c r="S22" s="6">
         <v>17</v>
       </c>
-      <c r="T22" s="6">
-        <v>1017</v>
-      </c>
+      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -22587,9 +22482,7 @@
       <c r="S23" s="6">
         <v>18</v>
       </c>
-      <c r="T23" s="6">
-        <v>1018</v>
-      </c>
+      <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -22705,9 +22598,7 @@
       <c r="S24" s="6">
         <v>19</v>
       </c>
-      <c r="T24" s="6">
-        <v>1019</v>
-      </c>
+      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -22814,9 +22705,7 @@
       <c r="S25" s="6">
         <v>20</v>
       </c>
-      <c r="T25" s="6">
-        <v>1020</v>
-      </c>
+      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -22932,9 +22821,7 @@
       <c r="S26" s="6">
         <v>21</v>
       </c>
-      <c r="T26" s="6">
-        <v>1021</v>
-      </c>
+      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -23041,9 +22928,7 @@
       <c r="S27" s="6">
         <v>22</v>
       </c>
-      <c r="T27" s="6">
-        <v>1022</v>
-      </c>
+      <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -23159,9 +23044,7 @@
       <c r="S28" s="6">
         <v>23</v>
       </c>
-      <c r="T28" s="6">
-        <v>1023</v>
-      </c>
+      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -23268,9 +23151,7 @@
       <c r="S29" s="6">
         <v>24</v>
       </c>
-      <c r="T29" s="6">
-        <v>1024</v>
-      </c>
+      <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -23386,9 +23267,7 @@
       <c r="S30" s="6">
         <v>25</v>
       </c>
-      <c r="T30" s="6">
-        <v>1025</v>
-      </c>
+      <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -23495,9 +23374,7 @@
       <c r="S31" s="6">
         <v>26</v>
       </c>
-      <c r="T31" s="6">
-        <v>1026</v>
-      </c>
+      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -23613,9 +23490,7 @@
       <c r="S32" s="6">
         <v>27</v>
       </c>
-      <c r="T32" s="6">
-        <v>1027</v>
-      </c>
+      <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
@@ -23722,9 +23597,7 @@
       <c r="S33" s="6">
         <v>28</v>
       </c>
-      <c r="T33" s="6">
-        <v>1028</v>
-      </c>
+      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -23840,9 +23713,7 @@
       <c r="S34" s="6">
         <v>29</v>
       </c>
-      <c r="T34" s="6">
-        <v>1029</v>
-      </c>
+      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -23949,9 +23820,7 @@
       <c r="S35" s="6">
         <v>30</v>
       </c>
-      <c r="T35" s="6">
-        <v>1030</v>
-      </c>
+      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -24067,9 +23936,7 @@
       <c r="S36" s="6">
         <v>31</v>
       </c>
-      <c r="T36" s="6">
-        <v>1031</v>
-      </c>
+      <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -24176,9 +24043,7 @@
       <c r="S37" s="6">
         <v>32</v>
       </c>
-      <c r="T37" s="6">
-        <v>1032</v>
-      </c>
+      <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
@@ -24294,9 +24159,7 @@
       <c r="S38" s="6">
         <v>33</v>
       </c>
-      <c r="T38" s="6">
-        <v>1033</v>
-      </c>
+      <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
@@ -24403,9 +24266,7 @@
       <c r="S39" s="6">
         <v>34</v>
       </c>
-      <c r="T39" s="6">
-        <v>1034</v>
-      </c>
+      <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
@@ -24521,9 +24382,7 @@
       <c r="S40" s="6">
         <v>35</v>
       </c>
-      <c r="T40" s="6">
-        <v>1035</v>
-      </c>
+      <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
@@ -24630,9 +24489,7 @@
       <c r="S41" s="6">
         <v>36</v>
       </c>
-      <c r="T41" s="6">
-        <v>1036</v>
-      </c>
+      <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
@@ -24748,9 +24605,7 @@
       <c r="S42" s="6">
         <v>37</v>
       </c>
-      <c r="T42" s="6">
-        <v>1037</v>
-      </c>
+      <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
@@ -24857,9 +24712,7 @@
       <c r="S43" s="6">
         <v>38</v>
       </c>
-      <c r="T43" s="6">
-        <v>1038</v>
-      </c>
+      <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
@@ -24971,9 +24824,7 @@
       <c r="S44" s="6">
         <v>39</v>
       </c>
-      <c r="T44" s="6">
-        <v>1039</v>
-      </c>
+      <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
@@ -25184,14 +25035,12 @@
         <v>61</v>
       </c>
       <c r="R47" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S47" s="19">
         <v>40</v>
       </c>
-      <c r="T47" s="19">
-        <v>1040</v>
-      </c>
+      <c r="T47" s="19"/>
       <c r="U47" s="20" t="s">
         <v>340</v>
       </c>
@@ -25286,14 +25135,12 @@
         <v>61</v>
       </c>
       <c r="R48" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S48" s="19">
         <v>41</v>
       </c>
-      <c r="T48" s="19">
-        <v>1041</v>
-      </c>
+      <c r="T48" s="19"/>
       <c r="U48" s="20" t="s">
         <v>341</v>
       </c>
@@ -25388,14 +25235,12 @@
         <v>61</v>
       </c>
       <c r="R49" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S49" s="19">
         <v>42</v>
       </c>
-      <c r="T49" s="19">
-        <v>1042</v>
-      </c>
+      <c r="T49" s="19"/>
       <c r="U49" s="20" t="s">
         <v>342</v>
       </c>
@@ -25490,14 +25335,12 @@
         <v>61</v>
       </c>
       <c r="R50" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S50" s="19">
         <v>43</v>
       </c>
-      <c r="T50" s="19">
-        <v>1043</v>
-      </c>
+      <c r="T50" s="19"/>
       <c r="U50" s="20" t="s">
         <v>343</v>
       </c>
@@ -25592,14 +25435,12 @@
         <v>61</v>
       </c>
       <c r="R51" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S51" s="19">
         <v>44</v>
       </c>
-      <c r="T51" s="19">
-        <v>1044</v>
-      </c>
+      <c r="T51" s="19"/>
       <c r="U51" s="20" t="s">
         <v>344</v>
       </c>
@@ -25694,14 +25535,12 @@
         <v>61</v>
       </c>
       <c r="R52" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S52" s="19">
         <v>45</v>
       </c>
-      <c r="T52" s="19">
-        <v>1045</v>
-      </c>
+      <c r="T52" s="19"/>
       <c r="U52" s="20" t="s">
         <v>345</v>
       </c>
@@ -25796,14 +25635,12 @@
         <v>61</v>
       </c>
       <c r="R53" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S53" s="19">
         <v>46</v>
       </c>
-      <c r="T53" s="19">
-        <v>1046</v>
-      </c>
+      <c r="T53" s="19"/>
       <c r="U53" s="20" t="s">
         <v>346</v>
       </c>
@@ -25898,14 +25735,12 @@
         <v>61</v>
       </c>
       <c r="R54" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S54" s="19">
         <v>47</v>
       </c>
-      <c r="T54" s="19">
-        <v>1047</v>
-      </c>
+      <c r="T54" s="19"/>
       <c r="U54" s="20" t="s">
         <v>347</v>
       </c>
@@ -26000,14 +25835,12 @@
         <v>61</v>
       </c>
       <c r="R55" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S55" s="19">
         <v>48</v>
       </c>
-      <c r="T55" s="19">
-        <v>1048</v>
-      </c>
+      <c r="T55" s="19"/>
       <c r="U55" s="20" t="s">
         <v>348</v>
       </c>
@@ -26102,14 +25935,12 @@
         <v>61</v>
       </c>
       <c r="R56" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S56" s="19">
         <v>49</v>
       </c>
-      <c r="T56" s="19">
-        <v>1049</v>
-      </c>
+      <c r="T56" s="19"/>
       <c r="U56" s="20" t="s">
         <v>349</v>
       </c>
@@ -26204,14 +26035,12 @@
         <v>61</v>
       </c>
       <c r="R57" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S57" s="19">
         <v>50</v>
       </c>
-      <c r="T57" s="19">
-        <v>1050</v>
-      </c>
+      <c r="T57" s="19"/>
       <c r="U57" s="20" t="s">
         <v>350</v>
       </c>
@@ -26306,14 +26135,12 @@
         <v>61</v>
       </c>
       <c r="R58" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S58" s="19">
         <v>51</v>
       </c>
-      <c r="T58" s="19">
-        <v>1051</v>
-      </c>
+      <c r="T58" s="19"/>
       <c r="U58" s="20" t="s">
         <v>351</v>
       </c>
@@ -26408,14 +26235,12 @@
         <v>21</v>
       </c>
       <c r="R59" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S59" s="19">
         <v>52</v>
       </c>
-      <c r="T59" s="19">
-        <v>1052</v>
-      </c>
+      <c r="T59" s="19"/>
       <c r="U59" s="20" t="s">
         <v>352</v>
       </c>
@@ -26510,14 +26335,12 @@
         <v>21</v>
       </c>
       <c r="R60" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S60" s="19">
         <v>53</v>
       </c>
-      <c r="T60" s="19">
-        <v>1053</v>
-      </c>
+      <c r="T60" s="19"/>
       <c r="U60" s="20" t="s">
         <v>353</v>
       </c>
@@ -26612,14 +26435,12 @@
         <v>21</v>
       </c>
       <c r="R61" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S61" s="19">
         <v>54</v>
       </c>
-      <c r="T61" s="19">
-        <v>1054</v>
-      </c>
+      <c r="T61" s="19"/>
       <c r="U61" s="20" t="s">
         <v>354</v>
       </c>
@@ -26714,14 +26535,12 @@
         <v>21</v>
       </c>
       <c r="R62" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S62" s="19">
         <v>55</v>
       </c>
-      <c r="T62" s="19">
-        <v>1055</v>
-      </c>
+      <c r="T62" s="19"/>
       <c r="U62" s="20" t="s">
         <v>355</v>
       </c>
@@ -26816,14 +26635,12 @@
         <v>21</v>
       </c>
       <c r="R63" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S63" s="19">
         <v>56</v>
       </c>
-      <c r="T63" s="19">
-        <v>1056</v>
-      </c>
+      <c r="T63" s="19"/>
       <c r="U63" s="20" t="s">
         <v>356</v>
       </c>
@@ -26918,14 +26735,12 @@
         <v>21</v>
       </c>
       <c r="R64" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S64" s="19">
         <v>57</v>
       </c>
-      <c r="T64" s="19">
-        <v>1057</v>
-      </c>
+      <c r="T64" s="19"/>
       <c r="U64" s="20" t="s">
         <v>357</v>
       </c>
@@ -27020,14 +26835,12 @@
         <v>21</v>
       </c>
       <c r="R65" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S65" s="19">
         <v>58</v>
       </c>
-      <c r="T65" s="19">
-        <v>1058</v>
-      </c>
+      <c r="T65" s="19"/>
       <c r="U65" s="20" t="s">
         <v>358</v>
       </c>
@@ -27122,14 +26935,12 @@
         <v>21</v>
       </c>
       <c r="R66" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S66" s="19">
         <v>59</v>
       </c>
-      <c r="T66" s="19">
-        <v>1059</v>
-      </c>
+      <c r="T66" s="19"/>
       <c r="U66" s="20" t="s">
         <v>359</v>
       </c>
@@ -27224,14 +27035,12 @@
         <v>21</v>
       </c>
       <c r="R67" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S67" s="19">
         <v>60</v>
       </c>
-      <c r="T67" s="19">
-        <v>1060</v>
-      </c>
+      <c r="T67" s="19"/>
       <c r="U67" s="19"/>
       <c r="V67" s="19"/>
       <c r="W67" s="19"/>
@@ -27324,14 +27133,12 @@
         <v>21</v>
       </c>
       <c r="R68" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S68" s="19">
         <v>61</v>
       </c>
-      <c r="T68" s="19">
-        <v>1061</v>
-      </c>
+      <c r="T68" s="19"/>
       <c r="U68" s="19"/>
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
@@ -27393,7 +27200,7 @@
       <c r="O69" s="18"/>
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
+      <c r="R69" s="28"/>
       <c r="S69" s="18"/>
       <c r="T69" s="18"/>
       <c r="U69" s="18"/>
@@ -27446,7 +27253,7 @@
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
       <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
+      <c r="R70" s="28"/>
       <c r="S70" s="18"/>
       <c r="T70" s="18"/>
       <c r="U70" s="18"/>
@@ -27534,14 +27341,12 @@
         <v>61</v>
       </c>
       <c r="R71" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S71" s="21">
         <v>62</v>
       </c>
-      <c r="T71" s="21">
-        <v>1062</v>
-      </c>
+      <c r="T71" s="21"/>
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
       <c r="W71" s="21"/>
@@ -27652,14 +27457,12 @@
         <v>61</v>
       </c>
       <c r="R72" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S72" s="21">
         <v>63</v>
       </c>
-      <c r="T72" s="21">
-        <v>1063</v>
-      </c>
+      <c r="T72" s="21"/>
       <c r="U72" s="21"/>
       <c r="V72" s="21"/>
       <c r="W72" s="21"/>
@@ -27770,14 +27573,12 @@
         <v>61</v>
       </c>
       <c r="R73" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S73" s="21">
         <v>64</v>
       </c>
-      <c r="T73" s="21">
-        <v>1064</v>
-      </c>
+      <c r="T73" s="21"/>
       <c r="U73" s="21"/>
       <c r="V73" s="21"/>
       <c r="W73" s="21"/>
@@ -27888,14 +27689,12 @@
         <v>61</v>
       </c>
       <c r="R74" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S74" s="21">
         <v>65</v>
       </c>
-      <c r="T74" s="21">
-        <v>1065</v>
-      </c>
+      <c r="T74" s="21"/>
       <c r="U74" s="21"/>
       <c r="V74" s="21"/>
       <c r="W74" s="21"/>
@@ -28006,14 +27805,12 @@
         <v>61</v>
       </c>
       <c r="R75" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S75" s="21">
         <v>66</v>
       </c>
-      <c r="T75" s="21">
-        <v>1066</v>
-      </c>
+      <c r="T75" s="21"/>
       <c r="U75" s="21"/>
       <c r="V75" s="21"/>
       <c r="W75" s="21"/>
@@ -28124,14 +27921,12 @@
         <v>61</v>
       </c>
       <c r="R76" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S76" s="21">
         <v>67</v>
       </c>
-      <c r="T76" s="21">
-        <v>1067</v>
-      </c>
+      <c r="T76" s="21"/>
       <c r="U76" s="21"/>
       <c r="V76" s="21"/>
       <c r="W76" s="21"/>
@@ -28242,14 +28037,12 @@
         <v>61</v>
       </c>
       <c r="R77" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S77" s="21">
         <v>68</v>
       </c>
-      <c r="T77" s="21">
-        <v>1068</v>
-      </c>
+      <c r="T77" s="21"/>
       <c r="U77" s="21"/>
       <c r="V77" s="21"/>
       <c r="W77" s="21"/>
@@ -28360,14 +28153,12 @@
         <v>61</v>
       </c>
       <c r="R78" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S78" s="21">
         <v>69</v>
       </c>
-      <c r="T78" s="21">
-        <v>1069</v>
-      </c>
+      <c r="T78" s="21"/>
       <c r="U78" s="21"/>
       <c r="V78" s="21"/>
       <c r="W78" s="21"/>
@@ -28478,14 +28269,12 @@
         <v>61</v>
       </c>
       <c r="R79" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S79" s="21">
         <v>70</v>
       </c>
-      <c r="T79" s="21">
-        <v>1070</v>
-      </c>
+      <c r="T79" s="21"/>
       <c r="U79" s="21"/>
       <c r="V79" s="21"/>
       <c r="W79" s="21"/>
@@ -28596,14 +28385,12 @@
         <v>61</v>
       </c>
       <c r="R80" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S80" s="21">
         <v>71</v>
       </c>
-      <c r="T80" s="21">
-        <v>1071</v>
-      </c>
+      <c r="T80" s="21"/>
       <c r="U80" s="21"/>
       <c r="V80" s="21"/>
       <c r="W80" s="21"/>
@@ -28714,14 +28501,12 @@
         <v>61</v>
       </c>
       <c r="R81" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S81" s="21">
         <v>72</v>
       </c>
-      <c r="T81" s="21">
-        <v>1072</v>
-      </c>
+      <c r="T81" s="21"/>
       <c r="U81" s="21"/>
       <c r="V81" s="21"/>
       <c r="W81" s="21"/>
@@ -28832,14 +28617,12 @@
         <v>61</v>
       </c>
       <c r="R82" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S82" s="21">
         <v>73</v>
       </c>
-      <c r="T82" s="21">
-        <v>1073</v>
-      </c>
+      <c r="T82" s="21"/>
       <c r="U82" s="21"/>
       <c r="V82" s="21"/>
       <c r="W82" s="21"/>
@@ -28950,14 +28733,12 @@
         <v>21</v>
       </c>
       <c r="R83" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S83" s="21">
         <v>74</v>
       </c>
-      <c r="T83" s="21">
-        <v>1074</v>
-      </c>
+      <c r="T83" s="21"/>
       <c r="U83" s="21"/>
       <c r="V83" s="21"/>
       <c r="W83" s="21"/>
@@ -29068,14 +28849,12 @@
         <v>21</v>
       </c>
       <c r="R84" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S84" s="21">
         <v>75</v>
       </c>
-      <c r="T84" s="21">
-        <v>1075</v>
-      </c>
+      <c r="T84" s="21"/>
       <c r="U84" s="21"/>
       <c r="V84" s="21"/>
       <c r="W84" s="21"/>
@@ -29186,14 +28965,12 @@
         <v>21</v>
       </c>
       <c r="R85" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S85" s="21">
         <v>76</v>
       </c>
-      <c r="T85" s="21">
-        <v>1076</v>
-      </c>
+      <c r="T85" s="21"/>
       <c r="U85" s="21"/>
       <c r="V85" s="21"/>
       <c r="W85" s="21"/>
@@ -29304,14 +29081,12 @@
         <v>21</v>
       </c>
       <c r="R86" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S86" s="21">
         <v>77</v>
       </c>
-      <c r="T86" s="21">
-        <v>1077</v>
-      </c>
+      <c r="T86" s="21"/>
       <c r="U86" s="21"/>
       <c r="V86" s="21"/>
       <c r="W86" s="21"/>
@@ -29422,14 +29197,12 @@
         <v>21</v>
       </c>
       <c r="R87" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S87" s="21">
         <v>78</v>
       </c>
-      <c r="T87" s="21">
-        <v>1078</v>
-      </c>
+      <c r="T87" s="21"/>
       <c r="U87" s="21"/>
       <c r="V87" s="21"/>
       <c r="W87" s="21"/>
@@ -29540,14 +29313,12 @@
         <v>21</v>
       </c>
       <c r="R88" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S88" s="21">
         <v>79</v>
       </c>
-      <c r="T88" s="21">
-        <v>1079</v>
-      </c>
+      <c r="T88" s="21"/>
       <c r="U88" s="21"/>
       <c r="V88" s="21"/>
       <c r="W88" s="21"/>
@@ -29658,14 +29429,12 @@
         <v>21</v>
       </c>
       <c r="R89" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S89" s="21">
         <v>80</v>
       </c>
-      <c r="T89" s="21">
-        <v>1080</v>
-      </c>
+      <c r="T89" s="21"/>
       <c r="U89" s="21"/>
       <c r="V89" s="21"/>
       <c r="W89" s="21"/>
@@ -29776,14 +29545,12 @@
         <v>21</v>
       </c>
       <c r="R90" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S90" s="21">
         <v>81</v>
       </c>
-      <c r="T90" s="21">
-        <v>1081</v>
-      </c>
+      <c r="T90" s="21"/>
       <c r="U90" s="21"/>
       <c r="V90" s="21"/>
       <c r="W90" s="21"/>
@@ -29885,15 +29652,15 @@
         <v>21</v>
       </c>
       <c r="R91" s="21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S91" s="21">
         <v>82</v>
       </c>
-      <c r="T91" s="21">
-        <v>1082</v>
-      </c>
-      <c r="U91" s="21"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21" t="s">
+        <v>430</v>
+      </c>
       <c r="V91" s="21"/>
       <c r="W91" s="21"/>
       <c r="X91" s="21"/>
@@ -30136,10 +29903,10 @@
         <v>21</v>
       </c>
       <c r="S95">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T95">
-        <v>1100</v>
+        <v>2300</v>
       </c>
       <c r="AB95" t="b">
         <v>0</v>
@@ -30218,10 +29985,10 @@
         <v>21</v>
       </c>
       <c r="S96">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="T96">
-        <v>1101</v>
+        <v>2301</v>
       </c>
       <c r="AB96" t="b">
         <v>0</v>
@@ -30300,10 +30067,10 @@
         <v>21</v>
       </c>
       <c r="S97">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="T97">
-        <v>1102</v>
+        <v>2302</v>
       </c>
       <c r="AB97" t="b">
         <v>0</v>
@@ -30382,10 +30149,10 @@
         <v>21</v>
       </c>
       <c r="S98">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="T98">
-        <v>1103</v>
+        <v>2303</v>
       </c>
       <c r="AB98" t="b">
         <v>0</v>
@@ -30464,10 +30231,10 @@
         <v>21</v>
       </c>
       <c r="S99">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="T99">
-        <v>1104</v>
+        <v>2304</v>
       </c>
       <c r="AB99" t="b">
         <v>0</v>
@@ -30646,7 +30413,7 @@
         <v>61</v>
       </c>
       <c r="S102">
-        <v>300</v>
+        <v>205</v>
       </c>
       <c r="AB102" t="b">
         <v>0</v>
@@ -30737,7 +30504,7 @@
         <v>61</v>
       </c>
       <c r="S103">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="AB103" t="b">
         <v>0</v>
@@ -30925,10 +30692,10 @@
         <v>21</v>
       </c>
       <c r="S106">
-        <v>400</v>
+        <v>207</v>
       </c>
       <c r="T106">
-        <v>1105</v>
+        <v>2305</v>
       </c>
       <c r="AB106" t="b">
         <v>0</v>
@@ -31007,10 +30774,10 @@
         <v>21</v>
       </c>
       <c r="S107">
-        <v>401</v>
+        <v>208</v>
       </c>
       <c r="T107">
-        <v>1106</v>
+        <v>2306</v>
       </c>
       <c r="AB107" t="b">
         <v>0</v>
@@ -31089,10 +30856,10 @@
         <v>21</v>
       </c>
       <c r="S108">
-        <v>402</v>
+        <v>209</v>
       </c>
       <c r="T108">
-        <v>1107</v>
+        <v>2307</v>
       </c>
       <c r="AB108" t="b">
         <v>0</v>
@@ -31171,10 +30938,10 @@
         <v>21</v>
       </c>
       <c r="S109">
-        <v>403</v>
+        <v>210</v>
       </c>
       <c r="T109">
-        <v>1108</v>
+        <v>2308</v>
       </c>
       <c r="AB109" t="b">
         <v>0</v>
@@ -31253,10 +31020,10 @@
         <v>21</v>
       </c>
       <c r="S110">
-        <v>404</v>
+        <v>211</v>
       </c>
       <c r="T110">
-        <v>1109</v>
+        <v>2309</v>
       </c>
       <c r="AB110" t="b">
         <v>0</v>
@@ -31497,10 +31264,10 @@
         <v>22</v>
       </c>
       <c r="S114">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T114">
-        <v>1110</v>
+        <v>2310</v>
       </c>
       <c r="AB114" t="b">
         <v>0</v>
@@ -31579,10 +31346,10 @@
         <v>22</v>
       </c>
       <c r="S115">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="T115">
-        <v>1111</v>
+        <v>2311</v>
       </c>
       <c r="AB115" t="b">
         <v>0</v>
@@ -31661,10 +31428,10 @@
         <v>22</v>
       </c>
       <c r="S116">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>1112</v>
+        <v>2312</v>
       </c>
       <c r="AB116" t="b">
         <v>0</v>
@@ -31743,10 +31510,10 @@
         <v>22</v>
       </c>
       <c r="S117">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="T117">
-        <v>1113</v>
+        <v>2313</v>
       </c>
       <c r="AB117" t="b">
         <v>0</v>
@@ -31825,10 +31592,10 @@
         <v>22</v>
       </c>
       <c r="S118">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="T118">
-        <v>1114</v>
+        <v>2314</v>
       </c>
       <c r="AB118" t="b">
         <v>0</v>
@@ -31872,7 +31639,6 @@
       <c r="P119" s="24"/>
       <c r="Q119" s="24"/>
       <c r="R119" s="24"/>
-      <c r="S119" s="24"/>
       <c r="U119" s="24"/>
       <c r="V119" s="24"/>
       <c r="W119" s="24"/>
@@ -31923,7 +31689,6 @@
       <c r="P120" s="24"/>
       <c r="Q120" s="24"/>
       <c r="R120" s="24"/>
-      <c r="S120" s="24"/>
       <c r="U120" s="24"/>
       <c r="V120" s="24"/>
       <c r="W120" s="24"/>
@@ -32012,10 +31777,10 @@
         <v>61</v>
       </c>
       <c r="S121">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="T121">
-        <v>1117</v>
+        <v>2315</v>
       </c>
       <c r="AB121" t="b">
         <v>0</v>
@@ -32094,10 +31859,10 @@
         <v>21</v>
       </c>
       <c r="S122">
-        <v>601</v>
+        <v>6</v>
       </c>
       <c r="T122">
-        <v>1118</v>
+        <v>2316</v>
       </c>
       <c r="AB122" t="b">
         <v>0</v>
@@ -32237,14 +32002,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EAE81-7B4D-421F-AB9D-4D5523112C76}">
   <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
     <col min="13" max="13" width="30.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
@@ -32516,7 +32282,7 @@
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" ref="D5:D16" si="0">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_BUTTRESS</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>31</v>
@@ -32543,7 +32309,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>36</v>
@@ -32563,9 +32329,7 @@
       <c r="S5" s="6">
         <v>0</v>
       </c>
-      <c r="T5" s="6">
-        <v>3000</v>
-      </c>
+      <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6"/>
@@ -32585,39 +32349,39 @@
       </c>
       <c r="AE5" s="6" t="str">
         <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_BUTTRESS</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AF5" s="6" t="str">
         <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="AG5" s="6" t="str">
         <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="AH5" s="6" t="str">
         <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="AI5" s="6" t="str">
         <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="AJ5" s="6" t="str">
         <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_BUTTRESS</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AK5" s="6" t="str">
         <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_BUTTRESS</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AL5" s="6" t="str">
         <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_BUTTRESS</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AM5" s="6" t="str">
         <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_BUTTRESS</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AN5" s="6"/>
     </row>
@@ -32634,7 +32398,7 @@
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_BUTTRESS</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>31</v>
@@ -32661,7 +32425,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>36</v>
@@ -32681,9 +32445,7 @@
       <c r="S6" s="6">
         <v>1</v>
       </c>
-      <c r="T6" s="6">
-        <v>3001</v>
-      </c>
+      <c r="T6" s="6"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
@@ -32703,27 +32465,27 @@
       </c>
       <c r="AE6" s="6" t="str">
         <f t="shared" ref="AE6:AE35" si="2">D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="AF6" s="6" t="str">
         <f t="shared" ref="AF6:AF34" si="3">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AG6" s="6" t="str">
         <f t="shared" ref="AG6:AG34" si="4">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AH6" s="6" t="str">
         <f t="shared" ref="AH6:AH34" si="5">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AI6" s="6" t="str">
         <f t="shared" ref="AI6:AI34" si="6">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AJ6" s="6" t="str">
         <f t="shared" ref="AJ6:AJ35" si="7">D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="AK6" s="6"/>
       <c r="AL6" s="6"/>
@@ -32743,7 +32505,7 @@
       </c>
       <c r="D7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>59</v>
@@ -32770,7 +32532,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>36</v>
@@ -32790,9 +32552,7 @@
       <c r="S7" s="6">
         <v>2</v>
       </c>
-      <c r="T7" s="6">
-        <v>3002</v>
-      </c>
+      <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -32812,39 +32572,39 @@
       </c>
       <c r="AE7" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AF7" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AG7" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AH7" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AI7" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AJ7" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AK7" s="6" t="str">
         <f t="shared" ref="AK7" si="8">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AL7" s="6" t="str">
         <f t="shared" ref="AL7" si="9">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AM7" s="6" t="str">
         <f t="shared" ref="AM7" si="10">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="AN7" s="6"/>
     </row>
@@ -32861,7 +32621,7 @@
       </c>
       <c r="D8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_BUTTRESS</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>59</v>
@@ -32888,7 +32648,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>36</v>
@@ -32908,9 +32668,7 @@
       <c r="S8" s="6">
         <v>3</v>
       </c>
-      <c r="T8" s="6">
-        <v>3003</v>
-      </c>
+      <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -32930,27 +32688,27 @@
       </c>
       <c r="AE8" s="6" t="str">
         <f>D13</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AF8" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AG8" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AH8" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AI8" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AJ8" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AK8" s="6"/>
       <c r="AL8" s="6"/>
@@ -32970,7 +32728,7 @@
       </c>
       <c r="D9" s="6" t="str">
         <f t="shared" ref="D9:D12" si="11">E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;"_"&amp;A9&amp;"_"&amp;I9&amp;"_"&amp;J9&amp;"_"&amp;K9&amp;"_"&amp;L9&amp;"_"&amp;M9</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>31</v>
@@ -32997,7 +32755,7 @@
         <v>6</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>36</v>
@@ -33015,11 +32773,9 @@
         <v>30</v>
       </c>
       <c r="S9" s="6">
-        <v>0</v>
-      </c>
-      <c r="T9" s="6">
-        <v>3004</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="T9" s="6"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -33039,39 +32795,39 @@
       </c>
       <c r="AE9" s="6" t="str">
         <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AF9" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AG9" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AH9" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AI9" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AJ9" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AK9" s="6" t="str">
         <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AL9" s="6" t="str">
         <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AM9" s="6" t="str">
         <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AN9" s="6"/>
     </row>
@@ -33088,7 +32844,7 @@
       </c>
       <c r="D10" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_SPINE</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>31</v>
@@ -33115,7 +32871,7 @@
         <v>6</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>36</v>
@@ -33133,11 +32889,9 @@
         <v>30</v>
       </c>
       <c r="S10" s="6">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6">
-        <v>3005</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -33157,27 +32911,27 @@
       </c>
       <c r="AE10" s="6" t="str">
         <f t="shared" ref="AE10:AE11" si="13">D11</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AF10" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AG10" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AH10" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AI10" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AJ10" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="AK10" s="6"/>
       <c r="AL10" s="6"/>
@@ -33197,7 +32951,7 @@
       </c>
       <c r="D11" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>59</v>
@@ -33224,7 +32978,7 @@
         <v>6</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>36</v>
@@ -33242,11 +32996,9 @@
         <v>30</v>
       </c>
       <c r="S11" s="6">
-        <v>2</v>
-      </c>
-      <c r="T11" s="6">
-        <v>3006</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -33266,39 +33018,39 @@
       </c>
       <c r="AE11" s="6" t="str">
         <f t="shared" si="13"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AF11" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AG11" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AH11" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AI11" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AJ11" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AK11" s="6" t="str">
         <f t="shared" ref="AK11" si="14">D12</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AL11" s="6" t="str">
         <f t="shared" ref="AL11" si="15">D12</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AM11" s="6" t="str">
         <f t="shared" ref="AM11" si="16">D12</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="AN11" s="6"/>
     </row>
@@ -33315,7 +33067,7 @@
       </c>
       <c r="D12" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_SPINE</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>59</v>
@@ -33342,7 +33094,7 @@
         <v>6</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>36</v>
@@ -33360,11 +33112,9 @@
         <v>30</v>
       </c>
       <c r="S12" s="6">
-        <v>3</v>
-      </c>
-      <c r="T12" s="6">
-        <v>3007</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -33384,27 +33134,27 @@
       </c>
       <c r="AE12" s="6" t="str">
         <f>D17</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AF12" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AG12" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AH12" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AI12" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AJ12" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AK12" s="6"/>
       <c r="AL12" s="6"/>
@@ -33424,7 +33174,7 @@
       </c>
       <c r="D13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>31</v>
@@ -33451,7 +33201,7 @@
         <v>6</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>36</v>
@@ -33469,11 +33219,9 @@
         <v>30</v>
       </c>
       <c r="S13" s="6">
-        <v>4</v>
-      </c>
-      <c r="T13" s="6">
-        <v>3008</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -33493,39 +33241,39 @@
       </c>
       <c r="AE13" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AF13" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AG13" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AH13" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AI13" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AJ13" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AK13" s="6" t="str">
         <f>D14</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AL13" s="6" t="str">
         <f>D14</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AM13" s="6" t="str">
         <f>D14</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AN13" s="6"/>
     </row>
@@ -33542,7 +33290,7 @@
       </c>
       <c r="D14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_0</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>31</v>
@@ -33569,7 +33317,7 @@
         <v>6</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>36</v>
@@ -33587,11 +33335,9 @@
         <v>30</v>
       </c>
       <c r="S14" s="6">
-        <v>5</v>
-      </c>
-      <c r="T14" s="6">
-        <v>3009</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -33611,27 +33357,27 @@
       </c>
       <c r="AE14" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AF14" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AG14" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AH14" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AI14" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AJ14" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
@@ -33651,7 +33397,7 @@
       </c>
       <c r="D15" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>59</v>
@@ -33678,7 +33424,7 @@
         <v>6</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>36</v>
@@ -33696,11 +33442,9 @@
         <v>30</v>
       </c>
       <c r="S15" s="6">
-        <v>6</v>
-      </c>
-      <c r="T15" s="6">
-        <v>3010</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
@@ -33720,39 +33464,39 @@
       </c>
       <c r="AE15" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AF15" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AG15" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AH15" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AI15" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AJ15" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AK15" s="6" t="str">
         <f t="shared" ref="AK15" si="17">D16</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AL15" s="6" t="str">
         <f t="shared" ref="AL15" si="18">D16</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AM15" s="6" t="str">
         <f t="shared" ref="AM15" si="19">D16</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="AN15" s="6"/>
     </row>
@@ -33769,7 +33513,7 @@
       </c>
       <c r="D16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_0</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>59</v>
@@ -33796,7 +33540,7 @@
         <v>6</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="N16" s="6" t="s">
         <v>36</v>
@@ -33814,11 +33558,9 @@
         <v>30</v>
       </c>
       <c r="S16" s="6">
-        <v>7</v>
-      </c>
-      <c r="T16" s="6">
-        <v>3011</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
@@ -33838,27 +33580,27 @@
       </c>
       <c r="AE16" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AF16" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AG16" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AH16" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AI16" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AJ16" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AK16" s="6"/>
       <c r="AL16" s="6"/>
@@ -33878,7 +33620,7 @@
       </c>
       <c r="D17" s="6" t="str">
         <f t="shared" ref="D17:D24" si="20">E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;"_"&amp;A17&amp;"_"&amp;I17&amp;"_"&amp;J17&amp;"_"&amp;K17&amp;"_"&amp;L17&amp;"_"&amp;M17</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>31</v>
@@ -33905,7 +33647,7 @@
         <v>6</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="N17" s="6" t="s">
         <v>36</v>
@@ -33923,11 +33665,9 @@
         <v>30</v>
       </c>
       <c r="S17" s="6">
-        <v>8</v>
-      </c>
-      <c r="T17" s="6">
-        <v>3012</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
@@ -33947,39 +33687,39 @@
       </c>
       <c r="AE17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AF17" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AG17" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AH17" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AI17" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AJ17" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AK17" s="6" t="str">
         <f>D18</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AL17" s="6" t="str">
         <f>D18</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AM17" s="6" t="str">
         <f>D18</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AN17" s="6"/>
     </row>
@@ -33996,7 +33736,7 @@
       </c>
       <c r="D18" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_1</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>31</v>
@@ -34023,7 +33763,7 @@
         <v>6</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>36</v>
@@ -34041,11 +33781,9 @@
         <v>30</v>
       </c>
       <c r="S18" s="6">
-        <v>9</v>
-      </c>
-      <c r="T18" s="6">
-        <v>3013</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
@@ -34065,27 +33803,27 @@
       </c>
       <c r="AE18" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AF18" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AG18" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AH18" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AI18" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AJ18" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="AK18" s="6"/>
       <c r="AL18" s="6"/>
@@ -34105,7 +33843,7 @@
       </c>
       <c r="D19" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>59</v>
@@ -34132,7 +33870,7 @@
         <v>6</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="N19" s="6" t="s">
         <v>36</v>
@@ -34150,11 +33888,9 @@
         <v>30</v>
       </c>
       <c r="S19" s="6">
-        <v>10</v>
-      </c>
-      <c r="T19" s="6">
-        <v>3014</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
@@ -34174,39 +33910,39 @@
       </c>
       <c r="AE19" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AF19" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AG19" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AH19" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AI19" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AJ19" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AK19" s="6" t="str">
         <f t="shared" ref="AK19" si="22">D20</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AL19" s="6" t="str">
         <f t="shared" ref="AL19" si="23">D20</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AM19" s="6" t="str">
         <f t="shared" ref="AM19" si="24">D20</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="AN19" s="6"/>
     </row>
@@ -34223,7 +33959,7 @@
       </c>
       <c r="D20" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_1</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>59</v>
@@ -34250,7 +33986,7 @@
         <v>6</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>36</v>
@@ -34268,11 +34004,9 @@
         <v>30</v>
       </c>
       <c r="S20" s="6">
-        <v>11</v>
-      </c>
-      <c r="T20" s="6">
-        <v>3015</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
@@ -34292,27 +34026,27 @@
       </c>
       <c r="AE20" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AF20" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AG20" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AH20" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AI20" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AJ20" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AK20" s="6"/>
       <c r="AL20" s="6"/>
@@ -34332,7 +34066,7 @@
       </c>
       <c r="D21" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>31</v>
@@ -34359,7 +34093,7 @@
         <v>6</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>36</v>
@@ -34377,11 +34111,9 @@
         <v>30</v>
       </c>
       <c r="S21" s="6">
-        <v>12</v>
-      </c>
-      <c r="T21" s="6">
-        <v>3016</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
@@ -34401,39 +34133,39 @@
       </c>
       <c r="AE21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AF21" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AG21" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AH21" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AI21" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AJ21" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AK21" s="6" t="str">
         <f>D22</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AL21" s="6" t="str">
         <f>D22</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AM21" s="6" t="str">
         <f>D22</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AN21" s="6"/>
     </row>
@@ -34450,7 +34182,7 @@
       </c>
       <c r="D22" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_2</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>31</v>
@@ -34477,7 +34209,7 @@
         <v>6</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="N22" s="6" t="s">
         <v>36</v>
@@ -34495,11 +34227,9 @@
         <v>30</v>
       </c>
       <c r="S22" s="6">
-        <v>13</v>
-      </c>
-      <c r="T22" s="6">
-        <v>3017</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
@@ -34519,27 +34249,27 @@
       </c>
       <c r="AE22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AF22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AG22" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AH22" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AI22" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AJ22" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="AK22" s="6"/>
       <c r="AL22" s="6"/>
@@ -34559,7 +34289,7 @@
       </c>
       <c r="D23" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>59</v>
@@ -34586,7 +34316,7 @@
         <v>6</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>36</v>
@@ -34604,11 +34334,9 @@
         <v>30</v>
       </c>
       <c r="S23" s="6">
-        <v>14</v>
-      </c>
-      <c r="T23" s="6">
-        <v>3018</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
@@ -34628,39 +34356,39 @@
       </c>
       <c r="AE23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AF23" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AG23" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AH23" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AI23" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AJ23" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AK23" s="6" t="str">
         <f t="shared" ref="AK23" si="25">D24</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AL23" s="6" t="str">
         <f t="shared" ref="AL23" si="26">D24</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AM23" s="6" t="str">
         <f t="shared" ref="AM23" si="27">D24</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="AN23" s="6"/>
     </row>
@@ -34677,7 +34405,7 @@
       </c>
       <c r="D24" s="6" t="str">
         <f t="shared" si="20"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_2</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>59</v>
@@ -34704,7 +34432,7 @@
         <v>6</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="N24" s="6" t="s">
         <v>36</v>
@@ -34722,11 +34450,9 @@
         <v>30</v>
       </c>
       <c r="S24" s="6">
-        <v>15</v>
-      </c>
-      <c r="T24" s="6">
-        <v>3019</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -34746,27 +34472,27 @@
       </c>
       <c r="AE24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AF24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AG24" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AH24" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AI24" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AJ24" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AK24" s="6"/>
       <c r="AL24" s="6"/>
@@ -34786,7 +34512,7 @@
       </c>
       <c r="D25" s="6" t="str">
         <f t="shared" ref="D25:D32" si="28">E25&amp;"_"&amp;F25&amp;"_"&amp;G25&amp;"_"&amp;H25&amp;"_"&amp;A25&amp;"_"&amp;I25&amp;"_"&amp;J25&amp;"_"&amp;K25&amp;"_"&amp;L25&amp;"_"&amp;M25</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>31</v>
@@ -34813,7 +34539,7 @@
         <v>6</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>36</v>
@@ -34831,11 +34557,9 @@
         <v>30</v>
       </c>
       <c r="S25" s="6">
-        <v>16</v>
-      </c>
-      <c r="T25" s="6">
-        <v>3020</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -34855,39 +34579,39 @@
       </c>
       <c r="AE25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AF25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AG25" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AH25" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AI25" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AJ25" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AK25" s="6" t="str">
         <f>D26</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AL25" s="6" t="str">
         <f>D26</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AM25" s="6" t="str">
         <f>D26</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AN25" s="6"/>
     </row>
@@ -34904,7 +34628,7 @@
       </c>
       <c r="D26" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_3</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>31</v>
@@ -34931,7 +34655,7 @@
         <v>6</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>36</v>
@@ -34949,11 +34673,9 @@
         <v>30</v>
       </c>
       <c r="S26" s="6">
-        <v>17</v>
-      </c>
-      <c r="T26" s="6">
-        <v>3021</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -34973,27 +34695,27 @@
       </c>
       <c r="AE26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AF26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AG26" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AH26" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AI26" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AJ26" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="AK26" s="6"/>
       <c r="AL26" s="6"/>
@@ -35013,7 +34735,7 @@
       </c>
       <c r="D27" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>59</v>
@@ -35040,7 +34762,7 @@
         <v>6</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>36</v>
@@ -35058,11 +34780,9 @@
         <v>30</v>
       </c>
       <c r="S27" s="6">
-        <v>18</v>
-      </c>
-      <c r="T27" s="6">
-        <v>3022</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -35082,39 +34802,39 @@
       </c>
       <c r="AE27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AF27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AG27" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AH27" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AI27" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AJ27" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AK27" s="6" t="str">
         <f t="shared" ref="AK27" si="30">D28</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AL27" s="6" t="str">
         <f t="shared" ref="AL27" si="31">D28</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AM27" s="6" t="str">
         <f t="shared" ref="AM27" si="32">D28</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="AN27" s="6"/>
     </row>
@@ -35131,7 +34851,7 @@
       </c>
       <c r="D28" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_3</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>59</v>
@@ -35158,7 +34878,7 @@
         <v>6</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N28" s="6" t="s">
         <v>36</v>
@@ -35176,11 +34896,9 @@
         <v>30</v>
       </c>
       <c r="S28" s="6">
-        <v>19</v>
-      </c>
-      <c r="T28" s="6">
-        <v>3023</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -35200,27 +34918,27 @@
       </c>
       <c r="AE28" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AF28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AG28" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AH28" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AI28" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AJ28" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AK28" s="6"/>
       <c r="AL28" s="6"/>
@@ -35240,7 +34958,7 @@
       </c>
       <c r="D29" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>31</v>
@@ -35267,7 +34985,7 @@
         <v>6</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="N29" s="6" t="s">
         <v>36</v>
@@ -35285,11 +35003,9 @@
         <v>30</v>
       </c>
       <c r="S29" s="6">
-        <v>20</v>
-      </c>
-      <c r="T29" s="6">
-        <v>3024</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -35309,39 +35025,39 @@
       </c>
       <c r="AE29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AF29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AG29" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AH29" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AI29" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AJ29" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AK29" s="6" t="str">
         <f>D30</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AL29" s="6" t="str">
         <f>D30</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AM29" s="6" t="str">
         <f>D30</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AN29" s="6"/>
     </row>
@@ -35358,7 +35074,7 @@
       </c>
       <c r="D30" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_4</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>31</v>
@@ -35385,7 +35101,7 @@
         <v>6</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="N30" s="6" t="s">
         <v>36</v>
@@ -35403,11 +35119,9 @@
         <v>30</v>
       </c>
       <c r="S30" s="6">
-        <v>21</v>
-      </c>
-      <c r="T30" s="6">
-        <v>3025</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -35427,27 +35141,27 @@
       </c>
       <c r="AE30" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AF30" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AG30" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AH30" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AI30" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AJ30" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="AK30" s="6"/>
       <c r="AL30" s="6"/>
@@ -35467,7 +35181,7 @@
       </c>
       <c r="D31" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>59</v>
@@ -35494,7 +35208,7 @@
         <v>6</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="N31" s="6" t="s">
         <v>36</v>
@@ -35512,11 +35226,9 @@
         <v>30</v>
       </c>
       <c r="S31" s="6">
-        <v>22</v>
-      </c>
-      <c r="T31" s="6">
-        <v>3026</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -35536,39 +35248,39 @@
       </c>
       <c r="AE31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AF31" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AG31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AH31" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AI31" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AJ31" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AK31" s="6" t="str">
         <f t="shared" ref="AK31" si="33">D32</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AL31" s="6" t="str">
         <f t="shared" ref="AL31" si="34">D32</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AM31" s="6" t="str">
         <f t="shared" ref="AM31" si="35">D32</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="AN31" s="6"/>
     </row>
@@ -35585,7 +35297,7 @@
       </c>
       <c r="D32" s="6" t="str">
         <f t="shared" si="28"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_4</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>59</v>
@@ -35612,7 +35324,7 @@
         <v>6</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N32" s="6" t="s">
         <v>36</v>
@@ -35630,11 +35342,9 @@
         <v>30</v>
       </c>
       <c r="S32" s="6">
-        <v>23</v>
-      </c>
-      <c r="T32" s="6">
-        <v>3027</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
@@ -35654,27 +35364,27 @@
       </c>
       <c r="AE32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AF32" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AG32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AH32" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AI32" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AJ32" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AK32" s="6"/>
       <c r="AL32" s="6"/>
@@ -35694,7 +35404,7 @@
       </c>
       <c r="D33" s="6" t="str">
         <f t="shared" ref="D33:D36" si="36">E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33&amp;"_"&amp;A33&amp;"_"&amp;I33&amp;"_"&amp;J33&amp;"_"&amp;K33&amp;"_"&amp;L33&amp;"_"&amp;M33</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_BIRA_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>31</v>
@@ -35721,7 +35431,7 @@
         <v>6</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N33" s="6" t="s">
         <v>36</v>
@@ -35739,11 +35449,9 @@
         <v>30</v>
       </c>
       <c r="S33" s="6">
-        <v>24</v>
-      </c>
-      <c r="T33" s="6">
-        <v>3028</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
@@ -35763,39 +35471,39 @@
       </c>
       <c r="AE33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AF33" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AG33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AH33" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AI33" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AJ33" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AK33" s="6" t="str">
         <f>D34</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AL33" s="6" t="str">
         <f>D34</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AM33" s="6" t="str">
         <f>D34</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AN33" s="6"/>
     </row>
@@ -35812,7 +35520,7 @@
       </c>
       <c r="D34" s="6" t="str">
         <f t="shared" si="36"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_SSA_BISR_TILE_SHAVE_5</v>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>31</v>
@@ -35839,7 +35547,7 @@
         <v>6</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="N34" s="6" t="s">
         <v>36</v>
@@ -35857,11 +35565,9 @@
         <v>30</v>
       </c>
       <c r="S34" s="6">
-        <v>25</v>
-      </c>
-      <c r="T34" s="6">
-        <v>3029</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
@@ -35881,27 +35587,27 @@
       </c>
       <c r="AE34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AF34" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AG34" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AH34" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AI34" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AJ34" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="AK34" s="6"/>
       <c r="AL34" s="6"/>
@@ -35921,7 +35627,7 @@
       </c>
       <c r="D35" s="6" t="str">
         <f t="shared" si="36"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_BIRA_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>59</v>
@@ -35948,7 +35654,7 @@
         <v>6</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N35" s="6" t="s">
         <v>36</v>
@@ -35966,11 +35672,9 @@
         <v>30</v>
       </c>
       <c r="S35" s="6">
-        <v>26</v>
-      </c>
-      <c r="T35" s="6">
-        <v>3030</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
@@ -35990,7 +35694,7 @@
       </c>
       <c r="AE35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AF35" s="6">
         <v>1</v>
@@ -36006,19 +35710,19 @@
       </c>
       <c r="AJ35" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AK35" s="6" t="str">
         <f t="shared" ref="AK35" si="38">D36</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AL35" s="6" t="str">
         <f t="shared" ref="AL35" si="39">D36</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AM35" s="6" t="str">
         <f t="shared" ref="AM35" si="40">D36</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="AN35" s="6"/>
     </row>
@@ -36035,7 +35739,7 @@
       </c>
       <c r="D36" s="6" t="str">
         <f t="shared" si="36"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_LSA_BISR_TILE_SHAVE_5</v>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>59</v>
@@ -36062,7 +35766,7 @@
         <v>6</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>36</v>
@@ -36080,11 +35784,9 @@
         <v>30</v>
       </c>
       <c r="S36" s="6">
-        <v>27</v>
-      </c>
-      <c r="T36" s="6">
-        <v>3031</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
@@ -36280,7 +35982,7 @@
         <v>6</v>
       </c>
       <c r="M39" s="27" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="N39" s="19" t="s">
         <v>36</v>
@@ -36295,16 +35997,14 @@
         <v>61</v>
       </c>
       <c r="R39" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S39" s="19">
-        <v>40</v>
-      </c>
-      <c r="T39" s="19">
-        <v>3032</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="T39" s="19"/>
       <c r="U39" s="27" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="V39" s="19"/>
       <c r="W39" s="19"/>
@@ -36382,7 +36082,7 @@
         <v>6</v>
       </c>
       <c r="M40" s="27" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="N40" s="19" t="s">
         <v>36</v>
@@ -36397,16 +36097,14 @@
         <v>61</v>
       </c>
       <c r="R40" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S40" s="19">
-        <v>41</v>
-      </c>
-      <c r="T40" s="19">
-        <v>3033</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="T40" s="19"/>
       <c r="U40" s="27" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
@@ -36484,7 +36182,7 @@
         <v>6</v>
       </c>
       <c r="M41" s="27" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="N41" s="19" t="s">
         <v>36</v>
@@ -36499,16 +36197,14 @@
         <v>61</v>
       </c>
       <c r="R41" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S41" s="19">
-        <v>42</v>
-      </c>
-      <c r="T41" s="19">
-        <v>3034</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="T41" s="19"/>
       <c r="U41" s="27" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="V41" s="19"/>
       <c r="W41" s="19"/>
@@ -36586,7 +36282,7 @@
         <v>6</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="N42" s="19" t="s">
         <v>36</v>
@@ -36601,16 +36297,14 @@
         <v>61</v>
       </c>
       <c r="R42" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S42" s="19">
-        <v>43</v>
-      </c>
-      <c r="T42" s="19">
-        <v>3035</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="T42" s="19"/>
       <c r="U42" s="27" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
@@ -36688,7 +36382,7 @@
         <v>6</v>
       </c>
       <c r="M43" s="27" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="N43" s="19" t="s">
         <v>36</v>
@@ -36703,16 +36397,14 @@
         <v>61</v>
       </c>
       <c r="R43" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S43" s="19">
-        <v>44</v>
-      </c>
-      <c r="T43" s="19">
-        <v>3036</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="T43" s="19"/>
       <c r="U43" s="27" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="V43" s="19"/>
       <c r="W43" s="19"/>
@@ -36790,7 +36482,7 @@
         <v>6</v>
       </c>
       <c r="M44" s="27" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="N44" s="19" t="s">
         <v>36</v>
@@ -36805,16 +36497,14 @@
         <v>61</v>
       </c>
       <c r="R44" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S44" s="19">
-        <v>45</v>
-      </c>
-      <c r="T44" s="19">
-        <v>3037</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="T44" s="19"/>
       <c r="U44" s="27" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
@@ -36892,7 +36582,7 @@
         <v>6</v>
       </c>
       <c r="M45" s="27" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="N45" s="19" t="s">
         <v>36</v>
@@ -36907,16 +36597,14 @@
         <v>61</v>
       </c>
       <c r="R45" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S45" s="19">
-        <v>46</v>
-      </c>
-      <c r="T45" s="19">
-        <v>3038</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="T45" s="19"/>
       <c r="U45" s="27" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="V45" s="19"/>
       <c r="W45" s="19"/>
@@ -36994,7 +36682,7 @@
         <v>6</v>
       </c>
       <c r="M46" s="27" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="N46" s="19" t="s">
         <v>36</v>
@@ -37009,16 +36697,14 @@
         <v>61</v>
       </c>
       <c r="R46" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S46" s="19">
-        <v>47</v>
-      </c>
-      <c r="T46" s="19">
-        <v>3039</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="T46" s="19"/>
       <c r="U46" s="27" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
@@ -37111,14 +36797,12 @@
         <v>21</v>
       </c>
       <c r="R47" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S47" s="19">
-        <v>60</v>
-      </c>
-      <c r="T47" s="19">
-        <v>3040</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="T47" s="19"/>
       <c r="U47" s="19"/>
       <c r="V47" s="19"/>
       <c r="W47" s="19"/>
@@ -37211,14 +36895,12 @@
         <v>21</v>
       </c>
       <c r="R48" s="19">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="S48" s="19">
-        <v>61</v>
-      </c>
-      <c r="T48" s="19">
-        <v>3041</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="T48" s="19"/>
       <c r="U48" s="19"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
@@ -37379,7 +37061,7 @@
       </c>
       <c r="D51" s="14" t="str">
         <f t="shared" ref="D51:D66" si="46">E51&amp;"_"&amp;F51&amp;"_"&amp;G51&amp;"_"&amp;H51&amp;"_"&amp;A51&amp;"_"&amp;I51&amp;"_"&amp;J51&amp;"_"&amp;K51&amp;"_"&amp;L51&amp;"_"&amp;M51</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_BUTTRESS</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>31</v>
@@ -37406,7 +37088,7 @@
         <v>6</v>
       </c>
       <c r="M51" s="14" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N51" s="14" t="s">
         <v>36</v>
@@ -37424,10 +37106,7 @@
         <v>30</v>
       </c>
       <c r="S51" s="14">
-        <v>0</v>
-      </c>
-      <c r="T51" s="14">
-        <v>3042</v>
+        <v>42</v>
       </c>
       <c r="AB51" s="14" t="b">
         <v>0</v>
@@ -37441,39 +37120,39 @@
       </c>
       <c r="AE51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AF51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AG51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AH51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AI51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AJ51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AK51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AL51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="AM51" s="14" t="str">
         <f>D52</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
     </row>
     <row r="52" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -37489,7 +37168,7 @@
       </c>
       <c r="D52" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_BUTTRESS</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_BUTTRESS</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>59</v>
@@ -37516,7 +37195,7 @@
         <v>6</v>
       </c>
       <c r="M52" s="14" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="N52" s="14" t="s">
         <v>36</v>
@@ -37534,10 +37213,7 @@
         <v>30</v>
       </c>
       <c r="S52" s="14">
-        <v>2</v>
-      </c>
-      <c r="T52" s="14">
-        <v>3043</v>
+        <v>43</v>
       </c>
       <c r="AB52" s="14" t="b">
         <v>0</v>
@@ -37551,39 +37227,39 @@
       </c>
       <c r="AE52" s="14" t="str">
         <f t="shared" ref="AE52:AE65" si="48">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AF52" s="14" t="str">
         <f t="shared" ref="AF52:AF65" si="49">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AG52" s="14" t="str">
         <f t="shared" ref="AG52:AG65" si="50">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AH52" s="14" t="str">
         <f t="shared" ref="AH52:AH65" si="51">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AI52" s="14" t="str">
         <f t="shared" ref="AI52:AI65" si="52">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AJ52" s="14" t="str">
         <f t="shared" ref="AJ52:AJ65" si="53">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AK52" s="14" t="str">
         <f t="shared" ref="AK52:AK65" si="54">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AL52" s="14" t="str">
         <f t="shared" ref="AL52:AL65" si="55">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AM52" s="14" t="str">
         <f t="shared" ref="AM52:AM65" si="56">D53</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
     </row>
     <row r="53" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -37599,7 +37275,7 @@
       </c>
       <c r="D53" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_SPINE</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>31</v>
@@ -37626,7 +37302,7 @@
         <v>6</v>
       </c>
       <c r="M53" s="14" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="N53" s="14" t="s">
         <v>36</v>
@@ -37644,10 +37320,7 @@
         <v>30</v>
       </c>
       <c r="S53" s="14">
-        <v>0</v>
-      </c>
-      <c r="T53" s="14">
-        <v>3044</v>
+        <v>44</v>
       </c>
       <c r="AB53" s="14" t="b">
         <v>0</v>
@@ -37661,39 +37334,39 @@
       </c>
       <c r="AE53" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AF53" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AG53" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AH53" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AI53" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AJ53" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AK53" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AL53" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="AM53" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
     </row>
     <row r="54" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -37709,7 +37382,7 @@
       </c>
       <c r="D54" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_SPINE</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_SPINE</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>59</v>
@@ -37736,7 +37409,7 @@
         <v>6</v>
       </c>
       <c r="M54" s="14" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N54" s="14" t="s">
         <v>36</v>
@@ -37754,10 +37427,7 @@
         <v>30</v>
       </c>
       <c r="S54" s="14">
-        <v>2</v>
-      </c>
-      <c r="T54" s="14">
-        <v>3045</v>
+        <v>45</v>
       </c>
       <c r="AB54" s="14" t="b">
         <v>0</v>
@@ -37771,39 +37441,39 @@
       </c>
       <c r="AE54" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AF54" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AG54" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AH54" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AI54" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AJ54" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AK54" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AL54" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AM54" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
     </row>
     <row r="55" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -37819,7 +37489,7 @@
       </c>
       <c r="D55" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="E55" s="14" t="s">
         <v>31</v>
@@ -37846,7 +37516,7 @@
         <v>6</v>
       </c>
       <c r="M55" s="14" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="N55" s="14" t="s">
         <v>36</v>
@@ -37864,10 +37534,7 @@
         <v>30</v>
       </c>
       <c r="S55" s="14">
-        <v>4</v>
-      </c>
-      <c r="T55" s="14">
-        <v>3046</v>
+        <v>46</v>
       </c>
       <c r="AB55" s="14" t="b">
         <v>0</v>
@@ -37881,39 +37548,39 @@
       </c>
       <c r="AE55" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AF55" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AG55" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AH55" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AI55" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AJ55" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AK55" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AL55" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="AM55" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
     </row>
     <row r="56" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -37929,7 +37596,7 @@
       </c>
       <c r="D56" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_0</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_0</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>59</v>
@@ -37956,7 +37623,7 @@
         <v>6</v>
       </c>
       <c r="M56" s="14" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="N56" s="14" t="s">
         <v>36</v>
@@ -37974,10 +37641,7 @@
         <v>30</v>
       </c>
       <c r="S56" s="14">
-        <v>6</v>
-      </c>
-      <c r="T56" s="14">
-        <v>3047</v>
+        <v>47</v>
       </c>
       <c r="AB56" s="14" t="b">
         <v>0</v>
@@ -37991,39 +37655,39 @@
       </c>
       <c r="AE56" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AF56" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AG56" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AH56" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AI56" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AJ56" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AK56" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AL56" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AM56" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
     </row>
     <row r="57" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38039,7 +37703,7 @@
       </c>
       <c r="D57" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="E57" s="14" t="s">
         <v>31</v>
@@ -38066,7 +37730,7 @@
         <v>6</v>
       </c>
       <c r="M57" s="14" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="N57" s="14" t="s">
         <v>36</v>
@@ -38084,10 +37748,7 @@
         <v>30</v>
       </c>
       <c r="S57" s="14">
-        <v>8</v>
-      </c>
-      <c r="T57" s="14">
-        <v>3048</v>
+        <v>48</v>
       </c>
       <c r="AB57" s="14" t="b">
         <v>0</v>
@@ -38101,39 +37762,39 @@
       </c>
       <c r="AE57" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AF57" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AG57" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AH57" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AI57" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AJ57" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AK57" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AL57" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="AM57" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
     </row>
     <row r="58" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38149,7 +37810,7 @@
       </c>
       <c r="D58" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_1</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_1</v>
       </c>
       <c r="E58" s="14" t="s">
         <v>59</v>
@@ -38176,7 +37837,7 @@
         <v>6</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="N58" s="14" t="s">
         <v>36</v>
@@ -38194,10 +37855,7 @@
         <v>30</v>
       </c>
       <c r="S58" s="14">
-        <v>10</v>
-      </c>
-      <c r="T58" s="14">
-        <v>3049</v>
+        <v>49</v>
       </c>
       <c r="AB58" s="14" t="b">
         <v>0</v>
@@ -38211,39 +37869,39 @@
       </c>
       <c r="AE58" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AF58" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AG58" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AH58" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AI58" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AJ58" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AK58" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AL58" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AM58" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
     </row>
     <row r="59" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38259,7 +37917,7 @@
       </c>
       <c r="D59" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="E59" s="14" t="s">
         <v>31</v>
@@ -38286,7 +37944,7 @@
         <v>6</v>
       </c>
       <c r="M59" s="14" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="N59" s="14" t="s">
         <v>36</v>
@@ -38304,10 +37962,7 @@
         <v>30</v>
       </c>
       <c r="S59" s="14">
-        <v>12</v>
-      </c>
-      <c r="T59" s="14">
-        <v>3050</v>
+        <v>50</v>
       </c>
       <c r="AB59" s="14" t="b">
         <v>0</v>
@@ -38321,39 +37976,39 @@
       </c>
       <c r="AE59" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AF59" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AG59" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AH59" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AI59" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AJ59" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AK59" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AL59" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="AM59" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
     </row>
     <row r="60" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38369,7 +38024,7 @@
       </c>
       <c r="D60" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_2</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_2</v>
       </c>
       <c r="E60" s="14" t="s">
         <v>59</v>
@@ -38396,7 +38051,7 @@
         <v>6</v>
       </c>
       <c r="M60" s="14" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="N60" s="14" t="s">
         <v>36</v>
@@ -38414,10 +38069,7 @@
         <v>30</v>
       </c>
       <c r="S60" s="14">
-        <v>14</v>
-      </c>
-      <c r="T60" s="14">
-        <v>3051</v>
+        <v>51</v>
       </c>
       <c r="AB60" s="14" t="b">
         <v>0</v>
@@ -38431,39 +38083,39 @@
       </c>
       <c r="AE60" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AF60" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AG60" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AH60" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AI60" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AJ60" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AK60" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AL60" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AM60" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
     </row>
     <row r="61" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38479,7 +38131,7 @@
       </c>
       <c r="D61" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>31</v>
@@ -38506,7 +38158,7 @@
         <v>6</v>
       </c>
       <c r="M61" s="14" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="N61" s="14" t="s">
         <v>36</v>
@@ -38524,10 +38176,7 @@
         <v>30</v>
       </c>
       <c r="S61" s="14">
-        <v>16</v>
-      </c>
-      <c r="T61" s="14">
-        <v>3052</v>
+        <v>52</v>
       </c>
       <c r="AB61" s="14" t="b">
         <v>0</v>
@@ -38541,39 +38190,39 @@
       </c>
       <c r="AE61" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AF61" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AG61" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AH61" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AI61" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AJ61" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AK61" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AL61" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="AM61" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
     </row>
     <row r="62" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38589,7 +38238,7 @@
       </c>
       <c r="D62" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_3</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_3</v>
       </c>
       <c r="E62" s="14" t="s">
         <v>59</v>
@@ -38616,7 +38265,7 @@
         <v>6</v>
       </c>
       <c r="M62" s="14" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="N62" s="14" t="s">
         <v>36</v>
@@ -38634,10 +38283,7 @@
         <v>30</v>
       </c>
       <c r="S62" s="14">
-        <v>18</v>
-      </c>
-      <c r="T62" s="14">
-        <v>3053</v>
+        <v>53</v>
       </c>
       <c r="AB62" s="14" t="b">
         <v>0</v>
@@ -38651,39 +38297,39 @@
       </c>
       <c r="AE62" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AF62" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AG62" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AH62" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AI62" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AJ62" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AK62" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AL62" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AM62" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
     </row>
     <row r="63" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38699,7 +38345,7 @@
       </c>
       <c r="D63" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="E63" s="14" t="s">
         <v>31</v>
@@ -38726,7 +38372,7 @@
         <v>6</v>
       </c>
       <c r="M63" s="14" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="N63" s="14" t="s">
         <v>36</v>
@@ -38744,10 +38390,7 @@
         <v>30</v>
       </c>
       <c r="S63" s="14">
-        <v>20</v>
-      </c>
-      <c r="T63" s="14">
-        <v>3054</v>
+        <v>54</v>
       </c>
       <c r="AB63" s="14" t="b">
         <v>0</v>
@@ -38761,39 +38404,39 @@
       </c>
       <c r="AE63" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AF63" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AG63" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AH63" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AI63" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AJ63" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AK63" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AL63" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="AM63" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
     </row>
     <row r="64" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38809,7 +38452,7 @@
       </c>
       <c r="D64" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_4</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_4</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>59</v>
@@ -38836,7 +38479,7 @@
         <v>6</v>
       </c>
       <c r="M64" s="14" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="N64" s="14" t="s">
         <v>36</v>
@@ -38854,10 +38497,7 @@
         <v>30</v>
       </c>
       <c r="S64" s="14">
-        <v>22</v>
-      </c>
-      <c r="T64" s="14">
-        <v>3055</v>
+        <v>55</v>
       </c>
       <c r="AB64" s="14" t="b">
         <v>0</v>
@@ -38871,39 +38511,39 @@
       </c>
       <c r="AE64" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AF64" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AG64" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AH64" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AI64" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AJ64" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AK64" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AL64" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AM64" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
     </row>
     <row r="65" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -38919,7 +38559,7 @@
       </c>
       <c r="D65" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_SSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>31</v>
@@ -38946,7 +38586,7 @@
         <v>6</v>
       </c>
       <c r="M65" s="14" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="N65" s="14" t="s">
         <v>36</v>
@@ -38964,10 +38604,7 @@
         <v>30</v>
       </c>
       <c r="S65" s="14">
-        <v>24</v>
-      </c>
-      <c r="T65" s="14">
-        <v>3056</v>
+        <v>56</v>
       </c>
       <c r="AB65" s="14" t="b">
         <v>0</v>
@@ -38981,39 +38618,39 @@
       </c>
       <c r="AE65" s="14" t="str">
         <f t="shared" si="48"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AF65" s="14" t="str">
         <f t="shared" si="49"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AG65" s="14" t="str">
         <f t="shared" si="50"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AH65" s="14" t="str">
         <f t="shared" si="51"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AI65" s="14" t="str">
         <f t="shared" si="52"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AJ65" s="14" t="str">
         <f t="shared" si="53"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AK65" s="14" t="str">
         <f t="shared" si="54"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AL65" s="14" t="str">
         <f t="shared" si="55"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="AM65" s="14" t="str">
         <f t="shared" si="56"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
     </row>
     <row r="66" spans="1:40" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -39029,7 +38666,7 @@
       </c>
       <c r="D66" s="14" t="str">
         <f t="shared" si="46"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_LSA_POSTHRY_TILE_SHAVE_5</v>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_POSTHRY_TILE_SHAVE_5</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>59</v>
@@ -39056,7 +38693,7 @@
         <v>6</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="N66" s="14" t="s">
         <v>36</v>
@@ -39074,10 +38711,7 @@
         <v>30</v>
       </c>
       <c r="S66" s="14">
-        <v>26</v>
-      </c>
-      <c r="T66" s="14">
-        <v>3057</v>
+        <v>57</v>
       </c>
       <c r="AB66" s="14" t="b">
         <v>0</v>
@@ -39310,7 +38944,7 @@
         <v>6</v>
       </c>
       <c r="M70" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="N70" t="s">
         <v>36</v>
@@ -39325,13 +38959,13 @@
         <v>61</v>
       </c>
       <c r="R70">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S70">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="AB70" t="b">
         <v>0</v>
@@ -39392,7 +39026,7 @@
         <v>6</v>
       </c>
       <c r="M71" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="N71" t="s">
         <v>36</v>
@@ -39407,13 +39041,13 @@
         <v>61</v>
       </c>
       <c r="R71">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S71">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>3101</v>
+        <v>2201</v>
       </c>
       <c r="AB71" t="b">
         <v>0</v>
@@ -39426,11 +39060,11 @@
         <v>1</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" ref="AE71:AE73" si="59">D72</f>
+        <f t="shared" ref="AE71:AE85" si="59">D72</f>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF71" t="str">
-        <f t="shared" ref="AF71:AF73" si="60">D72</f>
+        <f t="shared" ref="AF71:AF85" si="60">D72</f>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>
@@ -39474,7 +39108,7 @@
         <v>6</v>
       </c>
       <c r="M72" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="N72" t="s">
         <v>36</v>
@@ -39489,13 +39123,13 @@
         <v>61</v>
       </c>
       <c r="R72">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S72">
-        <v>202</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3102</v>
+        <v>2202</v>
       </c>
       <c r="AB72" t="b">
         <v>0</v>
@@ -39556,7 +39190,7 @@
         <v>6</v>
       </c>
       <c r="M73" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N73" t="s">
         <v>36</v>
@@ -39571,13 +39205,13 @@
         <v>61</v>
       </c>
       <c r="R73">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S73">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>3103</v>
+        <v>2203</v>
       </c>
       <c r="AB73" t="b">
         <v>0</v>
@@ -39638,7 +39272,7 @@
         <v>6</v>
       </c>
       <c r="M74" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="N74" t="s">
         <v>36</v>
@@ -39653,13 +39287,13 @@
         <v>61</v>
       </c>
       <c r="R74">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S74">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="T74">
-        <v>3104</v>
+        <v>2204</v>
       </c>
       <c r="AB74" t="b">
         <v>0</v>
@@ -39671,11 +39305,13 @@
       <c r="AD74">
         <v>1</v>
       </c>
-      <c r="AE74">
-        <v>1</v>
-      </c>
-      <c r="AF74">
-        <v>1</v>
+      <c r="AE74" t="str">
+        <f t="shared" si="59"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF74" t="str">
+        <f t="shared" si="60"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
       </c>
     </row>
     <row r="75" spans="1:40" x14ac:dyDescent="0.25">
@@ -39718,7 +39354,7 @@
         <v>6</v>
       </c>
       <c r="M75" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="N75" t="s">
         <v>36</v>
@@ -39733,13 +39369,13 @@
         <v>61</v>
       </c>
       <c r="R75">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S75">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="T75">
-        <v>3105</v>
+        <v>2205</v>
       </c>
       <c r="AB75" t="b">
         <v>0</v>
@@ -39752,11 +39388,11 @@
         <v>1</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" ref="AE75:AE76" si="63">D76</f>
+        <f t="shared" si="59"/>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="AF75" t="str">
-        <f t="shared" ref="AF75:AF76" si="64">D76</f>
+        <f t="shared" si="60"/>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
     </row>
@@ -39800,7 +39436,7 @@
         <v>6</v>
       </c>
       <c r="M76" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="N76" t="s">
         <v>36</v>
@@ -39815,13 +39451,13 @@
         <v>61</v>
       </c>
       <c r="R76">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S76">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="T76">
-        <v>3106</v>
+        <v>2206</v>
       </c>
       <c r="AB76" t="b">
         <v>0</v>
@@ -39834,11 +39470,11 @@
         <v>1</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="AF76" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
     </row>
@@ -39882,7 +39518,7 @@
         <v>6</v>
       </c>
       <c r="M77" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="N77" t="s">
         <v>36</v>
@@ -39897,13 +39533,13 @@
         <v>61</v>
       </c>
       <c r="R77">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S77">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="T77">
-        <v>3107</v>
+        <v>2207</v>
       </c>
       <c r="AB77" t="b">
         <v>0</v>
@@ -39915,11 +39551,13 @@
       <c r="AD77">
         <v>1</v>
       </c>
-      <c r="AE77">
-        <v>1</v>
-      </c>
-      <c r="AF77">
-        <v>1</v>
+      <c r="AE77" t="str">
+        <f t="shared" si="59"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="AF77" t="str">
+        <f t="shared" si="60"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
       </c>
     </row>
     <row r="78" spans="1:40" x14ac:dyDescent="0.25">
@@ -39962,7 +39600,7 @@
         <v>6</v>
       </c>
       <c r="M78" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="N78" t="s">
         <v>36</v>
@@ -39977,13 +39615,13 @@
         <v>21</v>
       </c>
       <c r="R78">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S78">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="T78">
-        <v>3108</v>
+        <v>2208</v>
       </c>
       <c r="AB78" t="b">
         <v>0</v>
@@ -39996,11 +39634,11 @@
         <v>1</v>
       </c>
       <c r="AE78" t="str">
-        <f>D79</f>
+        <f t="shared" si="59"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="AF78" t="str">
-        <f>D79</f>
+        <f t="shared" si="60"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
       </c>
     </row>
@@ -40016,7 +39654,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" ref="D79:D85" si="65">E79&amp;"_"&amp;F79&amp;"_"&amp;G79&amp;"_"&amp;H79&amp;"_"&amp;A79&amp;"_"&amp;I79&amp;"_"&amp;J79&amp;"_"&amp;K79&amp;"_"&amp;L79&amp;"_"&amp;M79</f>
+        <f t="shared" ref="D79:D85" si="63">E79&amp;"_"&amp;F79&amp;"_"&amp;G79&amp;"_"&amp;H79&amp;"_"&amp;A79&amp;"_"&amp;I79&amp;"_"&amp;J79&amp;"_"&amp;K79&amp;"_"&amp;L79&amp;"_"&amp;M79</f>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="E79" t="s">
@@ -40044,7 +39682,7 @@
         <v>6</v>
       </c>
       <c r="M79" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="N79" t="s">
         <v>36</v>
@@ -40059,30 +39697,30 @@
         <v>21</v>
       </c>
       <c r="R79">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S79">
-        <v>209</v>
+        <v>9</v>
       </c>
       <c r="T79">
-        <v>3109</v>
+        <v>2209</v>
       </c>
       <c r="AB79" t="b">
         <v>0</v>
       </c>
       <c r="AC79">
-        <f t="shared" ref="AC79:AC85" si="66">COUNTA(AE79:AN79)</f>
+        <f t="shared" ref="AC79:AC85" si="64">COUNTA(AE79:AN79)</f>
         <v>2</v>
       </c>
       <c r="AD79">
         <v>1</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" ref="AE79:AE81" si="67">D80</f>
+        <f t="shared" si="59"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF79" t="str">
-        <f t="shared" ref="AF79:AF81" si="68">D80</f>
+        <f t="shared" si="60"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>
@@ -40098,7 +39736,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="E80" t="s">
@@ -40126,7 +39764,7 @@
         <v>6</v>
       </c>
       <c r="M80" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="N80" t="s">
         <v>36</v>
@@ -40141,30 +39779,30 @@
         <v>21</v>
       </c>
       <c r="R80">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S80">
-        <v>210</v>
+        <v>10</v>
       </c>
       <c r="T80">
-        <v>3110</v>
+        <v>2210</v>
       </c>
       <c r="AB80" t="b">
         <v>0</v>
       </c>
       <c r="AC80">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="AD80">
         <v>1</v>
       </c>
       <c r="AE80" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="AF80" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="60"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
     </row>
@@ -40180,7 +39818,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="E81" t="s">
@@ -40208,7 +39846,7 @@
         <v>6</v>
       </c>
       <c r="M81" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N81" t="s">
         <v>36</v>
@@ -40223,30 +39861,30 @@
         <v>21</v>
       </c>
       <c r="R81">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S81">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="T81">
-        <v>3111</v>
+        <v>2211</v>
       </c>
       <c r="AB81" t="b">
         <v>0</v>
       </c>
       <c r="AC81">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="AD81">
         <v>1</v>
       </c>
       <c r="AE81" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="59"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="60"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
     </row>
@@ -40262,7 +39900,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="E82" t="s">
@@ -40290,7 +39928,7 @@
         <v>6</v>
       </c>
       <c r="M82" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="N82" t="s">
         <v>36</v>
@@ -40305,29 +39943,31 @@
         <v>21</v>
       </c>
       <c r="R82">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S82">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="T82">
-        <v>3112</v>
+        <v>2212</v>
       </c>
       <c r="AB82" t="b">
         <v>0</v>
       </c>
       <c r="AC82">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="AD82">
         <v>1</v>
       </c>
-      <c r="AE82">
-        <v>1</v>
-      </c>
-      <c r="AF82">
-        <v>1</v>
+      <c r="AE82" t="str">
+        <f t="shared" si="59"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF82" t="str">
+        <f t="shared" si="60"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
       </c>
     </row>
     <row r="83" spans="1:40" x14ac:dyDescent="0.25">
@@ -40342,7 +39982,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
       </c>
       <c r="E83" t="s">
@@ -40370,7 +40010,7 @@
         <v>6</v>
       </c>
       <c r="M83" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="N83" t="s">
         <v>36</v>
@@ -40385,30 +40025,30 @@
         <v>21</v>
       </c>
       <c r="R83">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S83">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="T83">
-        <v>3113</v>
+        <v>2213</v>
       </c>
       <c r="AB83" t="b">
         <v>0</v>
       </c>
       <c r="AC83">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="AD83">
         <v>1</v>
       </c>
       <c r="AE83" t="str">
-        <f t="shared" ref="AE83:AE84" si="69">D84</f>
+        <f t="shared" si="59"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="AF83" t="str">
-        <f t="shared" ref="AF83:AF84" si="70">D84</f>
+        <f t="shared" si="60"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
     </row>
@@ -40424,7 +40064,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="E84" t="s">
@@ -40452,7 +40092,7 @@
         <v>6</v>
       </c>
       <c r="M84" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="N84" t="s">
         <v>36</v>
@@ -40467,30 +40107,30 @@
         <v>21</v>
       </c>
       <c r="R84">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S84">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="T84">
-        <v>3114</v>
+        <v>2214</v>
       </c>
       <c r="AB84" t="b">
         <v>0</v>
       </c>
       <c r="AC84">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="AD84">
         <v>1</v>
       </c>
       <c r="AE84" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="59"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="AF84" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="60"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
     </row>
@@ -40506,7 +40146,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="63"/>
         <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="E85" t="s">
@@ -40534,7 +40174,7 @@
         <v>6</v>
       </c>
       <c r="M85" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="N85" t="s">
         <v>36</v>
@@ -40549,19 +40189,19 @@
         <v>21</v>
       </c>
       <c r="R85">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="S85">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="T85">
-        <v>3115</v>
+        <v>2215</v>
       </c>
       <c r="AB85" t="b">
         <v>0</v>
       </c>
       <c r="AC85">
-        <f t="shared" si="66"/>
+        <f t="shared" si="64"/>
         <v>2</v>
       </c>
       <c r="AD85">
@@ -40716,7 +40356,7 @@
         <v>6</v>
       </c>
       <c r="M88" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="N88" t="s">
         <v>36</v>
@@ -40827,7 +40467,7 @@
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G90" s="17"/>
       <c r="H90" s="17"/>
@@ -40904,7 +40544,7 @@
         <v>6</v>
       </c>
       <c r="M91" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="N91" t="s">
         <v>36</v>
@@ -40922,10 +40562,10 @@
         <v>21</v>
       </c>
       <c r="S91">
-        <v>400</v>
+        <v>315</v>
       </c>
       <c r="T91">
-        <v>3200</v>
+        <v>2216</v>
       </c>
       <c r="AB91" t="b">
         <v>0</v>
@@ -40958,7 +40598,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" ref="D92:D98" si="71">E92&amp;"_"&amp;F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;"_"&amp;A92&amp;"_"&amp;I92&amp;"_"&amp;J92&amp;"_"&amp;K92&amp;"_"&amp;L92&amp;"_"&amp;M92</f>
+        <f t="shared" ref="D92:D98" si="65">E92&amp;"_"&amp;F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;"_"&amp;A92&amp;"_"&amp;I92&amp;"_"&amp;J92&amp;"_"&amp;K92&amp;"_"&amp;L92&amp;"_"&amp;M92</f>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="E92" t="s">
@@ -40986,7 +40626,7 @@
         <v>6</v>
       </c>
       <c r="M92" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="N92" t="s">
         <v>36</v>
@@ -41004,27 +40644,27 @@
         <v>21</v>
       </c>
       <c r="S92">
-        <v>401</v>
+        <v>316</v>
       </c>
       <c r="T92">
-        <v>3201</v>
+        <v>2217</v>
       </c>
       <c r="AB92" t="b">
         <v>0</v>
       </c>
       <c r="AC92">
-        <f t="shared" ref="AC92:AC98" si="72">COUNTA(AE92:AN92)</f>
+        <f t="shared" ref="AC92:AC98" si="66">COUNTA(AE92:AN92)</f>
         <v>2</v>
       </c>
       <c r="AD92">
         <v>1</v>
       </c>
       <c r="AE92" t="str">
-        <f t="shared" ref="AE92:AE94" si="73">D93</f>
+        <f t="shared" ref="AE92:AE105" si="67">D93</f>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF92" t="str">
-        <f t="shared" ref="AF92:AF94" si="74">D93</f>
+        <f t="shared" ref="AF92:AF105" si="68">D93</f>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>
@@ -41040,7 +40680,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="E93" t="s">
@@ -41068,7 +40708,7 @@
         <v>6</v>
       </c>
       <c r="M93" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="N93" t="s">
         <v>36</v>
@@ -41086,27 +40726,27 @@
         <v>21</v>
       </c>
       <c r="S93">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="T93">
-        <v>3202</v>
+        <v>2218</v>
       </c>
       <c r="AB93" t="b">
         <v>0</v>
       </c>
       <c r="AC93">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="AD93">
         <v>1</v>
       </c>
       <c r="AE93" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="AF93" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
     </row>
@@ -41122,7 +40762,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="E94" t="s">
@@ -41150,7 +40790,7 @@
         <v>6</v>
       </c>
       <c r="M94" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N94" t="s">
         <v>36</v>
@@ -41168,27 +40808,27 @@
         <v>21</v>
       </c>
       <c r="S94">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="T94">
-        <v>3203</v>
+        <v>2219</v>
       </c>
       <c r="AB94" t="b">
         <v>0</v>
       </c>
       <c r="AC94">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="AD94">
         <v>1</v>
       </c>
       <c r="AE94" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="67"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="AF94" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="68"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
     </row>
@@ -41204,7 +40844,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D95" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="E95" t="s">
@@ -41232,7 +40872,7 @@
         <v>6</v>
       </c>
       <c r="M95" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="N95" t="s">
         <v>36</v>
@@ -41250,26 +40890,28 @@
         <v>21</v>
       </c>
       <c r="S95">
-        <v>404</v>
+        <v>319</v>
       </c>
       <c r="T95">
-        <v>3204</v>
+        <v>2220</v>
       </c>
       <c r="AB95" t="b">
         <v>0</v>
       </c>
       <c r="AC95">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="AD95">
         <v>1</v>
       </c>
-      <c r="AE95">
-        <v>1</v>
-      </c>
-      <c r="AF95">
-        <v>1</v>
+      <c r="AE95" t="str">
+        <f t="shared" si="67"/>
+        <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="68"/>
+        <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_3</v>
       </c>
     </row>
     <row r="96" spans="1:40" x14ac:dyDescent="0.25">
@@ -41284,7 +40926,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D96" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_3</v>
       </c>
       <c r="E96" t="s">
@@ -41312,7 +40954,7 @@
         <v>6</v>
       </c>
       <c r="M96" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="N96" t="s">
         <v>36</v>
@@ -41330,27 +40972,27 @@
         <v>21</v>
       </c>
       <c r="S96">
-        <v>405</v>
+        <v>320</v>
       </c>
       <c r="T96">
-        <v>3205</v>
+        <v>2221</v>
       </c>
       <c r="AB96" t="b">
         <v>0</v>
       </c>
       <c r="AC96">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="AD96">
         <v>1</v>
       </c>
       <c r="AE96" t="str">
-        <f t="shared" ref="AE96:AE97" si="75">D97</f>
+        <f t="shared" si="67"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="AF96" t="str">
-        <f t="shared" ref="AF96:AF97" si="76">D97</f>
+        <f t="shared" si="68"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
     </row>
@@ -41366,7 +41008,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D97" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="E97" t="s">
@@ -41394,7 +41036,7 @@
         <v>6</v>
       </c>
       <c r="M97" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="N97" t="s">
         <v>36</v>
@@ -41412,27 +41054,27 @@
         <v>21</v>
       </c>
       <c r="S97">
-        <v>406</v>
+        <v>321</v>
       </c>
       <c r="T97">
-        <v>3206</v>
+        <v>2222</v>
       </c>
       <c r="AB97" t="b">
         <v>0</v>
       </c>
       <c r="AC97">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="AD97">
         <v>1</v>
       </c>
       <c r="AE97" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="67"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="AF97" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="68"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
     </row>
@@ -41448,7 +41090,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="65"/>
         <v>SSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="E98" t="s">
@@ -41476,7 +41118,7 @@
         <v>6</v>
       </c>
       <c r="M98" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="N98" t="s">
         <v>36</v>
@@ -41494,26 +41136,28 @@
         <v>21</v>
       </c>
       <c r="S98">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="T98">
-        <v>3207</v>
+        <v>2223</v>
       </c>
       <c r="AB98" t="b">
         <v>0</v>
       </c>
       <c r="AC98">
-        <f t="shared" si="72"/>
+        <f t="shared" si="66"/>
         <v>2</v>
       </c>
       <c r="AD98">
         <v>1</v>
       </c>
-      <c r="AE98">
-        <v>1</v>
-      </c>
-      <c r="AF98">
-        <v>1</v>
+      <c r="AE98" t="str">
+        <f t="shared" si="67"/>
+        <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="68"/>
+        <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
       </c>
     </row>
     <row r="99" spans="1:40" x14ac:dyDescent="0.25">
@@ -41556,7 +41200,7 @@
         <v>6</v>
       </c>
       <c r="M99" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="N99" t="s">
         <v>36</v>
@@ -41574,10 +41218,10 @@
         <v>21</v>
       </c>
       <c r="S99">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="T99">
-        <v>3208</v>
+        <v>2224</v>
       </c>
       <c r="AB99" t="b">
         <v>0</v>
@@ -41590,11 +41234,11 @@
         <v>1</v>
       </c>
       <c r="AE99" t="str">
-        <f>D100</f>
+        <f t="shared" si="67"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="AF99" t="str">
-        <f>D100</f>
+        <f t="shared" si="68"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_SPINE</v>
       </c>
     </row>
@@ -41610,7 +41254,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" ref="D100:D106" si="77">E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;"_"&amp;A100&amp;"_"&amp;I100&amp;"_"&amp;J100&amp;"_"&amp;K100&amp;"_"&amp;L100&amp;"_"&amp;M100</f>
+        <f t="shared" ref="D100:D106" si="69">E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;"_"&amp;A100&amp;"_"&amp;I100&amp;"_"&amp;J100&amp;"_"&amp;K100&amp;"_"&amp;L100&amp;"_"&amp;M100</f>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="E100" t="s">
@@ -41638,7 +41282,7 @@
         <v>6</v>
       </c>
       <c r="M100" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="N100" t="s">
         <v>36</v>
@@ -41656,27 +41300,27 @@
         <v>21</v>
       </c>
       <c r="S100">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="T100">
-        <v>3209</v>
+        <v>2225</v>
       </c>
       <c r="AB100" t="b">
         <v>0</v>
       </c>
       <c r="AC100">
-        <f t="shared" ref="AC100:AC106" si="78">COUNTA(AE100:AN100)</f>
+        <f t="shared" ref="AC100:AC106" si="70">COUNTA(AE100:AN100)</f>
         <v>2</v>
       </c>
       <c r="AD100">
         <v>1</v>
       </c>
       <c r="AE100" t="str">
-        <f t="shared" ref="AE100:AE102" si="79">D101</f>
+        <f t="shared" si="67"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF100" t="str">
-        <f t="shared" ref="AF100:AF102" si="80">D101</f>
+        <f t="shared" si="68"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>
@@ -41692,7 +41336,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="E101" t="s">
@@ -41720,7 +41364,7 @@
         <v>6</v>
       </c>
       <c r="M101" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="N101" t="s">
         <v>36</v>
@@ -41738,27 +41382,27 @@
         <v>21</v>
       </c>
       <c r="S101">
-        <v>410</v>
+        <v>325</v>
       </c>
       <c r="T101">
-        <v>3210</v>
+        <v>2226</v>
       </c>
       <c r="AB101" t="b">
         <v>0</v>
       </c>
       <c r="AC101">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>2</v>
       </c>
       <c r="AD101">
         <v>1</v>
       </c>
       <c r="AE101" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="AF101" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
     </row>
@@ -41774,7 +41418,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="E102" t="s">
@@ -41802,7 +41446,7 @@
         <v>6</v>
       </c>
       <c r="M102" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N102" t="s">
         <v>36</v>
@@ -41820,27 +41464,27 @@
         <v>21</v>
       </c>
       <c r="S102">
-        <v>411</v>
+        <v>326</v>
       </c>
       <c r="T102">
-        <v>3211</v>
+        <v>2227</v>
       </c>
       <c r="AB102" t="b">
         <v>0</v>
       </c>
       <c r="AC102">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>2</v>
       </c>
       <c r="AD102">
         <v>1</v>
       </c>
       <c r="AE102" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="67"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="AF102" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="68"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
     </row>
@@ -41856,7 +41500,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D103" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="E103" t="s">
@@ -41884,7 +41528,7 @@
         <v>6</v>
       </c>
       <c r="M103" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="N103" t="s">
         <v>36</v>
@@ -41902,26 +41546,28 @@
         <v>21</v>
       </c>
       <c r="S103">
-        <v>412</v>
+        <v>327</v>
       </c>
       <c r="T103">
-        <v>3212</v>
+        <v>2228</v>
       </c>
       <c r="AB103" t="b">
         <v>0</v>
       </c>
       <c r="AC103">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>2</v>
       </c>
       <c r="AD103">
         <v>1</v>
       </c>
-      <c r="AE103">
-        <v>1</v>
-      </c>
-      <c r="AF103">
-        <v>1</v>
+      <c r="AE103" t="str">
+        <f t="shared" si="67"/>
+        <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="68"/>
+        <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_3</v>
       </c>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.25">
@@ -41936,7 +41582,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D104" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_3</v>
       </c>
       <c r="E104" t="s">
@@ -41964,7 +41610,7 @@
         <v>6</v>
       </c>
       <c r="M104" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="N104" t="s">
         <v>36</v>
@@ -41982,27 +41628,27 @@
         <v>21</v>
       </c>
       <c r="S104">
-        <v>413</v>
+        <v>328</v>
       </c>
       <c r="T104">
-        <v>3213</v>
+        <v>2229</v>
       </c>
       <c r="AB104" t="b">
         <v>0</v>
       </c>
       <c r="AC104">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>2</v>
       </c>
       <c r="AD104">
         <v>1</v>
       </c>
       <c r="AE104" t="str">
-        <f t="shared" ref="AE104:AE105" si="81">D105</f>
+        <f t="shared" si="67"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="AF104" t="str">
-        <f t="shared" ref="AF104:AF105" si="82">D105</f>
+        <f t="shared" si="68"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
     </row>
@@ -42018,7 +41664,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="E105" t="s">
@@ -42046,7 +41692,7 @@
         <v>6</v>
       </c>
       <c r="M105" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="N105" t="s">
         <v>36</v>
@@ -42064,27 +41710,27 @@
         <v>21</v>
       </c>
       <c r="S105">
-        <v>414</v>
+        <v>329</v>
       </c>
       <c r="T105">
-        <v>3214</v>
+        <v>2230</v>
       </c>
       <c r="AB105" t="b">
         <v>0</v>
       </c>
       <c r="AC105">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>2</v>
       </c>
       <c r="AD105">
         <v>1</v>
       </c>
       <c r="AE105" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="67"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="AF105" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="68"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
     </row>
@@ -42100,7 +41746,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="69"/>
         <v>LSA_VPU_VMIN_E_POSTHVQK_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="E106" t="s">
@@ -42128,7 +41774,7 @@
         <v>6</v>
       </c>
       <c r="M106" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="N106" t="s">
         <v>36</v>
@@ -42146,16 +41792,16 @@
         <v>21</v>
       </c>
       <c r="S106">
-        <v>415</v>
+        <v>330</v>
       </c>
       <c r="T106">
-        <v>3215</v>
+        <v>2231</v>
       </c>
       <c r="AB106" t="b">
         <v>0</v>
       </c>
       <c r="AC106">
-        <f t="shared" si="78"/>
+        <f t="shared" si="70"/>
         <v>2</v>
       </c>
       <c r="AD106">
@@ -42372,7 +42018,7 @@
         <v>6</v>
       </c>
       <c r="M110" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="N110" t="s">
         <v>36</v>
@@ -42390,10 +42036,10 @@
         <v>32</v>
       </c>
       <c r="S110">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T110">
-        <v>3300</v>
+        <v>2232</v>
       </c>
       <c r="AB110" t="b">
         <v>0</v>
@@ -42426,7 +42072,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D111" t="str">
-        <f t="shared" ref="D111:D117" si="83">E111&amp;"_"&amp;F111&amp;"_"&amp;G111&amp;"_"&amp;H111&amp;"_"&amp;A111&amp;"_"&amp;I111&amp;"_"&amp;J111&amp;"_"&amp;K111&amp;"_"&amp;L111&amp;"_"&amp;M111</f>
+        <f t="shared" ref="D111:D117" si="71">E111&amp;"_"&amp;F111&amp;"_"&amp;G111&amp;"_"&amp;H111&amp;"_"&amp;A111&amp;"_"&amp;I111&amp;"_"&amp;J111&amp;"_"&amp;K111&amp;"_"&amp;L111&amp;"_"&amp;M111</f>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="E111" t="s">
@@ -42454,7 +42100,7 @@
         <v>6</v>
       </c>
       <c r="M111" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="N111" t="s">
         <v>36</v>
@@ -42472,27 +42118,27 @@
         <v>32</v>
       </c>
       <c r="S111">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="T111">
-        <v>3301</v>
+        <v>2233</v>
       </c>
       <c r="AB111" t="b">
         <v>0</v>
       </c>
       <c r="AC111">
-        <f t="shared" ref="AC111:AC117" si="84">COUNTA(AE111:AN111)</f>
+        <f t="shared" ref="AC111:AC117" si="72">COUNTA(AE111:AN111)</f>
         <v>2</v>
       </c>
       <c r="AD111">
         <v>1</v>
       </c>
       <c r="AE111" t="str">
-        <f t="shared" ref="AE111:AE113" si="85">D112</f>
+        <f t="shared" ref="AE111:AE124" si="73">D112</f>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF111" t="str">
-        <f t="shared" ref="AF111:AF113" si="86">D112</f>
+        <f t="shared" ref="AF111:AF124" si="74">D112</f>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>
@@ -42508,7 +42154,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D112" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="E112" t="s">
@@ -42536,7 +42182,7 @@
         <v>6</v>
       </c>
       <c r="M112" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="N112" t="s">
         <v>36</v>
@@ -42554,27 +42200,27 @@
         <v>32</v>
       </c>
       <c r="S112">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>3302</v>
+        <v>2234</v>
       </c>
       <c r="AB112" t="b">
         <v>0</v>
       </c>
       <c r="AC112">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AD112">
         <v>1</v>
       </c>
       <c r="AE112" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="AF112" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_1</v>
       </c>
     </row>
@@ -42590,7 +42236,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D113" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="E113" t="s">
@@ -42618,7 +42264,7 @@
         <v>6</v>
       </c>
       <c r="M113" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N113" t="s">
         <v>36</v>
@@ -42636,27 +42282,27 @@
         <v>32</v>
       </c>
       <c r="S113">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="T113">
-        <v>3303</v>
+        <v>2235</v>
       </c>
       <c r="AB113" t="b">
         <v>0</v>
       </c>
       <c r="AC113">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AD113">
         <v>1</v>
       </c>
       <c r="AE113" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="AF113" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_2</v>
       </c>
     </row>
@@ -42672,7 +42318,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D114" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="E114" t="s">
@@ -42700,7 +42346,7 @@
         <v>6</v>
       </c>
       <c r="M114" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="N114" t="s">
         <v>36</v>
@@ -42718,26 +42364,28 @@
         <v>32</v>
       </c>
       <c r="S114">
-        <v>504</v>
+        <v>4</v>
       </c>
       <c r="T114">
-        <v>3304</v>
+        <v>2236</v>
       </c>
       <c r="AB114" t="b">
         <v>0</v>
       </c>
       <c r="AC114">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AD114">
         <v>1</v>
       </c>
-      <c r="AE114">
-        <v>1</v>
-      </c>
-      <c r="AF114">
-        <v>1</v>
+      <c r="AE114" t="str">
+        <f t="shared" si="73"/>
+        <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF114" t="str">
+        <f t="shared" si="74"/>
+        <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_3</v>
       </c>
     </row>
     <row r="115" spans="1:40" x14ac:dyDescent="0.25">
@@ -42752,7 +42400,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D115" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_3</v>
       </c>
       <c r="E115" t="s">
@@ -42780,7 +42428,7 @@
         <v>6</v>
       </c>
       <c r="M115" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="N115" t="s">
         <v>36</v>
@@ -42798,27 +42446,27 @@
         <v>32</v>
       </c>
       <c r="S115">
-        <v>505</v>
+        <v>5</v>
       </c>
       <c r="T115">
-        <v>3305</v>
+        <v>2237</v>
       </c>
       <c r="AB115" t="b">
         <v>0</v>
       </c>
       <c r="AC115">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AD115">
         <v>1</v>
       </c>
       <c r="AE115" t="str">
-        <f t="shared" ref="AE115:AE116" si="87">D116</f>
+        <f t="shared" si="73"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="AF115" t="str">
-        <f t="shared" ref="AF115:AF116" si="88">D116</f>
+        <f t="shared" si="74"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_4</v>
       </c>
     </row>
@@ -42834,7 +42482,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D116" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="E116" t="s">
@@ -42862,7 +42510,7 @@
         <v>6</v>
       </c>
       <c r="M116" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="N116" t="s">
         <v>36</v>
@@ -42880,27 +42528,27 @@
         <v>32</v>
       </c>
       <c r="S116">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="T116">
-        <v>3306</v>
+        <v>2238</v>
       </c>
       <c r="AB116" t="b">
         <v>0</v>
       </c>
       <c r="AC116">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AD116">
         <v>1</v>
       </c>
       <c r="AE116" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="73"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="AF116" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="74"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_5</v>
       </c>
     </row>
@@ -42916,7 +42564,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D117" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="71"/>
         <v>SSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="E117" t="s">
@@ -42944,7 +42592,7 @@
         <v>6</v>
       </c>
       <c r="M117" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="N117" t="s">
         <v>36</v>
@@ -42962,26 +42610,28 @@
         <v>32</v>
       </c>
       <c r="S117">
-        <v>507</v>
+        <v>7</v>
       </c>
       <c r="T117">
-        <v>3307</v>
+        <v>2239</v>
       </c>
       <c r="AB117" t="b">
         <v>0</v>
       </c>
       <c r="AC117">
-        <f t="shared" si="84"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AD117">
         <v>1</v>
       </c>
-      <c r="AE117">
-        <v>1</v>
-      </c>
-      <c r="AF117">
-        <v>1</v>
+      <c r="AE117" t="str">
+        <f t="shared" si="73"/>
+        <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="AF117" t="str">
+        <f t="shared" si="74"/>
+        <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_BUTTRESS</v>
       </c>
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.25">
@@ -43024,7 +42674,7 @@
         <v>6</v>
       </c>
       <c r="M118" t="s">
-        <v>445</v>
+        <v>397</v>
       </c>
       <c r="N118" t="s">
         <v>36</v>
@@ -43042,10 +42692,10 @@
         <v>32</v>
       </c>
       <c r="S118">
-        <v>508</v>
+        <v>8</v>
       </c>
       <c r="T118">
-        <v>3308</v>
+        <v>2240</v>
       </c>
       <c r="AB118" t="b">
         <v>0</v>
@@ -43058,11 +42708,11 @@
         <v>1</v>
       </c>
       <c r="AE118" t="str">
-        <f>D119</f>
+        <f t="shared" si="73"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="AF118" t="str">
-        <f>D119</f>
+        <f t="shared" si="74"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_SPINE</v>
       </c>
     </row>
@@ -43078,7 +42728,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D119" t="str">
-        <f t="shared" ref="D119:D125" si="89">E119&amp;"_"&amp;F119&amp;"_"&amp;G119&amp;"_"&amp;H119&amp;"_"&amp;A119&amp;"_"&amp;I119&amp;"_"&amp;J119&amp;"_"&amp;K119&amp;"_"&amp;L119&amp;"_"&amp;M119</f>
+        <f t="shared" ref="D119:D125" si="75">E119&amp;"_"&amp;F119&amp;"_"&amp;G119&amp;"_"&amp;H119&amp;"_"&amp;A119&amp;"_"&amp;I119&amp;"_"&amp;J119&amp;"_"&amp;K119&amp;"_"&amp;L119&amp;"_"&amp;M119</f>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_SPINE</v>
       </c>
       <c r="E119" t="s">
@@ -43106,7 +42756,7 @@
         <v>6</v>
       </c>
       <c r="M119" t="s">
-        <v>446</v>
+        <v>398</v>
       </c>
       <c r="N119" t="s">
         <v>36</v>
@@ -43124,27 +42774,27 @@
         <v>32</v>
       </c>
       <c r="S119">
-        <v>509</v>
+        <v>9</v>
       </c>
       <c r="T119">
-        <v>3309</v>
+        <v>2241</v>
       </c>
       <c r="AB119" t="b">
         <v>0</v>
       </c>
       <c r="AC119">
-        <f t="shared" ref="AC119:AC125" si="90">COUNTA(AE119:AN119)</f>
+        <f t="shared" ref="AC119:AC125" si="76">COUNTA(AE119:AN119)</f>
         <v>2</v>
       </c>
       <c r="AD119">
         <v>1</v>
       </c>
       <c r="AE119" t="str">
-        <f t="shared" ref="AE119:AE121" si="91">D120</f>
+        <f t="shared" si="73"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF119" t="str">
-        <f t="shared" ref="AF119:AF121" si="92">D120</f>
+        <f t="shared" si="74"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>
@@ -43160,7 +42810,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D120" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="75"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="E120" t="s">
@@ -43188,7 +42838,7 @@
         <v>6</v>
       </c>
       <c r="M120" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="N120" t="s">
         <v>36</v>
@@ -43206,27 +42856,27 @@
         <v>32</v>
       </c>
       <c r="S120">
-        <v>510</v>
+        <v>10</v>
       </c>
       <c r="T120">
-        <v>3310</v>
+        <v>2242</v>
       </c>
       <c r="AB120" t="b">
         <v>0</v>
       </c>
       <c r="AC120">
-        <f t="shared" si="90"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AD120">
         <v>1</v>
       </c>
       <c r="AE120" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="73"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="AF120" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="74"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_1</v>
       </c>
     </row>
@@ -43242,7 +42892,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D121" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="75"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_1</v>
       </c>
       <c r="E121" t="s">
@@ -43270,7 +42920,7 @@
         <v>6</v>
       </c>
       <c r="M121" t="s">
-        <v>448</v>
+        <v>400</v>
       </c>
       <c r="N121" t="s">
         <v>36</v>
@@ -43288,27 +42938,27 @@
         <v>32</v>
       </c>
       <c r="S121">
-        <v>511</v>
+        <v>11</v>
       </c>
       <c r="T121">
-        <v>3311</v>
+        <v>2243</v>
       </c>
       <c r="AB121" t="b">
         <v>0</v>
       </c>
       <c r="AC121">
-        <f t="shared" si="90"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AD121">
         <v>1</v>
       </c>
       <c r="AE121" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="73"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="AF121" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="74"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_2</v>
       </c>
     </row>
@@ -43324,7 +42974,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D122" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="75"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_2</v>
       </c>
       <c r="E122" t="s">
@@ -43352,7 +43002,7 @@
         <v>6</v>
       </c>
       <c r="M122" t="s">
-        <v>449</v>
+        <v>401</v>
       </c>
       <c r="N122" t="s">
         <v>36</v>
@@ -43370,26 +43020,28 @@
         <v>32</v>
       </c>
       <c r="S122">
-        <v>512</v>
+        <v>12</v>
       </c>
       <c r="T122">
-        <v>3312</v>
+        <v>2244</v>
       </c>
       <c r="AB122" t="b">
         <v>0</v>
       </c>
       <c r="AC122">
-        <f t="shared" si="90"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AD122">
         <v>1</v>
       </c>
-      <c r="AE122">
-        <v>1</v>
-      </c>
-      <c r="AF122">
-        <v>1</v>
+      <c r="AE122" t="str">
+        <f t="shared" si="73"/>
+        <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF122" t="str">
+        <f t="shared" si="74"/>
+        <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_3</v>
       </c>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.25">
@@ -43404,7 +43056,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D123" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="75"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_3</v>
       </c>
       <c r="E123" t="s">
@@ -43432,7 +43084,7 @@
         <v>6</v>
       </c>
       <c r="M123" t="s">
-        <v>450</v>
+        <v>402</v>
       </c>
       <c r="N123" t="s">
         <v>36</v>
@@ -43450,27 +43102,27 @@
         <v>32</v>
       </c>
       <c r="S123">
-        <v>513</v>
+        <v>13</v>
       </c>
       <c r="T123">
-        <v>3313</v>
+        <v>2245</v>
       </c>
       <c r="AB123" t="b">
         <v>0</v>
       </c>
       <c r="AC123">
-        <f t="shared" si="90"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AD123">
         <v>1</v>
       </c>
       <c r="AE123" t="str">
-        <f t="shared" ref="AE123:AE124" si="93">D124</f>
+        <f t="shared" si="73"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="AF123" t="str">
-        <f t="shared" ref="AF123:AF124" si="94">D124</f>
+        <f t="shared" si="74"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_4</v>
       </c>
     </row>
@@ -43486,7 +43138,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D124" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="75"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_4</v>
       </c>
       <c r="E124" t="s">
@@ -43514,7 +43166,7 @@
         <v>6</v>
       </c>
       <c r="M124" t="s">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="N124" t="s">
         <v>36</v>
@@ -43532,27 +43184,27 @@
         <v>32</v>
       </c>
       <c r="S124">
-        <v>514</v>
+        <v>14</v>
       </c>
       <c r="T124">
-        <v>3314</v>
+        <v>2246</v>
       </c>
       <c r="AB124" t="b">
         <v>0</v>
       </c>
       <c r="AC124">
-        <f t="shared" si="90"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AD124">
         <v>1</v>
       </c>
       <c r="AE124" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="73"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="AF124" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="74"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_5</v>
       </c>
     </row>
@@ -43568,7 +43220,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D125" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="75"/>
         <v>LSA_VPU_KS_E_END_T_VCCSA_LFM_X_TILE_5</v>
       </c>
       <c r="E125" t="s">
@@ -43596,7 +43248,7 @@
         <v>6</v>
       </c>
       <c r="M125" t="s">
-        <v>452</v>
+        <v>404</v>
       </c>
       <c r="N125" t="s">
         <v>36</v>
@@ -43614,16 +43266,16 @@
         <v>32</v>
       </c>
       <c r="S125">
-        <v>515</v>
+        <v>15</v>
       </c>
       <c r="T125">
-        <v>3315</v>
+        <v>2247</v>
       </c>
       <c r="AB125" t="b">
         <v>0</v>
       </c>
       <c r="AC125">
-        <f t="shared" si="90"/>
+        <f t="shared" si="76"/>
         <v>2</v>
       </c>
       <c r="AD125">
@@ -43661,7 +43313,6 @@
       <c r="P126" s="24"/>
       <c r="Q126" s="24"/>
       <c r="R126" s="24"/>
-      <c r="S126" s="24"/>
       <c r="U126" s="24"/>
       <c r="V126" s="24"/>
       <c r="W126" s="24"/>
@@ -43712,7 +43363,6 @@
       <c r="P127" s="24"/>
       <c r="Q127" s="24"/>
       <c r="R127" s="24"/>
-      <c r="S127" s="24"/>
       <c r="U127" s="24"/>
       <c r="V127" s="24"/>
       <c r="W127" s="24"/>
@@ -43783,7 +43433,7 @@
         <v>6</v>
       </c>
       <c r="M128" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="N128" t="s">
         <v>36</v>
@@ -43801,7 +43451,10 @@
         <v>61</v>
       </c>
       <c r="S128">
-        <v>516</v>
+        <v>16</v>
+      </c>
+      <c r="T128">
+        <v>2248</v>
       </c>
       <c r="AB128" t="b">
         <v>0</v>

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adambyrn\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0830F-E4A6-4CF4-A969-A2295BAE235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC222C-B1D0-44AD-A8A2-5523C9017EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="arr_atom" sheetId="7" r:id="rId4"/>
     <sheet name="arr_core" sheetId="8" r:id="rId5"/>
     <sheet name="arr_vpu" sheetId="9" r:id="rId6"/>
+    <sheet name="arr_common" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">arr_atom!$A$1:$AO$115</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6187" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7173" uniqueCount="432">
   <si>
     <t>Flow</t>
   </si>
@@ -1338,6 +1339,9 @@
   <si>
     <t>G.U.S.DEFECTREPAIR_CORE</t>
   </si>
+  <si>
+    <t>SDTBEGIN</t>
+  </si>
 </sst>
 </file>
 
@@ -2002,7 +2006,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -2046,6 +2050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -32002,8 +32007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EAE81-7B4D-421F-AB9D-4D5523112C76}">
   <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:U1048576"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="U1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39060,11 +39065,11 @@
         <v>1</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" ref="AE71:AE85" si="59">D72</f>
+        <f t="shared" ref="AE71:AE84" si="59">D72</f>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF71" t="str">
-        <f t="shared" ref="AF71:AF85" si="60">D72</f>
+        <f t="shared" ref="AF71:AF84" si="60">D72</f>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>
@@ -43599,4 +43604,6777 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F6E2B4-C277-4E27-8556-F36877EC29FC}">
+  <dimension ref="A1:AN75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="13" max="13" width="30.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" t="s">
+        <v>137</v>
+      </c>
+      <c r="U1" t="s">
+        <v>140</v>
+      </c>
+      <c r="V1" t="s">
+        <v>264</v>
+      </c>
+      <c r="W1" t="s">
+        <v>269</v>
+      </c>
+      <c r="X1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>280</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(B2,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="17" t="str">
+        <f>VLOOKUP(B3,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+      <c r="AN3" s="17"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="18" t="str">
+        <f>VLOOKUP(B4,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18">
+        <f>COUNTA(AE4:AN4)</f>
+        <v>2</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE4" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AF4" s="18" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>VLOOKUP(B5,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f t="shared" ref="D5:D36" si="0">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>61</v>
+      </c>
+      <c r="R5" s="6">
+        <v>30</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="6">
+        <f t="shared" ref="AC5:AC36" si="1">COUNTA(AE5:AN5)</f>
+        <v>9</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE5" s="6" t="str">
+        <f>D6</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AF5" s="6" t="str">
+        <f>D7</f>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="AG5" s="6" t="str">
+        <f>D7</f>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="AH5" s="6" t="str">
+        <f>D7</f>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="AI5" s="6" t="str">
+        <f>D7</f>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="AJ5" s="6" t="str">
+        <f>D6</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AK5" s="6" t="str">
+        <f>D6</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AL5" s="6" t="str">
+        <f>D6</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AM5" s="6" t="str">
+        <f>D6</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AN5" s="6"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>VLOOKUP(B6,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>61</v>
+      </c>
+      <c r="R6" s="6">
+        <v>30</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="6" t="str">
+        <f t="shared" ref="AE6:AE35" si="2">D7</f>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="AF6" s="6" t="str">
+        <f t="shared" ref="AF6:AF34" si="3">D8</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AG6" s="6" t="str">
+        <f t="shared" ref="AG6:AG34" si="4">D8</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AH6" s="6" t="str">
+        <f t="shared" ref="AH6:AH34" si="5">D8</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AI6" s="6" t="str">
+        <f t="shared" ref="AI6:AI34" si="6">D8</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AJ6" s="6" t="str">
+        <f t="shared" ref="AJ6:AJ35" si="7">D7</f>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>VLOOKUP(B7,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>21</v>
+      </c>
+      <c r="R7" s="6">
+        <v>30</v>
+      </c>
+      <c r="S7" s="6">
+        <v>2</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AF7" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AG7" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AH7" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AI7" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AJ7" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AK7" s="6" t="str">
+        <f t="shared" ref="AK7" si="8">D8</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AL7" s="6" t="str">
+        <f t="shared" ref="AL7" si="9">D8</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AM7" s="6" t="str">
+        <f t="shared" ref="AM7" si="10">D8</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="AN7" s="6"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>VLOOKUP(B8,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>21</v>
+      </c>
+      <c r="R8" s="6">
+        <v>30</v>
+      </c>
+      <c r="S8" s="6">
+        <v>3</v>
+      </c>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6" t="str">
+        <f>D13</f>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AF8" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AG8" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AH8" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AI8" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AJ8" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>VLOOKUP(B9,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>61</v>
+      </c>
+      <c r="R9" s="6">
+        <v>30</v>
+      </c>
+      <c r="S9" s="6">
+        <v>4</v>
+      </c>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE9" s="6" t="str">
+        <f>D10</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AF9" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AG9" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AH9" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AI9" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AJ9" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AK9" s="6" t="str">
+        <f>D10</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AL9" s="6" t="str">
+        <f>D10</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AM9" s="6" t="str">
+        <f>D10</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AN9" s="6"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>VLOOKUP(B10,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>61</v>
+      </c>
+      <c r="R10" s="6">
+        <v>30</v>
+      </c>
+      <c r="S10" s="6">
+        <v>5</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="6" t="str">
+        <f t="shared" ref="AE10:AE11" si="11">D11</f>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AF10" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AG10" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AH10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AI10" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AJ10" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>VLOOKUP(B11,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>21</v>
+      </c>
+      <c r="R11" s="6">
+        <v>30</v>
+      </c>
+      <c r="S11" s="6">
+        <v>6</v>
+      </c>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE11" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AF11" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AG11" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AH11" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AI11" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AJ11" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AK11" s="6" t="str">
+        <f t="shared" ref="AK11" si="12">D12</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AL11" s="6" t="str">
+        <f t="shared" ref="AL11" si="13">D12</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AM11" s="6" t="str">
+        <f t="shared" ref="AM11" si="14">D12</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="AN11" s="6"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>VLOOKUP(B12,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>21</v>
+      </c>
+      <c r="R12" s="6">
+        <v>30</v>
+      </c>
+      <c r="S12" s="6">
+        <v>7</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="6" t="str">
+        <f>D17</f>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AF12" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AG12" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AH12" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AI12" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AJ12" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>VLOOKUP(B13,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>61</v>
+      </c>
+      <c r="R13" s="6">
+        <v>30</v>
+      </c>
+      <c r="S13" s="6">
+        <v>8</v>
+      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AF13" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AG13" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AH13" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AI13" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AJ13" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AK13" s="6" t="str">
+        <f>D14</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AL13" s="6" t="str">
+        <f>D14</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AM13" s="6" t="str">
+        <f>D14</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AN13" s="6"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>VLOOKUP(B14,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>61</v>
+      </c>
+      <c r="R14" s="6">
+        <v>30</v>
+      </c>
+      <c r="S14" s="6">
+        <v>9</v>
+      </c>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AF14" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AG14" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AH14" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AI14" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AJ14" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>VLOOKUP(B15,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>21</v>
+      </c>
+      <c r="R15" s="6">
+        <v>30</v>
+      </c>
+      <c r="S15" s="6">
+        <v>10</v>
+      </c>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AF15" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AG15" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AH15" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AI15" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AJ15" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AK15" s="6" t="str">
+        <f t="shared" ref="AK15" si="15">D16</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AL15" s="6" t="str">
+        <f t="shared" ref="AL15" si="16">D16</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AM15" s="6" t="str">
+        <f t="shared" ref="AM15" si="17">D16</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="AN15" s="6"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>VLOOKUP(B16,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>21</v>
+      </c>
+      <c r="R16" s="6">
+        <v>30</v>
+      </c>
+      <c r="S16" s="6">
+        <v>11</v>
+      </c>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AF16" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AG16" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AH16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AI16" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AJ16" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>VLOOKUP(B17,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>61</v>
+      </c>
+      <c r="R17" s="6">
+        <v>30</v>
+      </c>
+      <c r="S17" s="6">
+        <v>12</v>
+      </c>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE17" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AF17" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AG17" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AH17" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AI17" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AJ17" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AK17" s="6" t="str">
+        <f>D18</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AL17" s="6" t="str">
+        <f>D18</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AM17" s="6" t="str">
+        <f>D18</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AN17" s="6"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>VLOOKUP(B18,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>61</v>
+      </c>
+      <c r="R18" s="6">
+        <v>30</v>
+      </c>
+      <c r="S18" s="6">
+        <v>13</v>
+      </c>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AF18" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AG18" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AH18" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AI18" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AJ18" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="AK18" s="6"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="6"/>
+      <c r="AN18" s="6"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>VLOOKUP(B19,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>21</v>
+      </c>
+      <c r="R19" s="6">
+        <v>30</v>
+      </c>
+      <c r="S19" s="6">
+        <v>14</v>
+      </c>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE19" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AF19" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AG19" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AH19" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AI19" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AJ19" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AK19" s="6" t="str">
+        <f t="shared" ref="AK19" si="18">D20</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AL19" s="6" t="str">
+        <f t="shared" ref="AL19" si="19">D20</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AM19" s="6" t="str">
+        <f t="shared" ref="AM19" si="20">D20</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="AN19" s="6"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f>VLOOKUP(B20,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>21</v>
+      </c>
+      <c r="R20" s="6">
+        <v>30</v>
+      </c>
+      <c r="S20" s="6">
+        <v>15</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AF20" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AG20" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AH20" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AI20" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AJ20" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AK20" s="6"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="6"/>
+      <c r="AN20" s="6"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>VLOOKUP(B21,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>61</v>
+      </c>
+      <c r="R21" s="6">
+        <v>30</v>
+      </c>
+      <c r="S21" s="6">
+        <v>16</v>
+      </c>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE21" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AF21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AG21" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AH21" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AI21" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AJ21" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AK21" s="6" t="str">
+        <f>D22</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AL21" s="6" t="str">
+        <f>D22</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AM21" s="6" t="str">
+        <f>D22</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AN21" s="6"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>VLOOKUP(B22,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>61</v>
+      </c>
+      <c r="R22" s="6">
+        <v>30</v>
+      </c>
+      <c r="S22" s="6">
+        <v>17</v>
+      </c>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AF22" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AG22" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AH22" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AI22" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AJ22" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>VLOOKUP(B23,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>21</v>
+      </c>
+      <c r="R23" s="6">
+        <v>30</v>
+      </c>
+      <c r="S23" s="6">
+        <v>18</v>
+      </c>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE23" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AF23" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AG23" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AH23" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AI23" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AJ23" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AK23" s="6" t="str">
+        <f t="shared" ref="AK23" si="21">D24</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AL23" s="6" t="str">
+        <f t="shared" ref="AL23" si="22">D24</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AM23" s="6" t="str">
+        <f t="shared" ref="AM23" si="23">D24</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="AN23" s="6"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>VLOOKUP(B24,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>21</v>
+      </c>
+      <c r="R24" s="6">
+        <v>30</v>
+      </c>
+      <c r="S24" s="6">
+        <v>19</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AF24" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AG24" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AH24" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AI24" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AJ24" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>61</v>
+      </c>
+      <c r="R25" s="6">
+        <v>30</v>
+      </c>
+      <c r="S25" s="6">
+        <v>20</v>
+      </c>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE25" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AF25" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AG25" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AH25" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AI25" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AJ25" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AK25" s="6" t="str">
+        <f>D26</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AL25" s="6" t="str">
+        <f>D26</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AM25" s="6" t="str">
+        <f>D26</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AN25" s="6"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>VLOOKUP(B26,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>61</v>
+      </c>
+      <c r="R26" s="6">
+        <v>30</v>
+      </c>
+      <c r="S26" s="6">
+        <v>21</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD26" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AF26" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AG26" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AH26" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AI26" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AJ26" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="AK26" s="6"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="6"/>
+      <c r="AN26" s="6"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="6" t="str">
+        <f>VLOOKUP(B27,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>21</v>
+      </c>
+      <c r="R27" s="6">
+        <v>30</v>
+      </c>
+      <c r="S27" s="6">
+        <v>22</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE27" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AF27" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AG27" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AH27" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AI27" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AJ27" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AK27" s="6" t="str">
+        <f t="shared" ref="AK27" si="24">D28</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AL27" s="6" t="str">
+        <f t="shared" ref="AL27" si="25">D28</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AM27" s="6" t="str">
+        <f t="shared" ref="AM27" si="26">D28</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="AN27" s="6"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6" t="str">
+        <f>VLOOKUP(B28,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>21</v>
+      </c>
+      <c r="R28" s="6">
+        <v>30</v>
+      </c>
+      <c r="S28" s="6">
+        <v>23</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD28" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AF28" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AG28" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AH28" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AI28" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AJ28" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AK28" s="6"/>
+      <c r="AL28" s="6"/>
+      <c r="AM28" s="6"/>
+      <c r="AN28" s="6"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6" t="str">
+        <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>61</v>
+      </c>
+      <c r="R29" s="6">
+        <v>30</v>
+      </c>
+      <c r="S29" s="6">
+        <v>24</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE29" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AF29" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AG29" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AH29" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AI29" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AJ29" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AK29" s="6" t="str">
+        <f>D30</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AL29" s="6" t="str">
+        <f>D30</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AM29" s="6" t="str">
+        <f>D30</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AN29" s="6"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="6" t="str">
+        <f>VLOOKUP(B30,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>61</v>
+      </c>
+      <c r="R30" s="6">
+        <v>30</v>
+      </c>
+      <c r="S30" s="6">
+        <v>25</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AF30" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AG30" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AH30" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AI30" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AJ30" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="AK30" s="6"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="6"/>
+      <c r="AN30" s="6"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>VLOOKUP(B31,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>21</v>
+      </c>
+      <c r="R31" s="6">
+        <v>30</v>
+      </c>
+      <c r="S31" s="6">
+        <v>26</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE31" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AF31" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AG31" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AH31" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AI31" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AJ31" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AK31" s="6" t="str">
+        <f t="shared" ref="AK31" si="27">D32</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AL31" s="6" t="str">
+        <f t="shared" ref="AL31" si="28">D32</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AM31" s="6" t="str">
+        <f t="shared" ref="AM31" si="29">D32</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="AN31" s="6"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f>VLOOKUP(B32,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>21</v>
+      </c>
+      <c r="R32" s="6">
+        <v>30</v>
+      </c>
+      <c r="S32" s="6">
+        <v>27</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AF32" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AG32" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AH32" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AI32" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AJ32" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AK32" s="6"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="6"/>
+      <c r="AN32" s="6"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="str">
+        <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>61</v>
+      </c>
+      <c r="R33" s="6">
+        <v>30</v>
+      </c>
+      <c r="S33" s="6">
+        <v>28</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE33" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AF33" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AG33" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AH33" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AI33" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AJ33" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AK33" s="6" t="str">
+        <f>D34</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AL33" s="6" t="str">
+        <f>D34</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AM33" s="6" t="str">
+        <f>D34</f>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AN33" s="6"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="6" t="str">
+        <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>61</v>
+      </c>
+      <c r="R34" s="6">
+        <v>30</v>
+      </c>
+      <c r="S34" s="6">
+        <v>29</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AF34" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AG34" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AH34" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AI34" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AJ34" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="6" t="str">
+        <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>21</v>
+      </c>
+      <c r="R35" s="6">
+        <v>30</v>
+      </c>
+      <c r="S35" s="6">
+        <v>30</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AD35" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE35" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AF35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AK35" s="6" t="str">
+        <f t="shared" ref="AK35" si="30">D36</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AL35" s="6" t="str">
+        <f t="shared" ref="AL35" si="31">D36</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AM35" s="6" t="str">
+        <f t="shared" ref="AM35" si="32">D36</f>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="AN35" s="6"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
+        <v>MbistRasterTC</v>
+      </c>
+      <c r="D36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>21</v>
+      </c>
+      <c r="R36" s="6">
+        <v>30</v>
+      </c>
+      <c r="S36" s="6">
+        <v>31</v>
+      </c>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="6"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="6"/>
+      <c r="AN36" s="6"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="18" t="str">
+        <f>VLOOKUP(B37,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="18"/>
+      <c r="Y37" s="18"/>
+      <c r="Z37" s="18"/>
+      <c r="AA37" s="18"/>
+      <c r="AB37" s="18"/>
+      <c r="AC37" s="18"/>
+      <c r="AD37" s="18"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="18"/>
+      <c r="AG37" s="18"/>
+      <c r="AH37" s="18"/>
+      <c r="AI37" s="18"/>
+      <c r="AJ37" s="18"/>
+      <c r="AK37" s="18"/>
+      <c r="AL37" s="18"/>
+      <c r="AM37" s="18"/>
+      <c r="AN37" s="18"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="22" t="str">
+        <f>VLOOKUP(B38,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+      <c r="AD38" s="22"/>
+      <c r="AE38" s="22"/>
+      <c r="AF38" s="22"/>
+      <c r="AG38" s="22"/>
+      <c r="AH38" s="22"/>
+      <c r="AI38" s="22"/>
+      <c r="AJ38" s="22"/>
+      <c r="AK38" s="22"/>
+      <c r="AL38" s="22"/>
+      <c r="AM38" s="22"/>
+      <c r="AN38" s="22"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="17" t="str">
+        <f>VLOOKUP(B39,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+      <c r="AD39" s="17"/>
+      <c r="AE39" s="17"/>
+      <c r="AF39" s="17"/>
+      <c r="AG39" s="17"/>
+      <c r="AH39" s="17"/>
+      <c r="AI39" s="17"/>
+      <c r="AJ39" s="17"/>
+      <c r="AK39" s="17"/>
+      <c r="AL39" s="17"/>
+      <c r="AM39" s="17"/>
+      <c r="AN39" s="17"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f>VLOOKUP(B40,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D40" t="str">
+        <f>E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;"_"&amp;A40&amp;"_"&amp;I40&amp;"_"&amp;J40&amp;"_"&amp;K40&amp;"_"&amp;L40&amp;"_"&amp;M40</f>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="E40" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" t="s">
+        <v>297</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" t="s">
+        <v>6</v>
+      </c>
+      <c r="M40" t="s">
+        <v>397</v>
+      </c>
+      <c r="N40" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" t="s">
+        <v>37</v>
+      </c>
+      <c r="P40" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q40">
+        <v>61</v>
+      </c>
+      <c r="R40">
+        <v>31</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>2200</v>
+      </c>
+      <c r="AB40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <f>COUNTA(AE40:AN40)</f>
+        <v>2</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40" t="str">
+        <f>D41</f>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="AF40" t="str">
+        <f>D41</f>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="1" t="str">
+        <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" ref="D41:D47" si="33">E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;"_"&amp;A41&amp;"_"&amp;I41&amp;"_"&amp;J41&amp;"_"&amp;K41&amp;"_"&amp;L41&amp;"_"&amp;M41</f>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="E41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" t="s">
+        <v>106</v>
+      </c>
+      <c r="G41" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" t="s">
+        <v>297</v>
+      </c>
+      <c r="J41" t="s">
+        <v>315</v>
+      </c>
+      <c r="K41" t="s">
+        <v>35</v>
+      </c>
+      <c r="L41" t="s">
+        <v>6</v>
+      </c>
+      <c r="M41" t="s">
+        <v>398</v>
+      </c>
+      <c r="N41" t="s">
+        <v>36</v>
+      </c>
+      <c r="O41" t="s">
+        <v>37</v>
+      </c>
+      <c r="P41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q41">
+        <v>61</v>
+      </c>
+      <c r="R41">
+        <v>31</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>2201</v>
+      </c>
+      <c r="AB41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" ref="AC41:AC47" si="34">COUNTA(AE41:AN41)</f>
+        <v>2</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41" t="str">
+        <f t="shared" ref="AE41:AE54" si="35">D42</f>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="AF41" t="str">
+        <f t="shared" ref="AF41:AF54" si="36">D42</f>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="33"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>315</v>
+      </c>
+      <c r="K42" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" t="s">
+        <v>399</v>
+      </c>
+      <c r="N42" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q42">
+        <v>61</v>
+      </c>
+      <c r="R42">
+        <v>31</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <v>2202</v>
+      </c>
+      <c r="AB42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="35"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="AF42" t="str">
+        <f t="shared" si="36"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="1" t="str">
+        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="33"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" t="s">
+        <v>297</v>
+      </c>
+      <c r="J43" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L43" t="s">
+        <v>6</v>
+      </c>
+      <c r="M43" t="s">
+        <v>400</v>
+      </c>
+      <c r="N43" t="s">
+        <v>36</v>
+      </c>
+      <c r="O43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q43">
+        <v>61</v>
+      </c>
+      <c r="R43">
+        <v>31</v>
+      </c>
+      <c r="S43">
+        <v>3</v>
+      </c>
+      <c r="T43">
+        <v>2203</v>
+      </c>
+      <c r="AB43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43" t="str">
+        <f t="shared" si="35"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="AF43" t="str">
+        <f t="shared" si="36"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1" t="str">
+        <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="33"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" t="s">
+        <v>106</v>
+      </c>
+      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" t="s">
+        <v>6</v>
+      </c>
+      <c r="M44" t="s">
+        <v>401</v>
+      </c>
+      <c r="N44" t="s">
+        <v>36</v>
+      </c>
+      <c r="O44" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q44">
+        <v>61</v>
+      </c>
+      <c r="R44">
+        <v>31</v>
+      </c>
+      <c r="S44">
+        <v>4</v>
+      </c>
+      <c r="T44">
+        <v>2204</v>
+      </c>
+      <c r="AB44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44" t="str">
+        <f t="shared" si="35"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF44" t="str">
+        <f t="shared" si="36"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="1" t="str">
+        <f>VLOOKUP(B45,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="33"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+      <c r="H45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" t="s">
+        <v>297</v>
+      </c>
+      <c r="J45" t="s">
+        <v>315</v>
+      </c>
+      <c r="K45" t="s">
+        <v>35</v>
+      </c>
+      <c r="L45" t="s">
+        <v>6</v>
+      </c>
+      <c r="M45" t="s">
+        <v>402</v>
+      </c>
+      <c r="N45" t="s">
+        <v>36</v>
+      </c>
+      <c r="O45" t="s">
+        <v>37</v>
+      </c>
+      <c r="P45" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q45">
+        <v>61</v>
+      </c>
+      <c r="R45">
+        <v>31</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45">
+        <v>2205</v>
+      </c>
+      <c r="AB45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45" t="str">
+        <f t="shared" si="35"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="AF45" t="str">
+        <f t="shared" si="36"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="1" t="str">
+        <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="33"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s">
+        <v>297</v>
+      </c>
+      <c r="J46" t="s">
+        <v>315</v>
+      </c>
+      <c r="K46" t="s">
+        <v>35</v>
+      </c>
+      <c r="L46" t="s">
+        <v>6</v>
+      </c>
+      <c r="M46" t="s">
+        <v>403</v>
+      </c>
+      <c r="N46" t="s">
+        <v>36</v>
+      </c>
+      <c r="O46" t="s">
+        <v>37</v>
+      </c>
+      <c r="P46" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q46">
+        <v>61</v>
+      </c>
+      <c r="R46">
+        <v>31</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>2206</v>
+      </c>
+      <c r="AB46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" si="35"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="AF46" t="str">
+        <f t="shared" si="36"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="1" t="str">
+        <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="33"/>
+        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>297</v>
+      </c>
+      <c r="J47" t="s">
+        <v>315</v>
+      </c>
+      <c r="K47" t="s">
+        <v>35</v>
+      </c>
+      <c r="L47" t="s">
+        <v>6</v>
+      </c>
+      <c r="M47" t="s">
+        <v>404</v>
+      </c>
+      <c r="N47" t="s">
+        <v>36</v>
+      </c>
+      <c r="O47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q47">
+        <v>61</v>
+      </c>
+      <c r="R47">
+        <v>31</v>
+      </c>
+      <c r="S47">
+        <v>7</v>
+      </c>
+      <c r="T47">
+        <v>2207</v>
+      </c>
+      <c r="AB47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="AF47" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D48" t="str">
+        <f>E48&amp;"_"&amp;F48&amp;"_"&amp;G48&amp;"_"&amp;H48&amp;"_"&amp;A48&amp;"_"&amp;I48&amp;"_"&amp;J48&amp;"_"&amp;K48&amp;"_"&amp;L48&amp;"_"&amp;M48</f>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" t="s">
+        <v>50</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s">
+        <v>297</v>
+      </c>
+      <c r="J48" t="s">
+        <v>315</v>
+      </c>
+      <c r="K48" t="s">
+        <v>35</v>
+      </c>
+      <c r="L48" t="s">
+        <v>6</v>
+      </c>
+      <c r="M48" t="s">
+        <v>397</v>
+      </c>
+      <c r="N48" t="s">
+        <v>36</v>
+      </c>
+      <c r="O48" t="s">
+        <v>37</v>
+      </c>
+      <c r="P48" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q48">
+        <v>21</v>
+      </c>
+      <c r="R48">
+        <v>31</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <v>2208</v>
+      </c>
+      <c r="AB48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <f>COUNTA(AE48:AN48)</f>
+        <v>2</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="AF48" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="1" t="str">
+        <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" ref="D49:D55" si="37">E49&amp;"_"&amp;F49&amp;"_"&amp;G49&amp;"_"&amp;H49&amp;"_"&amp;A49&amp;"_"&amp;I49&amp;"_"&amp;J49&amp;"_"&amp;K49&amp;"_"&amp;L49&amp;"_"&amp;M49</f>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s">
+        <v>297</v>
+      </c>
+      <c r="J49" t="s">
+        <v>315</v>
+      </c>
+      <c r="K49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L49" t="s">
+        <v>6</v>
+      </c>
+      <c r="M49" t="s">
+        <v>398</v>
+      </c>
+      <c r="N49" t="s">
+        <v>36</v>
+      </c>
+      <c r="O49" t="s">
+        <v>37</v>
+      </c>
+      <c r="P49" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q49">
+        <v>21</v>
+      </c>
+      <c r="R49">
+        <v>31</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>2209</v>
+      </c>
+      <c r="AB49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" ref="AC49:AC55" si="38">COUNTA(AE49:AN49)</f>
+        <v>2</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="AF49" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f>VLOOKUP(B50,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="37"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s">
+        <v>297</v>
+      </c>
+      <c r="J50" t="s">
+        <v>315</v>
+      </c>
+      <c r="K50" t="s">
+        <v>35</v>
+      </c>
+      <c r="L50" t="s">
+        <v>6</v>
+      </c>
+      <c r="M50" t="s">
+        <v>399</v>
+      </c>
+      <c r="N50" t="s">
+        <v>36</v>
+      </c>
+      <c r="O50" t="s">
+        <v>37</v>
+      </c>
+      <c r="P50" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q50">
+        <v>21</v>
+      </c>
+      <c r="R50">
+        <v>31</v>
+      </c>
+      <c r="S50">
+        <v>10</v>
+      </c>
+      <c r="T50">
+        <v>2210</v>
+      </c>
+      <c r="AB50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="AF50" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="1" t="str">
+        <f>VLOOKUP(B51,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="37"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" t="s">
+        <v>297</v>
+      </c>
+      <c r="J51" t="s">
+        <v>315</v>
+      </c>
+      <c r="K51" t="s">
+        <v>35</v>
+      </c>
+      <c r="L51" t="s">
+        <v>6</v>
+      </c>
+      <c r="M51" t="s">
+        <v>400</v>
+      </c>
+      <c r="N51" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" t="s">
+        <v>37</v>
+      </c>
+      <c r="P51" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q51">
+        <v>21</v>
+      </c>
+      <c r="R51">
+        <v>31</v>
+      </c>
+      <c r="S51">
+        <v>11</v>
+      </c>
+      <c r="T51">
+        <v>2211</v>
+      </c>
+      <c r="AB51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="AF51" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="37"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>106</v>
+      </c>
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s">
+        <v>297</v>
+      </c>
+      <c r="J52" t="s">
+        <v>315</v>
+      </c>
+      <c r="K52" t="s">
+        <v>35</v>
+      </c>
+      <c r="L52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M52" t="s">
+        <v>401</v>
+      </c>
+      <c r="N52" t="s">
+        <v>36</v>
+      </c>
+      <c r="O52" t="s">
+        <v>37</v>
+      </c>
+      <c r="P52" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q52">
+        <v>21</v>
+      </c>
+      <c r="R52">
+        <v>31</v>
+      </c>
+      <c r="S52">
+        <v>12</v>
+      </c>
+      <c r="T52">
+        <v>2212</v>
+      </c>
+      <c r="AB52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF52" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="37"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G53" t="s">
+        <v>50</v>
+      </c>
+      <c r="H53" t="s">
+        <v>34</v>
+      </c>
+      <c r="I53" t="s">
+        <v>297</v>
+      </c>
+      <c r="J53" t="s">
+        <v>315</v>
+      </c>
+      <c r="K53" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M53" t="s">
+        <v>402</v>
+      </c>
+      <c r="N53" t="s">
+        <v>36</v>
+      </c>
+      <c r="O53" t="s">
+        <v>37</v>
+      </c>
+      <c r="P53" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q53">
+        <v>21</v>
+      </c>
+      <c r="R53">
+        <v>31</v>
+      </c>
+      <c r="S53">
+        <v>13</v>
+      </c>
+      <c r="T53">
+        <v>2213</v>
+      </c>
+      <c r="AB53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="AF53" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>VLOOKUP(B54,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="37"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+      <c r="F54" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>50</v>
+      </c>
+      <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>297</v>
+      </c>
+      <c r="J54" t="s">
+        <v>315</v>
+      </c>
+      <c r="K54" t="s">
+        <v>35</v>
+      </c>
+      <c r="L54" t="s">
+        <v>6</v>
+      </c>
+      <c r="M54" t="s">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s">
+        <v>36</v>
+      </c>
+      <c r="O54" t="s">
+        <v>37</v>
+      </c>
+      <c r="P54" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q54">
+        <v>21</v>
+      </c>
+      <c r="R54">
+        <v>31</v>
+      </c>
+      <c r="S54">
+        <v>14</v>
+      </c>
+      <c r="T54">
+        <v>2214</v>
+      </c>
+      <c r="AB54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54" t="str">
+        <f t="shared" si="35"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="AF54" t="str">
+        <f t="shared" si="36"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>VLOOKUP(B55,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="37"/>
+        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" t="s">
+        <v>50</v>
+      </c>
+      <c r="H55" t="s">
+        <v>34</v>
+      </c>
+      <c r="I55" t="s">
+        <v>297</v>
+      </c>
+      <c r="J55" t="s">
+        <v>315</v>
+      </c>
+      <c r="K55" t="s">
+        <v>35</v>
+      </c>
+      <c r="L55" t="s">
+        <v>6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>404</v>
+      </c>
+      <c r="N55" t="s">
+        <v>36</v>
+      </c>
+      <c r="O55" t="s">
+        <v>37</v>
+      </c>
+      <c r="P55" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q55">
+        <v>21</v>
+      </c>
+      <c r="R55">
+        <v>31</v>
+      </c>
+      <c r="S55">
+        <v>15</v>
+      </c>
+      <c r="T55">
+        <v>2215</v>
+      </c>
+      <c r="AB55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="22" t="str">
+        <f>VLOOKUP(B56,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
+      <c r="AD56" s="22"/>
+      <c r="AE56" s="22"/>
+      <c r="AF56" s="22"/>
+      <c r="AG56" s="22"/>
+      <c r="AH56" s="22"/>
+      <c r="AI56" s="22"/>
+      <c r="AJ56" s="22"/>
+      <c r="AK56" s="22"/>
+      <c r="AL56" s="22"/>
+      <c r="AM56" s="22"/>
+      <c r="AN56" s="22"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="17"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="17"/>
+      <c r="AC57" s="17"/>
+      <c r="AD57" s="17"/>
+      <c r="AE57" s="17"/>
+      <c r="AF57" s="17"/>
+      <c r="AG57" s="17"/>
+      <c r="AH57" s="17"/>
+      <c r="AI57" s="17"/>
+      <c r="AJ57" s="17"/>
+      <c r="AK57" s="17"/>
+      <c r="AL57" s="17"/>
+      <c r="AM57" s="17"/>
+      <c r="AN57" s="17"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f>VLOOKUP(B58,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D58" t="str">
+        <f>E58&amp;"_"&amp;F58&amp;"_"&amp;G58&amp;"_"&amp;H58&amp;"_"&amp;A58&amp;"_"&amp;I58&amp;"_"&amp;J58&amp;"_"&amp;K58&amp;"_"&amp;L58&amp;"_"&amp;M58</f>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s">
+        <v>297</v>
+      </c>
+      <c r="J58" t="s">
+        <v>315</v>
+      </c>
+      <c r="K58" t="s">
+        <v>35</v>
+      </c>
+      <c r="L58" t="s">
+        <v>6</v>
+      </c>
+      <c r="M58" t="s">
+        <v>397</v>
+      </c>
+      <c r="N58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O58" t="s">
+        <v>37</v>
+      </c>
+      <c r="P58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q58">
+        <v>61</v>
+      </c>
+      <c r="R58">
+        <v>32</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2232</v>
+      </c>
+      <c r="AB58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58">
+        <f>COUNTA(AE58:AN58)</f>
+        <v>2</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58" t="str">
+        <f>D59</f>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="AF58" t="str">
+        <f>D59</f>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f>VLOOKUP(B59,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" ref="D59:D65" si="39">E59&amp;"_"&amp;F59&amp;"_"&amp;G59&amp;"_"&amp;H59&amp;"_"&amp;A59&amp;"_"&amp;I59&amp;"_"&amp;J59&amp;"_"&amp;K59&amp;"_"&amp;L59&amp;"_"&amp;M59</f>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" t="s">
+        <v>297</v>
+      </c>
+      <c r="J59" t="s">
+        <v>315</v>
+      </c>
+      <c r="K59" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" t="s">
+        <v>6</v>
+      </c>
+      <c r="M59" t="s">
+        <v>398</v>
+      </c>
+      <c r="N59" t="s">
+        <v>36</v>
+      </c>
+      <c r="O59" t="s">
+        <v>37</v>
+      </c>
+      <c r="P59" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q59">
+        <v>61</v>
+      </c>
+      <c r="R59">
+        <v>32</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>2233</v>
+      </c>
+      <c r="AB59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" ref="AC59:AC65" si="40">COUNTA(AE59:AN59)</f>
+        <v>2</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59" t="str">
+        <f t="shared" ref="AE59:AE72" si="41">D60</f>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="AF59" t="str">
+        <f t="shared" ref="AF59:AF72" si="42">D60</f>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="39"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I60" t="s">
+        <v>297</v>
+      </c>
+      <c r="J60" t="s">
+        <v>315</v>
+      </c>
+      <c r="K60" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M60" t="s">
+        <v>399</v>
+      </c>
+      <c r="N60" t="s">
+        <v>36</v>
+      </c>
+      <c r="O60" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q60">
+        <v>61</v>
+      </c>
+      <c r="R60">
+        <v>32</v>
+      </c>
+      <c r="S60">
+        <v>2</v>
+      </c>
+      <c r="T60">
+        <v>2234</v>
+      </c>
+      <c r="AB60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60" t="str">
+        <f t="shared" si="41"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="AF60" t="str">
+        <f t="shared" si="42"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f>VLOOKUP(B61,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="39"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" t="s">
+        <v>297</v>
+      </c>
+      <c r="J61" t="s">
+        <v>315</v>
+      </c>
+      <c r="K61" t="s">
+        <v>35</v>
+      </c>
+      <c r="L61" t="s">
+        <v>6</v>
+      </c>
+      <c r="M61" t="s">
+        <v>400</v>
+      </c>
+      <c r="N61" t="s">
+        <v>36</v>
+      </c>
+      <c r="O61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P61" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q61">
+        <v>61</v>
+      </c>
+      <c r="R61">
+        <v>32</v>
+      </c>
+      <c r="S61">
+        <v>3</v>
+      </c>
+      <c r="T61">
+        <v>2235</v>
+      </c>
+      <c r="AB61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61" t="str">
+        <f t="shared" si="41"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="AF61" t="str">
+        <f t="shared" si="42"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f>VLOOKUP(B62,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="39"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>106</v>
+      </c>
+      <c r="G62" t="s">
+        <v>66</v>
+      </c>
+      <c r="H62" t="s">
+        <v>34</v>
+      </c>
+      <c r="I62" t="s">
+        <v>297</v>
+      </c>
+      <c r="J62" t="s">
+        <v>315</v>
+      </c>
+      <c r="K62" t="s">
+        <v>35</v>
+      </c>
+      <c r="L62" t="s">
+        <v>6</v>
+      </c>
+      <c r="M62" t="s">
+        <v>401</v>
+      </c>
+      <c r="N62" t="s">
+        <v>36</v>
+      </c>
+      <c r="O62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P62" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q62">
+        <v>61</v>
+      </c>
+      <c r="R62">
+        <v>32</v>
+      </c>
+      <c r="S62">
+        <v>4</v>
+      </c>
+      <c r="T62">
+        <v>2236</v>
+      </c>
+      <c r="AB62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62" t="str">
+        <f t="shared" si="41"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF62" t="str">
+        <f t="shared" si="42"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f>VLOOKUP(B63,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="39"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" t="s">
+        <v>297</v>
+      </c>
+      <c r="J63" t="s">
+        <v>315</v>
+      </c>
+      <c r="K63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" t="s">
+        <v>6</v>
+      </c>
+      <c r="M63" t="s">
+        <v>402</v>
+      </c>
+      <c r="N63" t="s">
+        <v>36</v>
+      </c>
+      <c r="O63" t="s">
+        <v>37</v>
+      </c>
+      <c r="P63" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q63">
+        <v>61</v>
+      </c>
+      <c r="R63">
+        <v>32</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>2237</v>
+      </c>
+      <c r="AB63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AD63">
+        <v>1</v>
+      </c>
+      <c r="AE63" t="str">
+        <f t="shared" si="41"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="AF63" t="str">
+        <f t="shared" si="42"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f>VLOOKUP(B64,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="39"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>106</v>
+      </c>
+      <c r="G64" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" t="s">
+        <v>297</v>
+      </c>
+      <c r="J64" t="s">
+        <v>315</v>
+      </c>
+      <c r="K64" t="s">
+        <v>35</v>
+      </c>
+      <c r="L64" t="s">
+        <v>6</v>
+      </c>
+      <c r="M64" t="s">
+        <v>403</v>
+      </c>
+      <c r="N64" t="s">
+        <v>36</v>
+      </c>
+      <c r="O64" t="s">
+        <v>37</v>
+      </c>
+      <c r="P64" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q64">
+        <v>61</v>
+      </c>
+      <c r="R64">
+        <v>32</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>2238</v>
+      </c>
+      <c r="AB64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AD64">
+        <v>1</v>
+      </c>
+      <c r="AE64" t="str">
+        <f t="shared" si="41"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="AF64" t="str">
+        <f t="shared" si="42"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f>VLOOKUP(B65,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="39"/>
+        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" t="s">
+        <v>106</v>
+      </c>
+      <c r="G65" t="s">
+        <v>66</v>
+      </c>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="I65" t="s">
+        <v>297</v>
+      </c>
+      <c r="J65" t="s">
+        <v>315</v>
+      </c>
+      <c r="K65" t="s">
+        <v>35</v>
+      </c>
+      <c r="L65" t="s">
+        <v>6</v>
+      </c>
+      <c r="M65" t="s">
+        <v>404</v>
+      </c>
+      <c r="N65" t="s">
+        <v>36</v>
+      </c>
+      <c r="O65" t="s">
+        <v>37</v>
+      </c>
+      <c r="P65" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q65">
+        <v>61</v>
+      </c>
+      <c r="R65">
+        <v>32</v>
+      </c>
+      <c r="S65">
+        <v>7</v>
+      </c>
+      <c r="T65">
+        <v>2239</v>
+      </c>
+      <c r="AB65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" si="40"/>
+        <v>2</v>
+      </c>
+      <c r="AD65">
+        <v>1</v>
+      </c>
+      <c r="AE65" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="AF65" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f>VLOOKUP(B66,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D66" t="str">
+        <f>E66&amp;"_"&amp;F66&amp;"_"&amp;G66&amp;"_"&amp;H66&amp;"_"&amp;A66&amp;"_"&amp;I66&amp;"_"&amp;J66&amp;"_"&amp;K66&amp;"_"&amp;L66&amp;"_"&amp;M66</f>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
+      </c>
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>297</v>
+      </c>
+      <c r="J66" t="s">
+        <v>315</v>
+      </c>
+      <c r="K66" t="s">
+        <v>35</v>
+      </c>
+      <c r="L66" t="s">
+        <v>6</v>
+      </c>
+      <c r="M66" t="s">
+        <v>397</v>
+      </c>
+      <c r="N66" t="s">
+        <v>36</v>
+      </c>
+      <c r="O66" t="s">
+        <v>37</v>
+      </c>
+      <c r="P66" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q66">
+        <v>21</v>
+      </c>
+      <c r="R66">
+        <v>32</v>
+      </c>
+      <c r="S66">
+        <v>8</v>
+      </c>
+      <c r="T66">
+        <v>2240</v>
+      </c>
+      <c r="AB66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f>COUNTA(AE66:AN66)</f>
+        <v>2</v>
+      </c>
+      <c r="AD66">
+        <v>1</v>
+      </c>
+      <c r="AE66" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="AF66" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f>VLOOKUP(B67,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" ref="D67:D73" si="43">E67&amp;"_"&amp;F67&amp;"_"&amp;G67&amp;"_"&amp;H67&amp;"_"&amp;A67&amp;"_"&amp;I67&amp;"_"&amp;J67&amp;"_"&amp;K67&amp;"_"&amp;L67&amp;"_"&amp;M67</f>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
+      </c>
+      <c r="E67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>297</v>
+      </c>
+      <c r="J67" t="s">
+        <v>315</v>
+      </c>
+      <c r="K67" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" t="s">
+        <v>6</v>
+      </c>
+      <c r="M67" t="s">
+        <v>398</v>
+      </c>
+      <c r="N67" t="s">
+        <v>36</v>
+      </c>
+      <c r="O67" t="s">
+        <v>37</v>
+      </c>
+      <c r="P67" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q67">
+        <v>21</v>
+      </c>
+      <c r="R67">
+        <v>32</v>
+      </c>
+      <c r="S67">
+        <v>9</v>
+      </c>
+      <c r="T67">
+        <v>2241</v>
+      </c>
+      <c r="AB67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC67">
+        <f t="shared" ref="AC67:AC73" si="44">COUNTA(AE67:AN67)</f>
+        <v>2</v>
+      </c>
+      <c r="AD67">
+        <v>1</v>
+      </c>
+      <c r="AE67" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="AF67" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f>VLOOKUP(B68,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="43"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>59</v>
+      </c>
+      <c r="F68" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s">
+        <v>297</v>
+      </c>
+      <c r="J68" t="s">
+        <v>315</v>
+      </c>
+      <c r="K68" t="s">
+        <v>35</v>
+      </c>
+      <c r="L68" t="s">
+        <v>6</v>
+      </c>
+      <c r="M68" t="s">
+        <v>399</v>
+      </c>
+      <c r="N68" t="s">
+        <v>36</v>
+      </c>
+      <c r="O68" t="s">
+        <v>37</v>
+      </c>
+      <c r="P68" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q68">
+        <v>21</v>
+      </c>
+      <c r="R68">
+        <v>32</v>
+      </c>
+      <c r="S68">
+        <v>10</v>
+      </c>
+      <c r="T68">
+        <v>2242</v>
+      </c>
+      <c r="AB68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AD68">
+        <v>1</v>
+      </c>
+      <c r="AE68" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="AF68" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A69" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f>VLOOKUP(B69,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="43"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s">
+        <v>297</v>
+      </c>
+      <c r="J69" t="s">
+        <v>315</v>
+      </c>
+      <c r="K69" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" t="s">
+        <v>6</v>
+      </c>
+      <c r="M69" t="s">
+        <v>400</v>
+      </c>
+      <c r="N69" t="s">
+        <v>36</v>
+      </c>
+      <c r="O69" t="s">
+        <v>37</v>
+      </c>
+      <c r="P69" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q69">
+        <v>21</v>
+      </c>
+      <c r="R69">
+        <v>32</v>
+      </c>
+      <c r="S69">
+        <v>11</v>
+      </c>
+      <c r="T69">
+        <v>2243</v>
+      </c>
+      <c r="AB69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC69">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AD69">
+        <v>1</v>
+      </c>
+      <c r="AE69" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="AF69" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A70" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f>VLOOKUP(B70,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="43"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" t="s">
+        <v>106</v>
+      </c>
+      <c r="G70" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
+        <v>297</v>
+      </c>
+      <c r="J70" t="s">
+        <v>315</v>
+      </c>
+      <c r="K70" t="s">
+        <v>35</v>
+      </c>
+      <c r="L70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M70" t="s">
+        <v>401</v>
+      </c>
+      <c r="N70" t="s">
+        <v>36</v>
+      </c>
+      <c r="O70" t="s">
+        <v>37</v>
+      </c>
+      <c r="P70" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q70">
+        <v>21</v>
+      </c>
+      <c r="R70">
+        <v>32</v>
+      </c>
+      <c r="S70">
+        <v>12</v>
+      </c>
+      <c r="T70">
+        <v>2244</v>
+      </c>
+      <c r="AB70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AD70">
+        <v>1</v>
+      </c>
+      <c r="AE70" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="AF70" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f>VLOOKUP(B71,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="43"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>59</v>
+      </c>
+      <c r="F71" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" t="s">
+        <v>66</v>
+      </c>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s">
+        <v>297</v>
+      </c>
+      <c r="J71" t="s">
+        <v>315</v>
+      </c>
+      <c r="K71" t="s">
+        <v>35</v>
+      </c>
+      <c r="L71" t="s">
+        <v>6</v>
+      </c>
+      <c r="M71" t="s">
+        <v>402</v>
+      </c>
+      <c r="N71" t="s">
+        <v>36</v>
+      </c>
+      <c r="O71" t="s">
+        <v>37</v>
+      </c>
+      <c r="P71" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q71">
+        <v>21</v>
+      </c>
+      <c r="R71">
+        <v>32</v>
+      </c>
+      <c r="S71">
+        <v>13</v>
+      </c>
+      <c r="T71">
+        <v>2245</v>
+      </c>
+      <c r="AB71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AD71">
+        <v>1</v>
+      </c>
+      <c r="AE71" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="AF71" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A72" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f>VLOOKUP(B72,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="43"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" t="s">
+        <v>106</v>
+      </c>
+      <c r="G72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
+        <v>297</v>
+      </c>
+      <c r="J72" t="s">
+        <v>315</v>
+      </c>
+      <c r="K72" t="s">
+        <v>35</v>
+      </c>
+      <c r="L72" t="s">
+        <v>6</v>
+      </c>
+      <c r="M72" t="s">
+        <v>403</v>
+      </c>
+      <c r="N72" t="s">
+        <v>36</v>
+      </c>
+      <c r="O72" t="s">
+        <v>37</v>
+      </c>
+      <c r="P72" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q72">
+        <v>21</v>
+      </c>
+      <c r="R72">
+        <v>32</v>
+      </c>
+      <c r="S72">
+        <v>14</v>
+      </c>
+      <c r="T72">
+        <v>2246</v>
+      </c>
+      <c r="AB72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC72">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AD72">
+        <v>1</v>
+      </c>
+      <c r="AE72" t="str">
+        <f t="shared" si="41"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="AF72" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A73" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f>VLOOKUP(B73,templateLookup!A:B,2,0)</f>
+        <v>PrimeVminSearchTestMethod</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="43"/>
+        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
+      </c>
+      <c r="E73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F73" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s">
+        <v>297</v>
+      </c>
+      <c r="J73" t="s">
+        <v>315</v>
+      </c>
+      <c r="K73" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" t="s">
+        <v>6</v>
+      </c>
+      <c r="M73" t="s">
+        <v>404</v>
+      </c>
+      <c r="N73" t="s">
+        <v>36</v>
+      </c>
+      <c r="O73" t="s">
+        <v>37</v>
+      </c>
+      <c r="P73" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q73">
+        <v>21</v>
+      </c>
+      <c r="R73">
+        <v>32</v>
+      </c>
+      <c r="S73">
+        <v>15</v>
+      </c>
+      <c r="T73">
+        <v>2247</v>
+      </c>
+      <c r="AB73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="AD73">
+        <v>1</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
+      </c>
+      <c r="AF73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A74" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="22"/>
+      <c r="W74" s="22"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="22"/>
+      <c r="AE74" s="22"/>
+      <c r="AF74" s="22"/>
+      <c r="AG74" s="22"/>
+      <c r="AH74" s="22"/>
+      <c r="AI74" s="22"/>
+      <c r="AJ74" s="22"/>
+      <c r="AK74" s="22"/>
+      <c r="AL74" s="22"/>
+      <c r="AM74" s="22"/>
+      <c r="AN74" s="22"/>
+    </row>
+    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(B75,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D75" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B01F49-8D93-4379-859C-686FCB62F7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22801731-ACAC-43D6-B9BF-AFFD81F9175B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-1575" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="308">
   <si>
     <t>Flow</t>
   </si>
@@ -928,6 +928,42 @@
   </si>
   <si>
     <t>VCCSA_HC</t>
+  </si>
+  <si>
+    <t>array_pbist_hry_tito_atom_direct_ssa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_hry_tito_atom_direct_lsa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_hry_tito_atom_indirect_lsa_repairable_list</t>
+  </si>
+  <si>
+    <t>array_pbist_pstrep_atom_sino_direct_lsa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_pstrep_atom_sino_direct_ssa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_lsa_l2_lru_list</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_ssa_l2_c6s_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_ssa_l2_data_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_ssa_l2_tsp_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_indirect_lsa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_pstrep_atom_sino_indirect_lsa_list</t>
   </si>
 </sst>
 </file>
@@ -2133,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8E28AB-C6A9-4AC0-A975-B939A492DE78}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,10 +2647,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="T78" sqref="T78"/>
+      <selection pane="bottomLeft" activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,13 +2658,14 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="83.5703125" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" customWidth="1"/>
     <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2871,6 +2908,9 @@
       <c r="T5">
         <v>1</v>
       </c>
+      <c r="U5" t="s">
+        <v>294</v>
+      </c>
       <c r="X5" t="b">
         <v>0</v>
       </c>
@@ -2882,7 +2922,7 @@
         <v>39</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5:AA20" si="1">D6</f>
+        <f t="shared" ref="AA5:AA35" si="1">D6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_DAT_RASTER</v>
       </c>
       <c r="AB5" t="str">
@@ -2902,7 +2942,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="AF5" t="str">
-        <f t="shared" ref="AF5:AF20" si="2">D6</f>
+        <f t="shared" ref="AF5:AF35" si="2">D6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_DAT_RASTER</v>
       </c>
       <c r="AG5" t="str">
@@ -2982,6 +3022,9 @@
       <c r="T6">
         <v>1</v>
       </c>
+      <c r="U6" t="s">
+        <v>294</v>
+      </c>
       <c r="X6" t="b">
         <v>0</v>
       </c>
@@ -3081,6 +3124,9 @@
       <c r="T7">
         <v>1</v>
       </c>
+      <c r="U7" t="s">
+        <v>294</v>
+      </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
@@ -3192,6 +3238,9 @@
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="U8" t="s">
+        <v>294</v>
+      </c>
       <c r="X8" t="b">
         <v>0</v>
       </c>
@@ -3291,6 +3340,9 @@
       <c r="T9">
         <v>1</v>
       </c>
+      <c r="U9" t="s">
+        <v>295</v>
+      </c>
       <c r="X9" t="b">
         <v>0</v>
       </c>
@@ -3402,6 +3454,9 @@
       <c r="T10">
         <v>1</v>
       </c>
+      <c r="U10" t="s">
+        <v>295</v>
+      </c>
       <c r="X10" t="b">
         <v>0</v>
       </c>
@@ -3501,6 +3556,9 @@
       <c r="T11">
         <v>1</v>
       </c>
+      <c r="U11" t="s">
+        <v>294</v>
+      </c>
       <c r="X11" t="b">
         <v>0</v>
       </c>
@@ -3612,6 +3670,9 @@
       <c r="T12">
         <v>1</v>
       </c>
+      <c r="U12" t="s">
+        <v>294</v>
+      </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
@@ -3711,6 +3772,9 @@
       <c r="T13">
         <v>1</v>
       </c>
+      <c r="U13" t="s">
+        <v>294</v>
+      </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
@@ -3822,6 +3886,9 @@
       <c r="T14">
         <v>1</v>
       </c>
+      <c r="U14" t="s">
+        <v>294</v>
+      </c>
       <c r="X14" t="b">
         <v>0</v>
       </c>
@@ -3921,6 +3988,9 @@
       <c r="T15">
         <v>1</v>
       </c>
+      <c r="U15" t="s">
+        <v>294</v>
+      </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
@@ -4032,6 +4102,9 @@
       <c r="T16">
         <v>1</v>
       </c>
+      <c r="U16" t="s">
+        <v>294</v>
+      </c>
       <c r="X16" t="b">
         <v>0</v>
       </c>
@@ -4131,6 +4204,9 @@
       <c r="T17">
         <v>1</v>
       </c>
+      <c r="U17" t="s">
+        <v>295</v>
+      </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
@@ -4242,6 +4318,9 @@
       <c r="T18">
         <v>1</v>
       </c>
+      <c r="U18" t="s">
+        <v>295</v>
+      </c>
       <c r="X18" t="b">
         <v>0</v>
       </c>
@@ -4341,6 +4420,9 @@
       <c r="T19">
         <v>1</v>
       </c>
+      <c r="U19" t="s">
+        <v>294</v>
+      </c>
       <c r="X19" t="b">
         <v>0</v>
       </c>
@@ -4452,6 +4534,9 @@
       <c r="T20">
         <v>1</v>
       </c>
+      <c r="U20" t="s">
+        <v>294</v>
+      </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
@@ -4551,6 +4636,9 @@
       <c r="T21">
         <v>1</v>
       </c>
+      <c r="U21" t="s">
+        <v>294</v>
+      </c>
       <c r="X21" t="b">
         <v>0</v>
       </c>
@@ -4562,7 +4650,7 @@
         <v>39</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" ref="AA21:AA35" si="8">D22</f>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_RASTER</v>
       </c>
       <c r="AB21" t="str">
@@ -4582,7 +4670,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="AF21" t="str">
-        <f t="shared" ref="AF21:AF35" si="9">D22</f>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_RASTER</v>
       </c>
       <c r="AG21" t="str">
@@ -4662,18 +4750,21 @@
       <c r="T22">
         <v>1</v>
       </c>
+      <c r="U22" t="s">
+        <v>294</v>
+      </c>
       <c r="X22" t="b">
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" ref="Y22:Y36" si="10">COUNTA(AA22:AJ22)</f>
+        <f t="shared" ref="Y22:Y36" si="8">COUNTA(AA22:AJ22)</f>
         <v>6</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="AB22" t="str">
@@ -4693,7 +4784,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="AF22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
     </row>
@@ -4761,18 +4852,21 @@
       <c r="T23">
         <v>1</v>
       </c>
+      <c r="U23" t="s">
+        <v>294</v>
+      </c>
       <c r="X23" t="b">
         <v>0</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z23" t="s">
         <v>39</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_RASTER</v>
       </c>
       <c r="AB23" t="str">
@@ -4792,7 +4886,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
       <c r="AF23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_RASTER</v>
       </c>
       <c r="AG23" t="str">
@@ -4872,18 +4966,21 @@
       <c r="T24">
         <v>1</v>
       </c>
+      <c r="U24" t="s">
+        <v>294</v>
+      </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
       <c r="AB24" t="str">
@@ -4903,7 +5000,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
       <c r="AF24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
     </row>
@@ -4971,18 +5068,21 @@
       <c r="T25">
         <v>1</v>
       </c>
+      <c r="U25" t="s">
+        <v>295</v>
+      </c>
       <c r="X25" t="b">
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z25" t="s">
         <v>39</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_RASTER</v>
       </c>
       <c r="AB25" t="str">
@@ -5002,7 +5102,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AF25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_RASTER</v>
       </c>
       <c r="AG25" t="str">
@@ -5082,18 +5182,21 @@
       <c r="T26">
         <v>1</v>
       </c>
+      <c r="U26" t="s">
+        <v>295</v>
+      </c>
       <c r="X26" t="b">
         <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AB26" t="str">
@@ -5113,7 +5216,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AF26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
     </row>
@@ -5181,18 +5284,21 @@
       <c r="T27">
         <v>1</v>
       </c>
+      <c r="U27" t="s">
+        <v>294</v>
+      </c>
       <c r="X27" t="b">
         <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z27" t="s">
         <v>39</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AB27" t="str">
@@ -5212,7 +5318,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="AF27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AG27" t="str">
@@ -5292,18 +5398,21 @@
       <c r="T28">
         <v>1</v>
       </c>
+      <c r="U28" t="s">
+        <v>294</v>
+      </c>
       <c r="X28" t="b">
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="AB28" t="str">
@@ -5323,7 +5432,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="AF28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
     </row>
@@ -5391,18 +5500,21 @@
       <c r="T29">
         <v>1</v>
       </c>
+      <c r="U29" t="s">
+        <v>294</v>
+      </c>
       <c r="X29" t="b">
         <v>0</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z29" t="s">
         <v>39</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="AB29" t="str">
@@ -5422,7 +5534,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="AF29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="AG29" t="str">
@@ -5502,18 +5614,21 @@
       <c r="T30">
         <v>1</v>
       </c>
+      <c r="U30" t="s">
+        <v>294</v>
+      </c>
       <c r="X30" t="b">
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="AB30" t="str">
@@ -5533,7 +5648,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="AF30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
     </row>
@@ -5601,18 +5716,21 @@
       <c r="T31">
         <v>1</v>
       </c>
+      <c r="U31" t="s">
+        <v>294</v>
+      </c>
       <c r="X31" t="b">
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z31" t="s">
         <v>39</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="AB31" t="str">
@@ -5632,7 +5750,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="AF31" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="AG31" t="str">
@@ -5712,18 +5830,21 @@
       <c r="T32">
         <v>1</v>
       </c>
+      <c r="U32" t="s">
+        <v>294</v>
+      </c>
       <c r="X32" t="b">
         <v>0</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="AB32" t="str">
@@ -5743,7 +5864,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="AF32" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
     </row>
@@ -5811,18 +5932,21 @@
       <c r="T33">
         <v>1</v>
       </c>
+      <c r="U33" t="s">
+        <v>295</v>
+      </c>
       <c r="X33" t="b">
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z33" t="s">
         <v>39</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_RASTER</v>
       </c>
       <c r="AB33" t="str">
@@ -5842,7 +5966,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AF33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_RASTER</v>
       </c>
       <c r="AG33" t="str">
@@ -5922,18 +6046,21 @@
       <c r="T34">
         <v>1</v>
       </c>
+      <c r="U34" t="s">
+        <v>295</v>
+      </c>
       <c r="X34" t="b">
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z34">
         <v>1</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AB34" t="str">
@@ -5953,7 +6080,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AF34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
     </row>
@@ -6021,18 +6148,21 @@
       <c r="T35">
         <v>1</v>
       </c>
+      <c r="U35" t="s">
+        <v>294</v>
+      </c>
       <c r="X35" t="b">
         <v>0</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="Z35" t="s">
         <v>39</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="1"/>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AB35">
@@ -6048,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="AF35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AG35" t="str">
@@ -6128,11 +6258,14 @@
       <c r="T36">
         <v>1</v>
       </c>
+      <c r="U36" t="s">
+        <v>294</v>
+      </c>
       <c r="X36" t="b">
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="Z36">
@@ -6279,15 +6412,15 @@
         <v>120</v>
       </c>
       <c r="AA39" t="str">
-        <f>D40</f>
+        <f t="shared" ref="AA39:AA53" si="9">D40</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_TAG</v>
       </c>
       <c r="AB39" t="str">
-        <f>D40</f>
+        <f t="shared" ref="AB39:AB53" si="10">D40</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_TAG</v>
       </c>
       <c r="AC39" t="str">
-        <f>D40</f>
+        <f t="shared" ref="AC39:AC53" si="11">D40</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO0_LLC_TAG</v>
       </c>
     </row>
@@ -6368,15 +6501,15 @@
         <v>120</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" ref="AA40:AA53" si="11">D41</f>
+        <f t="shared" si="9"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" ref="AB40:AB53" si="12">D41</f>
+        <f t="shared" si="10"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" ref="AC40:AC53" si="13">D41</f>
+        <f t="shared" si="11"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
       </c>
     </row>
@@ -6457,15 +6590,15 @@
         <v>120</v>
       </c>
       <c r="AA41" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
+      </c>
+      <c r="AB41" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
+      </c>
+      <c r="AC41" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
-      </c>
-      <c r="AB41" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
-      </c>
-      <c r="AC41" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
       </c>
     </row>
@@ -6481,7 +6614,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42:D53" si="14">E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
+        <f t="shared" ref="D42:D53" si="12">E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
       </c>
       <c r="E42" t="s">
@@ -6546,15 +6679,15 @@
         <v>120</v>
       </c>
       <c r="AA42" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
+      </c>
+      <c r="AB42" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
+      </c>
+      <c r="AC42" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
-      </c>
-      <c r="AB42" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
-      </c>
-      <c r="AC42" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
       </c>
     </row>
@@ -6570,7 +6703,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
       </c>
       <c r="E43" t="s">
@@ -6635,15 +6768,15 @@
         <v>120</v>
       </c>
       <c r="AA43" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
+      </c>
+      <c r="AB43" t="str">
+        <f t="shared" si="10"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
+      </c>
+      <c r="AC43" t="str">
         <f t="shared" si="11"/>
-        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
-      </c>
-      <c r="AB43" t="str">
-        <f t="shared" si="12"/>
-        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
-      </c>
-      <c r="AC43" t="str">
-        <f t="shared" si="13"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
       </c>
     </row>
@@ -6659,7 +6792,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
       </c>
       <c r="E44" t="s">
@@ -6724,15 +6857,15 @@
         <v>120</v>
       </c>
       <c r="AA44" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
+      </c>
+      <c r="AB44" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
+      </c>
+      <c r="AC44" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
-      </c>
-      <c r="AB44" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
-      </c>
-      <c r="AC44" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
       </c>
     </row>
@@ -6748,7 +6881,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" ref="D45" si="15">E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
+        <f t="shared" ref="D45" si="13">E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
       </c>
       <c r="E45" t="s">
@@ -6813,15 +6946,15 @@
         <v>120</v>
       </c>
       <c r="AA45" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
+      </c>
+      <c r="AB45" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
+      </c>
+      <c r="AC45" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
-      </c>
-      <c r="AB45" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
-      </c>
-      <c r="AC45" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
       </c>
     </row>
@@ -6902,15 +7035,15 @@
         <v>120</v>
       </c>
       <c r="AA46" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
+      </c>
+      <c r="AC46" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
-      </c>
-      <c r="AB46" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
-      </c>
-      <c r="AC46" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
       </c>
     </row>
@@ -6991,15 +7124,15 @@
         <v>120</v>
       </c>
       <c r="AA47" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" si="10"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
+      </c>
+      <c r="AC47" t="str">
         <f t="shared" si="11"/>
-        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
-      </c>
-      <c r="AB47" t="str">
-        <f t="shared" si="12"/>
-        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
-      </c>
-      <c r="AC47" t="str">
-        <f t="shared" si="13"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
       </c>
     </row>
@@ -7080,15 +7213,15 @@
         <v>120</v>
       </c>
       <c r="AA48" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
+      </c>
+      <c r="AB48" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
+      </c>
+      <c r="AC48" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
-      </c>
-      <c r="AB48" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
-      </c>
-      <c r="AC48" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
       </c>
     </row>
@@ -7104,7 +7237,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
       </c>
       <c r="E49" t="s">
@@ -7169,15 +7302,15 @@
         <v>120</v>
       </c>
       <c r="AA49" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
+      </c>
+      <c r="AB49" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
+      </c>
+      <c r="AC49" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
-      </c>
-      <c r="AB49" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
-      </c>
-      <c r="AC49" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
       </c>
     </row>
@@ -7193,7 +7326,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
       </c>
       <c r="E50" t="s">
@@ -7258,15 +7391,15 @@
         <v>120</v>
       </c>
       <c r="AA50" t="str">
+        <f t="shared" si="9"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
+      </c>
+      <c r="AB50" t="str">
+        <f t="shared" si="10"/>
+        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
+      </c>
+      <c r="AC50" t="str">
         <f t="shared" si="11"/>
-        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
-      </c>
-      <c r="AB50" t="str">
-        <f t="shared" si="12"/>
-        <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
-      </c>
-      <c r="AC50" t="str">
-        <f t="shared" si="13"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
       </c>
     </row>
@@ -7282,7 +7415,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
       </c>
       <c r="E51" t="s">
@@ -7347,15 +7480,15 @@
         <v>120</v>
       </c>
       <c r="AA51" t="str">
+        <f t="shared" si="9"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
+      </c>
+      <c r="AB51" t="str">
+        <f t="shared" si="10"/>
+        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
+      </c>
+      <c r="AC51" t="str">
         <f t="shared" si="11"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
-      </c>
-      <c r="AB51" t="str">
-        <f t="shared" si="12"/>
-        <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
-      </c>
-      <c r="AC51" t="str">
-        <f t="shared" si="13"/>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
       </c>
     </row>
@@ -7371,7 +7504,7 @@
         <v>iCVFDMTest</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52" si="16">E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
+        <f t="shared" ref="D52" si="14">E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
       </c>
       <c r="E52" t="s">
@@ -7436,15 +7569,15 @@
         <v>120</v>
       </c>
       <c r="AA52" t="str">
+        <f t="shared" si="9"/>
+        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="10"/>
+        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
+      </c>
+      <c r="AC52" t="str">
         <f t="shared" si="11"/>
-        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
-      </c>
-      <c r="AB52" t="str">
-        <f t="shared" si="12"/>
-        <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
-      </c>
-      <c r="AC52" t="str">
-        <f t="shared" si="13"/>
         <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
       </c>
     </row>
@@ -7460,7 +7593,7 @@
         <v>iCUserFuncTest</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
       </c>
       <c r="E53" t="s">
@@ -7522,15 +7655,15 @@
         <v>120</v>
       </c>
       <c r="AA53" t="str">
+        <f t="shared" si="9"/>
+        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
+      </c>
+      <c r="AB53" t="str">
+        <f t="shared" si="10"/>
+        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
+      </c>
+      <c r="AC53" t="str">
         <f t="shared" si="11"/>
-        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
-      </c>
-      <c r="AB53" t="str">
-        <f t="shared" si="12"/>
-        <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
-      </c>
-      <c r="AC53" t="str">
-        <f t="shared" si="13"/>
         <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
       </c>
     </row>
@@ -7670,7 +7803,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" ref="D57:D64" si="17">E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"_"&amp;A57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
+        <f t="shared" ref="D57:D64" si="15">E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"_"&amp;A57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="E57" t="s">
@@ -7722,6 +7855,9 @@
       <c r="T57">
         <v>1</v>
       </c>
+      <c r="U57" t="s">
+        <v>294</v>
+      </c>
       <c r="X57" t="b">
         <v>0</v>
       </c>
@@ -7733,39 +7869,39 @@
         <v>1</v>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" ref="AA57:AA63" si="18">D58</f>
+        <f t="shared" ref="AA57:AA63" si="16">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AB57" t="str">
-        <f t="shared" ref="AB57:AB63" si="19">D58</f>
+        <f t="shared" ref="AB57:AB63" si="17">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AC57" t="str">
-        <f t="shared" ref="AC57:AC63" si="20">D58</f>
+        <f t="shared" ref="AC57:AC63" si="18">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AD57" t="str">
-        <f t="shared" ref="AD57:AD63" si="21">D58</f>
+        <f t="shared" ref="AD57:AD63" si="19">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AE57" t="str">
-        <f t="shared" ref="AE57:AE63" si="22">D58</f>
+        <f t="shared" ref="AE57:AE63" si="20">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AF57" t="str">
-        <f t="shared" ref="AF57:AF63" si="23">D58</f>
+        <f t="shared" ref="AF57:AF63" si="21">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AG57" t="str">
-        <f t="shared" ref="AG57:AG63" si="24">D58</f>
+        <f t="shared" ref="AG57:AG63" si="22">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AH57" t="str">
-        <f t="shared" ref="AH57:AH63" si="25">D58</f>
+        <f t="shared" ref="AH57:AH63" si="23">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AI57" t="str">
-        <f t="shared" ref="AI57:AI63" si="26">D58</f>
+        <f t="shared" ref="AI57:AI63" si="24">D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
     </row>
@@ -7781,7 +7917,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="E58" t="s">
@@ -7833,50 +7969,53 @@
       <c r="T58">
         <v>1</v>
       </c>
+      <c r="U58" t="s">
+        <v>294</v>
+      </c>
       <c r="X58" t="b">
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="shared" ref="Y58:Y64" si="27">COUNTA(AA58:AJ58)</f>
+        <f t="shared" ref="Y58:Y64" si="25">COUNTA(AA58:AJ58)</f>
         <v>9</v>
       </c>
       <c r="Z58">
         <v>1</v>
       </c>
       <c r="AA58" t="str">
+        <f t="shared" si="16"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AB58" t="str">
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AC58" t="str">
         <f t="shared" si="18"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
-      <c r="AB58" t="str">
+      <c r="AD58" t="str">
         <f t="shared" si="19"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
-      <c r="AC58" t="str">
+      <c r="AE58" t="str">
         <f t="shared" si="20"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
-      <c r="AD58" t="str">
+      <c r="AF58" t="str">
         <f t="shared" si="21"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
-      <c r="AE58" t="str">
+      <c r="AG58" t="str">
         <f t="shared" si="22"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
-      <c r="AF58" t="str">
+      <c r="AH58" t="str">
         <f t="shared" si="23"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
-      <c r="AG58" t="str">
+      <c r="AI58" t="str">
         <f t="shared" si="24"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AH58" t="str">
-        <f t="shared" si="25"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AI58" t="str">
-        <f t="shared" si="26"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
     </row>
@@ -7892,7 +8031,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="E59" t="s">
@@ -7944,50 +8083,53 @@
       <c r="T59">
         <v>1</v>
       </c>
+      <c r="U59" t="s">
+        <v>295</v>
+      </c>
       <c r="X59" t="b">
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="Z59">
         <v>1</v>
       </c>
       <c r="AA59" t="str">
+        <f t="shared" si="16"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AB59" t="str">
+        <f t="shared" si="17"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AC59" t="str">
         <f t="shared" si="18"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AB59" t="str">
+      <c r="AD59" t="str">
         <f t="shared" si="19"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AC59" t="str">
+      <c r="AE59" t="str">
         <f t="shared" si="20"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AD59" t="str">
+      <c r="AF59" t="str">
         <f t="shared" si="21"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AE59" t="str">
+      <c r="AG59" t="str">
         <f t="shared" si="22"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AF59" t="str">
+      <c r="AH59" t="str">
         <f t="shared" si="23"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AG59" t="str">
+      <c r="AI59" t="str">
         <f t="shared" si="24"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AH59" t="str">
-        <f t="shared" si="25"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AI59" t="str">
-        <f t="shared" si="26"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
     </row>
@@ -8003,7 +8145,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="E60" t="s">
@@ -8055,50 +8197,53 @@
       <c r="T60">
         <v>1</v>
       </c>
+      <c r="U60" t="s">
+        <v>294</v>
+      </c>
       <c r="X60" t="b">
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="Z60">
         <v>1</v>
       </c>
       <c r="AA60" t="str">
+        <f t="shared" si="16"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AB60" t="str">
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
+      </c>
+      <c r="AC60" t="str">
         <f t="shared" si="18"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
-      <c r="AB60" t="str">
+      <c r="AD60" t="str">
         <f t="shared" si="19"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
-      <c r="AC60" t="str">
+      <c r="AE60" t="str">
         <f t="shared" si="20"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
-      <c r="AD60" t="str">
+      <c r="AF60" t="str">
         <f t="shared" si="21"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
-      <c r="AE60" t="str">
+      <c r="AG60" t="str">
         <f t="shared" si="22"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
-      <c r="AF60" t="str">
+      <c r="AH60" t="str">
         <f t="shared" si="23"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
-      <c r="AG60" t="str">
+      <c r="AI60" t="str">
         <f t="shared" si="24"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="AH60" t="str">
-        <f t="shared" si="25"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
-      </c>
-      <c r="AI60" t="str">
-        <f t="shared" si="26"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
     </row>
@@ -8114,7 +8259,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="E61" t="s">
@@ -8166,50 +8311,53 @@
       <c r="T61">
         <v>1</v>
       </c>
+      <c r="U61" t="s">
+        <v>294</v>
+      </c>
       <c r="X61" t="b">
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="Z61">
         <v>1</v>
       </c>
       <c r="AA61" t="str">
+        <f t="shared" si="16"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AB61" t="str">
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
+      </c>
+      <c r="AC61" t="str">
         <f t="shared" si="18"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
-      <c r="AB61" t="str">
+      <c r="AD61" t="str">
         <f t="shared" si="19"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
-      <c r="AC61" t="str">
+      <c r="AE61" t="str">
         <f t="shared" si="20"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
-      <c r="AD61" t="str">
+      <c r="AF61" t="str">
         <f t="shared" si="21"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
-      <c r="AE61" t="str">
+      <c r="AG61" t="str">
         <f t="shared" si="22"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
-      <c r="AF61" t="str">
+      <c r="AH61" t="str">
         <f t="shared" si="23"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
-      <c r="AG61" t="str">
+      <c r="AI61" t="str">
         <f t="shared" si="24"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AH61" t="str">
-        <f t="shared" si="25"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
-      </c>
-      <c r="AI61" t="str">
-        <f t="shared" si="26"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
     </row>
@@ -8225,7 +8373,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="E62" t="s">
@@ -8277,50 +8425,53 @@
       <c r="T62">
         <v>1</v>
       </c>
+      <c r="U62" t="s">
+        <v>294</v>
+      </c>
       <c r="X62" t="b">
         <v>0</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="Z62">
         <v>1</v>
       </c>
       <c r="AA62" t="str">
+        <f t="shared" si="16"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AB62" t="str">
+        <f t="shared" si="17"/>
+        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
+      </c>
+      <c r="AC62" t="str">
         <f t="shared" si="18"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
-      <c r="AB62" t="str">
+      <c r="AD62" t="str">
         <f t="shared" si="19"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
-      <c r="AC62" t="str">
+      <c r="AE62" t="str">
         <f t="shared" si="20"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
-      <c r="AD62" t="str">
+      <c r="AF62" t="str">
         <f t="shared" si="21"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
-      <c r="AE62" t="str">
+      <c r="AG62" t="str">
         <f t="shared" si="22"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
-      <c r="AF62" t="str">
+      <c r="AH62" t="str">
         <f t="shared" si="23"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
-      <c r="AG62" t="str">
+      <c r="AI62" t="str">
         <f t="shared" si="24"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AH62" t="str">
-        <f t="shared" si="25"/>
-        <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
-      </c>
-      <c r="AI62" t="str">
-        <f t="shared" si="26"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
     </row>
@@ -8336,7 +8487,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="E63" t="s">
@@ -8388,50 +8539,53 @@
       <c r="T63">
         <v>1</v>
       </c>
+      <c r="U63" t="s">
+        <v>295</v>
+      </c>
       <c r="X63" t="b">
         <v>0</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="Z63">
         <v>1</v>
       </c>
       <c r="AA63" t="str">
+        <f t="shared" si="16"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AB63" t="str">
+        <f t="shared" si="17"/>
+        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
+      </c>
+      <c r="AC63" t="str">
         <f t="shared" si="18"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AB63" t="str">
+      <c r="AD63" t="str">
         <f t="shared" si="19"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AC63" t="str">
+      <c r="AE63" t="str">
         <f t="shared" si="20"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AD63" t="str">
+      <c r="AF63" t="str">
         <f t="shared" si="21"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AE63" t="str">
+      <c r="AG63" t="str">
         <f t="shared" si="22"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AF63" t="str">
+      <c r="AH63" t="str">
         <f t="shared" si="23"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
-      <c r="AG63" t="str">
+      <c r="AI63" t="str">
         <f t="shared" si="24"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AH63" t="str">
-        <f t="shared" si="25"/>
-        <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
-      </c>
-      <c r="AI63" t="str">
-        <f t="shared" si="26"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
     </row>
@@ -8447,7 +8601,7 @@
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="E64" t="s">
@@ -8499,11 +8653,14 @@
       <c r="T64">
         <v>1</v>
       </c>
+      <c r="U64" t="s">
+        <v>294</v>
+      </c>
       <c r="X64" t="b">
         <v>0</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="Z64">
@@ -8591,7 +8748,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D73" si="28">E68&amp;"_"&amp;F68&amp;"_"&amp;G68&amp;"_"&amp;H68&amp;"_"&amp;A68&amp;"_"&amp;I68&amp;"_"&amp;J68&amp;"_"&amp;K68&amp;"_"&amp;L68&amp;"_"&amp;M68</f>
+        <f t="shared" ref="D68:D73" si="26">E68&amp;"_"&amp;F68&amp;"_"&amp;G68&amp;"_"&amp;H68&amp;"_"&amp;A68&amp;"_"&amp;I68&amp;"_"&amp;J68&amp;"_"&amp;K68&amp;"_"&amp;L68&amp;"_"&amp;M68</f>
         <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
       </c>
       <c r="E68" t="s">
@@ -8653,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="Y68">
-        <f t="shared" ref="Y68:Y73" si="29">COUNTA(AA68:AJ68)</f>
+        <f t="shared" ref="Y68:Y73" si="27">COUNTA(AA68:AJ68)</f>
         <v>2</v>
       </c>
       <c r="Z68">
@@ -8680,7 +8837,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
       <c r="E69" t="s">
@@ -8742,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Z69">
@@ -8769,7 +8926,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
       </c>
       <c r="E70" t="s">
@@ -8831,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Z70">
@@ -8858,7 +9015,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E71" t="s">
@@ -8920,7 +9077,7 @@
         <v>0</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Z71">
@@ -8947,7 +9104,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
       </c>
       <c r="E72" t="s">
@@ -9009,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Z72">
@@ -9036,7 +9193,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E73" t="s">
@@ -9098,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
       <c r="Z73">
@@ -9212,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <f t="shared" ref="Y76:Y77" si="30">COUNTA(AA76:AJ76)</f>
+        <f t="shared" ref="Y76:Y77" si="28">COUNTA(AA76:AJ76)</f>
         <v>4</v>
       </c>
       <c r="Z76" t="s">
@@ -9306,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>4</v>
       </c>
       <c r="Z77" t="s">
@@ -9367,7 +9524,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" ref="D80:D85" si="31">E80&amp;"_"&amp;F80&amp;"_"&amp;G80&amp;"_"&amp;H80&amp;"_"&amp;A80&amp;"_"&amp;I80&amp;"_"&amp;J80&amp;"_"&amp;K80&amp;"_"&amp;L80&amp;"_"&amp;M80</f>
+        <f t="shared" ref="D80:D85" si="29">E80&amp;"_"&amp;F80&amp;"_"&amp;G80&amp;"_"&amp;H80&amp;"_"&amp;A80&amp;"_"&amp;I80&amp;"_"&amp;J80&amp;"_"&amp;K80&amp;"_"&amp;L80&amp;"_"&amp;M80</f>
         <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
       </c>
       <c r="E80" t="s">
@@ -9429,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <f t="shared" ref="Y80:Y85" si="32">COUNTA(AA80:AJ80)</f>
+        <f t="shared" ref="Y80:Y85" si="30">COUNTA(AA80:AJ80)</f>
         <v>2</v>
       </c>
       <c r="Z80">
@@ -9456,7 +9613,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
       <c r="E81" t="s">
@@ -9518,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z81">
@@ -9545,7 +9702,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
       </c>
       <c r="E82" t="s">
@@ -9607,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z82">
@@ -9634,7 +9791,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E83" t="s">
@@ -9696,7 +9853,7 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z83">
@@ -9723,7 +9880,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
       </c>
       <c r="E84" t="s">
@@ -9785,7 +9942,7 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z84">
@@ -9812,7 +9969,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E85" t="s">
@@ -9874,7 +10031,7 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="Z85">
@@ -9935,7 +10092,7 @@
         <v>32</v>
       </c>
       <c r="Y88">
-        <f t="shared" ref="Y88" si="33">COUNTA(AA88:AJ88)</f>
+        <f t="shared" ref="Y88" si="31">COUNTA(AA88:AJ88)</f>
         <v>2</v>
       </c>
       <c r="Z88">
@@ -9962,7 +10119,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" ref="D89:D94" si="34">E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;"_"&amp;A89&amp;"_"&amp;I89&amp;"_"&amp;J89&amp;"_"&amp;K89&amp;"_"&amp;L89&amp;"_"&amp;M89</f>
+        <f t="shared" ref="D89:D94" si="32">E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;"_"&amp;A89&amp;"_"&amp;I89&amp;"_"&amp;J89&amp;"_"&amp;K89&amp;"_"&amp;L89&amp;"_"&amp;M89</f>
         <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_CBO</v>
       </c>
       <c r="E89" t="s">
@@ -10024,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <f t="shared" ref="Y89:Y94" si="35">COUNTA(AA89:AJ89)</f>
+        <f t="shared" ref="Y89:Y94" si="33">COUNTA(AA89:AJ89)</f>
         <v>2</v>
       </c>
       <c r="Z89">
@@ -10051,7 +10208,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
       <c r="E90" t="s">
@@ -10113,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="Z90">
@@ -10140,7 +10297,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
       </c>
       <c r="E91" t="s">
@@ -10202,7 +10359,7 @@
         <v>0</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="Z91">
@@ -10229,7 +10386,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E92" t="s">
@@ -10291,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="Z92">
@@ -10318,7 +10475,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
       </c>
       <c r="E93" t="s">
@@ -10380,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="Z93">
@@ -10407,7 +10564,7 @@
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E94" t="s">
@@ -10469,7 +10626,7 @@
         <v>0</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2</v>
       </c>
       <c r="Z94">
@@ -10512,7 +10669,7 @@
         <v>32</v>
       </c>
       <c r="Y96">
-        <f t="shared" ref="Y96" si="36">COUNTA(AA96:AJ96)</f>
+        <f t="shared" ref="Y96" si="34">COUNTA(AA96:AJ96)</f>
         <v>2</v>
       </c>
       <c r="Z96">
@@ -10598,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="Y97">
-        <f t="shared" ref="Y97:Y98" si="37">COUNTA(AA97:AJ97)</f>
+        <f t="shared" ref="Y97:Y98" si="35">COUNTA(AA97:AJ97)</f>
         <v>2</v>
       </c>
       <c r="Z97">
@@ -10686,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="Z98">
@@ -10748,8 +10905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
   <dimension ref="A1:AO115"/>
   <sheetViews>
-    <sheetView topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="T96" sqref="T96"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10757,13 +10914,18 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="9.140625" customWidth="1"/>
+    <col min="5" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="76.28515625" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="28" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="25.42578125" customWidth="1"/>
-    <col min="33" max="33" width="28.28515625" customWidth="1"/>
+    <col min="29" max="31" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="25.42578125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="34" max="41" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -11046,7 +11208,7 @@
         <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="Q5">
         <v>60</v>
@@ -11058,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
@@ -11135,7 +11297,7 @@
         <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Q6">
         <v>60</v>
@@ -11147,7 +11309,7 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y6" t="s">
         <v>270</v>
@@ -11224,7 +11386,7 @@
         <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Q7">
         <v>60</v>
@@ -11236,7 +11398,7 @@
         <v>2</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y7" t="s">
         <v>270</v>
@@ -11334,7 +11496,7 @@
         <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Q8">
         <v>60</v>
@@ -11346,7 +11508,7 @@
         <v>3</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y8" t="s">
         <v>270</v>
@@ -11444,7 +11606,7 @@
         <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Q9">
         <v>60</v>
@@ -11456,7 +11618,7 @@
         <v>4</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y9" t="s">
         <v>271</v>
@@ -11533,7 +11695,7 @@
         <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Q10">
         <v>60</v>
@@ -11545,7 +11707,7 @@
         <v>5</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y10" t="s">
         <v>271</v>
@@ -11643,7 +11805,7 @@
         <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Q11">
         <v>60</v>
@@ -11655,7 +11817,7 @@
         <v>6</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y11" t="s">
         <v>271</v>
@@ -11753,7 +11915,7 @@
         <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="Q12">
         <v>60</v>
@@ -11765,7 +11927,7 @@
         <v>7</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y12" t="s">
         <v>272</v>
@@ -11842,7 +12004,7 @@
         <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="Q13">
         <v>60</v>
@@ -11854,7 +12016,7 @@
         <v>8</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y13" t="s">
         <v>272</v>
@@ -11952,7 +12114,7 @@
         <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="Q14">
         <v>60</v>
@@ -11964,7 +12126,7 @@
         <v>9</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y14" t="s">
         <v>272</v>
@@ -12062,7 +12224,7 @@
         <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q15">
         <v>60</v>
@@ -12074,7 +12236,7 @@
         <v>10</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W15" t="s">
         <v>262</v>
@@ -12151,7 +12313,7 @@
         <v>37</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q16">
         <v>60</v>
@@ -12237,7 +12399,7 @@
         <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q17">
         <v>60</v>
@@ -12319,7 +12481,7 @@
         <v>37</v>
       </c>
       <c r="P18" t="s">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="Q18">
         <v>60</v>
@@ -12331,7 +12493,7 @@
         <v>13</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
@@ -12406,7 +12568,7 @@
         <v>37</v>
       </c>
       <c r="P19" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q19">
         <v>60</v>
@@ -12418,7 +12580,7 @@
         <v>14</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W19" t="s">
         <v>265</v>
@@ -12541,7 +12703,7 @@
         <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>296</v>
       </c>
       <c r="Q22">
         <v>60</v>
@@ -12553,7 +12715,7 @@
         <v>20</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
@@ -12630,7 +12792,7 @@
         <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Q23">
         <v>60</v>
@@ -12642,7 +12804,7 @@
         <v>21</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y23" t="s">
         <v>270</v>
@@ -12719,7 +12881,7 @@
         <v>37</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Q24">
         <v>60</v>
@@ -12731,7 +12893,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y24" t="s">
         <v>270</v>
@@ -12829,7 +12991,7 @@
         <v>37</v>
       </c>
       <c r="P25" t="s">
-        <v>38</v>
+        <v>304</v>
       </c>
       <c r="Q25">
         <v>60</v>
@@ -12841,7 +13003,7 @@
         <v>23</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y25" t="s">
         <v>270</v>
@@ -12939,7 +13101,7 @@
         <v>37</v>
       </c>
       <c r="P26" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Q26">
         <v>60</v>
@@ -12951,7 +13113,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y26" t="s">
         <v>271</v>
@@ -13028,7 +13190,7 @@
         <v>37</v>
       </c>
       <c r="P27" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Q27">
         <v>60</v>
@@ -13040,7 +13202,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y27" t="s">
         <v>271</v>
@@ -13138,7 +13300,7 @@
         <v>37</v>
       </c>
       <c r="P28" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="Q28">
         <v>60</v>
@@ -13150,7 +13312,7 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y28" t="s">
         <v>271</v>
@@ -13248,7 +13410,7 @@
         <v>37</v>
       </c>
       <c r="P29" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="Q29">
         <v>60</v>
@@ -13260,7 +13422,7 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y29" t="s">
         <v>272</v>
@@ -13337,7 +13499,7 @@
         <v>37</v>
       </c>
       <c r="P30" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="Q30">
         <v>60</v>
@@ -13349,7 +13511,7 @@
         <v>28</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y30" t="s">
         <v>272</v>
@@ -13447,7 +13609,7 @@
         <v>37</v>
       </c>
       <c r="P31" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="Q31">
         <v>60</v>
@@ -13459,7 +13621,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y31" t="s">
         <v>272</v>
@@ -13557,7 +13719,7 @@
         <v>37</v>
       </c>
       <c r="P32" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q32">
         <v>60</v>
@@ -13569,7 +13731,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W32" t="s">
         <v>262</v>
@@ -13646,7 +13808,7 @@
         <v>37</v>
       </c>
       <c r="P33" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q33">
         <v>60</v>
@@ -13732,7 +13894,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q34">
         <v>60</v>
@@ -13814,7 +13976,7 @@
         <v>37</v>
       </c>
       <c r="P35" t="s">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="Q35">
         <v>60</v>
@@ -13826,7 +13988,7 @@
         <v>33</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35" t="b">
         <v>0</v>
@@ -13901,7 +14063,7 @@
         <v>37</v>
       </c>
       <c r="P36" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q36">
         <v>60</v>
@@ -13913,7 +14075,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W36" t="s">
         <v>266</v>
@@ -14036,7 +14198,7 @@
         <v>37</v>
       </c>
       <c r="P39" t="s">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -14048,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
@@ -14125,7 +14287,7 @@
         <v>37</v>
       </c>
       <c r="P40" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -14137,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y40" t="s">
         <v>273</v>
@@ -14214,7 +14376,7 @@
         <v>37</v>
       </c>
       <c r="P41" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Q41">
         <v>20</v>
@@ -14226,7 +14388,7 @@
         <v>2</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y41" t="s">
         <v>273</v>
@@ -14324,7 +14486,7 @@
         <v>37</v>
       </c>
       <c r="P42" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Q42">
         <v>20</v>
@@ -14336,7 +14498,7 @@
         <v>3</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y42" t="s">
         <v>273</v>
@@ -14434,7 +14596,7 @@
         <v>37</v>
       </c>
       <c r="P43" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q43">
         <v>20</v>
@@ -14523,7 +14685,7 @@
         <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q44">
         <v>20</v>
@@ -14609,7 +14771,7 @@
         <v>37</v>
       </c>
       <c r="P45" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q45">
         <v>20</v>
@@ -14691,7 +14853,7 @@
         <v>37</v>
       </c>
       <c r="P46" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="Q46">
         <v>20</v>
@@ -14703,7 +14865,7 @@
         <v>7</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC46" t="b">
         <v>0</v>
@@ -14778,7 +14940,7 @@
         <v>37</v>
       </c>
       <c r="P47" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q47">
         <v>20</v>
@@ -14790,7 +14952,7 @@
         <v>8</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W47" t="s">
         <v>265</v>
@@ -14913,7 +15075,7 @@
         <v>37</v>
       </c>
       <c r="P50" t="s">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="Q50">
         <v>20</v>
@@ -14925,7 +15087,7 @@
         <v>10</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC50" t="b">
         <v>0</v>
@@ -15002,7 +15164,7 @@
         <v>37</v>
       </c>
       <c r="P51" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Q51">
         <v>20</v>
@@ -15014,7 +15176,7 @@
         <v>11</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y51" t="s">
         <v>273</v>
@@ -15091,7 +15253,7 @@
         <v>37</v>
       </c>
       <c r="P52" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Q52">
         <v>20</v>
@@ -15103,7 +15265,7 @@
         <v>12</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y52" t="s">
         <v>273</v>
@@ -15201,7 +15363,7 @@
         <v>37</v>
       </c>
       <c r="P53" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="Q53">
         <v>20</v>
@@ -15213,7 +15375,7 @@
         <v>13</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y53" t="s">
         <v>273</v>
@@ -15311,7 +15473,7 @@
         <v>37</v>
       </c>
       <c r="P54" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q54">
         <v>20</v>
@@ -15400,7 +15562,7 @@
         <v>37</v>
       </c>
       <c r="P55" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q55">
         <v>20</v>
@@ -15486,7 +15648,7 @@
         <v>37</v>
       </c>
       <c r="P56" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q56">
         <v>20</v>
@@ -15568,7 +15730,7 @@
         <v>37</v>
       </c>
       <c r="P57" t="s">
-        <v>38</v>
+        <v>299</v>
       </c>
       <c r="Q57">
         <v>20</v>
@@ -15580,7 +15742,7 @@
         <v>17</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57" t="b">
         <v>0</v>
@@ -15655,7 +15817,7 @@
         <v>37</v>
       </c>
       <c r="P58" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q58">
         <v>20</v>
@@ -15667,7 +15829,7 @@
         <v>18</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W58" t="s">
         <v>266</v>
@@ -15790,7 +15952,7 @@
         <v>37</v>
       </c>
       <c r="P61" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="Q61">
         <v>20</v>
@@ -15802,7 +15964,7 @@
         <v>20</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y61" t="s">
         <v>274</v>
@@ -15885,7 +16047,7 @@
         <v>37</v>
       </c>
       <c r="P62" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q62">
         <v>20</v>
@@ -15897,7 +16059,7 @@
         <v>21</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y62" t="s">
         <v>274</v>
@@ -15977,7 +16139,7 @@
         <v>37</v>
       </c>
       <c r="P63" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q63">
         <v>20</v>
@@ -15989,7 +16151,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y63" t="s">
         <v>274</v>
@@ -16087,7 +16249,7 @@
         <v>37</v>
       </c>
       <c r="P64" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q64">
         <v>20</v>
@@ -16099,7 +16261,7 @@
         <v>23</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y64" t="s">
         <v>274</v>
@@ -16197,7 +16359,7 @@
         <v>37</v>
       </c>
       <c r="P65" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q65">
         <v>20</v>
@@ -16286,7 +16448,7 @@
         <v>37</v>
       </c>
       <c r="P66" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q66">
         <v>20</v>
@@ -16372,7 +16534,7 @@
         <v>37</v>
       </c>
       <c r="P67" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q67">
         <v>20</v>
@@ -16454,7 +16616,7 @@
         <v>37</v>
       </c>
       <c r="P68" t="s">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="Q68">
         <v>20</v>
@@ -16466,7 +16628,7 @@
         <v>27</v>
       </c>
       <c r="T68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC68" t="b">
         <v>0</v>
@@ -16541,7 +16703,7 @@
         <v>37</v>
       </c>
       <c r="P69" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q69">
         <v>20</v>
@@ -16553,7 +16715,7 @@
         <v>28</v>
       </c>
       <c r="T69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W69" t="s">
         <v>265</v>
@@ -16676,7 +16838,7 @@
         <v>37</v>
       </c>
       <c r="P72" t="s">
-        <v>38</v>
+        <v>298</v>
       </c>
       <c r="Q72">
         <v>20</v>
@@ -16688,7 +16850,7 @@
         <v>30</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y72" t="s">
         <v>274</v>
@@ -16771,7 +16933,7 @@
         <v>37</v>
       </c>
       <c r="P73" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q73">
         <v>20</v>
@@ -16783,7 +16945,7 @@
         <v>31</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y73" t="s">
         <v>274</v>
@@ -16863,7 +17025,7 @@
         <v>37</v>
       </c>
       <c r="P74" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q74">
         <v>20</v>
@@ -16875,7 +17037,7 @@
         <v>32</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y74" t="s">
         <v>274</v>
@@ -16973,7 +17135,7 @@
         <v>37</v>
       </c>
       <c r="P75" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q75">
         <v>20</v>
@@ -16985,7 +17147,7 @@
         <v>33</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y75" t="s">
         <v>274</v>
@@ -17083,7 +17245,7 @@
         <v>37</v>
       </c>
       <c r="P76" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q76">
         <v>20</v>
@@ -17172,7 +17334,7 @@
         <v>37</v>
       </c>
       <c r="P77" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q77">
         <v>20</v>
@@ -17258,7 +17420,7 @@
         <v>37</v>
       </c>
       <c r="P78" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q78">
         <v>20</v>
@@ -17340,7 +17502,7 @@
         <v>37</v>
       </c>
       <c r="P79" t="s">
-        <v>38</v>
+        <v>307</v>
       </c>
       <c r="Q79">
         <v>20</v>
@@ -17352,7 +17514,7 @@
         <v>37</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79" t="b">
         <v>0</v>
@@ -17427,7 +17589,7 @@
         <v>37</v>
       </c>
       <c r="P80" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>20</v>
@@ -17439,7 +17601,7 @@
         <v>38</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W80" t="s">
         <v>266</v>
@@ -17559,7 +17721,7 @@
         <v>37</v>
       </c>
       <c r="P83" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q83">
         <v>20</v>
@@ -17571,7 +17733,7 @@
         <v>40</v>
       </c>
       <c r="T83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC83" t="b">
         <v>0</v>
@@ -17648,7 +17810,7 @@
         <v>37</v>
       </c>
       <c r="P84" t="s">
-        <v>38</v>
+        <v>306</v>
       </c>
       <c r="Q84">
         <v>20</v>
@@ -17660,7 +17822,7 @@
         <v>41</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC84" t="b">
         <v>0</v>

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adambyrn\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEC222C-B1D0-44AD-A8A2-5523C9017EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE5CE7-40A8-479F-BD33-0654DFF313D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">arr_atom!$A$1:$AO$115</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">arr_ccf!$A$1:$AJ$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">arr_common!$A$1:$AN$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">arr_core!$A$1:$AN$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">arr_vpu!$A$1:$AN$131</definedName>
   </definedNames>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7173" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="440">
   <si>
     <t>Flow</t>
   </si>
@@ -1342,6 +1343,30 @@
   <si>
     <t>SDTBEGIN</t>
   </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>COMMON</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>WRITEALL</t>
+  </si>
+  <si>
+    <t>OVERFLOW_CHECK</t>
+  </si>
+  <si>
+    <t>REPAIRBITSSET_FLAG</t>
+  </si>
+  <si>
+    <t>COMBINE_UF_REPAIRDFF_HCS</t>
+  </si>
+  <si>
+    <t>COMBINE_UF_REPAIRDFF_FDS</t>
+  </si>
 </sst>
 </file>
 
@@ -2006,7 +2031,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -2050,7 +2075,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2409,7 +2439,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3092,7 +3122,7 @@
   <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="T78" sqref="T78"/>
     </sheetView>
@@ -11228,8 +11258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
   <dimension ref="A1:AO115"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20160,8 +20190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B8437-3DCF-4B36-BC4E-3AB927DD0A96}">
   <dimension ref="A1:AN125"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="U91" sqref="U91"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91:XFD91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32007,8 +32037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EAE81-7B4D-421F-AB9D-4D5523112C76}">
   <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="U1" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AE110" sqref="AE110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43608,10 +43638,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F6E2B4-C277-4E27-8556-F36877EC29FC}">
-  <dimension ref="A1:AN75"/>
+  <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43620,6 +43650,7 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="72.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="13" max="13" width="30.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.28515625" customWidth="1"/>
   </cols>
@@ -43777,7 +43808,7 @@
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>106</v>
+        <v>433</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -43815,92 +43846,144 @@
       <c r="AN3" s="17"/>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="18" t="str">
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="str">
         <f>VLOOKUP(B4,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18">
-        <f>COUNTA(AE4:AN4)</f>
-        <v>2</v>
-      </c>
-      <c r="AD4" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE4" s="18" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF4" s="18" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
+        <v>PrimeMbistVminSearchTestMethod</v>
+      </c>
+      <c r="D4" s="6" t="str">
+        <f t="shared" ref="D4:D6" si="0">E4&amp;"_"&amp;F4&amp;"_"&amp;G4&amp;"_"&amp;H4&amp;"_"&amp;A4&amp;"_"&amp;I4&amp;"_"&amp;J4&amp;"_"&amp;K4&amp;"_"&amp;L4&amp;"_"&amp;M4</f>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>61</v>
+      </c>
+      <c r="R4" s="6">
+        <v>30</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="6">
+        <f t="shared" ref="AC4:AC5" si="1">COUNTA(AE4:AN4)</f>
+        <v>9</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE4" s="6" t="str">
+        <f>D5</f>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AF4" s="6" t="str">
+        <f>$D18</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AG4" s="6" t="str">
+        <f t="shared" ref="AG4:AI5" si="2">$D18</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AH4" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AI4" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AJ4" s="6" t="str">
+        <f>D5</f>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AK4" s="6" t="str">
+        <f>D5</f>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AL4" s="6" t="str">
+        <f>D5</f>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AM4" s="6" t="str">
+        <f>D5</f>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AN4" s="6"/>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="str">
         <f>VLOOKUP(B5,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
+        <v>MbistRasterTC</v>
       </c>
       <c r="D5" s="6" t="str">
-        <f t="shared" ref="D5:D36" si="0">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+        <f t="shared" si="0"/>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>106</v>
+        <v>386</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>433</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>34</v>
@@ -43909,16 +43992,16 @@
         <v>297</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>315</v>
+        <v>6</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>36</v>
@@ -43936,7 +44019,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
@@ -43950,91 +44033,82 @@
         <v>0</v>
       </c>
       <c r="AC5" s="6">
-        <f t="shared" ref="AC5:AC36" si="1">COUNTA(AE5:AN5)</f>
-        <v>9</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>1</v>
       </c>
       <c r="AE5" s="6" t="str">
         <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_TITO_X_X_X_RESET</v>
       </c>
       <c r="AF5" s="6" t="str">
-        <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+        <f>$D19</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
       </c>
       <c r="AG5" s="6" t="str">
-        <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+        <f t="shared" si="2"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
       </c>
       <c r="AH5" s="6" t="str">
-        <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+        <f t="shared" si="2"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
       </c>
       <c r="AI5" s="6" t="str">
-        <f>D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
+        <f t="shared" si="2"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
       </c>
       <c r="AJ5" s="6" t="str">
         <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AK5" s="6" t="str">
-        <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AL5" s="6" t="str">
-        <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AM5" s="6" t="str">
-        <f>D6</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_TITO_X_X_X_RESET</v>
+      </c>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
       <c r="AN5" s="6"/>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="C6" s="6" t="str">
         <f>VLOOKUP(B6,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
+        <v>iCRepairTest</v>
       </c>
       <c r="D6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_TITO_X_X_X_RESET</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>106</v>
+        <v>386</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>433</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>297</v>
+        <v>124</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>315</v>
+        <v>6</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>407</v>
+        <v>434</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>36</v>
@@ -44046,6334 +44120,1111 @@
         <v>38</v>
       </c>
       <c r="Q6" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R6" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>432</v>
+      </c>
       <c r="AB6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="AC6" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE6" s="6" t="str">
-        <f t="shared" ref="AE6:AE35" si="2">D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
-      </c>
-      <c r="AF6" s="6" t="str">
-        <f t="shared" ref="AF6:AF34" si="3">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AG6" s="6" t="str">
-        <f t="shared" ref="AG6:AG34" si="4">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AH6" s="6" t="str">
-        <f t="shared" ref="AH6:AH34" si="5">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AI6" s="6" t="str">
-        <f t="shared" ref="AI6:AI34" si="6">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AJ6" s="6" t="str">
-        <f t="shared" ref="AJ6:AJ35" si="7">D7</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
-      </c>
-      <c r="AK6" s="6"/>
-      <c r="AL6" s="6"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
+        <f t="shared" ref="AC6" si="3">COUNTA(AE6:AN6)</f>
+        <v>6</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="22" t="str">
+        <f>VLOOKUP(B7,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+      <c r="AN7" s="22"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="str">
+        <f>VLOOKUP(B8,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+    </row>
+    <row r="9" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f>VLOOKUP(B9,templateLookup!A:B,2,0)</f>
+        <v>iCVFDMTest</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" ref="D9:D14" si="4">E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;"_"&amp;A9&amp;"_"&amp;I9&amp;"_"&amp;J9&amp;"_"&amp;K9&amp;"_"&amp;L9&amp;"_"&amp;M9</f>
+        <v>XSA_COMMON_VFDM_E_PREHVQK_T_X_X_X_WRITEALL</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>61</v>
+      </c>
+      <c r="R9" s="5">
         <v>30</v>
       </c>
-      <c r="C7" s="6" t="str">
-        <f>VLOOKUP(B7,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_BUTTRESS</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="S9" s="5">
+        <v>39</v>
+      </c>
+      <c r="U9" s="34"/>
+      <c r="AB9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <f t="shared" ref="AC9:AC11" si="5">COUNTA(AE9:AN9)</f>
+        <v>3</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE9" s="5" t="str">
+        <f t="shared" ref="AE9:AE13" si="6">D10</f>
+        <v>XSA_COMMON_UF_E_PREHVQK_T_X_X_X_OVERFLOW_CHECK</v>
+      </c>
+      <c r="AF9" s="5" t="str">
+        <f t="shared" ref="AF9:AF13" si="7">D10</f>
+        <v>XSA_COMMON_UF_E_PREHVQK_T_X_X_X_OVERFLOW_CHECK</v>
+      </c>
+      <c r="AG9" s="5" t="str">
+        <f t="shared" ref="AG9:AG11" si="8">D10</f>
+        <v>XSA_COMMON_UF_E_PREHVQK_T_X_X_X_OVERFLOW_CHECK</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f>VLOOKUP(B10,templateLookup!A:B,2,0)</f>
+        <v>iCUserFuncTest</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>XSA_COMMON_UF_E_PREHVQK_T_X_X_X_OVERFLOW_CHECK</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="J10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="P10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q10" s="5">
         <v>21</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R10" s="5">
         <v>30</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S10" s="5">
+        <v>40</v>
+      </c>
+      <c r="AB10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AD10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE10" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>XSA_COMMON_FUSECONFIG_E_PREHVQK_T_X_X_X_REPAIR</v>
+      </c>
+      <c r="AF10" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>XSA_COMMON_FUSECONFIG_E_PREHVQK_T_X_X_X_REPAIR</v>
+      </c>
+      <c r="AG10" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>XSA_COMMON_FUSECONFIG_E_PREHVQK_T_X_X_X_REPAIR</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f>VLOOKUP(B11,templateLookup!A:B,2,0)</f>
+        <v>PrimePatConfigTestMethod</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>XSA_COMMON_FUSECONFIG_E_PREHVQK_T_X_X_X_REPAIR</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>21</v>
+      </c>
+      <c r="R11" s="5">
+        <v>30</v>
+      </c>
+      <c r="S11" s="5">
+        <v>41</v>
+      </c>
+      <c r="AB11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AD11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE11" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_REPAIRBITSSET_FLAG</v>
+      </c>
+      <c r="AF11" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_REPAIRBITSSET_FLAG</v>
+      </c>
+      <c r="AG11" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_REPAIRBITSSET_FLAG</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>VLOOKUP(B12,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" ref="D12" si="9">E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;"_"&amp;A12&amp;"_"&amp;I12&amp;"_"&amp;J12&amp;"_"&amp;K12&amp;"_"&amp;L12&amp;"_"&amp;M12</f>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_REPAIRBITSSET_FLAG</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>21</v>
+      </c>
+      <c r="R12" s="5">
+        <v>20</v>
+      </c>
+      <c r="S12" s="5">
+        <v>82</v>
+      </c>
+      <c r="AB12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <f>COUNTA(AE12:AN12)</f>
         <v>2</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6" t="b">
+      <c r="AD12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_COMBINE_UF_REPAIRDFF_HCS</v>
+      </c>
+      <c r="AF12" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_COMBINE_UF_REPAIRDFF_HCS</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f>VLOOKUP(B13,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" ref="D13" si="10">E13&amp;"_"&amp;F13&amp;"_"&amp;G13&amp;"_"&amp;H13&amp;"_"&amp;A13&amp;"_"&amp;I13&amp;"_"&amp;J13&amp;"_"&amp;K13&amp;"_"&amp;L13&amp;"_"&amp;M13</f>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_COMBINE_UF_REPAIRDFF_HCS</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>21</v>
+      </c>
+      <c r="R13" s="5">
+        <v>20</v>
+      </c>
+      <c r="S13" s="5">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="AC7" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE7" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AF7" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AG7" s="6" t="str">
+      <c r="AC13" s="5">
+        <f>COUNTA(AE13:AN13)</f>
+        <v>2</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_COMBINE_UF_REPAIRDFF_FDS</v>
+      </c>
+      <c r="AF13" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_COMBINE_UF_REPAIRDFF_FDS</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f>VLOOKUP(B14,templateLookup!A:B,2,0)</f>
+        <v>AuxiliaryTC</v>
+      </c>
+      <c r="D14" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AH7" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AI7" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AJ7" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AK7" s="6" t="str">
-        <f t="shared" ref="AK7" si="8">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AL7" s="6" t="str">
-        <f t="shared" ref="AL7" si="9">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AM7" s="6" t="str">
-        <f t="shared" ref="AM7" si="10">D8</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="AN7" s="6"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6" t="str">
-        <f>VLOOKUP(B8,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_BUTTRESS</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="6" t="s">
+        <v>XSA_COMMON_AUX_E_PREHVQK_T_X_X_X_COMBINE_UF_REPAIRDFF_FDS</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>433</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="J14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q14" s="5">
         <v>21</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R14" s="5">
+        <v>20</v>
+      </c>
+      <c r="S14" s="5">
+        <v>82</v>
+      </c>
+      <c r="AB14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <f>COUNTA(AE14:AN14)</f>
+        <v>2</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f>VLOOKUP(B15,templateLookup!A:B,2,0)</f>
+        <v>COMPOSITE</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="22"/>
+      <c r="AM15" s="22"/>
+      <c r="AN15" s="22"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>431</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>433</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="17"/>
+    </row>
+    <row r="17" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="6">
-        <v>3</v>
-      </c>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="6" t="str">
-        <f>D13</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AF8" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AG8" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AH8" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AI8" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AJ8" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f>VLOOKUP(B9,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>61</v>
-      </c>
-      <c r="R9" s="6">
-        <v>30</v>
-      </c>
-      <c r="S9" s="6">
-        <v>4</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE9" s="6" t="str">
-        <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AF9" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AG9" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AH9" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AI9" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AJ9" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AK9" s="6" t="str">
-        <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AL9" s="6" t="str">
-        <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AM9" s="6" t="str">
-        <f>D10</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AN9" s="6"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f>VLOOKUP(B10,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>61</v>
-      </c>
-      <c r="R10" s="6">
-        <v>30</v>
-      </c>
-      <c r="S10" s="6">
-        <v>5</v>
-      </c>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="6" t="str">
-        <f t="shared" ref="AE10:AE11" si="11">D11</f>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AF10" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AG10" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AH10" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AI10" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AJ10" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f>VLOOKUP(B11,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_SPINE</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>21</v>
-      </c>
-      <c r="R11" s="6">
-        <v>30</v>
-      </c>
-      <c r="S11" s="6">
-        <v>6</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE11" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AF11" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AG11" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AH11" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AI11" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AJ11" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AK11" s="6" t="str">
-        <f t="shared" ref="AK11" si="12">D12</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AL11" s="6" t="str">
-        <f t="shared" ref="AL11" si="13">D12</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AM11" s="6" t="str">
-        <f t="shared" ref="AM11" si="14">D12</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="AN11" s="6"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="6" t="str">
-        <f>VLOOKUP(B12,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_SPINE</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>21</v>
-      </c>
-      <c r="R12" s="6">
-        <v>30</v>
-      </c>
-      <c r="S12" s="6">
-        <v>7</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
-      <c r="AB12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="6" t="str">
-        <f>D17</f>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AF12" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AG12" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AH12" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AI12" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AJ12" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6" t="str">
-        <f>VLOOKUP(B13,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>61</v>
-      </c>
-      <c r="R13" s="6">
-        <v>30</v>
-      </c>
-      <c r="S13" s="6">
-        <v>8</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE13" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AF13" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AG13" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AH13" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AI13" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AJ13" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AK13" s="6" t="str">
-        <f>D14</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AL13" s="6" t="str">
-        <f>D14</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AM13" s="6" t="str">
-        <f>D14</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AN13" s="6"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f>VLOOKUP(B14,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>61</v>
-      </c>
-      <c r="R14" s="6">
-        <v>30</v>
-      </c>
-      <c r="S14" s="6">
-        <v>9</v>
-      </c>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD14" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AF14" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AG14" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AH14" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AI14" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AJ14" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f>VLOOKUP(B15,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>21</v>
-      </c>
-      <c r="R15" s="6">
-        <v>30</v>
-      </c>
-      <c r="S15" s="6">
-        <v>10</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE15" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AF15" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AG15" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AH15" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AI15" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AJ15" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AK15" s="6" t="str">
-        <f t="shared" ref="AK15" si="15">D16</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AL15" s="6" t="str">
-        <f t="shared" ref="AL15" si="16">D16</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AM15" s="6" t="str">
-        <f t="shared" ref="AM15" si="17">D16</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="AN15" s="6"/>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f>VLOOKUP(B16,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>21</v>
-      </c>
-      <c r="R16" s="6">
-        <v>30</v>
-      </c>
-      <c r="S16" s="6">
-        <v>11</v>
-      </c>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AF16" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AG16" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AH16" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AI16" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AJ16" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AK16" s="6"/>
-      <c r="AL16" s="6"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="6"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6" t="str">
+      <c r="C17" s="21" t="str">
         <f>VLOOKUP(B17,templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
-      <c r="D17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="D17" s="21" t="str">
+        <f t="shared" ref="D17:D19" si="11">E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;"_"&amp;A17&amp;"_"&amp;I17&amp;"_"&amp;J17&amp;"_"&amp;K17&amp;"_"&amp;L17&amp;"_"&amp;M17</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="J17" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="N17" s="6" t="s">
+      <c r="J17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="N17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="6" t="s">
+      <c r="O17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="21">
         <v>61</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="21">
         <v>30</v>
       </c>
-      <c r="S17" s="6">
-        <v>12</v>
-      </c>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6" t="b">
+      <c r="S17" s="21">
         <v>0</v>
       </c>
-      <c r="AC17" s="6">
-        <f t="shared" si="1"/>
+      <c r="AB17" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="21">
+        <f t="shared" ref="AC17:AC18" si="12">COUNTA(AE17:AN17)</f>
         <v>9</v>
       </c>
-      <c r="AD17" s="6" t="s">
+      <c r="AD17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AE17" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AF17" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AG17" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AH17" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AI17" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AJ17" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AK17" s="6" t="str">
+      <c r="AE17" s="21" t="str">
         <f>D18</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AL17" s="6" t="str">
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AF17" s="21" t="str">
+        <f>$D18</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AG17" s="21" t="str">
+        <f t="shared" ref="AG17:AI17" si="13">$D18</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AH17" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AI17" s="21" t="str">
+        <f t="shared" si="13"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AJ17" s="21" t="str">
         <f>D18</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AM17" s="6" t="str">
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AK17" s="21" t="str">
         <f>D18</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AN17" s="6"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="6" t="s">
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AL17" s="21" t="str">
+        <f>D18</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="AM17" s="21" t="str">
+        <f>D18</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6" t="str">
+      <c r="C18" s="21" t="str">
         <f>VLOOKUP(B18,templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
-      <c r="D18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="D18" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="J18" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="N18" s="6" t="s">
+      <c r="J18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="N18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="21">
         <v>61</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18" s="21">
         <v>30</v>
       </c>
-      <c r="S18" s="6">
-        <v>13</v>
-      </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="6" t="b">
+      <c r="S18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AC18" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AF18" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AG18" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AH18" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AI18" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AJ18" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="AK18" s="6"/>
-      <c r="AL18" s="6"/>
-      <c r="AM18" s="6"/>
-      <c r="AN18" s="6"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="str">
+      <c r="AC18" s="21">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="21" t="str">
+        <f>D19</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
+      </c>
+      <c r="AF18" s="21" t="str">
+        <f>$D19</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
+      </c>
+      <c r="AG18" s="21" t="str">
+        <f t="shared" ref="AG18" si="14">$D19</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
+      </c>
+      <c r="AH18" s="21" t="str">
+        <f t="shared" ref="AH18" si="15">$D19</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
+      </c>
+      <c r="AI18" s="21" t="str">
+        <f t="shared" ref="AI18" si="16">$D19</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
+      </c>
+      <c r="AJ18" s="21" t="str">
+        <f>D19</f>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="21" t="str">
         <f>VLOOKUP(B19,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_1</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="6" t="s">
+        <v>iCRepairTest</v>
+      </c>
+      <c r="D19" s="21" t="str">
+        <f t="shared" si="11"/>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_TITO_X_X_X_RESET</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="N19" s="6" t="s">
+      <c r="I19" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="N19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="O19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="6">
-        <v>21</v>
-      </c>
-      <c r="R19" s="6">
-        <v>30</v>
-      </c>
-      <c r="S19" s="6">
-        <v>14</v>
-      </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6" t="b">
+      <c r="Q19" s="21">
+        <v>60</v>
+      </c>
+      <c r="R19" s="21">
+        <v>60</v>
+      </c>
+      <c r="S19" s="21">
+        <v>3</v>
+      </c>
+      <c r="T19" s="21">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z19" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA19" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="AB19" s="21" t="b">
         <v>0</v>
       </c>
-      <c r="AC19" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE19" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AF19" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AG19" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AH19" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AI19" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AJ19" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AK19" s="6" t="str">
-        <f t="shared" ref="AK19" si="18">D20</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AL19" s="6" t="str">
-        <f t="shared" ref="AL19" si="19">D20</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AM19" s="6" t="str">
-        <f t="shared" ref="AM19" si="20">D20</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="AN19" s="6"/>
+      <c r="AC19" s="21">
+        <f t="shared" ref="AC19" si="17">COUNTA(AE19:AN19)</f>
+        <v>6</v>
+      </c>
+      <c r="AD19" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="6" t="str">
-        <f>VLOOKUP(B20,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D20" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_1</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>21</v>
-      </c>
-      <c r="R20" s="6">
-        <v>30</v>
-      </c>
-      <c r="S20" s="6">
-        <v>15</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-      <c r="Y20" s="6"/>
-      <c r="Z20" s="6"/>
-      <c r="AA20" s="6"/>
-      <c r="AB20" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD20" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AF20" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AG20" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AH20" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AI20" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AJ20" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AK20" s="6"/>
-      <c r="AL20" s="6"/>
-      <c r="AM20" s="6"/>
-      <c r="AN20" s="6"/>
+      <c r="A20" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+      <c r="X20" s="22"/>
+      <c r="Y20" s="22"/>
+      <c r="Z20" s="22"/>
+      <c r="AA20" s="22"/>
+      <c r="AB20" s="22"/>
+      <c r="AC20" s="22"/>
+      <c r="AD20" s="22"/>
+      <c r="AE20" s="22"/>
+      <c r="AF20" s="22"/>
+      <c r="AG20" s="22"/>
+      <c r="AH20" s="22"/>
+      <c r="AI20" s="22"/>
+      <c r="AJ20" s="22"/>
+      <c r="AK20" s="22"/>
+      <c r="AL20" s="22"/>
+      <c r="AM20" s="22"/>
+      <c r="AN20" s="22"/>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="6" t="str">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" t="str">
         <f>VLOOKUP(B21,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D21" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>61</v>
-      </c>
-      <c r="R21" s="6">
-        <v>30</v>
-      </c>
-      <c r="S21" s="6">
-        <v>16</v>
-      </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="6"/>
-      <c r="Z21" s="6"/>
-      <c r="AA21" s="6"/>
-      <c r="AB21" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE21" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AF21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AG21" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AH21" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AI21" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AJ21" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AK21" s="6" t="str">
-        <f>D22</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AL21" s="6" t="str">
-        <f>D22</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AM21" s="6" t="str">
-        <f>D22</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AN21" s="6"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6" t="str">
-        <f>VLOOKUP(B22,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D22" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>61</v>
-      </c>
-      <c r="R22" s="6">
-        <v>30</v>
-      </c>
-      <c r="S22" s="6">
-        <v>17</v>
-      </c>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD22" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AF22" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AG22" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AH22" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AI22" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AJ22" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="6"/>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="6" t="str">
-        <f>VLOOKUP(B23,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D23" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_2</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>21</v>
-      </c>
-      <c r="R23" s="6">
-        <v>30</v>
-      </c>
-      <c r="S23" s="6">
-        <v>18</v>
-      </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="6"/>
-      <c r="Z23" s="6"/>
-      <c r="AA23" s="6"/>
-      <c r="AB23" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE23" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AF23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AG23" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AH23" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AI23" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AJ23" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AK23" s="6" t="str">
-        <f t="shared" ref="AK23" si="21">D24</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AL23" s="6" t="str">
-        <f t="shared" ref="AL23" si="22">D24</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AM23" s="6" t="str">
-        <f t="shared" ref="AM23" si="23">D24</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="AN23" s="6"/>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="6" t="str">
-        <f>VLOOKUP(B24,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D24" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_2</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>21</v>
-      </c>
-      <c r="R24" s="6">
-        <v>30</v>
-      </c>
-      <c r="S24" s="6">
-        <v>19</v>
-      </c>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AB24" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD24" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AF24" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AG24" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AH24" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AI24" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AJ24" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AK24" s="6"/>
-      <c r="AL24" s="6"/>
-      <c r="AM24" s="6"/>
-      <c r="AN24" s="6"/>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="6" t="str">
-        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O25" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>61</v>
-      </c>
-      <c r="R25" s="6">
-        <v>30</v>
-      </c>
-      <c r="S25" s="6">
-        <v>20</v>
-      </c>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-      <c r="AA25" s="6"/>
-      <c r="AB25" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE25" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AF25" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AG25" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AH25" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AI25" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AJ25" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AK25" s="6" t="str">
-        <f>D26</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AL25" s="6" t="str">
-        <f>D26</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AM25" s="6" t="str">
-        <f>D26</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AN25" s="6"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="6" t="str">
-        <f>VLOOKUP(B26,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>61</v>
-      </c>
-      <c r="R26" s="6">
-        <v>30</v>
-      </c>
-      <c r="S26" s="6">
-        <v>21</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="6"/>
-      <c r="AB26" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD26" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AF26" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AG26" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AH26" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AI26" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AJ26" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="AK26" s="6"/>
-      <c r="AL26" s="6"/>
-      <c r="AM26" s="6"/>
-      <c r="AN26" s="6"/>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="6" t="str">
-        <f>VLOOKUP(B27,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D27" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_3</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>21</v>
-      </c>
-      <c r="R27" s="6">
-        <v>30</v>
-      </c>
-      <c r="S27" s="6">
-        <v>22</v>
-      </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE27" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AF27" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AG27" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AH27" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AI27" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AJ27" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AK27" s="6" t="str">
-        <f t="shared" ref="AK27" si="24">D28</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AL27" s="6" t="str">
-        <f t="shared" ref="AL27" si="25">D28</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AM27" s="6" t="str">
-        <f t="shared" ref="AM27" si="26">D28</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="AN27" s="6"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="6" t="str">
-        <f>VLOOKUP(B28,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D28" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_3</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>21</v>
-      </c>
-      <c r="R28" s="6">
-        <v>30</v>
-      </c>
-      <c r="S28" s="6">
-        <v>23</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
-      <c r="AB28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD28" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AF28" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AG28" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AH28" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AI28" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AJ28" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AK28" s="6"/>
-      <c r="AL28" s="6"/>
-      <c r="AM28" s="6"/>
-      <c r="AN28" s="6"/>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="6" t="str">
-        <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D29" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>61</v>
-      </c>
-      <c r="R29" s="6">
-        <v>30</v>
-      </c>
-      <c r="S29" s="6">
-        <v>24</v>
-      </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE29" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AF29" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AG29" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AH29" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AI29" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AJ29" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AK29" s="6" t="str">
-        <f>D30</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AL29" s="6" t="str">
-        <f>D30</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AM29" s="6" t="str">
-        <f>D30</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AN29" s="6"/>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="6" t="str">
-        <f>VLOOKUP(B30,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D30" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>61</v>
-      </c>
-      <c r="R30" s="6">
-        <v>30</v>
-      </c>
-      <c r="S30" s="6">
-        <v>25</v>
-      </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
-      <c r="AB30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD30" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AF30" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AG30" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AH30" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AI30" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AJ30" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="AK30" s="6"/>
-      <c r="AL30" s="6"/>
-      <c r="AM30" s="6"/>
-      <c r="AN30" s="6"/>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="6" t="str">
-        <f>VLOOKUP(B31,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D31" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_4</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>21</v>
-      </c>
-      <c r="R31" s="6">
-        <v>30</v>
-      </c>
-      <c r="S31" s="6">
-        <v>26</v>
-      </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-      <c r="AB31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE31" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AF31" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AG31" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AH31" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AI31" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AJ31" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AK31" s="6" t="str">
-        <f t="shared" ref="AK31" si="27">D32</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AL31" s="6" t="str">
-        <f t="shared" ref="AL31" si="28">D32</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AM31" s="6" t="str">
-        <f t="shared" ref="AM31" si="29">D32</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="AN31" s="6"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="6" t="str">
-        <f>VLOOKUP(B32,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D32" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_4</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>21</v>
-      </c>
-      <c r="R32" s="6">
-        <v>30</v>
-      </c>
-      <c r="S32" s="6">
-        <v>27</v>
-      </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD32" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AF32" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AG32" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AH32" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AI32" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AJ32" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="6" t="str">
-        <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D33" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>61</v>
-      </c>
-      <c r="R33" s="6">
-        <v>30</v>
-      </c>
-      <c r="S33" s="6">
-        <v>28</v>
-      </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE33" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AF33" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AG33" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AH33" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AI33" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AJ33" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AK33" s="6" t="str">
-        <f>D34</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AL33" s="6" t="str">
-        <f>D34</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AM33" s="6" t="str">
-        <f>D34</f>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AN33" s="6"/>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="6" t="str">
-        <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D34" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>SSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="N34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>61</v>
-      </c>
-      <c r="R34" s="6">
-        <v>30</v>
-      </c>
-      <c r="S34" s="6">
-        <v>29</v>
-      </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD34" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AF34" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AG34" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AH34" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AI34" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AJ34" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="6" t="str">
-        <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
-        <v>PrimeMbistVminSearchTestMethod</v>
-      </c>
-      <c r="D35" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_HRY_E_BEGIN_T_VCCSA_LFM_X_BIRA_TILE_SHAVE_5</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>21</v>
-      </c>
-      <c r="R35" s="6">
-        <v>30</v>
-      </c>
-      <c r="S35" s="6">
-        <v>30</v>
-      </c>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="6">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="AD35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE35" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AF35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI35" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AK35" s="6" t="str">
-        <f t="shared" ref="AK35" si="30">D36</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AL35" s="6" t="str">
-        <f t="shared" ref="AL35" si="31">D36</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AM35" s="6" t="str">
-        <f t="shared" ref="AM35" si="32">D36</f>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="AN35" s="6"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="6" t="str">
-        <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
-        <v>MbistRasterTC</v>
-      </c>
-      <c r="D36" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LSA_VPU_RASTER_E_BEGIN_T_VCCSA_LFM_X_BISR_TILE_SHAVE_5</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>21</v>
-      </c>
-      <c r="R36" s="6">
-        <v>30</v>
-      </c>
-      <c r="S36" s="6">
-        <v>31</v>
-      </c>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="AD36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AI36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AJ36" s="6">
-        <v>1</v>
-      </c>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="18" t="str">
-        <f>VLOOKUP(B37,templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="18"/>
-      <c r="X37" s="18"/>
-      <c r="Y37" s="18"/>
-      <c r="Z37" s="18"/>
-      <c r="AA37" s="18"/>
-      <c r="AB37" s="18"/>
-      <c r="AC37" s="18"/>
-      <c r="AD37" s="18"/>
-      <c r="AE37" s="18"/>
-      <c r="AF37" s="18"/>
-      <c r="AG37" s="18"/>
-      <c r="AH37" s="18"/>
-      <c r="AI37" s="18"/>
-      <c r="AJ37" s="18"/>
-      <c r="AK37" s="18"/>
-      <c r="AL37" s="18"/>
-      <c r="AM37" s="18"/>
-      <c r="AN37" s="18"/>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="22" t="str">
-        <f>VLOOKUP(B38,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
-      <c r="AB38" s="22"/>
-      <c r="AC38" s="22"/>
-      <c r="AD38" s="22"/>
-      <c r="AE38" s="22"/>
-      <c r="AF38" s="22"/>
-      <c r="AG38" s="22"/>
-      <c r="AH38" s="22"/>
-      <c r="AI38" s="22"/>
-      <c r="AJ38" s="22"/>
-      <c r="AK38" s="22"/>
-      <c r="AL38" s="22"/>
-      <c r="AM38" s="22"/>
-      <c r="AN38" s="22"/>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="17" t="str">
-        <f>VLOOKUP(B39,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="17"/>
-      <c r="AH39" s="17"/>
-      <c r="AI39" s="17"/>
-      <c r="AJ39" s="17"/>
-      <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
-      <c r="AM39" s="17"/>
-      <c r="AN39" s="17"/>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <f>VLOOKUP(B40,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D40" t="str">
-        <f>E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;"_"&amp;A40&amp;"_"&amp;I40&amp;"_"&amp;J40&amp;"_"&amp;K40&amp;"_"&amp;L40&amp;"_"&amp;M40</f>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-      <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="F40" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" t="s">
-        <v>297</v>
-      </c>
-      <c r="J40" t="s">
-        <v>315</v>
-      </c>
-      <c r="K40" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" t="s">
-        <v>397</v>
-      </c>
-      <c r="N40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P40" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q40">
-        <v>61</v>
-      </c>
-      <c r="R40">
-        <v>31</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>2200</v>
-      </c>
-      <c r="AB40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <f>COUNTA(AE40:AN40)</f>
-        <v>2</v>
-      </c>
-      <c r="AD40">
-        <v>1</v>
-      </c>
-      <c r="AE40" t="str">
-        <f>D41</f>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="AF40" t="str">
-        <f>D41</f>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D41" t="str">
-        <f t="shared" ref="D41:D47" si="33">E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;"_"&amp;A41&amp;"_"&amp;I41&amp;"_"&amp;J41&amp;"_"&amp;K41&amp;"_"&amp;L41&amp;"_"&amp;M41</f>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="E41" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" t="s">
-        <v>297</v>
-      </c>
-      <c r="J41" t="s">
-        <v>315</v>
-      </c>
-      <c r="K41" t="s">
-        <v>35</v>
-      </c>
-      <c r="L41" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" t="s">
-        <v>398</v>
-      </c>
-      <c r="N41" t="s">
-        <v>36</v>
-      </c>
-      <c r="O41" t="s">
-        <v>37</v>
-      </c>
-      <c r="P41" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q41">
-        <v>61</v>
-      </c>
-      <c r="R41">
-        <v>31</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <v>2201</v>
-      </c>
-      <c r="AB41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" ref="AC41:AC47" si="34">COUNTA(AE41:AN41)</f>
-        <v>2</v>
-      </c>
-      <c r="AD41">
-        <v>1</v>
-      </c>
-      <c r="AE41" t="str">
-        <f t="shared" ref="AE41:AE54" si="35">D42</f>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="AF41" t="str">
-        <f t="shared" ref="AF41:AF54" si="36">D42</f>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="33"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G42" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" t="s">
-        <v>34</v>
-      </c>
-      <c r="I42" t="s">
-        <v>297</v>
-      </c>
-      <c r="J42" t="s">
-        <v>315</v>
-      </c>
-      <c r="K42" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" t="s">
-        <v>399</v>
-      </c>
-      <c r="N42" t="s">
-        <v>36</v>
-      </c>
-      <c r="O42" t="s">
-        <v>37</v>
-      </c>
-      <c r="P42" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q42">
-        <v>61</v>
-      </c>
-      <c r="R42">
-        <v>31</v>
-      </c>
-      <c r="S42">
-        <v>2</v>
-      </c>
-      <c r="T42">
-        <v>2202</v>
-      </c>
-      <c r="AB42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC42">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="AD42">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="str">
-        <f t="shared" si="35"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="AF42" t="str">
-        <f t="shared" si="36"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="33"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G43" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I43" t="s">
-        <v>297</v>
-      </c>
-      <c r="J43" t="s">
-        <v>315</v>
-      </c>
-      <c r="K43" t="s">
-        <v>35</v>
-      </c>
-      <c r="L43" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" t="s">
-        <v>400</v>
-      </c>
-      <c r="N43" t="s">
-        <v>36</v>
-      </c>
-      <c r="O43" t="s">
-        <v>37</v>
-      </c>
-      <c r="P43" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q43">
-        <v>61</v>
-      </c>
-      <c r="R43">
-        <v>31</v>
-      </c>
-      <c r="S43">
-        <v>3</v>
-      </c>
-      <c r="T43">
-        <v>2203</v>
-      </c>
-      <c r="AB43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="AD43">
-        <v>1</v>
-      </c>
-      <c r="AE43" t="str">
-        <f t="shared" si="35"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="AF43" t="str">
-        <f t="shared" si="36"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="33"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" t="s">
-        <v>106</v>
-      </c>
-      <c r="G44" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" t="s">
-        <v>34</v>
-      </c>
-      <c r="I44" t="s">
-        <v>297</v>
-      </c>
-      <c r="J44" t="s">
-        <v>315</v>
-      </c>
-      <c r="K44" t="s">
-        <v>35</v>
-      </c>
-      <c r="L44" t="s">
-        <v>6</v>
-      </c>
-      <c r="M44" t="s">
-        <v>401</v>
-      </c>
-      <c r="N44" t="s">
-        <v>36</v>
-      </c>
-      <c r="O44" t="s">
-        <v>37</v>
-      </c>
-      <c r="P44" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q44">
-        <v>61</v>
-      </c>
-      <c r="R44">
-        <v>31</v>
-      </c>
-      <c r="S44">
-        <v>4</v>
-      </c>
-      <c r="T44">
-        <v>2204</v>
-      </c>
-      <c r="AB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC44">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="AD44">
-        <v>1</v>
-      </c>
-      <c r="AE44" t="str">
-        <f t="shared" si="35"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="AF44" t="str">
-        <f t="shared" si="36"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <f>VLOOKUP(B45,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="33"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="E45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F45" t="s">
-        <v>106</v>
-      </c>
-      <c r="G45" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" t="s">
-        <v>297</v>
-      </c>
-      <c r="J45" t="s">
-        <v>315</v>
-      </c>
-      <c r="K45" t="s">
-        <v>35</v>
-      </c>
-      <c r="L45" t="s">
-        <v>6</v>
-      </c>
-      <c r="M45" t="s">
-        <v>402</v>
-      </c>
-      <c r="N45" t="s">
-        <v>36</v>
-      </c>
-      <c r="O45" t="s">
-        <v>37</v>
-      </c>
-      <c r="P45" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q45">
-        <v>61</v>
-      </c>
-      <c r="R45">
-        <v>31</v>
-      </c>
-      <c r="S45">
-        <v>5</v>
-      </c>
-      <c r="T45">
-        <v>2205</v>
-      </c>
-      <c r="AB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45" t="str">
-        <f t="shared" si="35"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="AF45" t="str">
-        <f t="shared" si="36"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="33"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" t="s">
-        <v>106</v>
-      </c>
-      <c r="G46" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" t="s">
-        <v>297</v>
-      </c>
-      <c r="J46" t="s">
-        <v>315</v>
-      </c>
-      <c r="K46" t="s">
-        <v>35</v>
-      </c>
-      <c r="L46" t="s">
-        <v>6</v>
-      </c>
-      <c r="M46" t="s">
-        <v>403</v>
-      </c>
-      <c r="N46" t="s">
-        <v>36</v>
-      </c>
-      <c r="O46" t="s">
-        <v>37</v>
-      </c>
-      <c r="P46" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q46">
-        <v>61</v>
-      </c>
-      <c r="R46">
-        <v>31</v>
-      </c>
-      <c r="S46">
-        <v>6</v>
-      </c>
-      <c r="T46">
-        <v>2206</v>
-      </c>
-      <c r="AB46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="AD46">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="str">
-        <f t="shared" si="35"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="AF46" t="str">
-        <f t="shared" si="36"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="33"/>
-        <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H47" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" t="s">
-        <v>297</v>
-      </c>
-      <c r="J47" t="s">
-        <v>315</v>
-      </c>
-      <c r="K47" t="s">
-        <v>35</v>
-      </c>
-      <c r="L47" t="s">
-        <v>6</v>
-      </c>
-      <c r="M47" t="s">
-        <v>404</v>
-      </c>
-      <c r="N47" t="s">
-        <v>36</v>
-      </c>
-      <c r="O47" t="s">
-        <v>37</v>
-      </c>
-      <c r="P47" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q47">
-        <v>61</v>
-      </c>
-      <c r="R47">
-        <v>31</v>
-      </c>
-      <c r="S47">
-        <v>7</v>
-      </c>
-      <c r="T47">
-        <v>2207</v>
-      </c>
-      <c r="AB47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <f t="shared" si="34"/>
-        <v>2</v>
-      </c>
-      <c r="AD47">
-        <v>1</v>
-      </c>
-      <c r="AE47" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-      <c r="AF47" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-    </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D48" t="str">
-        <f>E48&amp;"_"&amp;F48&amp;"_"&amp;G48&amp;"_"&amp;H48&amp;"_"&amp;A48&amp;"_"&amp;I48&amp;"_"&amp;J48&amp;"_"&amp;K48&amp;"_"&amp;L48&amp;"_"&amp;M48</f>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H48" t="s">
-        <v>34</v>
-      </c>
-      <c r="I48" t="s">
-        <v>297</v>
-      </c>
-      <c r="J48" t="s">
-        <v>315</v>
-      </c>
-      <c r="K48" t="s">
-        <v>35</v>
-      </c>
-      <c r="L48" t="s">
-        <v>6</v>
-      </c>
-      <c r="M48" t="s">
-        <v>397</v>
-      </c>
-      <c r="N48" t="s">
-        <v>36</v>
-      </c>
-      <c r="O48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P48" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q48">
-        <v>21</v>
-      </c>
-      <c r="R48">
-        <v>31</v>
-      </c>
-      <c r="S48">
-        <v>8</v>
-      </c>
-      <c r="T48">
-        <v>2208</v>
-      </c>
-      <c r="AB48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <f>COUNTA(AE48:AN48)</f>
-        <v>2</v>
-      </c>
-      <c r="AD48">
-        <v>1</v>
-      </c>
-      <c r="AE48" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="AF48" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-    </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D49" t="str">
-        <f t="shared" ref="D49:D55" si="37">E49&amp;"_"&amp;F49&amp;"_"&amp;G49&amp;"_"&amp;H49&amp;"_"&amp;A49&amp;"_"&amp;I49&amp;"_"&amp;J49&amp;"_"&amp;K49&amp;"_"&amp;L49&amp;"_"&amp;M49</f>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="E49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" t="s">
-        <v>106</v>
-      </c>
-      <c r="G49" t="s">
-        <v>50</v>
-      </c>
-      <c r="H49" t="s">
-        <v>34</v>
-      </c>
-      <c r="I49" t="s">
-        <v>297</v>
-      </c>
-      <c r="J49" t="s">
-        <v>315</v>
-      </c>
-      <c r="K49" t="s">
-        <v>35</v>
-      </c>
-      <c r="L49" t="s">
-        <v>6</v>
-      </c>
-      <c r="M49" t="s">
-        <v>398</v>
-      </c>
-      <c r="N49" t="s">
-        <v>36</v>
-      </c>
-      <c r="O49" t="s">
-        <v>37</v>
-      </c>
-      <c r="P49" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q49">
-        <v>21</v>
-      </c>
-      <c r="R49">
-        <v>31</v>
-      </c>
-      <c r="S49">
-        <v>9</v>
-      </c>
-      <c r="T49">
-        <v>2209</v>
-      </c>
-      <c r="AB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" ref="AC49:AC55" si="38">COUNTA(AE49:AN49)</f>
-        <v>2</v>
-      </c>
-      <c r="AD49">
-        <v>1</v>
-      </c>
-      <c r="AE49" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="AF49" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <f>VLOOKUP(B50,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D50" t="str">
-        <f t="shared" si="37"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" t="s">
-        <v>106</v>
-      </c>
-      <c r="G50" t="s">
-        <v>50</v>
-      </c>
-      <c r="H50" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" t="s">
-        <v>297</v>
-      </c>
-      <c r="J50" t="s">
-        <v>315</v>
-      </c>
-      <c r="K50" t="s">
-        <v>35</v>
-      </c>
-      <c r="L50" t="s">
-        <v>6</v>
-      </c>
-      <c r="M50" t="s">
-        <v>399</v>
-      </c>
-      <c r="N50" t="s">
-        <v>36</v>
-      </c>
-      <c r="O50" t="s">
-        <v>37</v>
-      </c>
-      <c r="P50" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q50">
-        <v>21</v>
-      </c>
-      <c r="R50">
-        <v>31</v>
-      </c>
-      <c r="S50">
-        <v>10</v>
-      </c>
-      <c r="T50">
-        <v>2210</v>
-      </c>
-      <c r="AB50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AD50">
-        <v>1</v>
-      </c>
-      <c r="AE50" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="AF50" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <f>VLOOKUP(B51,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D51" t="str">
-        <f t="shared" si="37"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" t="s">
-        <v>106</v>
-      </c>
-      <c r="G51" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" t="s">
-        <v>297</v>
-      </c>
-      <c r="J51" t="s">
-        <v>315</v>
-      </c>
-      <c r="K51" t="s">
-        <v>35</v>
-      </c>
-      <c r="L51" t="s">
-        <v>6</v>
-      </c>
-      <c r="M51" t="s">
-        <v>400</v>
-      </c>
-      <c r="N51" t="s">
-        <v>36</v>
-      </c>
-      <c r="O51" t="s">
-        <v>37</v>
-      </c>
-      <c r="P51" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q51">
-        <v>21</v>
-      </c>
-      <c r="R51">
-        <v>31</v>
-      </c>
-      <c r="S51">
-        <v>11</v>
-      </c>
-      <c r="T51">
-        <v>2211</v>
-      </c>
-      <c r="AB51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AD51">
-        <v>1</v>
-      </c>
-      <c r="AE51" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="AF51" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D52" t="str">
-        <f t="shared" si="37"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="E52" t="s">
-        <v>59</v>
-      </c>
-      <c r="F52" t="s">
-        <v>106</v>
-      </c>
-      <c r="G52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52" t="s">
-        <v>297</v>
-      </c>
-      <c r="J52" t="s">
-        <v>315</v>
-      </c>
-      <c r="K52" t="s">
-        <v>35</v>
-      </c>
-      <c r="L52" t="s">
-        <v>6</v>
-      </c>
-      <c r="M52" t="s">
-        <v>401</v>
-      </c>
-      <c r="N52" t="s">
-        <v>36</v>
-      </c>
-      <c r="O52" t="s">
-        <v>37</v>
-      </c>
-      <c r="P52" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q52">
-        <v>21</v>
-      </c>
-      <c r="R52">
-        <v>31</v>
-      </c>
-      <c r="S52">
-        <v>12</v>
-      </c>
-      <c r="T52">
-        <v>2212</v>
-      </c>
-      <c r="AB52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AD52">
-        <v>1</v>
-      </c>
-      <c r="AE52" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="AF52" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D53" t="str">
-        <f t="shared" si="37"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="E53" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
-      </c>
-      <c r="G53" t="s">
-        <v>50</v>
-      </c>
-      <c r="H53" t="s">
-        <v>34</v>
-      </c>
-      <c r="I53" t="s">
-        <v>297</v>
-      </c>
-      <c r="J53" t="s">
-        <v>315</v>
-      </c>
-      <c r="K53" t="s">
-        <v>35</v>
-      </c>
-      <c r="L53" t="s">
-        <v>6</v>
-      </c>
-      <c r="M53" t="s">
-        <v>402</v>
-      </c>
-      <c r="N53" t="s">
-        <v>36</v>
-      </c>
-      <c r="O53" t="s">
-        <v>37</v>
-      </c>
-      <c r="P53" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q53">
-        <v>21</v>
-      </c>
-      <c r="R53">
-        <v>31</v>
-      </c>
-      <c r="S53">
-        <v>13</v>
-      </c>
-      <c r="T53">
-        <v>2213</v>
-      </c>
-      <c r="AB53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC53">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AD53">
-        <v>1</v>
-      </c>
-      <c r="AE53" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="AF53" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <f>VLOOKUP(B54,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="37"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G54" t="s">
-        <v>50</v>
-      </c>
-      <c r="H54" t="s">
-        <v>34</v>
-      </c>
-      <c r="I54" t="s">
-        <v>297</v>
-      </c>
-      <c r="J54" t="s">
-        <v>315</v>
-      </c>
-      <c r="K54" t="s">
-        <v>35</v>
-      </c>
-      <c r="L54" t="s">
-        <v>6</v>
-      </c>
-      <c r="M54" t="s">
-        <v>403</v>
-      </c>
-      <c r="N54" t="s">
-        <v>36</v>
-      </c>
-      <c r="O54" t="s">
-        <v>37</v>
-      </c>
-      <c r="P54" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q54">
-        <v>21</v>
-      </c>
-      <c r="R54">
-        <v>31</v>
-      </c>
-      <c r="S54">
-        <v>14</v>
-      </c>
-      <c r="T54">
-        <v>2214</v>
-      </c>
-      <c r="AB54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC54">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="str">
-        <f t="shared" si="35"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="AF54" t="str">
-        <f t="shared" si="36"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <f>VLOOKUP(B55,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="37"/>
-        <v>LSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
-      </c>
-      <c r="G55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H55" t="s">
-        <v>34</v>
-      </c>
-      <c r="I55" t="s">
-        <v>297</v>
-      </c>
-      <c r="J55" t="s">
-        <v>315</v>
-      </c>
-      <c r="K55" t="s">
-        <v>35</v>
-      </c>
-      <c r="L55" t="s">
-        <v>6</v>
-      </c>
-      <c r="M55" t="s">
-        <v>404</v>
-      </c>
-      <c r="N55" t="s">
-        <v>36</v>
-      </c>
-      <c r="O55" t="s">
-        <v>37</v>
-      </c>
-      <c r="P55" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q55">
-        <v>21</v>
-      </c>
-      <c r="R55">
-        <v>31</v>
-      </c>
-      <c r="S55">
-        <v>15</v>
-      </c>
-      <c r="T55">
-        <v>2215</v>
-      </c>
-      <c r="AB55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <f t="shared" si="38"/>
-        <v>2</v>
-      </c>
-      <c r="AD55">
-        <v>1</v>
-      </c>
-      <c r="AE55">
-        <v>1</v>
-      </c>
-      <c r="AF55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="22" t="str">
-        <f>VLOOKUP(B56,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
-      <c r="AB56" s="22"/>
-      <c r="AC56" s="22"/>
-      <c r="AD56" s="22"/>
-      <c r="AE56" s="22"/>
-      <c r="AF56" s="22"/>
-      <c r="AG56" s="22"/>
-      <c r="AH56" s="22"/>
-      <c r="AI56" s="22"/>
-      <c r="AJ56" s="22"/>
-      <c r="AK56" s="22"/>
-      <c r="AL56" s="22"/>
-      <c r="AM56" s="22"/>
-      <c r="AN56" s="22"/>
-    </row>
-    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A57" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="17"/>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="17"/>
-      <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
-      <c r="U57" s="17"/>
-      <c r="V57" s="17"/>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="17"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="17"/>
-      <c r="AB57" s="17"/>
-      <c r="AC57" s="17"/>
-      <c r="AD57" s="17"/>
-      <c r="AE57" s="17"/>
-      <c r="AF57" s="17"/>
-      <c r="AG57" s="17"/>
-      <c r="AH57" s="17"/>
-      <c r="AI57" s="17"/>
-      <c r="AJ57" s="17"/>
-      <c r="AK57" s="17"/>
-      <c r="AL57" s="17"/>
-      <c r="AM57" s="17"/>
-      <c r="AN57" s="17"/>
-    </row>
-    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A58" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="2" t="str">
-        <f>VLOOKUP(B58,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D58" t="str">
-        <f>E58&amp;"_"&amp;F58&amp;"_"&amp;G58&amp;"_"&amp;H58&amp;"_"&amp;A58&amp;"_"&amp;I58&amp;"_"&amp;J58&amp;"_"&amp;K58&amp;"_"&amp;L58&amp;"_"&amp;M58</f>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-      <c r="E58" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" t="s">
-        <v>106</v>
-      </c>
-      <c r="G58" t="s">
-        <v>66</v>
-      </c>
-      <c r="H58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" t="s">
-        <v>297</v>
-      </c>
-      <c r="J58" t="s">
-        <v>315</v>
-      </c>
-      <c r="K58" t="s">
-        <v>35</v>
-      </c>
-      <c r="L58" t="s">
-        <v>6</v>
-      </c>
-      <c r="M58" t="s">
-        <v>397</v>
-      </c>
-      <c r="N58" t="s">
-        <v>36</v>
-      </c>
-      <c r="O58" t="s">
-        <v>37</v>
-      </c>
-      <c r="P58" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q58">
-        <v>61</v>
-      </c>
-      <c r="R58">
-        <v>32</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <v>2232</v>
-      </c>
-      <c r="AB58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC58">
-        <f>COUNTA(AE58:AN58)</f>
-        <v>2</v>
-      </c>
-      <c r="AD58">
-        <v>1</v>
-      </c>
-      <c r="AE58" t="str">
-        <f>D59</f>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="AF58" t="str">
-        <f>D59</f>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-    </row>
-    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A59" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="2" t="str">
-        <f>VLOOKUP(B59,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D59" t="str">
-        <f t="shared" ref="D59:D65" si="39">E59&amp;"_"&amp;F59&amp;"_"&amp;G59&amp;"_"&amp;H59&amp;"_"&amp;A59&amp;"_"&amp;I59&amp;"_"&amp;J59&amp;"_"&amp;K59&amp;"_"&amp;L59&amp;"_"&amp;M59</f>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="E59" t="s">
-        <v>31</v>
-      </c>
-      <c r="F59" t="s">
-        <v>106</v>
-      </c>
-      <c r="G59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" t="s">
-        <v>297</v>
-      </c>
-      <c r="J59" t="s">
-        <v>315</v>
-      </c>
-      <c r="K59" t="s">
-        <v>35</v>
-      </c>
-      <c r="L59" t="s">
-        <v>6</v>
-      </c>
-      <c r="M59" t="s">
-        <v>398</v>
-      </c>
-      <c r="N59" t="s">
-        <v>36</v>
-      </c>
-      <c r="O59" t="s">
-        <v>37</v>
-      </c>
-      <c r="P59" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q59">
-        <v>61</v>
-      </c>
-      <c r="R59">
-        <v>32</v>
-      </c>
-      <c r="S59">
-        <v>1</v>
-      </c>
-      <c r="T59">
-        <v>2233</v>
-      </c>
-      <c r="AB59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" ref="AC59:AC65" si="40">COUNTA(AE59:AN59)</f>
-        <v>2</v>
-      </c>
-      <c r="AD59">
-        <v>1</v>
-      </c>
-      <c r="AE59" t="str">
-        <f t="shared" ref="AE59:AE72" si="41">D60</f>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="AF59" t="str">
-        <f t="shared" ref="AF59:AF72" si="42">D60</f>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A60" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="2" t="str">
-        <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D60" t="str">
-        <f t="shared" si="39"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>31</v>
-      </c>
-      <c r="F60" t="s">
-        <v>106</v>
-      </c>
-      <c r="G60" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" t="s">
-        <v>34</v>
-      </c>
-      <c r="I60" t="s">
-        <v>297</v>
-      </c>
-      <c r="J60" t="s">
-        <v>315</v>
-      </c>
-      <c r="K60" t="s">
-        <v>35</v>
-      </c>
-      <c r="L60" t="s">
-        <v>6</v>
-      </c>
-      <c r="M60" t="s">
-        <v>399</v>
-      </c>
-      <c r="N60" t="s">
-        <v>36</v>
-      </c>
-      <c r="O60" t="s">
-        <v>37</v>
-      </c>
-      <c r="P60" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q60">
-        <v>61</v>
-      </c>
-      <c r="R60">
-        <v>32</v>
-      </c>
-      <c r="S60">
-        <v>2</v>
-      </c>
-      <c r="T60">
-        <v>2234</v>
-      </c>
-      <c r="AB60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AD60">
-        <v>1</v>
-      </c>
-      <c r="AE60" t="str">
-        <f t="shared" si="41"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="AF60" t="str">
-        <f t="shared" si="42"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="2" t="str">
-        <f>VLOOKUP(B61,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D61" t="str">
-        <f t="shared" si="39"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F61" t="s">
-        <v>106</v>
-      </c>
-      <c r="G61" t="s">
-        <v>66</v>
-      </c>
-      <c r="H61" t="s">
-        <v>34</v>
-      </c>
-      <c r="I61" t="s">
-        <v>297</v>
-      </c>
-      <c r="J61" t="s">
-        <v>315</v>
-      </c>
-      <c r="K61" t="s">
-        <v>35</v>
-      </c>
-      <c r="L61" t="s">
-        <v>6</v>
-      </c>
-      <c r="M61" t="s">
-        <v>400</v>
-      </c>
-      <c r="N61" t="s">
-        <v>36</v>
-      </c>
-      <c r="O61" t="s">
-        <v>37</v>
-      </c>
-      <c r="P61" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q61">
-        <v>61</v>
-      </c>
-      <c r="R61">
-        <v>32</v>
-      </c>
-      <c r="S61">
-        <v>3</v>
-      </c>
-      <c r="T61">
-        <v>2235</v>
-      </c>
-      <c r="AB61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AD61">
-        <v>1</v>
-      </c>
-      <c r="AE61" t="str">
-        <f t="shared" si="41"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="AF61" t="str">
-        <f t="shared" si="42"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <f>VLOOKUP(B62,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D62" t="str">
-        <f t="shared" si="39"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>106</v>
-      </c>
-      <c r="G62" t="s">
-        <v>66</v>
-      </c>
-      <c r="H62" t="s">
-        <v>34</v>
-      </c>
-      <c r="I62" t="s">
-        <v>297</v>
-      </c>
-      <c r="J62" t="s">
-        <v>315</v>
-      </c>
-      <c r="K62" t="s">
-        <v>35</v>
-      </c>
-      <c r="L62" t="s">
-        <v>6</v>
-      </c>
-      <c r="M62" t="s">
-        <v>401</v>
-      </c>
-      <c r="N62" t="s">
-        <v>36</v>
-      </c>
-      <c r="O62" t="s">
-        <v>37</v>
-      </c>
-      <c r="P62" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q62">
-        <v>61</v>
-      </c>
-      <c r="R62">
-        <v>32</v>
-      </c>
-      <c r="S62">
-        <v>4</v>
-      </c>
-      <c r="T62">
-        <v>2236</v>
-      </c>
-      <c r="AB62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AD62">
-        <v>1</v>
-      </c>
-      <c r="AE62" t="str">
-        <f t="shared" si="41"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="AF62" t="str">
-        <f t="shared" si="42"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="2" t="str">
-        <f>VLOOKUP(B63,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D63" t="str">
-        <f t="shared" si="39"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="E63" t="s">
-        <v>31</v>
-      </c>
-      <c r="F63" t="s">
-        <v>106</v>
-      </c>
-      <c r="G63" t="s">
-        <v>66</v>
-      </c>
-      <c r="H63" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" t="s">
-        <v>297</v>
-      </c>
-      <c r="J63" t="s">
-        <v>315</v>
-      </c>
-      <c r="K63" t="s">
-        <v>35</v>
-      </c>
-      <c r="L63" t="s">
-        <v>6</v>
-      </c>
-      <c r="M63" t="s">
-        <v>402</v>
-      </c>
-      <c r="N63" t="s">
-        <v>36</v>
-      </c>
-      <c r="O63" t="s">
-        <v>37</v>
-      </c>
-      <c r="P63" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q63">
-        <v>61</v>
-      </c>
-      <c r="R63">
-        <v>32</v>
-      </c>
-      <c r="S63">
-        <v>5</v>
-      </c>
-      <c r="T63">
-        <v>2237</v>
-      </c>
-      <c r="AB63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AD63">
-        <v>1</v>
-      </c>
-      <c r="AE63" t="str">
-        <f t="shared" si="41"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="AF63" t="str">
-        <f t="shared" si="42"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A64" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="2" t="str">
-        <f>VLOOKUP(B64,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D64" t="str">
-        <f t="shared" si="39"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="E64" t="s">
-        <v>31</v>
-      </c>
-      <c r="F64" t="s">
-        <v>106</v>
-      </c>
-      <c r="G64" t="s">
-        <v>66</v>
-      </c>
-      <c r="H64" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" t="s">
-        <v>297</v>
-      </c>
-      <c r="J64" t="s">
-        <v>315</v>
-      </c>
-      <c r="K64" t="s">
-        <v>35</v>
-      </c>
-      <c r="L64" t="s">
-        <v>6</v>
-      </c>
-      <c r="M64" t="s">
-        <v>403</v>
-      </c>
-      <c r="N64" t="s">
-        <v>36</v>
-      </c>
-      <c r="O64" t="s">
-        <v>37</v>
-      </c>
-      <c r="P64" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q64">
-        <v>61</v>
-      </c>
-      <c r="R64">
-        <v>32</v>
-      </c>
-      <c r="S64">
-        <v>6</v>
-      </c>
-      <c r="T64">
-        <v>2238</v>
-      </c>
-      <c r="AB64" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC64">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AD64">
-        <v>1</v>
-      </c>
-      <c r="AE64" t="str">
-        <f t="shared" si="41"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="AF64" t="str">
-        <f t="shared" si="42"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A65" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="2" t="str">
-        <f>VLOOKUP(B65,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D65" t="str">
-        <f t="shared" si="39"/>
-        <v>SSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="F65" t="s">
-        <v>106</v>
-      </c>
-      <c r="G65" t="s">
-        <v>66</v>
-      </c>
-      <c r="H65" t="s">
-        <v>34</v>
-      </c>
-      <c r="I65" t="s">
-        <v>297</v>
-      </c>
-      <c r="J65" t="s">
-        <v>315</v>
-      </c>
-      <c r="K65" t="s">
-        <v>35</v>
-      </c>
-      <c r="L65" t="s">
-        <v>6</v>
-      </c>
-      <c r="M65" t="s">
-        <v>404</v>
-      </c>
-      <c r="N65" t="s">
-        <v>36</v>
-      </c>
-      <c r="O65" t="s">
-        <v>37</v>
-      </c>
-      <c r="P65" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q65">
-        <v>61</v>
-      </c>
-      <c r="R65">
-        <v>32</v>
-      </c>
-      <c r="S65">
-        <v>7</v>
-      </c>
-      <c r="T65">
-        <v>2239</v>
-      </c>
-      <c r="AB65" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <f t="shared" si="40"/>
-        <v>2</v>
-      </c>
-      <c r="AD65">
-        <v>1</v>
-      </c>
-      <c r="AE65" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-      <c r="AF65" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-    </row>
-    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A66" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="2" t="str">
-        <f>VLOOKUP(B66,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D66" t="str">
-        <f>E66&amp;"_"&amp;F66&amp;"_"&amp;G66&amp;"_"&amp;H66&amp;"_"&amp;A66&amp;"_"&amp;I66&amp;"_"&amp;J66&amp;"_"&amp;K66&amp;"_"&amp;L66&amp;"_"&amp;M66</f>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_BUTTRESS</v>
-      </c>
-      <c r="E66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" t="s">
-        <v>106</v>
-      </c>
-      <c r="G66" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" t="s">
-        <v>297</v>
-      </c>
-      <c r="J66" t="s">
-        <v>315</v>
-      </c>
-      <c r="K66" t="s">
-        <v>35</v>
-      </c>
-      <c r="L66" t="s">
-        <v>6</v>
-      </c>
-      <c r="M66" t="s">
-        <v>397</v>
-      </c>
-      <c r="N66" t="s">
-        <v>36</v>
-      </c>
-      <c r="O66" t="s">
-        <v>37</v>
-      </c>
-      <c r="P66" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q66">
-        <v>21</v>
-      </c>
-      <c r="R66">
-        <v>32</v>
-      </c>
-      <c r="S66">
-        <v>8</v>
-      </c>
-      <c r="T66">
-        <v>2240</v>
-      </c>
-      <c r="AB66" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC66">
-        <f>COUNTA(AE66:AN66)</f>
-        <v>2</v>
-      </c>
-      <c r="AD66">
-        <v>1</v>
-      </c>
-      <c r="AE66" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="AF66" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-    </row>
-    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A67" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="2" t="str">
-        <f>VLOOKUP(B67,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D73" si="43">E67&amp;"_"&amp;F67&amp;"_"&amp;G67&amp;"_"&amp;H67&amp;"_"&amp;A67&amp;"_"&amp;I67&amp;"_"&amp;J67&amp;"_"&amp;K67&amp;"_"&amp;L67&amp;"_"&amp;M67</f>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_SPINE</v>
-      </c>
-      <c r="E67" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" t="s">
-        <v>106</v>
-      </c>
-      <c r="G67" t="s">
-        <v>66</v>
-      </c>
-      <c r="H67" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" t="s">
-        <v>297</v>
-      </c>
-      <c r="J67" t="s">
-        <v>315</v>
-      </c>
-      <c r="K67" t="s">
-        <v>35</v>
-      </c>
-      <c r="L67" t="s">
-        <v>6</v>
-      </c>
-      <c r="M67" t="s">
-        <v>398</v>
-      </c>
-      <c r="N67" t="s">
-        <v>36</v>
-      </c>
-      <c r="O67" t="s">
-        <v>37</v>
-      </c>
-      <c r="P67" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q67">
-        <v>21</v>
-      </c>
-      <c r="R67">
-        <v>32</v>
-      </c>
-      <c r="S67">
-        <v>9</v>
-      </c>
-      <c r="T67">
-        <v>2241</v>
-      </c>
-      <c r="AB67" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC67">
-        <f t="shared" ref="AC67:AC73" si="44">COUNTA(AE67:AN67)</f>
-        <v>2</v>
-      </c>
-      <c r="AD67">
-        <v>1</v>
-      </c>
-      <c r="AE67" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="AF67" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A68" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="2" t="str">
-        <f>VLOOKUP(B68,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D68" t="str">
-        <f t="shared" si="43"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" t="s">
-        <v>297</v>
-      </c>
-      <c r="J68" t="s">
-        <v>315</v>
-      </c>
-      <c r="K68" t="s">
-        <v>35</v>
-      </c>
-      <c r="L68" t="s">
-        <v>6</v>
-      </c>
-      <c r="M68" t="s">
-        <v>399</v>
-      </c>
-      <c r="N68" t="s">
-        <v>36</v>
-      </c>
-      <c r="O68" t="s">
-        <v>37</v>
-      </c>
-      <c r="P68" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q68">
-        <v>21</v>
-      </c>
-      <c r="R68">
-        <v>32</v>
-      </c>
-      <c r="S68">
-        <v>10</v>
-      </c>
-      <c r="T68">
-        <v>2242</v>
-      </c>
-      <c r="AB68" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC68">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AD68">
-        <v>1</v>
-      </c>
-      <c r="AE68" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="AF68" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A69" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="2" t="str">
-        <f>VLOOKUP(B69,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D69" t="str">
-        <f t="shared" si="43"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" t="s">
-        <v>106</v>
-      </c>
-      <c r="G69" t="s">
-        <v>66</v>
-      </c>
-      <c r="H69" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" t="s">
-        <v>297</v>
-      </c>
-      <c r="J69" t="s">
-        <v>315</v>
-      </c>
-      <c r="K69" t="s">
-        <v>35</v>
-      </c>
-      <c r="L69" t="s">
-        <v>6</v>
-      </c>
-      <c r="M69" t="s">
-        <v>400</v>
-      </c>
-      <c r="N69" t="s">
-        <v>36</v>
-      </c>
-      <c r="O69" t="s">
-        <v>37</v>
-      </c>
-      <c r="P69" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q69">
-        <v>21</v>
-      </c>
-      <c r="R69">
-        <v>32</v>
-      </c>
-      <c r="S69">
-        <v>11</v>
-      </c>
-      <c r="T69">
-        <v>2243</v>
-      </c>
-      <c r="AB69" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC69">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AD69">
-        <v>1</v>
-      </c>
-      <c r="AE69" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="AF69" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A70" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="2" t="str">
-        <f>VLOOKUP(B70,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D70" t="str">
-        <f t="shared" si="43"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_2</v>
-      </c>
-      <c r="E70" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" t="s">
-        <v>106</v>
-      </c>
-      <c r="G70" t="s">
-        <v>66</v>
-      </c>
-      <c r="H70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" t="s">
-        <v>297</v>
-      </c>
-      <c r="J70" t="s">
-        <v>315</v>
-      </c>
-      <c r="K70" t="s">
-        <v>35</v>
-      </c>
-      <c r="L70" t="s">
-        <v>6</v>
-      </c>
-      <c r="M70" t="s">
-        <v>401</v>
-      </c>
-      <c r="N70" t="s">
-        <v>36</v>
-      </c>
-      <c r="O70" t="s">
-        <v>37</v>
-      </c>
-      <c r="P70" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q70">
-        <v>21</v>
-      </c>
-      <c r="R70">
-        <v>32</v>
-      </c>
-      <c r="S70">
-        <v>12</v>
-      </c>
-      <c r="T70">
-        <v>2244</v>
-      </c>
-      <c r="AB70" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC70">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AD70">
-        <v>1</v>
-      </c>
-      <c r="AE70" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="AF70" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A71" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="2" t="str">
-        <f>VLOOKUP(B71,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D71" t="str">
-        <f t="shared" si="43"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_3</v>
-      </c>
-      <c r="E71" t="s">
-        <v>59</v>
-      </c>
-      <c r="F71" t="s">
-        <v>106</v>
-      </c>
-      <c r="G71" t="s">
-        <v>66</v>
-      </c>
-      <c r="H71" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" t="s">
-        <v>297</v>
-      </c>
-      <c r="J71" t="s">
-        <v>315</v>
-      </c>
-      <c r="K71" t="s">
-        <v>35</v>
-      </c>
-      <c r="L71" t="s">
-        <v>6</v>
-      </c>
-      <c r="M71" t="s">
-        <v>402</v>
-      </c>
-      <c r="N71" t="s">
-        <v>36</v>
-      </c>
-      <c r="O71" t="s">
-        <v>37</v>
-      </c>
-      <c r="P71" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q71">
-        <v>21</v>
-      </c>
-      <c r="R71">
-        <v>32</v>
-      </c>
-      <c r="S71">
-        <v>13</v>
-      </c>
-      <c r="T71">
-        <v>2245</v>
-      </c>
-      <c r="AB71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC71">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AD71">
-        <v>1</v>
-      </c>
-      <c r="AE71" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="AF71" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A72" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="2" t="str">
-        <f>VLOOKUP(B72,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D72" t="str">
-        <f t="shared" si="43"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_4</v>
-      </c>
-      <c r="E72" t="s">
-        <v>59</v>
-      </c>
-      <c r="F72" t="s">
-        <v>106</v>
-      </c>
-      <c r="G72" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" t="s">
-        <v>297</v>
-      </c>
-      <c r="J72" t="s">
-        <v>315</v>
-      </c>
-      <c r="K72" t="s">
-        <v>35</v>
-      </c>
-      <c r="L72" t="s">
-        <v>6</v>
-      </c>
-      <c r="M72" t="s">
-        <v>403</v>
-      </c>
-      <c r="N72" t="s">
-        <v>36</v>
-      </c>
-      <c r="O72" t="s">
-        <v>37</v>
-      </c>
-      <c r="P72" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q72">
-        <v>21</v>
-      </c>
-      <c r="R72">
-        <v>32</v>
-      </c>
-      <c r="S72">
-        <v>14</v>
-      </c>
-      <c r="T72">
-        <v>2246</v>
-      </c>
-      <c r="AB72" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC72">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AD72">
-        <v>1</v>
-      </c>
-      <c r="AE72" t="str">
-        <f t="shared" si="41"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="AF72" t="str">
-        <f t="shared" si="42"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A73" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <f>VLOOKUP(B73,templateLookup!A:B,2,0)</f>
-        <v>PrimeVminSearchTestMethod</v>
-      </c>
-      <c r="D73" t="str">
-        <f t="shared" si="43"/>
-        <v>LSA_VPU_KS_E_SDTBEGIN_T_VCCSA_LFM_X_TILE_5</v>
-      </c>
-      <c r="E73" t="s">
-        <v>59</v>
-      </c>
-      <c r="F73" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" t="s">
-        <v>66</v>
-      </c>
-      <c r="H73" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" t="s">
-        <v>297</v>
-      </c>
-      <c r="J73" t="s">
-        <v>315</v>
-      </c>
-      <c r="K73" t="s">
-        <v>35</v>
-      </c>
-      <c r="L73" t="s">
-        <v>6</v>
-      </c>
-      <c r="M73" t="s">
-        <v>404</v>
-      </c>
-      <c r="N73" t="s">
-        <v>36</v>
-      </c>
-      <c r="O73" t="s">
-        <v>37</v>
-      </c>
-      <c r="P73" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q73">
-        <v>21</v>
-      </c>
-      <c r="R73">
-        <v>32</v>
-      </c>
-      <c r="S73">
-        <v>15</v>
-      </c>
-      <c r="T73">
-        <v>2247</v>
-      </c>
-      <c r="AB73" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="AD73">
-        <v>1</v>
-      </c>
-      <c r="AE73">
-        <v>1</v>
-      </c>
-      <c r="AF73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A74" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="22"/>
-      <c r="L74" s="22"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
-      <c r="V74" s="22"/>
-      <c r="W74" s="22"/>
-      <c r="X74" s="22"/>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
-      <c r="AG74" s="22"/>
-      <c r="AH74" s="22"/>
-      <c r="AI74" s="22"/>
-      <c r="AJ74" s="22"/>
-      <c r="AK74" s="22"/>
-      <c r="AL74" s="22"/>
-      <c r="AM74" s="22"/>
-      <c r="AN74" s="22"/>
-    </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="D21" t="s">
         <v>92</v>
       </c>
-      <c r="B75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" t="str">
-        <f>VLOOKUP(B75,templateLookup!A:B,2,0)</f>
-        <v>COMPOSITE</v>
-      </c>
-      <c r="D75" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN1" xr:uid="{E7F6E2B4-C277-4E27-8556-F36877EC29FC}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adambyrn\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFE5CE7-40A8-479F-BD33-0654DFF313D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F110E7-FE3B-4885-99E2-0F4204088F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="441">
   <si>
     <t>Flow</t>
   </si>
@@ -1367,6 +1367,9 @@
   <si>
     <t>COMBINE_UF_REPAIRDFF_FDS</t>
   </si>
+  <si>
+    <t>RESET1</t>
+  </si>
 </sst>
 </file>
 
@@ -43640,8 +43643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F6E2B4-C277-4E27-8556-F36877EC29FC}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43925,39 +43928,39 @@
       </c>
       <c r="AE4" s="6" t="str">
         <f>D5</f>
-        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AF4" s="6" t="str">
         <f>$D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AG4" s="6" t="str">
         <f t="shared" ref="AG4:AI5" si="2">$D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AH4" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AI4" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AJ4" s="6" t="str">
         <f>D5</f>
-        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AK4" s="6" t="str">
         <f>D5</f>
-        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AL4" s="6" t="str">
         <f>D5</f>
-        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AM4" s="6" t="str">
         <f>D5</f>
-        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AN4" s="6"/>
     </row>
@@ -43974,7 +43977,7 @@
       </c>
       <c r="D5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_BEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>386</v>
@@ -44001,7 +44004,7 @@
         <v>6</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>36</v>
@@ -44929,39 +44932,39 @@
       </c>
       <c r="AE17" s="21" t="str">
         <f>D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AF17" s="21" t="str">
         <f>$D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AG17" s="21" t="str">
         <f t="shared" ref="AG17:AI17" si="13">$D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AH17" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AI17" s="21" t="str">
         <f t="shared" si="13"/>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AJ17" s="21" t="str">
         <f>D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AK17" s="21" t="str">
         <f>D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AL17" s="21" t="str">
         <f>D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="AM17" s="21" t="str">
         <f>D18</f>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
     </row>
     <row r="18" spans="1:40" s="21" customFormat="1" x14ac:dyDescent="0.25">
@@ -44977,7 +44980,7 @@
       </c>
       <c r="D18" s="21" t="str">
         <f t="shared" si="11"/>
-        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET</v>
+        <v>XSA_COMMON_REPAIR_E_SDTBEGIN_T_X_X_X_RESET1</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>386</v>
@@ -45004,7 +45007,7 @@
         <v>6</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N18" s="21" t="s">
         <v>36</v>

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adambyrn\source\repos\lighterFluid\lighterFluid\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F0830F-E4A6-4CF4-A969-A2295BAE235E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E3ABE4-2888-41FD-B9D4-D97965342AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1620" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="templateLookup" sheetId="5" r:id="rId1"/>
     <sheet name="binningRules" sheetId="4" r:id="rId2"/>
-    <sheet name="arr_ccf" sheetId="2" r:id="rId3"/>
-    <sheet name="arr_atom" sheetId="7" r:id="rId4"/>
+    <sheet name="arr_ccf" sheetId="10" r:id="rId3"/>
+    <sheet name="arr_atom" sheetId="11" r:id="rId4"/>
     <sheet name="arr_core" sheetId="8" r:id="rId5"/>
     <sheet name="arr_vpu" sheetId="9" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">arr_atom!$A$1:$AO$115</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">arr_ccf!$A$1:$AJ$101</definedName>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6187" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6227" uniqueCount="443">
   <si>
     <t>Flow</t>
   </si>
@@ -1337,6 +1340,42 @@
   </si>
   <si>
     <t>G.U.S.DEFECTREPAIR_CORE</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_indirect_lsa_list</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>array_pbist_pstrep_atom_sino_indirect_lsa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_hry_tito_atom_indirect_lsa_repairable_list</t>
+  </si>
+  <si>
+    <t>array_pbist_pstrep_atom_sino_direct_lsa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_lsa_l2_lru_list</t>
+  </si>
+  <si>
+    <t>array_pbist_hry_tito_atom_direct_lsa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_pstrep_atom_sino_direct_ssa_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_ssa_l2_tsp_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_ssa_l2_c6s_list</t>
+  </si>
+  <si>
+    <t>array_pbist_raster_tito_atom_direct_ssa_l2_data_list</t>
+  </si>
+  <si>
+    <t>array_pbist_hry_tito_atom_direct_ssa_list</t>
   </si>
 </sst>
 </file>
@@ -2104,6 +2143,226 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="templateLookup"/>
+      <sheetName val="binningRules"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>eoghanTemplate</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>realWorldTemplate</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>TP_BEGIN</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>COMPOSITE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>COMPOSITE_BEGIN</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>COMPOSITE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>COMPOSITE_END</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>COMPOSITE</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>TP_END</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>COMPOSITE</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>mbistRepair</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>PrimeMbistVminSearchTestMethod</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>mbistPostRepair</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>PrimeMbistVminSearchTestMethod</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>mbistRaster</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>MbistRasterTC</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>fuseConfig</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>PrimePatConfigTestMethod</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>vminTc</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>PrimeVminSearchTestMethod</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>hvqk</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>PrimeHvqkTestMethod</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>capturePackets</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>iCCapturePacketsTest</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>pbistRepair</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>iCRepairTest</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>pbistRepair2Fuse</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>iCRepairTest</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>vfdmUserFunc</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>iCUserFuncTest</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>vfdmRun</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>iCVFDMTest</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>hsrPre</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>iCHSRTest</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>hsrPost</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>iCHSRTest</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>pbistLsaHry</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>PrimeLSARasterTestMethod</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>pbistLsaRaster</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>PrimeLSARasterTestMethod</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>auxiliary</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>AuxiliaryTC</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>SSA</v>
+          </cell>
+          <cell r="C6">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>LSA</v>
+          </cell>
+          <cell r="C7">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>ROM</v>
+          </cell>
+          <cell r="C8">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>ALL</v>
+          </cell>
+          <cell r="C9">
+            <v>61</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2403,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{335B2182-EA68-41EA-9EA9-384E14E7AACA}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -3083,13 +3342,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241C3671-2E60-454B-B8DB-4E3636E24D93}">
   <dimension ref="A1:AJ101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="T78" sqref="T78"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="AB55" sqref="AB55"/>
+      <selection pane="bottomLeft" activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3097,13 +3356,14 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="83.5703125" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" customWidth="1"/>
     <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="32" width="71.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3225,7 +3485,7 @@
         <v>91</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B2,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D2" t="s">
@@ -3240,7 +3500,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>VLOOKUP(B3,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B3,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -3258,7 +3518,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>VLOOKUP(B4,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B4,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D4" t="s">
@@ -3290,11 +3550,11 @@
         <v>30</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>VLOOKUP(B5,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B5,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D20" si="0">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
+        <f>E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_DAT_BISR</v>
       </c>
       <c r="E5" t="s">
@@ -3334,7 +3594,7 @@
         <v>38</v>
       </c>
       <c r="Q5">
-        <f>VLOOKUP(E5,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E5,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R5">
@@ -3345,6 +3605,9 @@
       </c>
       <c r="T5">
         <v>1</v>
+      </c>
+      <c r="U5" t="s">
+        <v>294</v>
       </c>
       <c r="X5" t="b">
         <v>0</v>
@@ -3357,7 +3620,7 @@
         <v>39</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5:AA20" si="1">D6</f>
+        <f>D6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_DAT_RASTER</v>
       </c>
       <c r="AB5" t="str">
@@ -3377,7 +3640,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="AF5" t="str">
-        <f t="shared" ref="AF5:AF20" si="2">D6</f>
+        <f>D6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_DAT_RASTER</v>
       </c>
       <c r="AG5" t="str">
@@ -3401,11 +3664,11 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>VLOOKUP(B6,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B6,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>E6&amp;"_"&amp;F6&amp;"_"&amp;G6&amp;"_"&amp;H6&amp;"_"&amp;A6&amp;"_"&amp;I6&amp;"_"&amp;J6&amp;"_"&amp;K6&amp;"_"&amp;L6&amp;"_"&amp;M6</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_DAT_RASTER</v>
       </c>
       <c r="E6" t="s">
@@ -3445,7 +3708,7 @@
         <v>38</v>
       </c>
       <c r="Q6">
-        <f>VLOOKUP(E6,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E6,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R6">
@@ -3457,18 +3720,21 @@
       <c r="T6">
         <v>1</v>
       </c>
+      <c r="U6" t="s">
+        <v>294</v>
+      </c>
       <c r="X6" t="b">
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" ref="Y6:Y57" si="3">COUNTA(AA6:AJ6)</f>
+        <f>COUNTA(AA6:AJ6)</f>
         <v>6</v>
       </c>
       <c r="Z6">
         <v>1</v>
       </c>
       <c r="AA6" t="str">
-        <f t="shared" si="1"/>
+        <f>D7</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="AB6" t="str">
@@ -3488,7 +3754,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="AF6" t="str">
-        <f t="shared" si="2"/>
+        <f>D7</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
     </row>
@@ -3500,11 +3766,11 @@
         <v>30</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>VLOOKUP(B7,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B7,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f>E7&amp;"_"&amp;F7&amp;"_"&amp;G7&amp;"_"&amp;H7&amp;"_"&amp;A7&amp;"_"&amp;I7&amp;"_"&amp;J7&amp;"_"&amp;K7&amp;"_"&amp;L7&amp;"_"&amp;M7</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_BISR</v>
       </c>
       <c r="E7" t="s">
@@ -3544,7 +3810,7 @@
         <v>38</v>
       </c>
       <c r="Q7">
-        <f>VLOOKUP(E7,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E7,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R7">
@@ -3556,18 +3822,21 @@
       <c r="T7">
         <v>1</v>
       </c>
+      <c r="U7" t="s">
+        <v>294</v>
+      </c>
       <c r="X7" t="b">
         <v>0</v>
       </c>
       <c r="Y7">
-        <f t="shared" ref="Y7:Y13" si="4">COUNTA(AA7:AJ7)</f>
+        <f>COUNTA(AA7:AJ7)</f>
         <v>9</v>
       </c>
       <c r="Z7" t="s">
         <v>39</v>
       </c>
       <c r="AA7" t="str">
-        <f t="shared" si="1"/>
+        <f>D8</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_RASTER</v>
       </c>
       <c r="AB7" t="str">
@@ -3587,7 +3856,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="AF7" t="str">
-        <f t="shared" si="2"/>
+        <f>D8</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_RASTER</v>
       </c>
       <c r="AG7" t="str">
@@ -3611,11 +3880,11 @@
         <v>40</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>VLOOKUP(B8,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B8,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f>E8&amp;"_"&amp;F8&amp;"_"&amp;G8&amp;"_"&amp;H8&amp;"_"&amp;A8&amp;"_"&amp;I8&amp;"_"&amp;J8&amp;"_"&amp;K8&amp;"_"&amp;L8&amp;"_"&amp;M8</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_LLC_TAG_RASTER</v>
       </c>
       <c r="E8" t="s">
@@ -3655,7 +3924,7 @@
         <v>38</v>
       </c>
       <c r="Q8">
-        <f>VLOOKUP(E8,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E8,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R8">
@@ -3667,18 +3936,21 @@
       <c r="T8">
         <v>1</v>
       </c>
+      <c r="U8" t="s">
+        <v>294</v>
+      </c>
       <c r="X8" t="b">
         <v>0</v>
       </c>
       <c r="Y8">
-        <f t="shared" si="4"/>
+        <f>COUNTA(AA8:AJ8)</f>
         <v>6</v>
       </c>
       <c r="Z8">
         <v>1</v>
       </c>
       <c r="AA8" t="str">
-        <f t="shared" si="1"/>
+        <f>D9</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="AB8" t="str">
@@ -3698,7 +3970,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="AF8" t="str">
-        <f t="shared" si="2"/>
+        <f>D9</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_BISR</v>
       </c>
     </row>
@@ -3710,11 +3982,11 @@
         <v>30</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>VLOOKUP(B9,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B9,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
+        <f>E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;"_"&amp;A9&amp;"_"&amp;I9&amp;"_"&amp;J9&amp;"_"&amp;K9&amp;"_"&amp;L9&amp;"_"&amp;M9</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_BISR</v>
       </c>
       <c r="E9" t="s">
@@ -3754,7 +4026,7 @@
         <v>38</v>
       </c>
       <c r="Q9">
-        <f>VLOOKUP(E9,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E9,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R9">
@@ -3766,18 +4038,21 @@
       <c r="T9">
         <v>1</v>
       </c>
+      <c r="U9" t="s">
+        <v>295</v>
+      </c>
       <c r="X9" t="b">
         <v>0</v>
       </c>
       <c r="Y9">
-        <f t="shared" si="4"/>
+        <f>COUNTA(AA9:AJ9)</f>
         <v>9</v>
       </c>
       <c r="Z9" t="s">
         <v>39</v>
       </c>
       <c r="AA9" t="str">
-        <f t="shared" si="1"/>
+        <f>D10</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_RASTER</v>
       </c>
       <c r="AB9" t="str">
@@ -3797,7 +4072,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AF9" t="str">
-        <f t="shared" si="2"/>
+        <f>D10</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_RASTER</v>
       </c>
       <c r="AG9" t="str">
@@ -3821,11 +4096,11 @@
         <v>40</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>VLOOKUP(B10,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B10,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f>E10&amp;"_"&amp;F10&amp;"_"&amp;G10&amp;"_"&amp;H10&amp;"_"&amp;A10&amp;"_"&amp;I10&amp;"_"&amp;J10&amp;"_"&amp;K10&amp;"_"&amp;L10&amp;"_"&amp;M10</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO0_SAR_RASTER</v>
       </c>
       <c r="E10" t="s">
@@ -3865,7 +4140,7 @@
         <v>38</v>
       </c>
       <c r="Q10">
-        <f>VLOOKUP(E10,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E10,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R10">
@@ -3877,18 +4152,21 @@
       <c r="T10">
         <v>1</v>
       </c>
+      <c r="U10" t="s">
+        <v>295</v>
+      </c>
       <c r="X10" t="b">
         <v>0</v>
       </c>
       <c r="Y10">
-        <f t="shared" si="4"/>
+        <f>COUNTA(AA10:AJ10)</f>
         <v>6</v>
       </c>
       <c r="Z10">
         <v>1</v>
       </c>
       <c r="AA10" t="str">
-        <f t="shared" si="1"/>
+        <f>D11</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AB10" t="str">
@@ -3908,7 +4186,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AF10" t="str">
-        <f t="shared" si="2"/>
+        <f>D11</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
     </row>
@@ -3920,11 +4198,11 @@
         <v>30</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>VLOOKUP(B11,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B11,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
+        <f>E11&amp;"_"&amp;F11&amp;"_"&amp;G11&amp;"_"&amp;H11&amp;"_"&amp;A11&amp;"_"&amp;I11&amp;"_"&amp;J11&amp;"_"&amp;K11&amp;"_"&amp;L11&amp;"_"&amp;M11</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="E11" t="s">
@@ -3964,7 +4242,7 @@
         <v>38</v>
       </c>
       <c r="Q11">
-        <f>VLOOKUP(E11,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E11,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R11">
@@ -3976,18 +4254,21 @@
       <c r="T11">
         <v>1</v>
       </c>
+      <c r="U11" t="s">
+        <v>294</v>
+      </c>
       <c r="X11" t="b">
         <v>0</v>
       </c>
       <c r="Y11">
-        <f t="shared" si="4"/>
+        <f>COUNTA(AA11:AJ11)</f>
         <v>9</v>
       </c>
       <c r="Z11" t="s">
         <v>39</v>
       </c>
       <c r="AA11" t="str">
-        <f t="shared" si="1"/>
+        <f>D12</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AB11" t="str">
@@ -4007,7 +4288,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="AF11" t="str">
-        <f t="shared" si="2"/>
+        <f>D12</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="AG11" t="str">
@@ -4031,11 +4312,11 @@
         <v>40</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>VLOOKUP(B12,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B12,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f>E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;"_"&amp;A12&amp;"_"&amp;I12&amp;"_"&amp;J12&amp;"_"&amp;K12&amp;"_"&amp;L12&amp;"_"&amp;M12</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO0_LSA_ALL</v>
       </c>
       <c r="E12" t="s">
@@ -4075,7 +4356,7 @@
         <v>38</v>
       </c>
       <c r="Q12">
-        <f>VLOOKUP(E12,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E12,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R12">
@@ -4087,18 +4368,21 @@
       <c r="T12">
         <v>1</v>
       </c>
+      <c r="U12" t="s">
+        <v>294</v>
+      </c>
       <c r="X12" t="b">
         <v>0</v>
       </c>
       <c r="Y12">
-        <f t="shared" si="4"/>
+        <f>COUNTA(AA12:AJ12)</f>
         <v>6</v>
       </c>
       <c r="Z12">
         <v>1</v>
       </c>
       <c r="AA12" t="str">
-        <f t="shared" si="1"/>
+        <f>D13</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="AB12" t="str">
@@ -4118,7 +4402,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="AF12" t="str">
-        <f t="shared" si="2"/>
+        <f>D13</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
     </row>
@@ -4130,11 +4414,11 @@
         <v>30</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>VLOOKUP(B13,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B13,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f>E13&amp;"_"&amp;F13&amp;"_"&amp;G13&amp;"_"&amp;H13&amp;"_"&amp;A13&amp;"_"&amp;I13&amp;"_"&amp;J13&amp;"_"&amp;K13&amp;"_"&amp;L13&amp;"_"&amp;M13</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_BISR</v>
       </c>
       <c r="E13" t="s">
@@ -4174,7 +4458,7 @@
         <v>38</v>
       </c>
       <c r="Q13">
-        <f>VLOOKUP(E13,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E13,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R13">
@@ -4186,18 +4470,21 @@
       <c r="T13">
         <v>1</v>
       </c>
+      <c r="U13" t="s">
+        <v>294</v>
+      </c>
       <c r="X13" t="b">
         <v>0</v>
       </c>
       <c r="Y13">
-        <f t="shared" si="4"/>
+        <f>COUNTA(AA13:AJ13)</f>
         <v>9</v>
       </c>
       <c r="Z13" t="s">
         <v>39</v>
       </c>
       <c r="AA13" t="str">
-        <f t="shared" si="1"/>
+        <f>D14</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_RASTER</v>
       </c>
       <c r="AB13" t="str">
@@ -4217,7 +4504,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="AF13" t="str">
-        <f t="shared" si="2"/>
+        <f>D14</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_RASTER</v>
       </c>
       <c r="AG13" t="str">
@@ -4241,11 +4528,11 @@
         <v>40</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>VLOOKUP(B14,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B14,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f>E14&amp;"_"&amp;F14&amp;"_"&amp;G14&amp;"_"&amp;H14&amp;"_"&amp;A14&amp;"_"&amp;I14&amp;"_"&amp;J14&amp;"_"&amp;K14&amp;"_"&amp;L14&amp;"_"&amp;M14</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_DAT_RASTER</v>
       </c>
       <c r="E14" t="s">
@@ -4285,7 +4572,7 @@
         <v>38</v>
       </c>
       <c r="Q14">
-        <f>VLOOKUP(E14,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E14,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R14">
@@ -4297,18 +4584,21 @@
       <c r="T14">
         <v>1</v>
       </c>
+      <c r="U14" t="s">
+        <v>294</v>
+      </c>
       <c r="X14" t="b">
         <v>0</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14" si="5">COUNTA(AA14:AJ14)</f>
+        <f>COUNTA(AA14:AJ14)</f>
         <v>6</v>
       </c>
       <c r="Z14">
         <v>1</v>
       </c>
       <c r="AA14" t="str">
-        <f t="shared" si="1"/>
+        <f>D15</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="AB14" t="str">
@@ -4328,7 +4618,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="AF14" t="str">
-        <f t="shared" si="2"/>
+        <f>D15</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
     </row>
@@ -4340,11 +4630,11 @@
         <v>30</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>VLOOKUP(B15,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B15,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f>E15&amp;"_"&amp;F15&amp;"_"&amp;G15&amp;"_"&amp;H15&amp;"_"&amp;A15&amp;"_"&amp;I15&amp;"_"&amp;J15&amp;"_"&amp;K15&amp;"_"&amp;L15&amp;"_"&amp;M15</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_BISR</v>
       </c>
       <c r="E15" t="s">
@@ -4384,7 +4674,7 @@
         <v>38</v>
       </c>
       <c r="Q15">
-        <f>VLOOKUP(E15,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E15,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R15">
@@ -4396,18 +4686,21 @@
       <c r="T15">
         <v>1</v>
       </c>
+      <c r="U15" t="s">
+        <v>294</v>
+      </c>
       <c r="X15" t="b">
         <v>0</v>
       </c>
       <c r="Y15">
-        <f t="shared" ref="Y15:Y20" si="6">COUNTA(AA15:AJ15)</f>
+        <f>COUNTA(AA15:AJ15)</f>
         <v>9</v>
       </c>
       <c r="Z15" t="s">
         <v>39</v>
       </c>
       <c r="AA15" t="str">
-        <f t="shared" si="1"/>
+        <f>D16</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_RASTER</v>
       </c>
       <c r="AB15" t="str">
@@ -4427,7 +4720,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="AF15" t="str">
-        <f t="shared" si="2"/>
+        <f>D16</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_RASTER</v>
       </c>
       <c r="AG15" t="str">
@@ -4451,11 +4744,11 @@
         <v>40</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>VLOOKUP(B16,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B16,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f>E16&amp;"_"&amp;F16&amp;"_"&amp;G16&amp;"_"&amp;H16&amp;"_"&amp;A16&amp;"_"&amp;I16&amp;"_"&amp;J16&amp;"_"&amp;K16&amp;"_"&amp;L16&amp;"_"&amp;M16</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_LLC_TAG_RASTER</v>
       </c>
       <c r="E16" t="s">
@@ -4495,7 +4788,7 @@
         <v>38</v>
       </c>
       <c r="Q16">
-        <f>VLOOKUP(E16,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E16,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R16">
@@ -4507,18 +4800,21 @@
       <c r="T16">
         <v>1</v>
       </c>
+      <c r="U16" t="s">
+        <v>294</v>
+      </c>
       <c r="X16" t="b">
         <v>0</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="6"/>
+        <f>COUNTA(AA16:AJ16)</f>
         <v>6</v>
       </c>
       <c r="Z16">
         <v>1</v>
       </c>
       <c r="AA16" t="str">
-        <f t="shared" si="1"/>
+        <f>D17</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="AB16" t="str">
@@ -4538,7 +4834,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="AF16" t="str">
-        <f t="shared" si="2"/>
+        <f>D17</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_BISR</v>
       </c>
     </row>
@@ -4550,11 +4846,11 @@
         <v>30</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>VLOOKUP(B17,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B17,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f>E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;"_"&amp;A17&amp;"_"&amp;I17&amp;"_"&amp;J17&amp;"_"&amp;K17&amp;"_"&amp;L17&amp;"_"&amp;M17</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_BISR</v>
       </c>
       <c r="E17" t="s">
@@ -4594,7 +4890,7 @@
         <v>38</v>
       </c>
       <c r="Q17">
-        <f>VLOOKUP(E17,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E17,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R17">
@@ -4606,18 +4902,21 @@
       <c r="T17">
         <v>1</v>
       </c>
+      <c r="U17" t="s">
+        <v>295</v>
+      </c>
       <c r="X17" t="b">
         <v>0</v>
       </c>
       <c r="Y17">
-        <f t="shared" si="6"/>
+        <f>COUNTA(AA17:AJ17)</f>
         <v>9</v>
       </c>
       <c r="Z17" t="s">
         <v>39</v>
       </c>
       <c r="AA17" t="str">
-        <f t="shared" si="1"/>
+        <f>D18</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_RASTER</v>
       </c>
       <c r="AB17" t="str">
@@ -4637,7 +4936,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AF17" t="str">
-        <f t="shared" si="2"/>
+        <f>D18</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_RASTER</v>
       </c>
       <c r="AG17" t="str">
@@ -4661,11 +4960,11 @@
         <v>40</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>VLOOKUP(B18,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B18,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f>E18&amp;"_"&amp;F18&amp;"_"&amp;G18&amp;"_"&amp;H18&amp;"_"&amp;A18&amp;"_"&amp;I18&amp;"_"&amp;J18&amp;"_"&amp;K18&amp;"_"&amp;L18&amp;"_"&amp;M18</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO1_SAR_RASTER</v>
       </c>
       <c r="E18" t="s">
@@ -4705,7 +5004,7 @@
         <v>38</v>
       </c>
       <c r="Q18">
-        <f>VLOOKUP(E18,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E18,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R18">
@@ -4717,18 +5016,21 @@
       <c r="T18">
         <v>1</v>
       </c>
+      <c r="U18" t="s">
+        <v>295</v>
+      </c>
       <c r="X18" t="b">
         <v>0</v>
       </c>
       <c r="Y18">
-        <f t="shared" si="6"/>
+        <f>COUNTA(AA18:AJ18)</f>
         <v>6</v>
       </c>
       <c r="Z18">
         <v>1</v>
       </c>
       <c r="AA18" t="str">
-        <f t="shared" si="1"/>
+        <f>D19</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AB18" t="str">
@@ -4748,7 +5050,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AF18" t="str">
-        <f t="shared" si="2"/>
+        <f>D19</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
     </row>
@@ -4760,11 +5062,11 @@
         <v>30</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>VLOOKUP(B19,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B19,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f>E19&amp;"_"&amp;F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;"_"&amp;A19&amp;"_"&amp;I19&amp;"_"&amp;J19&amp;"_"&amp;K19&amp;"_"&amp;L19&amp;"_"&amp;M19</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="E19" t="s">
@@ -4804,7 +5106,7 @@
         <v>38</v>
       </c>
       <c r="Q19">
-        <f>VLOOKUP(E19,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E19,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R19">
@@ -4816,18 +5118,21 @@
       <c r="T19">
         <v>1</v>
       </c>
+      <c r="U19" t="s">
+        <v>294</v>
+      </c>
       <c r="X19" t="b">
         <v>0</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="6"/>
+        <f>COUNTA(AA19:AJ19)</f>
         <v>9</v>
       </c>
       <c r="Z19" t="s">
         <v>39</v>
       </c>
       <c r="AA19" t="str">
-        <f t="shared" si="1"/>
+        <f>D20</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AB19" t="str">
@@ -4847,7 +5152,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_BISR</v>
       </c>
       <c r="AF19" t="str">
-        <f t="shared" si="2"/>
+        <f>D20</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="AG19" t="str">
@@ -4871,11 +5176,11 @@
         <v>40</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>VLOOKUP(B20,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B20,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f>E20&amp;"_"&amp;F20&amp;"_"&amp;G20&amp;"_"&amp;H20&amp;"_"&amp;A20&amp;"_"&amp;I20&amp;"_"&amp;J20&amp;"_"&amp;K20&amp;"_"&amp;L20&amp;"_"&amp;M20</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO1_LSA_ALL</v>
       </c>
       <c r="E20" t="s">
@@ -4915,7 +5220,7 @@
         <v>38</v>
       </c>
       <c r="Q20">
-        <f>VLOOKUP(E20,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E20,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R20">
@@ -4927,18 +5232,21 @@
       <c r="T20">
         <v>1</v>
       </c>
+      <c r="U20" t="s">
+        <v>294</v>
+      </c>
       <c r="X20" t="b">
         <v>0</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="6"/>
+        <f>COUNTA(AA20:AJ20)</f>
         <v>6</v>
       </c>
       <c r="Z20">
         <v>1</v>
       </c>
       <c r="AA20" t="str">
-        <f t="shared" si="1"/>
+        <f>D21</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_BISR</v>
       </c>
       <c r="AB20" t="str">
@@ -4958,7 +5266,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_BISR</v>
       </c>
       <c r="AF20" t="str">
-        <f t="shared" si="2"/>
+        <f>D21</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_BISR</v>
       </c>
     </row>
@@ -4970,11 +5278,11 @@
         <v>30</v>
       </c>
       <c r="C21" s="1" t="str">
-        <f>VLOOKUP(B21,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B21,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ref="D21:D36" si="7">E21&amp;"_"&amp;F21&amp;"_"&amp;G21&amp;"_"&amp;H21&amp;"_"&amp;A21&amp;"_"&amp;I21&amp;"_"&amp;J21&amp;"_"&amp;K21&amp;"_"&amp;L21&amp;"_"&amp;M21</f>
+        <f>E21&amp;"_"&amp;F21&amp;"_"&amp;G21&amp;"_"&amp;H21&amp;"_"&amp;A21&amp;"_"&amp;I21&amp;"_"&amp;J21&amp;"_"&amp;K21&amp;"_"&amp;L21&amp;"_"&amp;M21</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_BISR</v>
       </c>
       <c r="E21" t="s">
@@ -5014,7 +5322,7 @@
         <v>38</v>
       </c>
       <c r="Q21">
-        <f>VLOOKUP(E21,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E21,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R21">
@@ -5025,6 +5333,9 @@
       </c>
       <c r="T21">
         <v>1</v>
+      </c>
+      <c r="U21" t="s">
+        <v>294</v>
       </c>
       <c r="X21" t="b">
         <v>0</v>
@@ -5037,7 +5348,7 @@
         <v>39</v>
       </c>
       <c r="AA21" t="str">
-        <f t="shared" ref="AA21:AA35" si="8">D22</f>
+        <f>D22</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_RASTER</v>
       </c>
       <c r="AB21" t="str">
@@ -5057,7 +5368,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="AF21" t="str">
-        <f t="shared" ref="AF21:AF35" si="9">D22</f>
+        <f>D22</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_RASTER</v>
       </c>
       <c r="AG21" t="str">
@@ -5081,11 +5392,11 @@
         <v>40</v>
       </c>
       <c r="C22" s="1" t="str">
-        <f>VLOOKUP(B22,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B22,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="7"/>
+        <f>E22&amp;"_"&amp;F22&amp;"_"&amp;G22&amp;"_"&amp;H22&amp;"_"&amp;A22&amp;"_"&amp;I22&amp;"_"&amp;J22&amp;"_"&amp;K22&amp;"_"&amp;L22&amp;"_"&amp;M22</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_DAT_RASTER</v>
       </c>
       <c r="E22" t="s">
@@ -5125,7 +5436,7 @@
         <v>38</v>
       </c>
       <c r="Q22">
-        <f>VLOOKUP(E22,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E22,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R22">
@@ -5137,18 +5448,21 @@
       <c r="T22">
         <v>1</v>
       </c>
+      <c r="U22" t="s">
+        <v>294</v>
+      </c>
       <c r="X22" t="b">
         <v>0</v>
       </c>
       <c r="Y22">
-        <f t="shared" ref="Y22:Y36" si="10">COUNTA(AA22:AJ22)</f>
+        <f>COUNTA(AA22:AJ22)</f>
         <v>6</v>
       </c>
       <c r="Z22">
         <v>1</v>
       </c>
       <c r="AA22" t="str">
-        <f t="shared" si="8"/>
+        <f>D23</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="AB22" t="str">
@@ -5168,7 +5482,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="AF22" t="str">
-        <f t="shared" si="9"/>
+        <f>D23</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
     </row>
@@ -5180,11 +5494,11 @@
         <v>30</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>VLOOKUP(B23,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B23,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="7"/>
+        <f>E23&amp;"_"&amp;F23&amp;"_"&amp;G23&amp;"_"&amp;H23&amp;"_"&amp;A23&amp;"_"&amp;I23&amp;"_"&amp;J23&amp;"_"&amp;K23&amp;"_"&amp;L23&amp;"_"&amp;M23</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_BISR</v>
       </c>
       <c r="E23" t="s">
@@ -5224,7 +5538,7 @@
         <v>38</v>
       </c>
       <c r="Q23">
-        <f>VLOOKUP(E23,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E23,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R23">
@@ -5236,18 +5550,21 @@
       <c r="T23">
         <v>1</v>
       </c>
+      <c r="U23" t="s">
+        <v>294</v>
+      </c>
       <c r="X23" t="b">
         <v>0</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA23:AJ23)</f>
         <v>9</v>
       </c>
       <c r="Z23" t="s">
         <v>39</v>
       </c>
       <c r="AA23" t="str">
-        <f t="shared" si="8"/>
+        <f>D24</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_RASTER</v>
       </c>
       <c r="AB23" t="str">
@@ -5267,7 +5584,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
       <c r="AF23" t="str">
-        <f t="shared" si="9"/>
+        <f>D24</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_RASTER</v>
       </c>
       <c r="AG23" t="str">
@@ -5291,11 +5608,11 @@
         <v>40</v>
       </c>
       <c r="C24" s="1" t="str">
-        <f>VLOOKUP(B24,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B24,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="7"/>
+        <f>E24&amp;"_"&amp;F24&amp;"_"&amp;G24&amp;"_"&amp;H24&amp;"_"&amp;A24&amp;"_"&amp;I24&amp;"_"&amp;J24&amp;"_"&amp;K24&amp;"_"&amp;L24&amp;"_"&amp;M24</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_LLC_TAG_RASTER</v>
       </c>
       <c r="E24" t="s">
@@ -5335,7 +5652,7 @@
         <v>38</v>
       </c>
       <c r="Q24">
-        <f>VLOOKUP(E24,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E24,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R24">
@@ -5347,18 +5664,21 @@
       <c r="T24">
         <v>1</v>
       </c>
+      <c r="U24" t="s">
+        <v>294</v>
+      </c>
       <c r="X24" t="b">
         <v>0</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA24:AJ24)</f>
         <v>6</v>
       </c>
       <c r="Z24">
         <v>1</v>
       </c>
       <c r="AA24" t="str">
-        <f t="shared" si="8"/>
+        <f>D25</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
       <c r="AB24" t="str">
@@ -5378,7 +5698,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
       <c r="AF24" t="str">
-        <f t="shared" si="9"/>
+        <f>D25</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
     </row>
@@ -5390,11 +5710,11 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="str">
-        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B25,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="7"/>
+        <f>E25&amp;"_"&amp;F25&amp;"_"&amp;G25&amp;"_"&amp;H25&amp;"_"&amp;A25&amp;"_"&amp;I25&amp;"_"&amp;J25&amp;"_"&amp;K25&amp;"_"&amp;L25&amp;"_"&amp;M25</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_BISR</v>
       </c>
       <c r="E25" t="s">
@@ -5434,7 +5754,7 @@
         <v>38</v>
       </c>
       <c r="Q25">
-        <f>VLOOKUP(E25,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E25,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R25">
@@ -5446,18 +5766,21 @@
       <c r="T25">
         <v>1</v>
       </c>
+      <c r="U25" t="s">
+        <v>295</v>
+      </c>
       <c r="X25" t="b">
         <v>0</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA25:AJ25)</f>
         <v>9</v>
       </c>
       <c r="Z25" t="s">
         <v>39</v>
       </c>
       <c r="AA25" t="str">
-        <f t="shared" si="8"/>
+        <f>D26</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_RASTER</v>
       </c>
       <c r="AB25" t="str">
@@ -5477,7 +5800,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AF25" t="str">
-        <f t="shared" si="9"/>
+        <f>D26</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_RASTER</v>
       </c>
       <c r="AG25" t="str">
@@ -5501,11 +5824,11 @@
         <v>40</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>VLOOKUP(B26,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B26,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="7"/>
+        <f>E26&amp;"_"&amp;F26&amp;"_"&amp;G26&amp;"_"&amp;H26&amp;"_"&amp;A26&amp;"_"&amp;I26&amp;"_"&amp;J26&amp;"_"&amp;K26&amp;"_"&amp;L26&amp;"_"&amp;M26</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO2_SAR_RASTER</v>
       </c>
       <c r="E26" t="s">
@@ -5545,7 +5868,7 @@
         <v>38</v>
       </c>
       <c r="Q26">
-        <f>VLOOKUP(E26,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E26,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R26">
@@ -5557,18 +5880,21 @@
       <c r="T26">
         <v>1</v>
       </c>
+      <c r="U26" t="s">
+        <v>295</v>
+      </c>
       <c r="X26" t="b">
         <v>0</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA26:AJ26)</f>
         <v>6</v>
       </c>
       <c r="Z26">
         <v>1</v>
       </c>
       <c r="AA26" t="str">
-        <f t="shared" si="8"/>
+        <f>D27</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AB26" t="str">
@@ -5588,7 +5914,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AF26" t="str">
-        <f t="shared" si="9"/>
+        <f>D27</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
     </row>
@@ -5600,11 +5926,11 @@
         <v>30</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>VLOOKUP(B27,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B27,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="7"/>
+        <f>E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27&amp;"_"&amp;A27&amp;"_"&amp;I27&amp;"_"&amp;J27&amp;"_"&amp;K27&amp;"_"&amp;L27&amp;"_"&amp;M27</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="E27" t="s">
@@ -5644,7 +5970,7 @@
         <v>38</v>
       </c>
       <c r="Q27">
-        <f>VLOOKUP(E27,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E27,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R27">
@@ -5656,18 +5982,21 @@
       <c r="T27">
         <v>1</v>
       </c>
+      <c r="U27" t="s">
+        <v>294</v>
+      </c>
       <c r="X27" t="b">
         <v>0</v>
       </c>
       <c r="Y27">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA27:AJ27)</f>
         <v>9</v>
       </c>
       <c r="Z27" t="s">
         <v>39</v>
       </c>
       <c r="AA27" t="str">
-        <f t="shared" si="8"/>
+        <f>D28</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AB27" t="str">
@@ -5687,7 +6016,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="AF27" t="str">
-        <f t="shared" si="9"/>
+        <f>D28</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="AG27" t="str">
@@ -5711,11 +6040,11 @@
         <v>40</v>
       </c>
       <c r="C28" s="1" t="str">
-        <f>VLOOKUP(B28,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B28,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="7"/>
+        <f>E28&amp;"_"&amp;F28&amp;"_"&amp;G28&amp;"_"&amp;H28&amp;"_"&amp;A28&amp;"_"&amp;I28&amp;"_"&amp;J28&amp;"_"&amp;K28&amp;"_"&amp;L28&amp;"_"&amp;M28</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO2_LSA_ALL</v>
       </c>
       <c r="E28" t="s">
@@ -5755,7 +6084,7 @@
         <v>38</v>
       </c>
       <c r="Q28">
-        <f>VLOOKUP(E28,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E28,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R28">
@@ -5767,18 +6096,21 @@
       <c r="T28">
         <v>1</v>
       </c>
+      <c r="U28" t="s">
+        <v>294</v>
+      </c>
       <c r="X28" t="b">
         <v>0</v>
       </c>
       <c r="Y28">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA28:AJ28)</f>
         <v>6</v>
       </c>
       <c r="Z28">
         <v>1</v>
       </c>
       <c r="AA28" t="str">
-        <f t="shared" si="8"/>
+        <f>D29</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="AB28" t="str">
@@ -5798,7 +6130,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="AF28" t="str">
-        <f t="shared" si="9"/>
+        <f>D29</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
     </row>
@@ -5810,11 +6142,11 @@
         <v>30</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B29,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="7"/>
+        <f>E29&amp;"_"&amp;F29&amp;"_"&amp;G29&amp;"_"&amp;H29&amp;"_"&amp;A29&amp;"_"&amp;I29&amp;"_"&amp;J29&amp;"_"&amp;K29&amp;"_"&amp;L29&amp;"_"&amp;M29</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_BISR</v>
       </c>
       <c r="E29" t="s">
@@ -5854,7 +6186,7 @@
         <v>38</v>
       </c>
       <c r="Q29">
-        <f>VLOOKUP(E29,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E29,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R29">
@@ -5866,18 +6198,21 @@
       <c r="T29">
         <v>1</v>
       </c>
+      <c r="U29" t="s">
+        <v>294</v>
+      </c>
       <c r="X29" t="b">
         <v>0</v>
       </c>
       <c r="Y29">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA29:AJ29)</f>
         <v>9</v>
       </c>
       <c r="Z29" t="s">
         <v>39</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" si="8"/>
+        <f>D30</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="AB29" t="str">
@@ -5897,7 +6232,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="AF29" t="str">
-        <f t="shared" si="9"/>
+        <f>D30</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="AG29" t="str">
@@ -5921,11 +6256,11 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="str">
-        <f>VLOOKUP(B30,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B30,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="7"/>
+        <f>E30&amp;"_"&amp;F30&amp;"_"&amp;G30&amp;"_"&amp;H30&amp;"_"&amp;A30&amp;"_"&amp;I30&amp;"_"&amp;J30&amp;"_"&amp;K30&amp;"_"&amp;L30&amp;"_"&amp;M30</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_DAT_RASTER</v>
       </c>
       <c r="E30" t="s">
@@ -5965,7 +6300,7 @@
         <v>38</v>
       </c>
       <c r="Q30">
-        <f>VLOOKUP(E30,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E30,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R30">
@@ -5977,18 +6312,21 @@
       <c r="T30">
         <v>1</v>
       </c>
+      <c r="U30" t="s">
+        <v>294</v>
+      </c>
       <c r="X30" t="b">
         <v>0</v>
       </c>
       <c r="Y30">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA30:AJ30)</f>
         <v>6</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
       <c r="AA30" t="str">
-        <f t="shared" si="8"/>
+        <f>D31</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="AB30" t="str">
@@ -6008,7 +6346,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="AF30" t="str">
-        <f t="shared" si="9"/>
+        <f>D31</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
     </row>
@@ -6020,11 +6358,11 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="str">
-        <f>VLOOKUP(B31,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B31,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="7"/>
+        <f>E31&amp;"_"&amp;F31&amp;"_"&amp;G31&amp;"_"&amp;H31&amp;"_"&amp;A31&amp;"_"&amp;I31&amp;"_"&amp;J31&amp;"_"&amp;K31&amp;"_"&amp;L31&amp;"_"&amp;M31</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_BISR</v>
       </c>
       <c r="E31" t="s">
@@ -6064,7 +6402,7 @@
         <v>38</v>
       </c>
       <c r="Q31">
-        <f>VLOOKUP(E31,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E31,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R31">
@@ -6076,18 +6414,21 @@
       <c r="T31">
         <v>1</v>
       </c>
+      <c r="U31" t="s">
+        <v>294</v>
+      </c>
       <c r="X31" t="b">
         <v>0</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA31:AJ31)</f>
         <v>9</v>
       </c>
       <c r="Z31" t="s">
         <v>39</v>
       </c>
       <c r="AA31" t="str">
-        <f t="shared" si="8"/>
+        <f>D32</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="AB31" t="str">
@@ -6107,7 +6448,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="AF31" t="str">
-        <f t="shared" si="9"/>
+        <f>D32</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="AG31" t="str">
@@ -6131,11 +6472,11 @@
         <v>40</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>VLOOKUP(B32,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B32,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="7"/>
+        <f>E32&amp;"_"&amp;F32&amp;"_"&amp;G32&amp;"_"&amp;H32&amp;"_"&amp;A32&amp;"_"&amp;I32&amp;"_"&amp;J32&amp;"_"&amp;K32&amp;"_"&amp;L32&amp;"_"&amp;M32</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_LLC_TAG_RASTER</v>
       </c>
       <c r="E32" t="s">
@@ -6175,7 +6516,7 @@
         <v>38</v>
       </c>
       <c r="Q32">
-        <f>VLOOKUP(E32,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E32,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R32">
@@ -6187,18 +6528,21 @@
       <c r="T32">
         <v>1</v>
       </c>
+      <c r="U32" t="s">
+        <v>294</v>
+      </c>
       <c r="X32" t="b">
         <v>0</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA32:AJ32)</f>
         <v>6</v>
       </c>
       <c r="Z32">
         <v>1</v>
       </c>
       <c r="AA32" t="str">
-        <f t="shared" si="8"/>
+        <f>D33</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="AB32" t="str">
@@ -6218,7 +6562,7 @@
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="AF32" t="str">
-        <f t="shared" si="9"/>
+        <f>D33</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
     </row>
@@ -6230,11 +6574,11 @@
         <v>30</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B33,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="7"/>
+        <f>E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33&amp;"_"&amp;A33&amp;"_"&amp;I33&amp;"_"&amp;J33&amp;"_"&amp;K33&amp;"_"&amp;L33&amp;"_"&amp;M33</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_BISR</v>
       </c>
       <c r="E33" t="s">
@@ -6274,7 +6618,7 @@
         <v>38</v>
       </c>
       <c r="Q33">
-        <f>VLOOKUP(E33,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E33,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R33">
@@ -6286,18 +6630,21 @@
       <c r="T33">
         <v>1</v>
       </c>
+      <c r="U33" t="s">
+        <v>295</v>
+      </c>
       <c r="X33" t="b">
         <v>0</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA33:AJ33)</f>
         <v>9</v>
       </c>
       <c r="Z33" t="s">
         <v>39</v>
       </c>
       <c r="AA33" t="str">
-        <f t="shared" si="8"/>
+        <f>D34</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_RASTER</v>
       </c>
       <c r="AB33" t="str">
@@ -6317,7 +6664,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AF33" t="str">
-        <f t="shared" si="9"/>
+        <f>D34</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_RASTER</v>
       </c>
       <c r="AG33" t="str">
@@ -6341,11 +6688,11 @@
         <v>40</v>
       </c>
       <c r="C34" s="1" t="str">
-        <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B34,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="7"/>
+        <f>E34&amp;"_"&amp;F34&amp;"_"&amp;G34&amp;"_"&amp;H34&amp;"_"&amp;A34&amp;"_"&amp;I34&amp;"_"&amp;J34&amp;"_"&amp;K34&amp;"_"&amp;L34&amp;"_"&amp;M34</f>
         <v>SSA_CCF_RASTER_E_BEGIN_TITO_CLRSS_NOM_LFM_CBO3_SAR_RASTER</v>
       </c>
       <c r="E34" t="s">
@@ -6385,7 +6732,7 @@
         <v>38</v>
       </c>
       <c r="Q34">
-        <f>VLOOKUP(E34,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E34,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R34">
@@ -6397,18 +6744,21 @@
       <c r="T34">
         <v>1</v>
       </c>
+      <c r="U34" t="s">
+        <v>295</v>
+      </c>
       <c r="X34" t="b">
         <v>0</v>
       </c>
       <c r="Y34">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA34:AJ34)</f>
         <v>6</v>
       </c>
       <c r="Z34">
         <v>1</v>
       </c>
       <c r="AA34" t="str">
-        <f t="shared" si="8"/>
+        <f>D35</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AB34" t="str">
@@ -6428,7 +6778,7 @@
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AF34" t="str">
-        <f t="shared" si="9"/>
+        <f>D35</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
     </row>
@@ -6440,11 +6790,11 @@
         <v>30</v>
       </c>
       <c r="C35" s="1" t="str">
-        <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B35,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="7"/>
+        <f>E35&amp;"_"&amp;F35&amp;"_"&amp;G35&amp;"_"&amp;H35&amp;"_"&amp;A35&amp;"_"&amp;I35&amp;"_"&amp;J35&amp;"_"&amp;K35&amp;"_"&amp;L35&amp;"_"&amp;M35</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="E35" t="s">
@@ -6484,7 +6834,7 @@
         <v>38</v>
       </c>
       <c r="Q35">
-        <f>VLOOKUP(E35,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E35,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R35">
@@ -6496,18 +6846,21 @@
       <c r="T35">
         <v>1</v>
       </c>
+      <c r="U35" t="s">
+        <v>294</v>
+      </c>
       <c r="X35" t="b">
         <v>0</v>
       </c>
       <c r="Y35">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA35:AJ35)</f>
         <v>9</v>
       </c>
       <c r="Z35" t="s">
         <v>39</v>
       </c>
       <c r="AA35" t="str">
-        <f t="shared" si="8"/>
+        <f>D36</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AB35">
@@ -6523,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="AF35" t="str">
-        <f t="shared" si="9"/>
+        <f>D36</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="AG35" t="str">
@@ -6547,11 +6900,11 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B36,[1]templateLookup!A:B,2,0)</f>
         <v>MbistRasterTC</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="7"/>
+        <f>E36&amp;"_"&amp;F36&amp;"_"&amp;G36&amp;"_"&amp;H36&amp;"_"&amp;A36&amp;"_"&amp;I36&amp;"_"&amp;J36&amp;"_"&amp;K36&amp;"_"&amp;L36&amp;"_"&amp;M36</f>
         <v>LSA_CCF_RASTER_E_BEGIN_TITO_CLR_NOM_LFM_CBO3_LSA_ALL</v>
       </c>
       <c r="E36" t="s">
@@ -6591,7 +6944,7 @@
         <v>38</v>
       </c>
       <c r="Q36">
-        <f>VLOOKUP(E36,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E36,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R36">
@@ -6603,11 +6956,14 @@
       <c r="T36">
         <v>1</v>
       </c>
+      <c r="U36" t="s">
+        <v>294</v>
+      </c>
       <c r="X36" t="b">
         <v>0</v>
       </c>
       <c r="Y36">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AA36:AJ36)</f>
         <v>6</v>
       </c>
       <c r="Z36">
@@ -6640,7 +6996,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>VLOOKUP(B37,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B37,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -6652,7 +7008,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>VLOOKUP(B38,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B38,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D38" t="s">
@@ -6662,7 +7018,7 @@
         <v>32</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA38:AJ38)</f>
         <v>2</v>
       </c>
       <c r="Z38">
@@ -6685,7 +7041,7 @@
         <v>153</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>VLOOKUP(B39,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B39,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D39" t="str">
@@ -6747,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA39:AJ39)</f>
         <v>3</v>
       </c>
       <c r="Z39" t="s">
@@ -6774,7 +7130,7 @@
         <v>153</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>VLOOKUP(B40,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B40,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D40" t="str">
@@ -6836,22 +7192,22 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA40:AJ40)</f>
         <v>3</v>
       </c>
       <c r="Z40" t="s">
         <v>120</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" ref="AA40:AA53" si="11">D41</f>
+        <f>D41</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" ref="AB40:AB53" si="12">D41</f>
+        <f>D41</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" ref="AC40:AC53" si="13">D41</f>
+        <f>D41</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO0_RF</v>
       </c>
     </row>
@@ -6863,7 +7219,7 @@
         <v>153</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B41,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D41" t="str">
@@ -6925,22 +7281,22 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA41:AJ41)</f>
         <v>3</v>
       </c>
       <c r="Z41" t="s">
         <v>120</v>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" si="11"/>
+        <f>D42</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="12"/>
+        <f>D42</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" si="13"/>
+        <f>D42</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
       </c>
     </row>
@@ -6952,11 +7308,11 @@
         <v>153</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B42,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" ref="D42:D53" si="14">E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
+        <f>E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_DAT</v>
       </c>
       <c r="E42" t="s">
@@ -7014,22 +7370,22 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA42:AJ42)</f>
         <v>3</v>
       </c>
       <c r="Z42" t="s">
         <v>120</v>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" si="11"/>
+        <f>D43</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="12"/>
+        <f>D43</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
       </c>
       <c r="AC42" t="str">
-        <f t="shared" si="13"/>
+        <f>D43</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
       </c>
     </row>
@@ -7041,11 +7397,11 @@
         <v>153</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B43,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="14"/>
+        <f>E43&amp;"_"&amp;F43&amp;"_"&amp;G43&amp;"_"&amp;H43&amp;"_"&amp;A43&amp;"_"&amp;I43&amp;"_"&amp;J43&amp;"_"&amp;K43&amp;"_"&amp;L43&amp;"_"&amp;M43</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO1_LLC_TAG</v>
       </c>
       <c r="E43" t="s">
@@ -7103,22 +7459,22 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA43:AJ43)</f>
         <v>3</v>
       </c>
       <c r="Z43" t="s">
         <v>120</v>
       </c>
       <c r="AA43" t="str">
-        <f t="shared" si="11"/>
+        <f>D44</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
       </c>
       <c r="AB43" t="str">
-        <f t="shared" si="12"/>
+        <f>D44</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
       </c>
       <c r="AC43" t="str">
-        <f t="shared" si="13"/>
+        <f>D44</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
       </c>
     </row>
@@ -7130,11 +7486,11 @@
         <v>153</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B44,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="14"/>
+        <f>E44&amp;"_"&amp;F44&amp;"_"&amp;G44&amp;"_"&amp;H44&amp;"_"&amp;A44&amp;"_"&amp;I44&amp;"_"&amp;J44&amp;"_"&amp;K44&amp;"_"&amp;L44&amp;"_"&amp;M44</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO1_RF</v>
       </c>
       <c r="E44" t="s">
@@ -7192,22 +7548,22 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA44:AJ44)</f>
         <v>3</v>
       </c>
       <c r="Z44" t="s">
         <v>120</v>
       </c>
       <c r="AA44" t="str">
-        <f t="shared" si="11"/>
+        <f>D45</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
       </c>
       <c r="AB44" t="str">
-        <f t="shared" si="12"/>
+        <f>D45</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="13"/>
+        <f>D45</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
       </c>
     </row>
@@ -7219,11 +7575,11 @@
         <v>153</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>VLOOKUP(B45,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B45,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" ref="D45" si="15">E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
+        <f>E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO01_SAR</v>
       </c>
       <c r="E45" t="s">
@@ -7281,22 +7637,22 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA45:AJ45)</f>
         <v>3</v>
       </c>
       <c r="Z45" t="s">
         <v>120</v>
       </c>
       <c r="AA45" t="str">
-        <f t="shared" si="11"/>
+        <f>D46</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
       </c>
       <c r="AB45" t="str">
-        <f t="shared" si="12"/>
+        <f>D46</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
       </c>
       <c r="AC45" t="str">
-        <f t="shared" si="13"/>
+        <f>D46</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_DAT</v>
       </c>
     </row>
@@ -7308,7 +7664,7 @@
         <v>153</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B46,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D46" t="str">
@@ -7370,22 +7726,22 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA46:AJ46)</f>
         <v>3</v>
       </c>
       <c r="Z46" t="s">
         <v>120</v>
       </c>
       <c r="AA46" t="str">
-        <f t="shared" si="11"/>
+        <f>D47</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
       </c>
       <c r="AB46" t="str">
-        <f t="shared" si="12"/>
+        <f>D47</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
       </c>
       <c r="AC46" t="str">
-        <f t="shared" si="13"/>
+        <f>D47</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO2_LLC_TAG</v>
       </c>
     </row>
@@ -7397,7 +7753,7 @@
         <v>153</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B47,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D47" t="str">
@@ -7459,22 +7815,22 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA47:AJ47)</f>
         <v>3</v>
       </c>
       <c r="Z47" t="s">
         <v>120</v>
       </c>
       <c r="AA47" t="str">
-        <f t="shared" si="11"/>
+        <f>D48</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
       </c>
       <c r="AB47" t="str">
-        <f t="shared" si="12"/>
+        <f>D48</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
       </c>
       <c r="AC47" t="str">
-        <f t="shared" si="13"/>
+        <f>D48</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO2_RF</v>
       </c>
     </row>
@@ -7486,7 +7842,7 @@
         <v>153</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B48,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D48" t="str">
@@ -7548,22 +7904,22 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA48:AJ48)</f>
         <v>3</v>
       </c>
       <c r="Z48" t="s">
         <v>120</v>
       </c>
       <c r="AA48" t="str">
-        <f t="shared" si="11"/>
+        <f>D49</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
       </c>
       <c r="AB48" t="str">
-        <f t="shared" si="12"/>
+        <f>D49</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
       </c>
       <c r="AC48" t="str">
-        <f t="shared" si="13"/>
+        <f>D49</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
       </c>
     </row>
@@ -7575,11 +7931,11 @@
         <v>153</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B49,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="14"/>
+        <f>E49&amp;"_"&amp;F49&amp;"_"&amp;G49&amp;"_"&amp;H49&amp;"_"&amp;A49&amp;"_"&amp;I49&amp;"_"&amp;J49&amp;"_"&amp;K49&amp;"_"&amp;L49&amp;"_"&amp;M49</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_DAT</v>
       </c>
       <c r="E49" t="s">
@@ -7637,22 +7993,22 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA49:AJ49)</f>
         <v>3</v>
       </c>
       <c r="Z49" t="s">
         <v>120</v>
       </c>
       <c r="AA49" t="str">
-        <f t="shared" si="11"/>
+        <f>D50</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
       </c>
       <c r="AB49" t="str">
-        <f t="shared" si="12"/>
+        <f>D50</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
       </c>
       <c r="AC49" t="str">
-        <f t="shared" si="13"/>
+        <f>D50</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
       </c>
     </row>
@@ -7664,11 +8020,11 @@
         <v>153</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>VLOOKUP(B50,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B50,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="14"/>
+        <f>E50&amp;"_"&amp;F50&amp;"_"&amp;G50&amp;"_"&amp;H50&amp;"_"&amp;A50&amp;"_"&amp;I50&amp;"_"&amp;J50&amp;"_"&amp;K50&amp;"_"&amp;L50&amp;"_"&amp;M50</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO3_LLC_TAG</v>
       </c>
       <c r="E50" t="s">
@@ -7726,22 +8082,22 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA50:AJ50)</f>
         <v>3</v>
       </c>
       <c r="Z50" t="s">
         <v>120</v>
       </c>
       <c r="AA50" t="str">
-        <f t="shared" si="11"/>
+        <f>D51</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
       </c>
       <c r="AB50" t="str">
-        <f t="shared" si="12"/>
+        <f>D51</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
       </c>
       <c r="AC50" t="str">
-        <f t="shared" si="13"/>
+        <f>D51</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
       </c>
     </row>
@@ -7753,11 +8109,11 @@
         <v>153</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>VLOOKUP(B51,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B51,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="14"/>
+        <f>E51&amp;"_"&amp;F51&amp;"_"&amp;G51&amp;"_"&amp;H51&amp;"_"&amp;A51&amp;"_"&amp;I51&amp;"_"&amp;J51&amp;"_"&amp;K51&amp;"_"&amp;L51&amp;"_"&amp;M51</f>
         <v>LSA_CCF_VFDM_E_BEGIN_X_CLR_X_X_CBO3_RF</v>
       </c>
       <c r="E51" t="s">
@@ -7815,22 +8171,22 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA51:AJ51)</f>
         <v>3</v>
       </c>
       <c r="Z51" t="s">
         <v>120</v>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" si="11"/>
+        <f>D52</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" si="12"/>
+        <f>D52</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
       </c>
       <c r="AC51" t="str">
-        <f t="shared" si="13"/>
+        <f>D52</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
       </c>
     </row>
@@ -7842,11 +8198,11 @@
         <v>153</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B52,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" ref="D52" si="16">E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
+        <f>E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
         <v>SSA_CCF_VFDM_E_BEGIN_X_CLRSS_X_X_CBO23_SAR</v>
       </c>
       <c r="E52" t="s">
@@ -7904,22 +8260,22 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA52:AJ52)</f>
         <v>3</v>
       </c>
       <c r="Z52" t="s">
         <v>120</v>
       </c>
       <c r="AA52" t="str">
-        <f t="shared" si="11"/>
+        <f>D53</f>
         <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="12"/>
+        <f>D53</f>
         <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
       </c>
       <c r="AC52" t="str">
-        <f t="shared" si="13"/>
+        <f>D53</f>
         <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
       </c>
     </row>
@@ -7931,11 +8287,11 @@
         <v>156</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B53,[1]templateLookup!A:B,2,0)</f>
         <v>iCUserFuncTest</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="14"/>
+        <f>E53&amp;"_"&amp;F53&amp;"_"&amp;G53&amp;"_"&amp;H53&amp;"_"&amp;A53&amp;"_"&amp;I53&amp;"_"&amp;J53&amp;"_"&amp;K53&amp;"_"&amp;L53&amp;"_"&amp;M53</f>
         <v>ALL_CCF_UF_E_BEGIN_X_CLRSS_X_X_VFDM_UF</v>
       </c>
       <c r="E53" t="s">
@@ -7990,22 +8346,22 @@
         <v>1</v>
       </c>
       <c r="Y53">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA53:AJ53)</f>
         <v>3</v>
       </c>
       <c r="Z53" t="s">
         <v>120</v>
       </c>
       <c r="AA53" t="str">
-        <f t="shared" si="11"/>
+        <f>D54</f>
         <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" si="12"/>
+        <f>D54</f>
         <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
       </c>
       <c r="AC53" t="str">
-        <f t="shared" si="13"/>
+        <f>D54</f>
         <v>ALL_CCF_PATMOD_E_BEGIN_TITO_X_MAX_LFM_REPAIR</v>
       </c>
     </row>
@@ -8017,7 +8373,7 @@
         <v>44</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>VLOOKUP(B54,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B54,[1]templateLookup!A:B,2,0)</f>
         <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D54" t="str">
@@ -8061,7 +8417,7 @@
         <v>38</v>
       </c>
       <c r="Q54">
-        <f>VLOOKUP(E54,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E54,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R54">
@@ -8077,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA54:AJ54)</f>
         <v>2</v>
       </c>
       <c r="Z54">
@@ -8098,7 +8454,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>VLOOKUP(B55,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B55,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -8110,7 +8466,7 @@
         <v>27</v>
       </c>
       <c r="C56" s="3" t="str">
-        <f>VLOOKUP(B56,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B56,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D56" t="s">
@@ -8120,7 +8476,7 @@
         <v>32</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA56:AJ56)</f>
         <v>2</v>
       </c>
       <c r="Z56">
@@ -8141,11 +8497,11 @@
         <v>46</v>
       </c>
       <c r="C57" s="3" t="str">
-        <f>VLOOKUP(B57,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B57,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" ref="D57:D64" si="17">E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"_"&amp;A57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
+        <f>E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"_"&amp;A57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="E57" t="s">
@@ -8185,7 +8541,7 @@
         <v>38</v>
       </c>
       <c r="Q57">
-        <f>VLOOKUP(E57,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E57,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R57">
@@ -8197,50 +8553,53 @@
       <c r="T57">
         <v>1</v>
       </c>
+      <c r="U57" t="s">
+        <v>294</v>
+      </c>
       <c r="X57" t="b">
         <v>0</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AA57:AJ57)</f>
         <v>9</v>
       </c>
       <c r="Z57">
         <v>1</v>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" ref="AA57:AA63" si="18">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AB57" t="str">
-        <f t="shared" ref="AB57:AB63" si="19">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AC57" t="str">
-        <f t="shared" ref="AC57:AC63" si="20">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AD57" t="str">
-        <f t="shared" ref="AD57:AD63" si="21">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AE57" t="str">
-        <f t="shared" ref="AE57:AE63" si="22">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AF57" t="str">
-        <f t="shared" ref="AF57:AF63" si="23">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AG57" t="str">
-        <f t="shared" ref="AG57:AG63" si="24">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AH57" t="str">
-        <f t="shared" ref="AH57:AH63" si="25">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AI57" t="str">
-        <f t="shared" ref="AI57:AI63" si="26">D58</f>
+        <f>D58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
     </row>
@@ -8252,11 +8611,11 @@
         <v>46</v>
       </c>
       <c r="C58" s="3" t="str">
-        <f>VLOOKUP(B58,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B58,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="17"/>
+        <f>E58&amp;"_"&amp;F58&amp;"_"&amp;G58&amp;"_"&amp;H58&amp;"_"&amp;A58&amp;"_"&amp;I58&amp;"_"&amp;J58&amp;"_"&amp;K58&amp;"_"&amp;L58&amp;"_"&amp;M58</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="E58" t="s">
@@ -8296,7 +8655,7 @@
         <v>38</v>
       </c>
       <c r="Q58">
-        <f>VLOOKUP(E58,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E58,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R58">
@@ -8308,50 +8667,53 @@
       <c r="T58">
         <v>1</v>
       </c>
+      <c r="U58" t="s">
+        <v>294</v>
+      </c>
       <c r="X58" t="b">
         <v>0</v>
       </c>
       <c r="Y58">
-        <f t="shared" ref="Y58:Y64" si="27">COUNTA(AA58:AJ58)</f>
+        <f>COUNTA(AA58:AJ58)</f>
         <v>9</v>
       </c>
       <c r="Z58">
         <v>1</v>
       </c>
       <c r="AA58" t="str">
-        <f t="shared" si="18"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AB58" t="str">
-        <f t="shared" si="19"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AC58" t="str">
-        <f t="shared" si="20"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AD58" t="str">
-        <f t="shared" si="21"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AE58" t="str">
-        <f t="shared" si="22"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AF58" t="str">
-        <f t="shared" si="23"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AG58" t="str">
-        <f t="shared" si="24"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AH58" t="str">
-        <f t="shared" si="25"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="AI58" t="str">
-        <f t="shared" si="26"/>
+        <f>D59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
     </row>
@@ -8363,11 +8725,11 @@
         <v>46</v>
       </c>
       <c r="C59" s="3" t="str">
-        <f>VLOOKUP(B59,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B59,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="17"/>
+        <f>E59&amp;"_"&amp;F59&amp;"_"&amp;G59&amp;"_"&amp;H59&amp;"_"&amp;A59&amp;"_"&amp;I59&amp;"_"&amp;J59&amp;"_"&amp;K59&amp;"_"&amp;L59&amp;"_"&amp;M59</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO0_SAR_POST_REPAIR</v>
       </c>
       <c r="E59" t="s">
@@ -8407,7 +8769,7 @@
         <v>38</v>
       </c>
       <c r="Q59">
-        <f>VLOOKUP(E59,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E59,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R59">
@@ -8419,50 +8781,53 @@
       <c r="T59">
         <v>1</v>
       </c>
+      <c r="U59" t="s">
+        <v>295</v>
+      </c>
       <c r="X59" t="b">
         <v>0</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="27"/>
+        <f>COUNTA(AA59:AJ59)</f>
         <v>9</v>
       </c>
       <c r="Z59">
         <v>1</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" si="18"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="19"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AC59" t="str">
-        <f t="shared" si="20"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AD59" t="str">
-        <f t="shared" si="21"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AE59" t="str">
-        <f t="shared" si="22"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AF59" t="str">
-        <f t="shared" si="23"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AG59" t="str">
-        <f t="shared" si="24"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AH59" t="str">
-        <f t="shared" si="25"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AI59" t="str">
-        <f t="shared" si="26"/>
+        <f>D60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
     </row>
@@ -8474,11 +8839,11 @@
         <v>46</v>
       </c>
       <c r="C60" s="3" t="str">
-        <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B60,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="17"/>
+        <f>E60&amp;"_"&amp;F60&amp;"_"&amp;G60&amp;"_"&amp;H60&amp;"_"&amp;A60&amp;"_"&amp;I60&amp;"_"&amp;J60&amp;"_"&amp;K60&amp;"_"&amp;L60&amp;"_"&amp;M60</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO0_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="E60" t="s">
@@ -8518,7 +8883,7 @@
         <v>38</v>
       </c>
       <c r="Q60">
-        <f>VLOOKUP(E60,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E60,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R60">
@@ -8530,50 +8895,53 @@
       <c r="T60">
         <v>1</v>
       </c>
+      <c r="U60" t="s">
+        <v>294</v>
+      </c>
       <c r="X60" t="b">
         <v>0</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="27"/>
+        <f>COUNTA(AA60:AJ60)</f>
         <v>9</v>
       </c>
       <c r="Z60">
         <v>1</v>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" si="18"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="19"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AC60" t="str">
-        <f t="shared" si="20"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AD60" t="str">
-        <f t="shared" si="21"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AE60" t="str">
-        <f t="shared" si="22"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AF60" t="str">
-        <f t="shared" si="23"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AG60" t="str">
-        <f t="shared" si="24"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AH60" t="str">
-        <f t="shared" si="25"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="AI60" t="str">
-        <f t="shared" si="26"/>
+        <f>D61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
     </row>
@@ -8585,11 +8953,11 @@
         <v>46</v>
       </c>
       <c r="C61" s="3" t="str">
-        <f>VLOOKUP(B61,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B61,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" si="17"/>
+        <f>E61&amp;"_"&amp;F61&amp;"_"&amp;G61&amp;"_"&amp;H61&amp;"_"&amp;A61&amp;"_"&amp;I61&amp;"_"&amp;J61&amp;"_"&amp;K61&amp;"_"&amp;L61&amp;"_"&amp;M61</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_DAT_POST_REPAIR</v>
       </c>
       <c r="E61" t="s">
@@ -8629,7 +8997,7 @@
         <v>38</v>
       </c>
       <c r="Q61">
-        <f>VLOOKUP(E61,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E61,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R61">
@@ -8641,50 +9009,53 @@
       <c r="T61">
         <v>1</v>
       </c>
+      <c r="U61" t="s">
+        <v>294</v>
+      </c>
       <c r="X61" t="b">
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="27"/>
+        <f>COUNTA(AA61:AJ61)</f>
         <v>9</v>
       </c>
       <c r="Z61">
         <v>1</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="18"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="19"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AC61" t="str">
-        <f t="shared" si="20"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AD61" t="str">
-        <f t="shared" si="21"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AE61" t="str">
-        <f t="shared" si="22"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AF61" t="str">
-        <f t="shared" si="23"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AG61" t="str">
-        <f t="shared" si="24"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AH61" t="str">
-        <f t="shared" si="25"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="AI61" t="str">
-        <f t="shared" si="26"/>
+        <f>D62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
     </row>
@@ -8696,11 +9067,11 @@
         <v>46</v>
       </c>
       <c r="C62" s="3" t="str">
-        <f>VLOOKUP(B62,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B62,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="17"/>
+        <f>E62&amp;"_"&amp;F62&amp;"_"&amp;G62&amp;"_"&amp;H62&amp;"_"&amp;A62&amp;"_"&amp;I62&amp;"_"&amp;J62&amp;"_"&amp;K62&amp;"_"&amp;L62&amp;"_"&amp;M62</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_LLC_TAG_POST_REPAIR</v>
       </c>
       <c r="E62" t="s">
@@ -8740,7 +9111,7 @@
         <v>38</v>
       </c>
       <c r="Q62">
-        <f>VLOOKUP(E62,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E62,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R62">
@@ -8752,50 +9123,53 @@
       <c r="T62">
         <v>1</v>
       </c>
+      <c r="U62" t="s">
+        <v>294</v>
+      </c>
       <c r="X62" t="b">
         <v>0</v>
       </c>
       <c r="Y62">
-        <f t="shared" si="27"/>
+        <f>COUNTA(AA62:AJ62)</f>
         <v>9</v>
       </c>
       <c r="Z62">
         <v>1</v>
       </c>
       <c r="AA62" t="str">
-        <f t="shared" si="18"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="19"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AC62" t="str">
-        <f t="shared" si="20"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AD62" t="str">
-        <f t="shared" si="21"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AE62" t="str">
-        <f t="shared" si="22"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AF62" t="str">
-        <f t="shared" si="23"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AG62" t="str">
-        <f t="shared" si="24"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AH62" t="str">
-        <f t="shared" si="25"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="AI62" t="str">
-        <f t="shared" si="26"/>
+        <f>D63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
     </row>
@@ -8807,11 +9181,11 @@
         <v>46</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f>VLOOKUP(B63,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B63,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="17"/>
+        <f>E63&amp;"_"&amp;F63&amp;"_"&amp;G63&amp;"_"&amp;H63&amp;"_"&amp;A63&amp;"_"&amp;I63&amp;"_"&amp;J63&amp;"_"&amp;K63&amp;"_"&amp;L63&amp;"_"&amp;M63</f>
         <v>SSA_CCF_HRY_E_BEGIN_TITO_CLRSS_MAX_LFM_CBO1_SAR_POST_REPAIR</v>
       </c>
       <c r="E63" t="s">
@@ -8851,7 +9225,7 @@
         <v>38</v>
       </c>
       <c r="Q63">
-        <f>VLOOKUP(E63,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E63,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R63">
@@ -8863,50 +9237,53 @@
       <c r="T63">
         <v>1</v>
       </c>
+      <c r="U63" t="s">
+        <v>295</v>
+      </c>
       <c r="X63" t="b">
         <v>0</v>
       </c>
       <c r="Y63">
-        <f t="shared" si="27"/>
+        <f>COUNTA(AA63:AJ63)</f>
         <v>9</v>
       </c>
       <c r="Z63">
         <v>1</v>
       </c>
       <c r="AA63" t="str">
-        <f t="shared" si="18"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="19"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" si="20"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AD63" t="str">
-        <f t="shared" si="21"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AE63" t="str">
-        <f t="shared" si="22"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AF63" t="str">
-        <f t="shared" si="23"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AG63" t="str">
-        <f t="shared" si="24"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AH63" t="str">
-        <f t="shared" si="25"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="AI63" t="str">
-        <f t="shared" si="26"/>
+        <f>D64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
     </row>
@@ -8918,11 +9295,11 @@
         <v>46</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f>VLOOKUP(B64,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B64,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeMbistVminSearchTestMethod</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="17"/>
+        <f>E64&amp;"_"&amp;F64&amp;"_"&amp;G64&amp;"_"&amp;H64&amp;"_"&amp;A64&amp;"_"&amp;I64&amp;"_"&amp;J64&amp;"_"&amp;K64&amp;"_"&amp;L64&amp;"_"&amp;M64</f>
         <v>LSA_CCF_HRY_E_BEGIN_TITO_CLR_MAX_LFM_CBO1_LSA_ALL_POST_REPAIR</v>
       </c>
       <c r="E64" t="s">
@@ -8962,7 +9339,7 @@
         <v>38</v>
       </c>
       <c r="Q64">
-        <f>VLOOKUP(E64,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E64,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R64">
@@ -8974,11 +9351,14 @@
       <c r="T64">
         <v>1</v>
       </c>
+      <c r="U64" t="s">
+        <v>294</v>
+      </c>
       <c r="X64" t="b">
         <v>0</v>
       </c>
       <c r="Y64">
-        <f t="shared" si="27"/>
+        <f>COUNTA(AA64:AJ64)</f>
         <v>9</v>
       </c>
       <c r="Z64">
@@ -9020,7 +9400,7 @@
         <v>42</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f>VLOOKUP(B65,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B65,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -9032,7 +9412,7 @@
         <v>42</v>
       </c>
       <c r="C66" s="7" t="str">
-        <f>VLOOKUP(B66,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B66,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -9044,7 +9424,7 @@
         <v>27</v>
       </c>
       <c r="C67" s="7" t="str">
-        <f>VLOOKUP(B67,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B67,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -9062,11 +9442,11 @@
         <v>49</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>VLOOKUP(B68,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B68,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D73" si="28">E68&amp;"_"&amp;F68&amp;"_"&amp;G68&amp;"_"&amp;H68&amp;"_"&amp;A68&amp;"_"&amp;I68&amp;"_"&amp;J68&amp;"_"&amp;K68&amp;"_"&amp;L68&amp;"_"&amp;M68</f>
+        <f>E68&amp;"_"&amp;F68&amp;"_"&amp;G68&amp;"_"&amp;H68&amp;"_"&amp;A68&amp;"_"&amp;I68&amp;"_"&amp;J68&amp;"_"&amp;K68&amp;"_"&amp;L68&amp;"_"&amp;M68</f>
         <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
       </c>
       <c r="E68" t="s">
@@ -9106,7 +9486,7 @@
         <v>38</v>
       </c>
       <c r="Q68">
-        <f>VLOOKUP(E68,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E68,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R68">
@@ -9128,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="Y68">
-        <f t="shared" ref="Y68:Y73" si="29">COUNTA(AA68:AJ68)</f>
+        <f>COUNTA(AA68:AJ68)</f>
         <v>2</v>
       </c>
       <c r="Z68">
@@ -9151,11 +9531,11 @@
         <v>49</v>
       </c>
       <c r="C69" s="4" t="str">
-        <f>VLOOKUP(B69,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B69,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="28"/>
+        <f>E69&amp;"_"&amp;F69&amp;"_"&amp;G69&amp;"_"&amp;H69&amp;"_"&amp;A69&amp;"_"&amp;I69&amp;"_"&amp;J69&amp;"_"&amp;K69&amp;"_"&amp;L69&amp;"_"&amp;M69</f>
         <v>SSA_CCF_VMIN_K_PREHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
       <c r="E69" t="s">
@@ -9195,7 +9575,7 @@
         <v>38</v>
       </c>
       <c r="Q69">
-        <f>VLOOKUP(E69,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E69,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R69">
@@ -9217,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <f t="shared" si="29"/>
+        <f>COUNTA(AA69:AJ69)</f>
         <v>2</v>
       </c>
       <c r="Z69">
@@ -9240,11 +9620,11 @@
         <v>49</v>
       </c>
       <c r="C70" s="4" t="str">
-        <f>VLOOKUP(B70,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B70,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D70" t="str">
-        <f t="shared" si="28"/>
+        <f>E70&amp;"_"&amp;F70&amp;"_"&amp;G70&amp;"_"&amp;H70&amp;"_"&amp;A70&amp;"_"&amp;I70&amp;"_"&amp;J70&amp;"_"&amp;K70&amp;"_"&amp;L70&amp;"_"&amp;M70</f>
         <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_CBO</v>
       </c>
       <c r="E70" t="s">
@@ -9284,7 +9664,7 @@
         <v>38</v>
       </c>
       <c r="Q70">
-        <f>VLOOKUP(E70,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E70,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R70">
@@ -9306,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="Y70">
-        <f t="shared" si="29"/>
+        <f>COUNTA(AA70:AJ70)</f>
         <v>2</v>
       </c>
       <c r="Z70">
@@ -9329,11 +9709,11 @@
         <v>49</v>
       </c>
       <c r="C71" s="4" t="str">
-        <f>VLOOKUP(B71,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B71,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D71" t="str">
-        <f t="shared" si="28"/>
+        <f>E71&amp;"_"&amp;F71&amp;"_"&amp;G71&amp;"_"&amp;H71&amp;"_"&amp;A71&amp;"_"&amp;I71&amp;"_"&amp;J71&amp;"_"&amp;K71&amp;"_"&amp;L71&amp;"_"&amp;M71</f>
         <v>LSA_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E71" t="s">
@@ -9373,7 +9753,7 @@
         <v>38</v>
       </c>
       <c r="Q71">
-        <f>VLOOKUP(E71,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E71,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R71">
@@ -9395,7 +9775,7 @@
         <v>0</v>
       </c>
       <c r="Y71">
-        <f t="shared" si="29"/>
+        <f>COUNTA(AA71:AJ71)</f>
         <v>2</v>
       </c>
       <c r="Z71">
@@ -9418,11 +9798,11 @@
         <v>49</v>
       </c>
       <c r="C72" s="4" t="str">
-        <f>VLOOKUP(B72,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B72,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" si="28"/>
+        <f>E72&amp;"_"&amp;F72&amp;"_"&amp;G72&amp;"_"&amp;H72&amp;"_"&amp;A72&amp;"_"&amp;I72&amp;"_"&amp;J72&amp;"_"&amp;K72&amp;"_"&amp;L72&amp;"_"&amp;M72</f>
         <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_PMA</v>
       </c>
       <c r="E72" t="s">
@@ -9462,7 +9842,7 @@
         <v>38</v>
       </c>
       <c r="Q72">
-        <f>VLOOKUP(E72,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E72,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R72">
@@ -9484,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="Y72">
-        <f t="shared" si="29"/>
+        <f>COUNTA(AA72:AJ72)</f>
         <v>2</v>
       </c>
       <c r="Z72">
@@ -9507,11 +9887,11 @@
         <v>49</v>
       </c>
       <c r="C73" s="4" t="str">
-        <f>VLOOKUP(B73,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B73,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="28"/>
+        <f>E73&amp;"_"&amp;F73&amp;"_"&amp;G73&amp;"_"&amp;H73&amp;"_"&amp;A73&amp;"_"&amp;I73&amp;"_"&amp;J73&amp;"_"&amp;K73&amp;"_"&amp;L73&amp;"_"&amp;M73</f>
         <v>ROM_CCF_VMIN_K_PREHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E73" t="s">
@@ -9551,7 +9931,7 @@
         <v>38</v>
       </c>
       <c r="Q73">
-        <f>VLOOKUP(E73,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E73,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R73">
@@ -9573,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <f t="shared" si="29"/>
+        <f>COUNTA(AA73:AJ73)</f>
         <v>2</v>
       </c>
       <c r="Z73">
@@ -9594,7 +9974,7 @@
         <v>42</v>
       </c>
       <c r="C74" s="7" t="str">
-        <f>VLOOKUP(B74,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B74,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -9606,7 +9986,7 @@
         <v>27</v>
       </c>
       <c r="C75" s="7" t="str">
-        <f>VLOOKUP(B75,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B75,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D75" s="7" t="s">
@@ -9624,7 +10004,7 @@
         <v>65</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f>VLOOKUP(B76,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B76,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeHvqkTestMethod</v>
       </c>
       <c r="D76" t="str">
@@ -9671,7 +10051,7 @@
         <v>17</v>
       </c>
       <c r="R76">
-        <f>VLOOKUP(E76,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E76,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="S76">
@@ -9687,7 +10067,7 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <f t="shared" ref="Y76:Y77" si="30">COUNTA(AA76:AJ76)</f>
+        <f>COUNTA(AA76:AJ76)</f>
         <v>4</v>
       </c>
       <c r="Z76" t="s">
@@ -9718,7 +10098,7 @@
         <v>65</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f>VLOOKUP(B77,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B77,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeHvqkTestMethod</v>
       </c>
       <c r="D77" t="str">
@@ -9765,7 +10145,7 @@
         <v>17</v>
       </c>
       <c r="R77">
-        <f>VLOOKUP(E77,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E77,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="S77">
@@ -9781,7 +10161,7 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <f t="shared" si="30"/>
+        <f>COUNTA(AA77:AJ77)</f>
         <v>4</v>
       </c>
       <c r="Z77" t="s">
@@ -9808,7 +10188,7 @@
         <v>42</v>
       </c>
       <c r="C78" s="7" t="str">
-        <f>VLOOKUP(B78,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B78,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -9820,7 +10200,7 @@
         <v>27</v>
       </c>
       <c r="C79" s="7" t="str">
-        <f>VLOOKUP(B79,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B79,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D79" s="7" t="s">
@@ -9838,11 +10218,11 @@
         <v>49</v>
       </c>
       <c r="C80" s="5" t="str">
-        <f>VLOOKUP(B80,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B80,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" ref="D80:D85" si="31">E80&amp;"_"&amp;F80&amp;"_"&amp;G80&amp;"_"&amp;H80&amp;"_"&amp;A80&amp;"_"&amp;I80&amp;"_"&amp;J80&amp;"_"&amp;K80&amp;"_"&amp;L80&amp;"_"&amp;M80</f>
+        <f>E80&amp;"_"&amp;F80&amp;"_"&amp;G80&amp;"_"&amp;H80&amp;"_"&amp;A80&amp;"_"&amp;I80&amp;"_"&amp;J80&amp;"_"&amp;K80&amp;"_"&amp;L80&amp;"_"&amp;M80</f>
         <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_CBO</v>
       </c>
       <c r="E80" t="s">
@@ -9885,7 +10265,7 @@
         <v>26</v>
       </c>
       <c r="R80">
-        <f>VLOOKUP(E80,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E80,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="S80">
@@ -9904,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <f t="shared" ref="Y80:Y85" si="32">COUNTA(AA80:AJ80)</f>
+        <f>COUNTA(AA80:AJ80)</f>
         <v>2</v>
       </c>
       <c r="Z80">
@@ -9927,11 +10307,11 @@
         <v>49</v>
       </c>
       <c r="C81" s="5" t="str">
-        <f>VLOOKUP(B81,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B81,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D81" t="str">
-        <f t="shared" si="31"/>
+        <f>E81&amp;"_"&amp;F81&amp;"_"&amp;G81&amp;"_"&amp;H81&amp;"_"&amp;A81&amp;"_"&amp;I81&amp;"_"&amp;J81&amp;"_"&amp;K81&amp;"_"&amp;L81&amp;"_"&amp;M81</f>
         <v>SSA_CCF_VMIN_K_POSTHVQK_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
       <c r="E81" t="s">
@@ -9974,7 +10354,7 @@
         <v>26</v>
       </c>
       <c r="R81">
-        <f>VLOOKUP(E81,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E81,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="S81">
@@ -9993,7 +10373,7 @@
         <v>0</v>
       </c>
       <c r="Y81">
-        <f t="shared" si="32"/>
+        <f>COUNTA(AA81:AJ81)</f>
         <v>2</v>
       </c>
       <c r="Z81">
@@ -10016,11 +10396,11 @@
         <v>49</v>
       </c>
       <c r="C82" s="5" t="str">
-        <f>VLOOKUP(B82,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B82,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D82" t="str">
-        <f t="shared" si="31"/>
+        <f>E82&amp;"_"&amp;F82&amp;"_"&amp;G82&amp;"_"&amp;H82&amp;"_"&amp;A82&amp;"_"&amp;I82&amp;"_"&amp;J82&amp;"_"&amp;K82&amp;"_"&amp;L82&amp;"_"&amp;M82</f>
         <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_CBO</v>
       </c>
       <c r="E82" t="s">
@@ -10063,7 +10443,7 @@
         <v>26</v>
       </c>
       <c r="R82">
-        <f>VLOOKUP(E82,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E82,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="S82">
@@ -10082,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="Y82">
-        <f t="shared" si="32"/>
+        <f>COUNTA(AA82:AJ82)</f>
         <v>2</v>
       </c>
       <c r="Z82">
@@ -10105,11 +10485,11 @@
         <v>49</v>
       </c>
       <c r="C83" s="5" t="str">
-        <f>VLOOKUP(B83,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B83,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" si="31"/>
+        <f>E83&amp;"_"&amp;F83&amp;"_"&amp;G83&amp;"_"&amp;H83&amp;"_"&amp;A83&amp;"_"&amp;I83&amp;"_"&amp;J83&amp;"_"&amp;K83&amp;"_"&amp;L83&amp;"_"&amp;M83</f>
         <v>LSA_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E83" t="s">
@@ -10152,7 +10532,7 @@
         <v>26</v>
       </c>
       <c r="R83">
-        <f>VLOOKUP(E83,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E83,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="S83">
@@ -10171,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <f t="shared" si="32"/>
+        <f>COUNTA(AA83:AJ83)</f>
         <v>2</v>
       </c>
       <c r="Z83">
@@ -10194,11 +10574,11 @@
         <v>49</v>
       </c>
       <c r="C84" s="5" t="str">
-        <f>VLOOKUP(B84,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B84,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="31"/>
+        <f>E84&amp;"_"&amp;F84&amp;"_"&amp;G84&amp;"_"&amp;H84&amp;"_"&amp;A84&amp;"_"&amp;I84&amp;"_"&amp;J84&amp;"_"&amp;K84&amp;"_"&amp;L84&amp;"_"&amp;M84</f>
         <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_PMA</v>
       </c>
       <c r="E84" t="s">
@@ -10241,7 +10621,7 @@
         <v>26</v>
       </c>
       <c r="R84">
-        <f>VLOOKUP(E84,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E84,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="S84">
@@ -10260,7 +10640,7 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <f t="shared" si="32"/>
+        <f>COUNTA(AA84:AJ84)</f>
         <v>2</v>
       </c>
       <c r="Z84">
@@ -10283,11 +10663,11 @@
         <v>49</v>
       </c>
       <c r="C85" s="5" t="str">
-        <f>VLOOKUP(B85,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B85,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D85" t="str">
-        <f t="shared" si="31"/>
+        <f>E85&amp;"_"&amp;F85&amp;"_"&amp;G85&amp;"_"&amp;H85&amp;"_"&amp;A85&amp;"_"&amp;I85&amp;"_"&amp;J85&amp;"_"&amp;K85&amp;"_"&amp;L85&amp;"_"&amp;M85</f>
         <v>ROM_CCF_VMIN_K_POSTHVQK_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E85" t="s">
@@ -10330,7 +10710,7 @@
         <v>26</v>
       </c>
       <c r="R85">
-        <f>VLOOKUP(E85,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E85,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="S85">
@@ -10349,7 +10729,7 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <f t="shared" si="32"/>
+        <f>COUNTA(AA85:AJ85)</f>
         <v>2</v>
       </c>
       <c r="Z85">
@@ -10370,7 +10750,7 @@
         <v>42</v>
       </c>
       <c r="C86" s="7" t="str">
-        <f>VLOOKUP(B86,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B86,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -10382,7 +10762,7 @@
         <v>27</v>
       </c>
       <c r="C87" s="7" t="str">
-        <f>VLOOKUP(B87,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B87,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -10400,7 +10780,7 @@
         <v>27</v>
       </c>
       <c r="C88" s="5" t="str">
-        <f>VLOOKUP(B88,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B88,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D88" t="s">
@@ -10410,7 +10790,7 @@
         <v>32</v>
       </c>
       <c r="Y88">
-        <f t="shared" ref="Y88" si="33">COUNTA(AA88:AJ88)</f>
+        <f>COUNTA(AA88:AJ88)</f>
         <v>2</v>
       </c>
       <c r="Z88">
@@ -10433,11 +10813,11 @@
         <v>49</v>
       </c>
       <c r="C89" s="5" t="str">
-        <f>VLOOKUP(B89,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B89,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" ref="D89:D94" si="34">E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;"_"&amp;A89&amp;"_"&amp;I89&amp;"_"&amp;J89&amp;"_"&amp;K89&amp;"_"&amp;L89&amp;"_"&amp;M89</f>
+        <f>E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;"_"&amp;A89&amp;"_"&amp;I89&amp;"_"&amp;J89&amp;"_"&amp;K89&amp;"_"&amp;L89&amp;"_"&amp;M89</f>
         <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_CBO</v>
       </c>
       <c r="E89" t="s">
@@ -10477,7 +10857,7 @@
         <v>38</v>
       </c>
       <c r="Q89">
-        <f>VLOOKUP(E89,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E89,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R89">
@@ -10499,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <f t="shared" ref="Y89:Y94" si="35">COUNTA(AA89:AJ89)</f>
+        <f>COUNTA(AA89:AJ89)</f>
         <v>2</v>
       </c>
       <c r="Z89">
@@ -10522,11 +10902,11 @@
         <v>49</v>
       </c>
       <c r="C90" s="5" t="str">
-        <f>VLOOKUP(B90,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B90,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="34"/>
+        <f>E90&amp;"_"&amp;F90&amp;"_"&amp;G90&amp;"_"&amp;H90&amp;"_"&amp;A90&amp;"_"&amp;I90&amp;"_"&amp;J90&amp;"_"&amp;K90&amp;"_"&amp;L90&amp;"_"&amp;M90</f>
         <v>SSA_CCF_VMIN_K_END_TITO_CLRSS_MIN_LFM_PMA</v>
       </c>
       <c r="E90" t="s">
@@ -10566,7 +10946,7 @@
         <v>38</v>
       </c>
       <c r="Q90">
-        <f>VLOOKUP(E90,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E90,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>61</v>
       </c>
       <c r="R90">
@@ -10588,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <f t="shared" si="35"/>
+        <f>COUNTA(AA90:AJ90)</f>
         <v>2</v>
       </c>
       <c r="Z90">
@@ -10611,11 +10991,11 @@
         <v>49</v>
       </c>
       <c r="C91" s="5" t="str">
-        <f>VLOOKUP(B91,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B91,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="34"/>
+        <f>E91&amp;"_"&amp;F91&amp;"_"&amp;G91&amp;"_"&amp;H91&amp;"_"&amp;A91&amp;"_"&amp;I91&amp;"_"&amp;J91&amp;"_"&amp;K91&amp;"_"&amp;L91&amp;"_"&amp;M91</f>
         <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_CBO</v>
       </c>
       <c r="E91" t="s">
@@ -10655,7 +11035,7 @@
         <v>38</v>
       </c>
       <c r="Q91">
-        <f>VLOOKUP(E91,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E91,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R91">
@@ -10677,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="Y91">
-        <f t="shared" si="35"/>
+        <f>COUNTA(AA91:AJ91)</f>
         <v>2</v>
       </c>
       <c r="Z91">
@@ -10700,11 +11080,11 @@
         <v>49</v>
       </c>
       <c r="C92" s="5" t="str">
-        <f>VLOOKUP(B92,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B92,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D92" t="str">
-        <f t="shared" si="34"/>
+        <f>E92&amp;"_"&amp;F92&amp;"_"&amp;G92&amp;"_"&amp;H92&amp;"_"&amp;A92&amp;"_"&amp;I92&amp;"_"&amp;J92&amp;"_"&amp;K92&amp;"_"&amp;L92&amp;"_"&amp;M92</f>
         <v>LSA_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E92" t="s">
@@ -10744,7 +11124,7 @@
         <v>38</v>
       </c>
       <c r="Q92">
-        <f>VLOOKUP(E92,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E92,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R92">
@@ -10766,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="Y92">
-        <f t="shared" si="35"/>
+        <f>COUNTA(AA92:AJ92)</f>
         <v>2</v>
       </c>
       <c r="Z92">
@@ -10789,11 +11169,11 @@
         <v>49</v>
       </c>
       <c r="C93" s="5" t="str">
-        <f>VLOOKUP(B93,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B93,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D93" t="str">
-        <f t="shared" si="34"/>
+        <f>E93&amp;"_"&amp;F93&amp;"_"&amp;G93&amp;"_"&amp;H93&amp;"_"&amp;A93&amp;"_"&amp;I93&amp;"_"&amp;J93&amp;"_"&amp;K93&amp;"_"&amp;L93&amp;"_"&amp;M93</f>
         <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_PMA</v>
       </c>
       <c r="E93" t="s">
@@ -10833,7 +11213,7 @@
         <v>38</v>
       </c>
       <c r="Q93">
-        <f>VLOOKUP(E93,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E93,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R93">
@@ -10855,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="Y93">
-        <f t="shared" si="35"/>
+        <f>COUNTA(AA93:AJ93)</f>
         <v>2</v>
       </c>
       <c r="Z93">
@@ -10878,11 +11258,11 @@
         <v>49</v>
       </c>
       <c r="C94" s="5" t="str">
-        <f>VLOOKUP(B94,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B94,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D94" t="str">
-        <f t="shared" si="34"/>
+        <f>E94&amp;"_"&amp;F94&amp;"_"&amp;G94&amp;"_"&amp;H94&amp;"_"&amp;A94&amp;"_"&amp;I94&amp;"_"&amp;J94&amp;"_"&amp;K94&amp;"_"&amp;L94&amp;"_"&amp;M94</f>
         <v>ROM_CCF_VMIN_K_END_TITO_CLR_MIN_LFM_SBO</v>
       </c>
       <c r="E94" t="s">
@@ -10922,7 +11302,7 @@
         <v>38</v>
       </c>
       <c r="Q94">
-        <f>VLOOKUP(E94,binningRules!$B$6:$C$9,2,0)</f>
+        <f>VLOOKUP(E94,[1]binningRules!$B$6:$C$9,2,0)</f>
         <v>21</v>
       </c>
       <c r="R94">
@@ -10944,7 +11324,7 @@
         <v>0</v>
       </c>
       <c r="Y94">
-        <f t="shared" si="35"/>
+        <f>COUNTA(AA94:AJ94)</f>
         <v>2</v>
       </c>
       <c r="Z94">
@@ -10965,7 +11345,7 @@
         <v>42</v>
       </c>
       <c r="C95" s="5" t="str">
-        <f>VLOOKUP(B95,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B95,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -10977,7 +11357,7 @@
         <v>27</v>
       </c>
       <c r="C96" s="8" t="str">
-        <f>VLOOKUP(B96,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B96,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D96" t="s">
@@ -10987,7 +11367,7 @@
         <v>32</v>
       </c>
       <c r="Y96">
-        <f t="shared" ref="Y96" si="36">COUNTA(AA96:AJ96)</f>
+        <f>COUNTA(AA96:AJ96)</f>
         <v>2</v>
       </c>
       <c r="Z96">
@@ -11008,7 +11388,7 @@
         <v>49</v>
       </c>
       <c r="C97" s="8" t="str">
-        <f>VLOOKUP(B97,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B97,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D97" t="str">
@@ -11073,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="Y97">
-        <f t="shared" ref="Y97:Y98" si="37">COUNTA(AA97:AJ97)</f>
+        <f>COUNTA(AA97:AJ97)</f>
         <v>2</v>
       </c>
       <c r="Z97">
@@ -11096,7 +11476,7 @@
         <v>49</v>
       </c>
       <c r="C98" s="8" t="str">
-        <f>VLOOKUP(B98,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B98,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D98" t="str">
@@ -11161,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="Y98">
-        <f t="shared" si="37"/>
+        <f>COUNTA(AA98:AJ98)</f>
         <v>2</v>
       </c>
       <c r="Z98">
@@ -11182,7 +11562,7 @@
         <v>42</v>
       </c>
       <c r="C99" s="8" t="str">
-        <f>VLOOKUP(B99,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B99,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -11194,7 +11574,7 @@
         <v>42</v>
       </c>
       <c r="C100" s="7" t="str">
-        <f>VLOOKUP(B100,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B100,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -11206,7 +11586,7 @@
         <v>93</v>
       </c>
       <c r="C101" t="str">
-        <f>VLOOKUP(B101,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B101,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D101" t="s">
@@ -11220,11 +11600,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB20E6F1-DE4C-470B-9A99-FCCB71C10BDB}">
   <dimension ref="A1:AO115"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="AB55" sqref="AB55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11232,13 +11612,18 @@
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="9.140625" customWidth="1"/>
+    <col min="5" max="12" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="25" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="76.28515625" customWidth="1"/>
+    <col min="17" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" customWidth="1"/>
     <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="28" width="9.140625" customWidth="1"/>
-    <col min="32" max="32" width="25.42578125" customWidth="1"/>
-    <col min="33" max="33" width="28.28515625" customWidth="1"/>
+    <col min="29" max="31" width="0" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="25.42578125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="28.28515625" hidden="1" customWidth="1"/>
+    <col min="34" max="41" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -11374,7 +11759,7 @@
         <v>91</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B2,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D2" t="s">
@@ -11389,7 +11774,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>VLOOKUP(B3,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B3,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -11443,7 +11828,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>VLOOKUP(B4,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B4,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D4" t="s">
@@ -11480,11 +11865,11 @@
         <v>288</v>
       </c>
       <c r="C5" s="1" t="str">
-        <f>VLOOKUP(B5,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B5,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D8" si="0">E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
+        <f>E5&amp;"_"&amp;F5&amp;"_"&amp;G5&amp;"_"&amp;H5&amp;"_"&amp;A5&amp;"_"&amp;I5&amp;"_"&amp;J5&amp;"_"&amp;K5&amp;"_"&amp;L5&amp;"_"&amp;M5</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_ALL_PRE_HRY</v>
       </c>
       <c r="E5" t="s">
@@ -11521,7 +11906,7 @@
         <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>38</v>
+        <v>442</v>
       </c>
       <c r="Q5">
         <v>60</v>
@@ -11533,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC5" t="b">
         <v>0</v>
@@ -11569,11 +11954,11 @@
         <v>190</v>
       </c>
       <c r="C6" s="1" t="str">
-        <f>VLOOKUP(B6,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B6,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f>E6&amp;"_"&amp;F6&amp;"_"&amp;G6&amp;"_"&amp;H6&amp;"_"&amp;A6&amp;"_"&amp;I6&amp;"_"&amp;J6&amp;"_"&amp;K6&amp;"_"&amp;L6&amp;"_"&amp;M6</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_CAPTURE</v>
       </c>
       <c r="E6" t="s">
@@ -11610,7 +11995,7 @@
         <v>37</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="Q6">
         <v>60</v>
@@ -11622,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y6" t="s">
         <v>270</v>
@@ -11631,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" ref="AD6:AD8" si="1">COUNTA(AF6:AO6)</f>
+        <f>COUNTA(AF6:AO6)</f>
         <v>3</v>
       </c>
       <c r="AE6" t="s">
@@ -11658,11 +12043,11 @@
         <v>191</v>
       </c>
       <c r="C7" s="1" t="str">
-        <f>VLOOKUP(B7,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B7,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
+        <f>E7&amp;"_"&amp;F7&amp;"_"&amp;G7&amp;"_"&amp;H7&amp;"_"&amp;A7&amp;"_"&amp;I7&amp;"_"&amp;J7&amp;"_"&amp;K7&amp;"_"&amp;L7&amp;"_"&amp;M7</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_REPAIR</v>
       </c>
       <c r="E7" t="s">
@@ -11699,7 +12084,7 @@
         <v>37</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="Q7">
         <v>60</v>
@@ -11711,7 +12096,7 @@
         <v>2</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y7" t="s">
         <v>270</v>
@@ -11729,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AF7:AO7)</f>
         <v>6</v>
       </c>
       <c r="AE7" t="s">
@@ -11768,11 +12153,11 @@
         <v>193</v>
       </c>
       <c r="C8" s="1" t="str">
-        <f>VLOOKUP(B8,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B8,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
+        <f>E8&amp;"_"&amp;F8&amp;"_"&amp;G8&amp;"_"&amp;H8&amp;"_"&amp;A8&amp;"_"&amp;I8&amp;"_"&amp;J8&amp;"_"&amp;K8&amp;"_"&amp;L8&amp;"_"&amp;M8</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_DAT_REPAIR_TO_FUSE</v>
       </c>
       <c r="E8" t="s">
@@ -11809,7 +12194,7 @@
         <v>37</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="Q8">
         <v>60</v>
@@ -11821,7 +12206,7 @@
         <v>3</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y8" t="s">
         <v>270</v>
@@ -11839,7 +12224,7 @@
         <v>0</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="1"/>
+        <f>COUNTA(AF8:AO8)</f>
         <v>6</v>
       </c>
       <c r="AE8" t="s">
@@ -11878,11 +12263,11 @@
         <v>190</v>
       </c>
       <c r="C9" s="1" t="str">
-        <f>VLOOKUP(B9,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B9,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D11" si="2">E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;"_"&amp;A9&amp;"_"&amp;I9&amp;"_"&amp;J9&amp;"_"&amp;K9&amp;"_"&amp;L9&amp;"_"&amp;M9</f>
+        <f>E9&amp;"_"&amp;F9&amp;"_"&amp;G9&amp;"_"&amp;H9&amp;"_"&amp;A9&amp;"_"&amp;I9&amp;"_"&amp;J9&amp;"_"&amp;K9&amp;"_"&amp;L9&amp;"_"&amp;M9</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_CAPTURE</v>
       </c>
       <c r="E9" t="s">
@@ -11919,7 +12304,7 @@
         <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="Q9">
         <v>60</v>
@@ -11931,7 +12316,7 @@
         <v>4</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y9" t="s">
         <v>271</v>
@@ -11940,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <f t="shared" ref="AD9:AD19" si="3">COUNTA(AF9:AO9)</f>
+        <f>COUNTA(AF9:AO9)</f>
         <v>3</v>
       </c>
       <c r="AE9" t="s">
@@ -11967,11 +12352,11 @@
         <v>191</v>
       </c>
       <c r="C10" s="1" t="str">
-        <f>VLOOKUP(B10,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B10,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="2"/>
+        <f>E10&amp;"_"&amp;F10&amp;"_"&amp;G10&amp;"_"&amp;H10&amp;"_"&amp;A10&amp;"_"&amp;I10&amp;"_"&amp;J10&amp;"_"&amp;K10&amp;"_"&amp;L10&amp;"_"&amp;M10</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_REPAIR</v>
       </c>
       <c r="E10" t="s">
@@ -12008,7 +12393,7 @@
         <v>37</v>
       </c>
       <c r="P10" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="Q10">
         <v>60</v>
@@ -12020,7 +12405,7 @@
         <v>5</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y10" t="s">
         <v>271</v>
@@ -12038,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF10:AO10)</f>
         <v>6</v>
       </c>
       <c r="AE10" t="s">
@@ -12077,11 +12462,11 @@
         <v>193</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>VLOOKUP(B11,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B11,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="2"/>
+        <f>E11&amp;"_"&amp;F11&amp;"_"&amp;G11&amp;"_"&amp;H11&amp;"_"&amp;A11&amp;"_"&amp;I11&amp;"_"&amp;J11&amp;"_"&amp;K11&amp;"_"&amp;L11&amp;"_"&amp;M11</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_C6S_REPAIR_TO_FUSE</v>
       </c>
       <c r="E11" t="s">
@@ -12118,7 +12503,7 @@
         <v>37</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="Q11">
         <v>60</v>
@@ -12130,7 +12515,7 @@
         <v>6</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y11" t="s">
         <v>271</v>
@@ -12148,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF11:AO11)</f>
         <v>6</v>
       </c>
       <c r="AE11" t="s">
@@ -12187,11 +12572,11 @@
         <v>190</v>
       </c>
       <c r="C12" s="1" t="str">
-        <f>VLOOKUP(B12,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B12,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ref="D12:D16" si="4">E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;"_"&amp;A12&amp;"_"&amp;I12&amp;"_"&amp;J12&amp;"_"&amp;K12&amp;"_"&amp;L12&amp;"_"&amp;M12</f>
+        <f>E12&amp;"_"&amp;F12&amp;"_"&amp;G12&amp;"_"&amp;H12&amp;"_"&amp;A12&amp;"_"&amp;I12&amp;"_"&amp;J12&amp;"_"&amp;K12&amp;"_"&amp;L12&amp;"_"&amp;M12</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_CAPTURE</v>
       </c>
       <c r="E12" t="s">
@@ -12228,7 +12613,7 @@
         <v>37</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Q12">
         <v>60</v>
@@ -12240,7 +12625,7 @@
         <v>7</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y12" t="s">
         <v>272</v>
@@ -12249,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF12:AO12)</f>
         <v>3</v>
       </c>
       <c r="AE12" t="s">
@@ -12276,11 +12661,11 @@
         <v>191</v>
       </c>
       <c r="C13" s="1" t="str">
-        <f>VLOOKUP(B13,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B13,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="4"/>
+        <f>E13&amp;"_"&amp;F13&amp;"_"&amp;G13&amp;"_"&amp;H13&amp;"_"&amp;A13&amp;"_"&amp;I13&amp;"_"&amp;J13&amp;"_"&amp;K13&amp;"_"&amp;L13&amp;"_"&amp;M13</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_REPAIR</v>
       </c>
       <c r="E13" t="s">
@@ -12317,7 +12702,7 @@
         <v>37</v>
       </c>
       <c r="P13" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Q13">
         <v>60</v>
@@ -12329,7 +12714,7 @@
         <v>8</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y13" t="s">
         <v>272</v>
@@ -12347,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF13:AO13)</f>
         <v>6</v>
       </c>
       <c r="AE13" t="s">
@@ -12386,11 +12771,11 @@
         <v>193</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>VLOOKUP(B14,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B14,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="4"/>
+        <f>E14&amp;"_"&amp;F14&amp;"_"&amp;G14&amp;"_"&amp;H14&amp;"_"&amp;A14&amp;"_"&amp;I14&amp;"_"&amp;J14&amp;"_"&amp;K14&amp;"_"&amp;L14&amp;"_"&amp;M14</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_TSP_REPAIR_TO_FUSE</v>
       </c>
       <c r="E14" t="s">
@@ -12427,7 +12812,7 @@
         <v>37</v>
       </c>
       <c r="P14" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Q14">
         <v>60</v>
@@ -12439,7 +12824,7 @@
         <v>9</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y14" t="s">
         <v>272</v>
@@ -12457,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF14:AO14)</f>
         <v>6</v>
       </c>
       <c r="AE14" t="s">
@@ -12496,11 +12881,11 @@
         <v>153</v>
       </c>
       <c r="C15" s="1" t="str">
-        <f>VLOOKUP(B15,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B15,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="4"/>
+        <f>E15&amp;"_"&amp;F15&amp;"_"&amp;G15&amp;"_"&amp;H15&amp;"_"&amp;A15&amp;"_"&amp;I15&amp;"_"&amp;J15&amp;"_"&amp;K15&amp;"_"&amp;L15&amp;"_"&amp;M15</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM</v>
       </c>
       <c r="E15" t="s">
@@ -12537,7 +12922,7 @@
         <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q15">
         <v>60</v>
@@ -12549,7 +12934,7 @@
         <v>10</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W15" t="s">
         <v>262</v>
@@ -12558,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF15:AO15)</f>
         <v>3</v>
       </c>
       <c r="AE15" t="s">
@@ -12585,11 +12970,11 @@
         <v>156</v>
       </c>
       <c r="C16" s="1" t="str">
-        <f>VLOOKUP(B16,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B16,[1]templateLookup!A:B,2,0)</f>
         <v>iCUserFuncTest</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="4"/>
+        <f>E16&amp;"_"&amp;F16&amp;"_"&amp;G16&amp;"_"&amp;H16&amp;"_"&amp;A16&amp;"_"&amp;I16&amp;"_"&amp;J16&amp;"_"&amp;K16&amp;"_"&amp;L16&amp;"_"&amp;M16</f>
         <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY</v>
       </c>
       <c r="E16" t="s">
@@ -12626,7 +13011,7 @@
         <v>37</v>
       </c>
       <c r="P16" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q16">
         <v>60</v>
@@ -12644,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF16:AO16)</f>
         <v>3</v>
       </c>
       <c r="AE16">
@@ -12671,11 +13056,11 @@
         <v>44</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>VLOOKUP(B17,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B17,[1]templateLookup!A:B,2,0)</f>
         <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D18" si="5">E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;"_"&amp;A17&amp;"_"&amp;I17&amp;"_"&amp;J17&amp;"_"&amp;K17&amp;"_"&amp;L17&amp;"_"&amp;M17</f>
+        <f>E17&amp;"_"&amp;F17&amp;"_"&amp;G17&amp;"_"&amp;H17&amp;"_"&amp;A17&amp;"_"&amp;I17&amp;"_"&amp;J17&amp;"_"&amp;K17&amp;"_"&amp;L17&amp;"_"&amp;M17</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE</v>
       </c>
       <c r="E17" t="s">
@@ -12712,7 +13097,7 @@
         <v>37</v>
       </c>
       <c r="P17" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q17">
         <v>60</v>
@@ -12730,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF17:AO17)</f>
         <v>2</v>
       </c>
       <c r="AE17">
@@ -12753,11 +13138,11 @@
         <v>289</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>VLOOKUP(B18,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B18,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="5"/>
+        <f>E18&amp;"_"&amp;F18&amp;"_"&amp;G18&amp;"_"&amp;H18&amp;"_"&amp;A18&amp;"_"&amp;I18&amp;"_"&amp;J18&amp;"_"&amp;K18&amp;"_"&amp;L18&amp;"_"&amp;M18</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_NOM_LFM_L2_ALL_POST_HRY</v>
       </c>
       <c r="E18" t="s">
@@ -12794,7 +13179,7 @@
         <v>37</v>
       </c>
       <c r="P18" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="Q18">
         <v>60</v>
@@ -12806,13 +13191,13 @@
         <v>13</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC18" t="b">
         <v>0</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF18:AO18)</f>
         <v>4</v>
       </c>
       <c r="AE18" t="s">
@@ -12840,11 +13225,11 @@
         <v>263</v>
       </c>
       <c r="C19" s="1" t="str">
-        <f>VLOOKUP(B19,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B19,[1]templateLookup!A:B,2,0)</f>
         <v>AuxiliaryTC</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ref="D19" si="6">E19&amp;"_"&amp;F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;"_"&amp;A19&amp;"_"&amp;I19&amp;"_"&amp;J19&amp;"_"&amp;K19&amp;"_"&amp;L19&amp;"_"&amp;M19</f>
+        <f>E19&amp;"_"&amp;F19&amp;"_"&amp;G19&amp;"_"&amp;H19&amp;"_"&amp;A19&amp;"_"&amp;I19&amp;"_"&amp;J19&amp;"_"&amp;K19&amp;"_"&amp;L19&amp;"_"&amp;M19</f>
         <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_NOM</v>
       </c>
       <c r="E19" t="s">
@@ -12881,7 +13266,7 @@
         <v>37</v>
       </c>
       <c r="P19" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q19">
         <v>60</v>
@@ -12893,7 +13278,7 @@
         <v>14</v>
       </c>
       <c r="T19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W19" t="s">
         <v>265</v>
@@ -12902,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="3"/>
+        <f>COUNTA(AF19:AO19)</f>
         <v>3</v>
       </c>
       <c r="AE19" t="s">
@@ -12926,7 +13311,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>VLOOKUP(B20,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B20,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -12938,7 +13323,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="14" t="str">
-        <f>VLOOKUP(B21,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B21,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D21" t="s">
@@ -12975,11 +13360,11 @@
         <v>288</v>
       </c>
       <c r="C22" s="14" t="str">
-        <f>VLOOKUP(B22,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B22,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ref="D22:D36" si="7">E22&amp;"_"&amp;F22&amp;"_"&amp;G22&amp;"_"&amp;H22&amp;"_"&amp;A22&amp;"_"&amp;I22&amp;"_"&amp;J22&amp;"_"&amp;K22&amp;"_"&amp;L22&amp;"_"&amp;M22</f>
+        <f>E22&amp;"_"&amp;F22&amp;"_"&amp;G22&amp;"_"&amp;H22&amp;"_"&amp;A22&amp;"_"&amp;I22&amp;"_"&amp;J22&amp;"_"&amp;K22&amp;"_"&amp;L22&amp;"_"&amp;M22</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_ALL_PRE_HRY</v>
       </c>
       <c r="E22" t="s">
@@ -13016,7 +13401,7 @@
         <v>37</v>
       </c>
       <c r="P22" t="s">
-        <v>38</v>
+        <v>442</v>
       </c>
       <c r="Q22">
         <v>60</v>
@@ -13028,7 +13413,7 @@
         <v>20</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22" t="b">
         <v>0</v>
@@ -13064,11 +13449,11 @@
         <v>190</v>
       </c>
       <c r="C23" s="14" t="str">
-        <f>VLOOKUP(B23,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B23,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" si="7"/>
+        <f>E23&amp;"_"&amp;F23&amp;"_"&amp;G23&amp;"_"&amp;H23&amp;"_"&amp;A23&amp;"_"&amp;I23&amp;"_"&amp;J23&amp;"_"&amp;K23&amp;"_"&amp;L23&amp;"_"&amp;M23</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_DAT_CAPTURE</v>
       </c>
       <c r="E23" t="s">
@@ -13105,7 +13490,7 @@
         <v>37</v>
       </c>
       <c r="P23" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="Q23">
         <v>60</v>
@@ -13117,7 +13502,7 @@
         <v>21</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y23" t="s">
         <v>270</v>
@@ -13126,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <f t="shared" ref="AD23:AD36" si="8">COUNTA(AF23:AO23)</f>
+        <f>COUNTA(AF23:AO23)</f>
         <v>3</v>
       </c>
       <c r="AE23" t="s">
@@ -13153,11 +13538,11 @@
         <v>191</v>
       </c>
       <c r="C24" s="14" t="str">
-        <f>VLOOKUP(B24,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B24,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="7"/>
+        <f>E24&amp;"_"&amp;F24&amp;"_"&amp;G24&amp;"_"&amp;H24&amp;"_"&amp;A24&amp;"_"&amp;I24&amp;"_"&amp;J24&amp;"_"&amp;K24&amp;"_"&amp;L24&amp;"_"&amp;M24</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_DAT_REPAIR</v>
       </c>
       <c r="E24" t="s">
@@ -13194,7 +13579,7 @@
         <v>37</v>
       </c>
       <c r="P24" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="Q24">
         <v>60</v>
@@ -13206,7 +13591,7 @@
         <v>22</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y24" t="s">
         <v>270</v>
@@ -13224,7 +13609,7 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF24:AO24)</f>
         <v>6</v>
       </c>
       <c r="AE24" t="s">
@@ -13263,11 +13648,11 @@
         <v>193</v>
       </c>
       <c r="C25" s="14" t="str">
-        <f>VLOOKUP(B25,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B25,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" si="7"/>
+        <f>E25&amp;"_"&amp;F25&amp;"_"&amp;G25&amp;"_"&amp;H25&amp;"_"&amp;A25&amp;"_"&amp;I25&amp;"_"&amp;J25&amp;"_"&amp;K25&amp;"_"&amp;L25&amp;"_"&amp;M25</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_DAT_REPAIR_TO_FUSE</v>
       </c>
       <c r="E25" t="s">
@@ -13304,7 +13689,7 @@
         <v>37</v>
       </c>
       <c r="P25" t="s">
-        <v>38</v>
+        <v>441</v>
       </c>
       <c r="Q25">
         <v>60</v>
@@ -13316,7 +13701,7 @@
         <v>23</v>
       </c>
       <c r="T25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y25" t="s">
         <v>270</v>
@@ -13334,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF25:AO25)</f>
         <v>6</v>
       </c>
       <c r="AE25" t="s">
@@ -13373,11 +13758,11 @@
         <v>190</v>
       </c>
       <c r="C26" s="14" t="str">
-        <f>VLOOKUP(B26,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B26,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="7"/>
+        <f>E26&amp;"_"&amp;F26&amp;"_"&amp;G26&amp;"_"&amp;H26&amp;"_"&amp;A26&amp;"_"&amp;I26&amp;"_"&amp;J26&amp;"_"&amp;K26&amp;"_"&amp;L26&amp;"_"&amp;M26</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_C6S_CAPTURE</v>
       </c>
       <c r="E26" t="s">
@@ -13414,7 +13799,7 @@
         <v>37</v>
       </c>
       <c r="P26" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="Q26">
         <v>60</v>
@@ -13426,7 +13811,7 @@
         <v>24</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y26" t="s">
         <v>271</v>
@@ -13435,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF26:AO26)</f>
         <v>3</v>
       </c>
       <c r="AE26" t="s">
@@ -13462,11 +13847,11 @@
         <v>191</v>
       </c>
       <c r="C27" s="14" t="str">
-        <f>VLOOKUP(B27,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B27,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="7"/>
+        <f>E27&amp;"_"&amp;F27&amp;"_"&amp;G27&amp;"_"&amp;H27&amp;"_"&amp;A27&amp;"_"&amp;I27&amp;"_"&amp;J27&amp;"_"&amp;K27&amp;"_"&amp;L27&amp;"_"&amp;M27</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_C6S_REPAIR</v>
       </c>
       <c r="E27" t="s">
@@ -13503,7 +13888,7 @@
         <v>37</v>
       </c>
       <c r="P27" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="Q27">
         <v>60</v>
@@ -13515,7 +13900,7 @@
         <v>25</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y27" t="s">
         <v>271</v>
@@ -13533,7 +13918,7 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF27:AO27)</f>
         <v>6</v>
       </c>
       <c r="AE27" t="s">
@@ -13572,11 +13957,11 @@
         <v>193</v>
       </c>
       <c r="C28" s="14" t="str">
-        <f>VLOOKUP(B28,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B28,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" si="7"/>
+        <f>E28&amp;"_"&amp;F28&amp;"_"&amp;G28&amp;"_"&amp;H28&amp;"_"&amp;A28&amp;"_"&amp;I28&amp;"_"&amp;J28&amp;"_"&amp;K28&amp;"_"&amp;L28&amp;"_"&amp;M28</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_C6S_REPAIR_TO_FUSE</v>
       </c>
       <c r="E28" t="s">
@@ -13613,7 +13998,7 @@
         <v>37</v>
       </c>
       <c r="P28" t="s">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="Q28">
         <v>60</v>
@@ -13625,7 +14010,7 @@
         <v>26</v>
       </c>
       <c r="T28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y28" t="s">
         <v>271</v>
@@ -13643,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF28:AO28)</f>
         <v>6</v>
       </c>
       <c r="AE28" t="s">
@@ -13682,11 +14067,11 @@
         <v>190</v>
       </c>
       <c r="C29" s="14" t="str">
-        <f>VLOOKUP(B29,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B29,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" si="7"/>
+        <f>E29&amp;"_"&amp;F29&amp;"_"&amp;G29&amp;"_"&amp;H29&amp;"_"&amp;A29&amp;"_"&amp;I29&amp;"_"&amp;J29&amp;"_"&amp;K29&amp;"_"&amp;L29&amp;"_"&amp;M29</f>
         <v>SSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_TSP_CAPTURE</v>
       </c>
       <c r="E29" t="s">
@@ -13723,7 +14108,7 @@
         <v>37</v>
       </c>
       <c r="P29" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Q29">
         <v>60</v>
@@ -13735,7 +14120,7 @@
         <v>27</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y29" t="s">
         <v>272</v>
@@ -13744,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF29:AO29)</f>
         <v>3</v>
       </c>
       <c r="AE29" t="s">
@@ -13771,11 +14156,11 @@
         <v>191</v>
       </c>
       <c r="C30" s="14" t="str">
-        <f>VLOOKUP(B30,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B30,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="7"/>
+        <f>E30&amp;"_"&amp;F30&amp;"_"&amp;G30&amp;"_"&amp;H30&amp;"_"&amp;A30&amp;"_"&amp;I30&amp;"_"&amp;J30&amp;"_"&amp;K30&amp;"_"&amp;L30&amp;"_"&amp;M30</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_TSP_REPAIR</v>
       </c>
       <c r="E30" t="s">
@@ -13812,7 +14197,7 @@
         <v>37</v>
       </c>
       <c r="P30" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Q30">
         <v>60</v>
@@ -13824,7 +14209,7 @@
         <v>28</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y30" t="s">
         <v>272</v>
@@ -13842,7 +14227,7 @@
         <v>0</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF30:AO30)</f>
         <v>6</v>
       </c>
       <c r="AE30" t="s">
@@ -13881,11 +14266,11 @@
         <v>193</v>
       </c>
       <c r="C31" s="14" t="str">
-        <f>VLOOKUP(B31,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B31,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" si="7"/>
+        <f>E31&amp;"_"&amp;F31&amp;"_"&amp;G31&amp;"_"&amp;H31&amp;"_"&amp;A31&amp;"_"&amp;I31&amp;"_"&amp;J31&amp;"_"&amp;K31&amp;"_"&amp;L31&amp;"_"&amp;M31</f>
         <v>SSA_ATOM_REPAIR_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_TSP_REPAIR_TO_FUSE</v>
       </c>
       <c r="E31" t="s">
@@ -13922,7 +14307,7 @@
         <v>37</v>
       </c>
       <c r="P31" t="s">
-        <v>38</v>
+        <v>439</v>
       </c>
       <c r="Q31">
         <v>60</v>
@@ -13934,7 +14319,7 @@
         <v>29</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y31" t="s">
         <v>272</v>
@@ -13952,7 +14337,7 @@
         <v>0</v>
       </c>
       <c r="AD31">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF31:AO31)</f>
         <v>6</v>
       </c>
       <c r="AE31" t="s">
@@ -13991,11 +14376,11 @@
         <v>153</v>
       </c>
       <c r="C32" s="14" t="str">
-        <f>VLOOKUP(B32,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B32,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" si="7"/>
+        <f>E32&amp;"_"&amp;F32&amp;"_"&amp;G32&amp;"_"&amp;H32&amp;"_"&amp;A32&amp;"_"&amp;I32&amp;"_"&amp;J32&amp;"_"&amp;K32&amp;"_"&amp;L32&amp;"_"&amp;M32</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_VFDM_MIN</v>
       </c>
       <c r="E32" t="s">
@@ -14032,7 +14417,7 @@
         <v>37</v>
       </c>
       <c r="P32" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q32">
         <v>60</v>
@@ -14044,7 +14429,7 @@
         <v>30</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W32" t="s">
         <v>262</v>
@@ -14053,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF32:AO32)</f>
         <v>3</v>
       </c>
       <c r="AE32" t="s">
@@ -14080,11 +14465,11 @@
         <v>156</v>
       </c>
       <c r="C33" s="14" t="str">
-        <f>VLOOKUP(B33,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B33,[1]templateLookup!A:B,2,0)</f>
         <v>iCUserFuncTest</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" si="7"/>
+        <f>E33&amp;"_"&amp;F33&amp;"_"&amp;G33&amp;"_"&amp;H33&amp;"_"&amp;A33&amp;"_"&amp;I33&amp;"_"&amp;J33&amp;"_"&amp;K33&amp;"_"&amp;L33&amp;"_"&amp;M33</f>
         <v>SSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_ALL_VFDM_APPLY_MIN</v>
       </c>
       <c r="E33" t="s">
@@ -14121,7 +14506,7 @@
         <v>37</v>
       </c>
       <c r="P33" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q33">
         <v>60</v>
@@ -14139,7 +14524,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF33:AO33)</f>
         <v>3</v>
       </c>
       <c r="AE33">
@@ -14166,11 +14551,11 @@
         <v>44</v>
       </c>
       <c r="C34" s="14" t="str">
-        <f>VLOOKUP(B34,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B34,[1]templateLookup!A:B,2,0)</f>
         <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" si="7"/>
+        <f>E34&amp;"_"&amp;F34&amp;"_"&amp;G34&amp;"_"&amp;H34&amp;"_"&amp;A34&amp;"_"&amp;I34&amp;"_"&amp;J34&amp;"_"&amp;K34&amp;"_"&amp;L34&amp;"_"&amp;M34</f>
         <v>SSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_ALL_FUSE_MIN</v>
       </c>
       <c r="E34" t="s">
@@ -14207,7 +14592,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q34">
         <v>60</v>
@@ -14225,7 +14610,7 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF34:AO34)</f>
         <v>2</v>
       </c>
       <c r="AE34">
@@ -14248,11 +14633,11 @@
         <v>289</v>
       </c>
       <c r="C35" s="14" t="str">
-        <f>VLOOKUP(B35,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B35,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" si="7"/>
+        <f>E35&amp;"_"&amp;F35&amp;"_"&amp;G35&amp;"_"&amp;H35&amp;"_"&amp;A35&amp;"_"&amp;I35&amp;"_"&amp;J35&amp;"_"&amp;K35&amp;"_"&amp;L35&amp;"_"&amp;M35</f>
         <v>SSA_ATOM_HRY_E_BEGIN_TITO_ATOML2_MIN_LFM_L2_ALL_POST_HRY</v>
       </c>
       <c r="E35" t="s">
@@ -14289,7 +14674,7 @@
         <v>37</v>
       </c>
       <c r="P35" t="s">
-        <v>38</v>
+        <v>438</v>
       </c>
       <c r="Q35">
         <v>60</v>
@@ -14301,13 +14686,13 @@
         <v>33</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35" t="b">
         <v>0</v>
       </c>
       <c r="AD35">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF35:AO35)</f>
         <v>4</v>
       </c>
       <c r="AE35" t="s">
@@ -14335,11 +14720,11 @@
         <v>263</v>
       </c>
       <c r="C36" s="14" t="str">
-        <f>VLOOKUP(B36,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B36,[1]templateLookup!A:B,2,0)</f>
         <v>AuxiliaryTC</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="7"/>
+        <f>E36&amp;"_"&amp;F36&amp;"_"&amp;G36&amp;"_"&amp;H36&amp;"_"&amp;A36&amp;"_"&amp;I36&amp;"_"&amp;J36&amp;"_"&amp;K36&amp;"_"&amp;L36&amp;"_"&amp;M36</f>
         <v>SSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_MIN</v>
       </c>
       <c r="E36" t="s">
@@ -14376,7 +14761,7 @@
         <v>37</v>
       </c>
       <c r="P36" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q36">
         <v>60</v>
@@ -14388,7 +14773,7 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W36" t="s">
         <v>266</v>
@@ -14397,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <f t="shared" si="8"/>
+        <f>COUNTA(AF36:AO36)</f>
         <v>3</v>
       </c>
       <c r="AE36" t="s">
@@ -14421,7 +14806,7 @@
         <v>42</v>
       </c>
       <c r="C37" s="14" t="str">
-        <f>VLOOKUP(B37,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B37,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -14433,7 +14818,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="6" t="str">
-        <f>VLOOKUP(B38,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B38,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D38" t="s">
@@ -14470,11 +14855,11 @@
         <v>288</v>
       </c>
       <c r="C39" s="6" t="str">
-        <f>VLOOKUP(B39,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B39,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" ref="D39:D47" si="9">E39&amp;"_"&amp;F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;"_"&amp;A39&amp;"_"&amp;I39&amp;"_"&amp;J39&amp;"_"&amp;K39&amp;"_"&amp;L39&amp;"_"&amp;M39</f>
+        <f>E39&amp;"_"&amp;F39&amp;"_"&amp;G39&amp;"_"&amp;H39&amp;"_"&amp;A39&amp;"_"&amp;I39&amp;"_"&amp;J39&amp;"_"&amp;K39&amp;"_"&amp;L39&amp;"_"&amp;M39</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_NOM_LFM_L2_LRU_PRE_HRY</v>
       </c>
       <c r="E39" t="s">
@@ -14511,7 +14896,7 @@
         <v>37</v>
       </c>
       <c r="P39" t="s">
-        <v>38</v>
+        <v>437</v>
       </c>
       <c r="Q39">
         <v>20</v>
@@ -14523,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC39" t="b">
         <v>0</v>
@@ -14559,11 +14944,11 @@
         <v>190</v>
       </c>
       <c r="C40" s="6" t="str">
-        <f>VLOOKUP(B40,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B40,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="9"/>
+        <f>E40&amp;"_"&amp;F40&amp;"_"&amp;G40&amp;"_"&amp;H40&amp;"_"&amp;A40&amp;"_"&amp;I40&amp;"_"&amp;J40&amp;"_"&amp;K40&amp;"_"&amp;L40&amp;"_"&amp;M40</f>
         <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOM_NOM_LFM_L2_LRU_CAPTURE</v>
       </c>
       <c r="E40" t="s">
@@ -14600,7 +14985,7 @@
         <v>37</v>
       </c>
       <c r="P40" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="Q40">
         <v>20</v>
@@ -14612,7 +14997,7 @@
         <v>1</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y40" t="s">
         <v>273</v>
@@ -14621,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="AD40">
-        <f t="shared" ref="AD40:AD47" si="10">COUNTA(AF40:AO40)</f>
+        <f>COUNTA(AF40:AO40)</f>
         <v>3</v>
       </c>
       <c r="AE40" t="s">
@@ -14648,11 +15033,11 @@
         <v>191</v>
       </c>
       <c r="C41" s="6" t="str">
-        <f>VLOOKUP(B41,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B41,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="9"/>
+        <f>E41&amp;"_"&amp;F41&amp;"_"&amp;G41&amp;"_"&amp;H41&amp;"_"&amp;A41&amp;"_"&amp;I41&amp;"_"&amp;J41&amp;"_"&amp;K41&amp;"_"&amp;L41&amp;"_"&amp;M41</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_NOM_LFM_L2_LRU_REPAIR</v>
       </c>
       <c r="E41" t="s">
@@ -14689,7 +15074,7 @@
         <v>37</v>
       </c>
       <c r="P41" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="Q41">
         <v>20</v>
@@ -14701,7 +15086,7 @@
         <v>2</v>
       </c>
       <c r="T41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y41" t="s">
         <v>273</v>
@@ -14719,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AF41:AO41)</f>
         <v>6</v>
       </c>
       <c r="AE41" t="s">
@@ -14758,11 +15143,11 @@
         <v>193</v>
       </c>
       <c r="C42" s="6" t="str">
-        <f>VLOOKUP(B42,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B42,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D42" t="str">
-        <f t="shared" si="9"/>
+        <f>E42&amp;"_"&amp;F42&amp;"_"&amp;G42&amp;"_"&amp;H42&amp;"_"&amp;A42&amp;"_"&amp;I42&amp;"_"&amp;J42&amp;"_"&amp;K42&amp;"_"&amp;L42&amp;"_"&amp;M42</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_NOM_LFM_L2_LRU_REPAIR_TO_FUSE</v>
       </c>
       <c r="E42" t="s">
@@ -14799,7 +15184,7 @@
         <v>37</v>
       </c>
       <c r="P42" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="Q42">
         <v>20</v>
@@ -14811,7 +15196,7 @@
         <v>3</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y42" t="s">
         <v>273</v>
@@ -14829,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="AD42">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AF42:AO42)</f>
         <v>6</v>
       </c>
       <c r="AE42" t="s">
@@ -14868,11 +15253,11 @@
         <v>153</v>
       </c>
       <c r="C43" s="6" t="str">
-        <f>VLOOKUP(B43,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B43,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D43" t="str">
-        <f t="shared" si="9"/>
+        <f>E43&amp;"_"&amp;F43&amp;"_"&amp;G43&amp;"_"&amp;H43&amp;"_"&amp;A43&amp;"_"&amp;I43&amp;"_"&amp;J43&amp;"_"&amp;K43&amp;"_"&amp;L43&amp;"_"&amp;M43</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM</v>
       </c>
       <c r="E43" t="s">
@@ -14909,7 +15294,7 @@
         <v>37</v>
       </c>
       <c r="P43" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q43">
         <v>20</v>
@@ -14930,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="AD43">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AF43:AO43)</f>
         <v>3</v>
       </c>
       <c r="AE43" t="s">
@@ -14957,11 +15342,11 @@
         <v>156</v>
       </c>
       <c r="C44" s="6" t="str">
-        <f>VLOOKUP(B44,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B44,[1]templateLookup!A:B,2,0)</f>
         <v>iCUserFuncTest</v>
       </c>
       <c r="D44" t="str">
-        <f t="shared" si="9"/>
+        <f>E44&amp;"_"&amp;F44&amp;"_"&amp;G44&amp;"_"&amp;H44&amp;"_"&amp;A44&amp;"_"&amp;I44&amp;"_"&amp;J44&amp;"_"&amp;K44&amp;"_"&amp;L44&amp;"_"&amp;M44</f>
         <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY</v>
       </c>
       <c r="E44" t="s">
@@ -14998,7 +15383,7 @@
         <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q44">
         <v>20</v>
@@ -15016,7 +15401,7 @@
         <v>0</v>
       </c>
       <c r="AD44">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AF44:AO44)</f>
         <v>3</v>
       </c>
       <c r="AE44">
@@ -15043,11 +15428,11 @@
         <v>44</v>
       </c>
       <c r="C45" s="6" t="str">
-        <f>VLOOKUP(B45,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B45,[1]templateLookup!A:B,2,0)</f>
         <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D45" t="str">
-        <f t="shared" si="9"/>
+        <f>E45&amp;"_"&amp;F45&amp;"_"&amp;G45&amp;"_"&amp;H45&amp;"_"&amp;A45&amp;"_"&amp;I45&amp;"_"&amp;J45&amp;"_"&amp;K45&amp;"_"&amp;L45&amp;"_"&amp;M45</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE</v>
       </c>
       <c r="E45" t="s">
@@ -15084,7 +15469,7 @@
         <v>37</v>
       </c>
       <c r="P45" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q45">
         <v>20</v>
@@ -15102,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AF45:AO45)</f>
         <v>2</v>
       </c>
       <c r="AE45">
@@ -15125,11 +15510,11 @@
         <v>289</v>
       </c>
       <c r="C46" s="6" t="str">
-        <f>VLOOKUP(B46,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B46,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D46" t="str">
-        <f t="shared" si="9"/>
+        <f>E46&amp;"_"&amp;F46&amp;"_"&amp;G46&amp;"_"&amp;H46&amp;"_"&amp;A46&amp;"_"&amp;I46&amp;"_"&amp;J46&amp;"_"&amp;K46&amp;"_"&amp;L46&amp;"_"&amp;M46</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_NOM_LFM_L2_LRU_POST_HRY</v>
       </c>
       <c r="E46" t="s">
@@ -15166,7 +15551,7 @@
         <v>37</v>
       </c>
       <c r="P46" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="Q46">
         <v>20</v>
@@ -15178,13 +15563,13 @@
         <v>7</v>
       </c>
       <c r="T46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC46" t="b">
         <v>0</v>
       </c>
       <c r="AD46">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AF46:AO46)</f>
         <v>4</v>
       </c>
       <c r="AE46" t="s">
@@ -15212,11 +15597,11 @@
         <v>263</v>
       </c>
       <c r="C47" s="6" t="str">
-        <f>VLOOKUP(B47,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B47,[1]templateLookup!A:B,2,0)</f>
         <v>AuxiliaryTC</v>
       </c>
       <c r="D47" t="str">
-        <f t="shared" si="9"/>
+        <f>E47&amp;"_"&amp;F47&amp;"_"&amp;G47&amp;"_"&amp;H47&amp;"_"&amp;A47&amp;"_"&amp;I47&amp;"_"&amp;J47&amp;"_"&amp;K47&amp;"_"&amp;L47&amp;"_"&amp;M47</f>
         <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2</v>
       </c>
       <c r="E47" t="s">
@@ -15253,7 +15638,7 @@
         <v>37</v>
       </c>
       <c r="P47" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q47">
         <v>20</v>
@@ -15265,7 +15650,7 @@
         <v>8</v>
       </c>
       <c r="T47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W47" t="s">
         <v>265</v>
@@ -15274,7 +15659,7 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="10"/>
+        <f>COUNTA(AF47:AO47)</f>
         <v>3</v>
       </c>
       <c r="AE47" t="s">
@@ -15298,7 +15683,7 @@
         <v>42</v>
       </c>
       <c r="C48" s="6" t="str">
-        <f>VLOOKUP(B48,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B48,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -15310,7 +15695,7 @@
         <v>27</v>
       </c>
       <c r="C49" s="15" t="str">
-        <f>VLOOKUP(B49,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B49,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D49" t="s">
@@ -15347,11 +15732,11 @@
         <v>288</v>
       </c>
       <c r="C50" s="15" t="str">
-        <f>VLOOKUP(B50,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B50,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" ref="D50:D58" si="11">E50&amp;"_"&amp;F50&amp;"_"&amp;G50&amp;"_"&amp;H50&amp;"_"&amp;A50&amp;"_"&amp;I50&amp;"_"&amp;J50&amp;"_"&amp;K50&amp;"_"&amp;L50&amp;"_"&amp;M50</f>
+        <f>E50&amp;"_"&amp;F50&amp;"_"&amp;G50&amp;"_"&amp;H50&amp;"_"&amp;A50&amp;"_"&amp;I50&amp;"_"&amp;J50&amp;"_"&amp;K50&amp;"_"&amp;L50&amp;"_"&amp;M50</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_MIN_LFM_L2_LRU_PRE_HRY</v>
       </c>
       <c r="E50" t="s">
@@ -15388,7 +15773,7 @@
         <v>37</v>
       </c>
       <c r="P50" t="s">
-        <v>38</v>
+        <v>437</v>
       </c>
       <c r="Q50">
         <v>20</v>
@@ -15400,7 +15785,7 @@
         <v>10</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC50" t="b">
         <v>0</v>
@@ -15436,11 +15821,11 @@
         <v>190</v>
       </c>
       <c r="C51" s="15" t="str">
-        <f>VLOOKUP(B51,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B51,[1]templateLookup!A:B,2,0)</f>
         <v>iCCapturePacketsTest</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="11"/>
+        <f>E51&amp;"_"&amp;F51&amp;"_"&amp;G51&amp;"_"&amp;H51&amp;"_"&amp;A51&amp;"_"&amp;I51&amp;"_"&amp;J51&amp;"_"&amp;K51&amp;"_"&amp;L51&amp;"_"&amp;M51</f>
         <v>LSA_ATOM_CAPTURE_E_BEGIN_TITO_ATOM_MIN_LFM_L2_LRU_CAPTURE</v>
       </c>
       <c r="E51" t="s">
@@ -15477,7 +15862,7 @@
         <v>37</v>
       </c>
       <c r="P51" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="Q51">
         <v>20</v>
@@ -15489,7 +15874,7 @@
         <v>11</v>
       </c>
       <c r="T51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y51" t="s">
         <v>273</v>
@@ -15498,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="AD51">
-        <f t="shared" ref="AD51:AD58" si="12">COUNTA(AF51:AO51)</f>
+        <f>COUNTA(AF51:AO51)</f>
         <v>3</v>
       </c>
       <c r="AE51" t="s">
@@ -15525,11 +15910,11 @@
         <v>191</v>
       </c>
       <c r="C52" s="15" t="str">
-        <f>VLOOKUP(B52,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B52,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="11"/>
+        <f>E52&amp;"_"&amp;F52&amp;"_"&amp;G52&amp;"_"&amp;H52&amp;"_"&amp;A52&amp;"_"&amp;I52&amp;"_"&amp;J52&amp;"_"&amp;K52&amp;"_"&amp;L52&amp;"_"&amp;M52</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_MIN_LFM_L2_LRU_REPAIR</v>
       </c>
       <c r="E52" t="s">
@@ -15566,7 +15951,7 @@
         <v>37</v>
       </c>
       <c r="P52" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="Q52">
         <v>20</v>
@@ -15578,7 +15963,7 @@
         <v>12</v>
       </c>
       <c r="T52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y52" t="s">
         <v>273</v>
@@ -15596,7 +15981,7 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="12"/>
+        <f>COUNTA(AF52:AO52)</f>
         <v>6</v>
       </c>
       <c r="AE52" t="s">
@@ -15635,11 +16020,11 @@
         <v>193</v>
       </c>
       <c r="C53" s="15" t="str">
-        <f>VLOOKUP(B53,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B53,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="11"/>
+        <f>E53&amp;"_"&amp;F53&amp;"_"&amp;G53&amp;"_"&amp;H53&amp;"_"&amp;A53&amp;"_"&amp;I53&amp;"_"&amp;J53&amp;"_"&amp;K53&amp;"_"&amp;L53&amp;"_"&amp;M53</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_MIN_LFM_L2_LRU_REPAIR_TO_FUSE</v>
       </c>
       <c r="E53" t="s">
@@ -15676,7 +16061,7 @@
         <v>37</v>
       </c>
       <c r="P53" t="s">
-        <v>38</v>
+        <v>436</v>
       </c>
       <c r="Q53">
         <v>20</v>
@@ -15688,7 +16073,7 @@
         <v>13</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y53" t="s">
         <v>273</v>
@@ -15706,7 +16091,7 @@
         <v>0</v>
       </c>
       <c r="AD53">
-        <f t="shared" si="12"/>
+        <f>COUNTA(AF53:AO53)</f>
         <v>6</v>
       </c>
       <c r="AE53" t="s">
@@ -15745,11 +16130,11 @@
         <v>153</v>
       </c>
       <c r="C54" s="15" t="str">
-        <f>VLOOKUP(B54,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B54,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D54" t="str">
-        <f t="shared" si="11"/>
+        <f>E54&amp;"_"&amp;F54&amp;"_"&amp;G54&amp;"_"&amp;H54&amp;"_"&amp;A54&amp;"_"&amp;I54&amp;"_"&amp;J54&amp;"_"&amp;K54&amp;"_"&amp;L54&amp;"_"&amp;M54</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_VFDM_MIN</v>
       </c>
       <c r="E54" t="s">
@@ -15786,7 +16171,7 @@
         <v>37</v>
       </c>
       <c r="P54" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q54">
         <v>20</v>
@@ -15807,7 +16192,7 @@
         <v>0</v>
       </c>
       <c r="AD54">
-        <f t="shared" si="12"/>
+        <f>COUNTA(AF54:AO54)</f>
         <v>3</v>
       </c>
       <c r="AE54" t="s">
@@ -15834,11 +16219,11 @@
         <v>156</v>
       </c>
       <c r="C55" s="15" t="str">
-        <f>VLOOKUP(B55,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B55,[1]templateLookup!A:B,2,0)</f>
         <v>iCUserFuncTest</v>
       </c>
       <c r="D55" t="str">
-        <f t="shared" si="11"/>
+        <f>E55&amp;"_"&amp;F55&amp;"_"&amp;G55&amp;"_"&amp;H55&amp;"_"&amp;A55&amp;"_"&amp;I55&amp;"_"&amp;J55&amp;"_"&amp;K55&amp;"_"&amp;L55&amp;"_"&amp;M55</f>
         <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_L2_LRU_VFDM_APPLY_MIN</v>
       </c>
       <c r="E55" t="s">
@@ -15875,7 +16260,7 @@
         <v>37</v>
       </c>
       <c r="P55" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q55">
         <v>20</v>
@@ -15893,7 +16278,7 @@
         <v>0</v>
       </c>
       <c r="AD55">
-        <f t="shared" si="12"/>
+        <f>COUNTA(AF55:AO55)</f>
         <v>3</v>
       </c>
       <c r="AE55">
@@ -15920,11 +16305,11 @@
         <v>44</v>
       </c>
       <c r="C56" s="15" t="str">
-        <f>VLOOKUP(B56,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B56,[1]templateLookup!A:B,2,0)</f>
         <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D56" t="str">
-        <f t="shared" si="11"/>
+        <f>E56&amp;"_"&amp;F56&amp;"_"&amp;G56&amp;"_"&amp;H56&amp;"_"&amp;A56&amp;"_"&amp;I56&amp;"_"&amp;J56&amp;"_"&amp;K56&amp;"_"&amp;L56&amp;"_"&amp;M56</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_L2_LRU_FUSE_MIN</v>
       </c>
       <c r="E56" t="s">
@@ -15961,7 +16346,7 @@
         <v>37</v>
       </c>
       <c r="P56" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q56">
         <v>20</v>
@@ -15979,7 +16364,7 @@
         <v>0</v>
       </c>
       <c r="AD56">
-        <f t="shared" si="12"/>
+        <f>COUNTA(AF56:AO56)</f>
         <v>2</v>
       </c>
       <c r="AE56">
@@ -16002,11 +16387,11 @@
         <v>289</v>
       </c>
       <c r="C57" s="15" t="str">
-        <f>VLOOKUP(B57,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B57,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D57" t="str">
-        <f t="shared" si="11"/>
+        <f>E57&amp;"_"&amp;F57&amp;"_"&amp;G57&amp;"_"&amp;H57&amp;"_"&amp;A57&amp;"_"&amp;I57&amp;"_"&amp;J57&amp;"_"&amp;K57&amp;"_"&amp;L57&amp;"_"&amp;M57</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_MIN_LFM_L2_LRU_POST_HRY</v>
       </c>
       <c r="E57" t="s">
@@ -16043,7 +16428,7 @@
         <v>37</v>
       </c>
       <c r="P57" t="s">
-        <v>38</v>
+        <v>435</v>
       </c>
       <c r="Q57">
         <v>20</v>
@@ -16055,13 +16440,13 @@
         <v>17</v>
       </c>
       <c r="T57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC57" t="b">
         <v>0</v>
       </c>
       <c r="AD57">
-        <f t="shared" si="12"/>
+        <f>COUNTA(AF57:AO57)</f>
         <v>4</v>
       </c>
       <c r="AE57" t="s">
@@ -16089,11 +16474,11 @@
         <v>263</v>
       </c>
       <c r="C58" s="15" t="str">
-        <f>VLOOKUP(B58,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B58,[1]templateLookup!A:B,2,0)</f>
         <v>AuxiliaryTC</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="11"/>
+        <f>E58&amp;"_"&amp;F58&amp;"_"&amp;G58&amp;"_"&amp;H58&amp;"_"&amp;A58&amp;"_"&amp;I58&amp;"_"&amp;J58&amp;"_"&amp;K58&amp;"_"&amp;L58&amp;"_"&amp;M58</f>
         <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_L2_MIN</v>
       </c>
       <c r="E58" t="s">
@@ -16130,7 +16515,7 @@
         <v>37</v>
       </c>
       <c r="P58" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q58">
         <v>20</v>
@@ -16142,7 +16527,7 @@
         <v>18</v>
       </c>
       <c r="T58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W58" t="s">
         <v>266</v>
@@ -16151,7 +16536,7 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="12"/>
+        <f>COUNTA(AF58:AO58)</f>
         <v>3</v>
       </c>
       <c r="AE58" t="s">
@@ -16175,7 +16560,7 @@
         <v>42</v>
       </c>
       <c r="C59" s="15" t="str">
-        <f>VLOOKUP(B59,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B59,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -16187,7 +16572,7 @@
         <v>27</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f>VLOOKUP(B60,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B60,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D60" t="s">
@@ -16224,11 +16609,11 @@
         <v>229</v>
       </c>
       <c r="C61" s="8" t="str">
-        <f>VLOOKUP(B61,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B61,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeLSARasterTestMethod</v>
       </c>
       <c r="D61" t="str">
-        <f t="shared" ref="D61:D69" si="13">E61&amp;"_"&amp;F61&amp;"_"&amp;G61&amp;"_"&amp;H61&amp;"_"&amp;A61&amp;"_"&amp;I61&amp;"_"&amp;J61&amp;"_"&amp;K61&amp;"_"&amp;L61&amp;"_"&amp;M61</f>
+        <f>E61&amp;"_"&amp;F61&amp;"_"&amp;G61&amp;"_"&amp;H61&amp;"_"&amp;A61&amp;"_"&amp;I61&amp;"_"&amp;J61&amp;"_"&amp;K61&amp;"_"&amp;L61&amp;"_"&amp;M61</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_NOM_LFM_RF_PRE_HRY</v>
       </c>
       <c r="E61" t="s">
@@ -16265,7 +16650,7 @@
         <v>37</v>
       </c>
       <c r="P61" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="Q61">
         <v>20</v>
@@ -16277,7 +16662,7 @@
         <v>20</v>
       </c>
       <c r="T61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y61" t="s">
         <v>274</v>
@@ -16319,11 +16704,11 @@
         <v>230</v>
       </c>
       <c r="C62" s="8" t="str">
-        <f>VLOOKUP(B62,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B62,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeLSARasterTestMethod</v>
       </c>
       <c r="D62" t="str">
-        <f t="shared" si="13"/>
+        <f>E62&amp;"_"&amp;F62&amp;"_"&amp;G62&amp;"_"&amp;H62&amp;"_"&amp;A62&amp;"_"&amp;I62&amp;"_"&amp;J62&amp;"_"&amp;K62&amp;"_"&amp;L62&amp;"_"&amp;M62</f>
         <v>LSA_ATOM_RASTER_E_BEGIN_TITO_ATOM_NOM_LFM_RF_RASTER</v>
       </c>
       <c r="E62" t="s">
@@ -16360,7 +16745,7 @@
         <v>37</v>
       </c>
       <c r="P62" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q62">
         <v>20</v>
@@ -16372,7 +16757,7 @@
         <v>21</v>
       </c>
       <c r="T62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y62" t="s">
         <v>274</v>
@@ -16384,7 +16769,7 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <f t="shared" ref="AD62:AD69" si="14">COUNTA(AF62:AO62)</f>
+        <f>COUNTA(AF62:AO62)</f>
         <v>3</v>
       </c>
       <c r="AE62" t="s">
@@ -16411,11 +16796,11 @@
         <v>191</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f>VLOOKUP(B63,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B63,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D63" t="str">
-        <f t="shared" si="13"/>
+        <f>E63&amp;"_"&amp;F63&amp;"_"&amp;G63&amp;"_"&amp;H63&amp;"_"&amp;A63&amp;"_"&amp;I63&amp;"_"&amp;J63&amp;"_"&amp;K63&amp;"_"&amp;L63&amp;"_"&amp;M63</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_NOM_LFM_RF_REPAIR</v>
       </c>
       <c r="E63" t="s">
@@ -16452,7 +16837,7 @@
         <v>37</v>
       </c>
       <c r="P63" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q63">
         <v>20</v>
@@ -16464,7 +16849,7 @@
         <v>22</v>
       </c>
       <c r="T63">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y63" t="s">
         <v>274</v>
@@ -16482,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="14"/>
+        <f>COUNTA(AF63:AO63)</f>
         <v>6</v>
       </c>
       <c r="AE63" t="s">
@@ -16521,11 +16906,11 @@
         <v>193</v>
       </c>
       <c r="C64" s="8" t="str">
-        <f>VLOOKUP(B64,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B64,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D64" t="str">
-        <f t="shared" si="13"/>
+        <f>E64&amp;"_"&amp;F64&amp;"_"&amp;G64&amp;"_"&amp;H64&amp;"_"&amp;A64&amp;"_"&amp;I64&amp;"_"&amp;J64&amp;"_"&amp;K64&amp;"_"&amp;L64&amp;"_"&amp;M64</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_NOM_LFM_RF_REPAIR_TO_FUSE</v>
       </c>
       <c r="E64" t="s">
@@ -16562,7 +16947,7 @@
         <v>37</v>
       </c>
       <c r="P64" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q64">
         <v>20</v>
@@ -16574,7 +16959,7 @@
         <v>23</v>
       </c>
       <c r="T64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y64" t="s">
         <v>274</v>
@@ -16592,7 +16977,7 @@
         <v>0</v>
       </c>
       <c r="AD64">
-        <f t="shared" si="14"/>
+        <f>COUNTA(AF64:AO64)</f>
         <v>6</v>
       </c>
       <c r="AE64" t="s">
@@ -16631,11 +17016,11 @@
         <v>153</v>
       </c>
       <c r="C65" s="8" t="str">
-        <f>VLOOKUP(B65,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B65,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" si="13"/>
+        <f>E65&amp;"_"&amp;F65&amp;"_"&amp;G65&amp;"_"&amp;H65&amp;"_"&amp;A65&amp;"_"&amp;I65&amp;"_"&amp;J65&amp;"_"&amp;K65&amp;"_"&amp;L65&amp;"_"&amp;M65</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM</v>
       </c>
       <c r="E65" t="s">
@@ -16672,7 +17057,7 @@
         <v>37</v>
       </c>
       <c r="P65" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q65">
         <v>20</v>
@@ -16693,7 +17078,7 @@
         <v>0</v>
       </c>
       <c r="AD65">
-        <f t="shared" si="14"/>
+        <f>COUNTA(AF65:AO65)</f>
         <v>3</v>
       </c>
       <c r="AE65" t="s">
@@ -16720,11 +17105,11 @@
         <v>156</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f>VLOOKUP(B66,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B66,[1]templateLookup!A:B,2,0)</f>
         <v>iCUserFuncTest</v>
       </c>
       <c r="D66" t="str">
-        <f t="shared" si="13"/>
+        <f>E66&amp;"_"&amp;F66&amp;"_"&amp;G66&amp;"_"&amp;H66&amp;"_"&amp;A66&amp;"_"&amp;I66&amp;"_"&amp;J66&amp;"_"&amp;K66&amp;"_"&amp;L66&amp;"_"&amp;M66</f>
         <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY</v>
       </c>
       <c r="E66" t="s">
@@ -16761,7 +17146,7 @@
         <v>37</v>
       </c>
       <c r="P66" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q66">
         <v>20</v>
@@ -16779,7 +17164,7 @@
         <v>0</v>
       </c>
       <c r="AD66">
-        <f t="shared" si="14"/>
+        <f>COUNTA(AF66:AO66)</f>
         <v>3</v>
       </c>
       <c r="AE66">
@@ -16806,11 +17191,11 @@
         <v>44</v>
       </c>
       <c r="C67" s="8" t="str">
-        <f>VLOOKUP(B67,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B67,[1]templateLookup!A:B,2,0)</f>
         <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" si="13"/>
+        <f>E67&amp;"_"&amp;F67&amp;"_"&amp;G67&amp;"_"&amp;H67&amp;"_"&amp;A67&amp;"_"&amp;I67&amp;"_"&amp;J67&amp;"_"&amp;K67&amp;"_"&amp;L67&amp;"_"&amp;M67</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE</v>
       </c>
       <c r="E67" t="s">
@@ -16847,7 +17232,7 @@
         <v>37</v>
       </c>
       <c r="P67" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q67">
         <v>20</v>
@@ -16865,7 +17250,7 @@
         <v>0</v>
       </c>
       <c r="AD67">
-        <f t="shared" si="14"/>
+        <f>COUNTA(AF67:AO67)</f>
         <v>2</v>
       </c>
       <c r="AE67">
@@ -16888,11 +17273,11 @@
         <v>289</v>
       </c>
       <c r="C68" s="8" t="str">
-        <f>VLOOKUP(B68,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B68,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" si="13"/>
+        <f>E68&amp;"_"&amp;F68&amp;"_"&amp;G68&amp;"_"&amp;H68&amp;"_"&amp;A68&amp;"_"&amp;I68&amp;"_"&amp;J68&amp;"_"&amp;K68&amp;"_"&amp;L68&amp;"_"&amp;M68</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_NOM_LFM_RF_POST_HRY</v>
       </c>
       <c r="E68" t="s">
@@ -16929,7 +17314,7 @@
         <v>37</v>
       </c>
       <c r="P68" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="Q68">
         <v>20</v>
@@ -16941,13 +17326,13 @@
         <v>27</v>
       </c>
       <c r="T68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC68" t="b">
         <v>0</v>
       </c>
       <c r="AD68">
-        <f t="shared" si="14"/>
+        <f>COUNTA(AF68:AO68)</f>
         <v>4</v>
       </c>
       <c r="AE68" t="s">
@@ -16975,11 +17360,11 @@
         <v>263</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f>VLOOKUP(B69,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B69,[1]templateLookup!A:B,2,0)</f>
         <v>AuxiliaryTC</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="13"/>
+        <f>E69&amp;"_"&amp;F69&amp;"_"&amp;G69&amp;"_"&amp;H69&amp;"_"&amp;A69&amp;"_"&amp;I69&amp;"_"&amp;J69&amp;"_"&amp;K69&amp;"_"&amp;L69&amp;"_"&amp;M69</f>
         <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_RF</v>
       </c>
       <c r="E69" t="s">
@@ -17016,7 +17401,7 @@
         <v>37</v>
       </c>
       <c r="P69" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q69">
         <v>20</v>
@@ -17028,7 +17413,7 @@
         <v>28</v>
       </c>
       <c r="T69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W69" t="s">
         <v>265</v>
@@ -17037,7 +17422,7 @@
         <v>0</v>
       </c>
       <c r="AD69">
-        <f t="shared" si="14"/>
+        <f>COUNTA(AF69:AO69)</f>
         <v>3</v>
       </c>
       <c r="AE69" t="s">
@@ -17061,7 +17446,7 @@
         <v>42</v>
       </c>
       <c r="C70" s="8" t="str">
-        <f>VLOOKUP(B70,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B70,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -17073,7 +17458,7 @@
         <v>27</v>
       </c>
       <c r="C71" s="6" t="str">
-        <f>VLOOKUP(B71,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B71,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D71" t="s">
@@ -17110,11 +17495,11 @@
         <v>229</v>
       </c>
       <c r="C72" s="6" t="str">
-        <f>VLOOKUP(B72,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B72,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeLSARasterTestMethod</v>
       </c>
       <c r="D72" t="str">
-        <f t="shared" ref="D72:D80" si="15">E72&amp;"_"&amp;F72&amp;"_"&amp;G72&amp;"_"&amp;H72&amp;"_"&amp;A72&amp;"_"&amp;I72&amp;"_"&amp;J72&amp;"_"&amp;K72&amp;"_"&amp;L72&amp;"_"&amp;M72</f>
+        <f>E72&amp;"_"&amp;F72&amp;"_"&amp;G72&amp;"_"&amp;H72&amp;"_"&amp;A72&amp;"_"&amp;I72&amp;"_"&amp;J72&amp;"_"&amp;K72&amp;"_"&amp;L72&amp;"_"&amp;M72</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_MIN_LFM_RF_PRE_HRY</v>
       </c>
       <c r="E72" t="s">
@@ -17151,7 +17536,7 @@
         <v>37</v>
       </c>
       <c r="P72" t="s">
-        <v>38</v>
+        <v>434</v>
       </c>
       <c r="Q72">
         <v>20</v>
@@ -17163,7 +17548,7 @@
         <v>30</v>
       </c>
       <c r="T72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y72" t="s">
         <v>274</v>
@@ -17205,11 +17590,11 @@
         <v>230</v>
       </c>
       <c r="C73" s="6" t="str">
-        <f>VLOOKUP(B73,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B73,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeLSARasterTestMethod</v>
       </c>
       <c r="D73" t="str">
-        <f t="shared" si="15"/>
+        <f>E73&amp;"_"&amp;F73&amp;"_"&amp;G73&amp;"_"&amp;H73&amp;"_"&amp;A73&amp;"_"&amp;I73&amp;"_"&amp;J73&amp;"_"&amp;K73&amp;"_"&amp;L73&amp;"_"&amp;M73</f>
         <v>LSA_ATOM_RASTER_E_BEGIN_TITO_ATOM_MIN_LFM_RF_RASTER</v>
       </c>
       <c r="E73" t="s">
@@ -17246,7 +17631,7 @@
         <v>37</v>
       </c>
       <c r="P73" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q73">
         <v>20</v>
@@ -17258,7 +17643,7 @@
         <v>31</v>
       </c>
       <c r="T73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y73" t="s">
         <v>274</v>
@@ -17270,7 +17655,7 @@
         <v>0</v>
       </c>
       <c r="AD73">
-        <f t="shared" ref="AD73:AD80" si="16">COUNTA(AF73:AO73)</f>
+        <f>COUNTA(AF73:AO73)</f>
         <v>3</v>
       </c>
       <c r="AE73" t="s">
@@ -17297,11 +17682,11 @@
         <v>191</v>
       </c>
       <c r="C74" s="6" t="str">
-        <f>VLOOKUP(B74,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B74,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D74" t="str">
-        <f t="shared" si="15"/>
+        <f>E74&amp;"_"&amp;F74&amp;"_"&amp;G74&amp;"_"&amp;H74&amp;"_"&amp;A74&amp;"_"&amp;I74&amp;"_"&amp;J74&amp;"_"&amp;K74&amp;"_"&amp;L74&amp;"_"&amp;M74</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_MIN_LFM_RF_REPAIR</v>
       </c>
       <c r="E74" t="s">
@@ -17338,7 +17723,7 @@
         <v>37</v>
       </c>
       <c r="P74" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q74">
         <v>20</v>
@@ -17350,7 +17735,7 @@
         <v>32</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y74" t="s">
         <v>274</v>
@@ -17368,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="AD74">
-        <f t="shared" si="16"/>
+        <f>COUNTA(AF74:AO74)</f>
         <v>6</v>
       </c>
       <c r="AE74" t="s">
@@ -17407,11 +17792,11 @@
         <v>193</v>
       </c>
       <c r="C75" s="6" t="str">
-        <f>VLOOKUP(B75,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B75,[1]templateLookup!A:B,2,0)</f>
         <v>iCRepairTest</v>
       </c>
       <c r="D75" t="str">
-        <f t="shared" si="15"/>
+        <f>E75&amp;"_"&amp;F75&amp;"_"&amp;G75&amp;"_"&amp;H75&amp;"_"&amp;A75&amp;"_"&amp;I75&amp;"_"&amp;J75&amp;"_"&amp;K75&amp;"_"&amp;L75&amp;"_"&amp;M75</f>
         <v>LSA_ATOM_REPAIR_E_BEGIN_TITO_ATOM_MIN_LFM_RF_REPAIR_TO_FUSE</v>
       </c>
       <c r="E75" t="s">
@@ -17448,7 +17833,7 @@
         <v>37</v>
       </c>
       <c r="P75" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q75">
         <v>20</v>
@@ -17460,7 +17845,7 @@
         <v>33</v>
       </c>
       <c r="T75">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y75" t="s">
         <v>274</v>
@@ -17478,7 +17863,7 @@
         <v>0</v>
       </c>
       <c r="AD75">
-        <f t="shared" si="16"/>
+        <f>COUNTA(AF75:AO75)</f>
         <v>6</v>
       </c>
       <c r="AE75" t="s">
@@ -17517,11 +17902,11 @@
         <v>153</v>
       </c>
       <c r="C76" s="6" t="str">
-        <f>VLOOKUP(B76,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B76,[1]templateLookup!A:B,2,0)</f>
         <v>iCVFDMTest</v>
       </c>
       <c r="D76" t="str">
-        <f t="shared" si="15"/>
+        <f>E76&amp;"_"&amp;F76&amp;"_"&amp;G76&amp;"_"&amp;H76&amp;"_"&amp;A76&amp;"_"&amp;I76&amp;"_"&amp;J76&amp;"_"&amp;K76&amp;"_"&amp;L76&amp;"_"&amp;M76</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_VFDM_MIN</v>
       </c>
       <c r="E76" t="s">
@@ -17558,7 +17943,7 @@
         <v>37</v>
       </c>
       <c r="P76" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q76">
         <v>20</v>
@@ -17579,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="AD76">
-        <f t="shared" si="16"/>
+        <f>COUNTA(AF76:AO76)</f>
         <v>3</v>
       </c>
       <c r="AE76" t="s">
@@ -17606,11 +17991,11 @@
         <v>156</v>
       </c>
       <c r="C77" s="6" t="str">
-        <f>VLOOKUP(B77,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B77,[1]templateLookup!A:B,2,0)</f>
         <v>iCUserFuncTest</v>
       </c>
       <c r="D77" t="str">
-        <f t="shared" si="15"/>
+        <f>E77&amp;"_"&amp;F77&amp;"_"&amp;G77&amp;"_"&amp;H77&amp;"_"&amp;A77&amp;"_"&amp;I77&amp;"_"&amp;J77&amp;"_"&amp;K77&amp;"_"&amp;L77&amp;"_"&amp;M77</f>
         <v>LSA_ATOM_UF_E_BEGIN_X_X_X_X_RF_VFDM_APPLY_MIN</v>
       </c>
       <c r="E77" t="s">
@@ -17647,7 +18032,7 @@
         <v>37</v>
       </c>
       <c r="P77" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q77">
         <v>20</v>
@@ -17665,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="AD77">
-        <f t="shared" si="16"/>
+        <f>COUNTA(AF77:AO77)</f>
         <v>3</v>
       </c>
       <c r="AE77">
@@ -17692,11 +18077,11 @@
         <v>44</v>
       </c>
       <c r="C78" s="6" t="str">
-        <f>VLOOKUP(B78,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B78,[1]templateLookup!A:B,2,0)</f>
         <v>PrimePatConfigTestMethod</v>
       </c>
       <c r="D78" t="str">
-        <f t="shared" si="15"/>
+        <f>E78&amp;"_"&amp;F78&amp;"_"&amp;G78&amp;"_"&amp;H78&amp;"_"&amp;A78&amp;"_"&amp;I78&amp;"_"&amp;J78&amp;"_"&amp;K78&amp;"_"&amp;L78&amp;"_"&amp;M78</f>
         <v>LSA_ATOM_VFDM_E_BEGIN_X_X_X_X_RF_FUSE_MIN</v>
       </c>
       <c r="E78" t="s">
@@ -17733,7 +18118,7 @@
         <v>37</v>
       </c>
       <c r="P78" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q78">
         <v>20</v>
@@ -17751,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="AD78">
-        <f t="shared" si="16"/>
+        <f>COUNTA(AF78:AO78)</f>
         <v>2</v>
       </c>
       <c r="AE78">
@@ -17774,11 +18159,11 @@
         <v>289</v>
       </c>
       <c r="C79" s="6" t="str">
-        <f>VLOOKUP(B79,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B79,[1]templateLookup!A:B,2,0)</f>
         <v>iCHSRTest</v>
       </c>
       <c r="D79" t="str">
-        <f t="shared" si="15"/>
+        <f>E79&amp;"_"&amp;F79&amp;"_"&amp;G79&amp;"_"&amp;H79&amp;"_"&amp;A79&amp;"_"&amp;I79&amp;"_"&amp;J79&amp;"_"&amp;K79&amp;"_"&amp;L79&amp;"_"&amp;M79</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_MIN_LFM_RF_POST_HRY</v>
       </c>
       <c r="E79" t="s">
@@ -17815,7 +18200,7 @@
         <v>37</v>
       </c>
       <c r="P79" t="s">
-        <v>38</v>
+        <v>433</v>
       </c>
       <c r="Q79">
         <v>20</v>
@@ -17827,13 +18212,13 @@
         <v>37</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC79" t="b">
         <v>0</v>
       </c>
       <c r="AD79">
-        <f t="shared" si="16"/>
+        <f>COUNTA(AF79:AO79)</f>
         <v>4</v>
       </c>
       <c r="AE79" t="s">
@@ -17861,11 +18246,11 @@
         <v>263</v>
       </c>
       <c r="C80" s="6" t="str">
-        <f>VLOOKUP(B80,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B80,[1]templateLookup!A:B,2,0)</f>
         <v>AuxiliaryTC</v>
       </c>
       <c r="D80" t="str">
-        <f t="shared" si="15"/>
+        <f>E80&amp;"_"&amp;F80&amp;"_"&amp;G80&amp;"_"&amp;H80&amp;"_"&amp;A80&amp;"_"&amp;I80&amp;"_"&amp;J80&amp;"_"&amp;K80&amp;"_"&amp;L80&amp;"_"&amp;M80</f>
         <v>LSA_ATOM_AUX_E_BEGIN_X_X_X_X_REP_FLAG_RF_MIN</v>
       </c>
       <c r="E80" t="s">
@@ -17902,7 +18287,7 @@
         <v>37</v>
       </c>
       <c r="P80" t="s">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="Q80">
         <v>20</v>
@@ -17914,7 +18299,7 @@
         <v>38</v>
       </c>
       <c r="T80">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W80" t="s">
         <v>266</v>
@@ -17923,7 +18308,7 @@
         <v>0</v>
       </c>
       <c r="AD80">
-        <f t="shared" si="16"/>
+        <f>COUNTA(AF80:AO80)</f>
         <v>3</v>
       </c>
       <c r="AE80" t="s">
@@ -17947,7 +18332,7 @@
         <v>42</v>
       </c>
       <c r="C81" s="6" t="str">
-        <f>VLOOKUP(B81,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B81,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -17959,7 +18344,7 @@
         <v>27</v>
       </c>
       <c r="C82" s="5" t="str">
-        <f>VLOOKUP(B82,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B82,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D82" t="s">
@@ -17993,11 +18378,11 @@
         <v>229</v>
       </c>
       <c r="C83" s="5" t="str">
-        <f>VLOOKUP(B83,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B83,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeLSARasterTestMethod</v>
       </c>
       <c r="D83" t="str">
-        <f t="shared" ref="D83:D84" si="17">E83&amp;"_"&amp;F83&amp;"_"&amp;G83&amp;"_"&amp;H83&amp;"_"&amp;A83&amp;"_"&amp;I83&amp;"_"&amp;J83&amp;"_"&amp;K83&amp;"_"&amp;L83&amp;"_"&amp;M83</f>
+        <f>E83&amp;"_"&amp;F83&amp;"_"&amp;G83&amp;"_"&amp;H83&amp;"_"&amp;A83&amp;"_"&amp;I83&amp;"_"&amp;J83&amp;"_"&amp;K83&amp;"_"&amp;L83&amp;"_"&amp;M83</f>
         <v>LSA_ATOM_HRY_E_BEGIN_TITO_ATOM_NOM_LFM_RF_NON_REP_HRY</v>
       </c>
       <c r="E83" t="s">
@@ -18034,7 +18419,7 @@
         <v>37</v>
       </c>
       <c r="P83" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q83">
         <v>20</v>
@@ -18046,7 +18431,7 @@
         <v>40</v>
       </c>
       <c r="T83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC83" t="b">
         <v>0</v>
@@ -18082,11 +18467,11 @@
         <v>230</v>
       </c>
       <c r="C84" s="5" t="str">
-        <f>VLOOKUP(B84,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B84,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeLSARasterTestMethod</v>
       </c>
       <c r="D84" t="str">
-        <f t="shared" si="17"/>
+        <f>E84&amp;"_"&amp;F84&amp;"_"&amp;G84&amp;"_"&amp;H84&amp;"_"&amp;A84&amp;"_"&amp;I84&amp;"_"&amp;J84&amp;"_"&amp;K84&amp;"_"&amp;L84&amp;"_"&amp;M84</f>
         <v>LSA_ATOM_RASTER_E_BEGIN_TITO_ATOM_NOM_LFM_RF_NON_REP_RASTER</v>
       </c>
       <c r="E84" t="s">
@@ -18123,7 +18508,7 @@
         <v>37</v>
       </c>
       <c r="P84" t="s">
-        <v>38</v>
+        <v>431</v>
       </c>
       <c r="Q84">
         <v>20</v>
@@ -18135,13 +18520,13 @@
         <v>41</v>
       </c>
       <c r="T84">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC84" t="b">
         <v>0</v>
       </c>
       <c r="AD84">
-        <f t="shared" ref="AD84" si="18">COUNTA(AF84:AO84)</f>
+        <f>COUNTA(AF84:AO84)</f>
         <v>3</v>
       </c>
       <c r="AE84" t="s">
@@ -18165,7 +18550,7 @@
         <v>42</v>
       </c>
       <c r="C85" s="5" t="str">
-        <f>VLOOKUP(B85,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B85,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -18177,7 +18562,7 @@
         <v>42</v>
       </c>
       <c r="C86" s="7" t="str">
-        <f>VLOOKUP(B86,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B86,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D86" s="7"/>
@@ -18227,7 +18612,7 @@
         <v>27</v>
       </c>
       <c r="C87" s="7" t="str">
-        <f>VLOOKUP(B87,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B87,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D87" s="7" t="s">
@@ -18281,11 +18666,11 @@
         <v>49</v>
       </c>
       <c r="C88" s="4" t="str">
-        <f>VLOOKUP(B88,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B88,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D88" t="str">
-        <f t="shared" ref="D88:D91" si="19">E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;"_"&amp;A88&amp;"_"&amp;I88&amp;"_"&amp;J88&amp;"_"&amp;K88&amp;"_"&amp;L88&amp;"_"&amp;M88</f>
+        <f>E88&amp;"_"&amp;F88&amp;"_"&amp;G88&amp;"_"&amp;H88&amp;"_"&amp;A88&amp;"_"&amp;I88&amp;"_"&amp;J88&amp;"_"&amp;K88&amp;"_"&amp;L88&amp;"_"&amp;M88</f>
         <v>LSA_ATOM_VMIN_K_PREHVQK_TITO_ATOM_MIN_LFM_LRU</v>
       </c>
       <c r="E88" t="s">
@@ -18346,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="AD88">
-        <f t="shared" ref="AD88:AD91" si="20">COUNTA(AF88:AO88)</f>
+        <f>COUNTA(AF88:AO88)</f>
         <v>2</v>
       </c>
       <c r="AE88">
@@ -18369,11 +18754,11 @@
         <v>49</v>
       </c>
       <c r="C89" s="4" t="str">
-        <f>VLOOKUP(B89,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B89,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D89" t="str">
-        <f t="shared" si="19"/>
+        <f>E89&amp;"_"&amp;F89&amp;"_"&amp;G89&amp;"_"&amp;H89&amp;"_"&amp;A89&amp;"_"&amp;I89&amp;"_"&amp;J89&amp;"_"&amp;K89&amp;"_"&amp;L89&amp;"_"&amp;M89</f>
         <v>LSA_ATOM_VMIN_K_PREHVQK_TITO_ATOM_MIN_LFM_RF</v>
       </c>
       <c r="E89" t="s">
@@ -18434,7 +18819,7 @@
         <v>0</v>
       </c>
       <c r="AD89">
-        <f t="shared" si="20"/>
+        <f>COUNTA(AF89:AO89)</f>
         <v>2</v>
       </c>
       <c r="AE89">
@@ -18457,11 +18842,11 @@
         <v>49</v>
       </c>
       <c r="C90" s="4" t="str">
-        <f>VLOOKUP(B90,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B90,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D90" t="str">
-        <f t="shared" si="19"/>
+        <f>E90&amp;"_"&amp;F90&amp;"_"&amp;G90&amp;"_"&amp;H90&amp;"_"&amp;A90&amp;"_"&amp;I90&amp;"_"&amp;J90&amp;"_"&amp;K90&amp;"_"&amp;L90&amp;"_"&amp;M90</f>
         <v>ROM_ATOM_VMIN_K_PREHVQK_TITO_ATOM_MIN_LFM_ROM</v>
       </c>
       <c r="E90" t="s">
@@ -18522,7 +18907,7 @@
         <v>0</v>
       </c>
       <c r="AD90">
-        <f t="shared" si="20"/>
+        <f>COUNTA(AF90:AO90)</f>
         <v>2</v>
       </c>
       <c r="AE90">
@@ -18545,11 +18930,11 @@
         <v>49</v>
       </c>
       <c r="C91" s="4" t="str">
-        <f>VLOOKUP(B91,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B91,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D91" t="str">
-        <f t="shared" si="19"/>
+        <f>E91&amp;"_"&amp;F91&amp;"_"&amp;G91&amp;"_"&amp;H91&amp;"_"&amp;A91&amp;"_"&amp;I91&amp;"_"&amp;J91&amp;"_"&amp;K91&amp;"_"&amp;L91&amp;"_"&amp;M91</f>
         <v>SSA_ATOM_VMIN_K_PREHVQK_TITO_ATOML2_MIN_LFM_L2_ALL</v>
       </c>
       <c r="E91" t="s">
@@ -18610,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="AD91">
-        <f t="shared" si="20"/>
+        <f>COUNTA(AF91:AO91)</f>
         <v>2</v>
       </c>
       <c r="AE91">
@@ -18631,7 +19016,7 @@
         <v>42</v>
       </c>
       <c r="C92" s="7" t="str">
-        <f>VLOOKUP(B92,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B92,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D92" s="7"/>
@@ -18681,7 +19066,7 @@
         <v>27</v>
       </c>
       <c r="C93" s="7" t="str">
-        <f>VLOOKUP(B93,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B93,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D93" s="7" t="s">
@@ -18735,7 +19120,7 @@
         <v>65</v>
       </c>
       <c r="C94" s="6" t="str">
-        <f>VLOOKUP(B94,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B94,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeHvqkTestMethod</v>
       </c>
       <c r="D94" t="str">
@@ -18797,7 +19182,7 @@
         <v>0</v>
       </c>
       <c r="AD94">
-        <f t="shared" ref="AD94:AD95" si="21">COUNTA(AF94:AO94)</f>
+        <f>COUNTA(AF94:AO94)</f>
         <v>4</v>
       </c>
       <c r="AE94" t="s">
@@ -18828,7 +19213,7 @@
         <v>65</v>
       </c>
       <c r="C95" s="6" t="str">
-        <f>VLOOKUP(B95,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B95,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeHvqkTestMethod</v>
       </c>
       <c r="D95" t="str">
@@ -18890,7 +19275,7 @@
         <v>0</v>
       </c>
       <c r="AD95">
-        <f t="shared" si="21"/>
+        <f>COUNTA(AF95:AO95)</f>
         <v>4</v>
       </c>
       <c r="AE95" t="s">
@@ -18917,7 +19302,7 @@
         <v>42</v>
       </c>
       <c r="C96" s="7" t="str">
-        <f>VLOOKUP(B96,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B96,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D96" s="7"/>
@@ -18967,7 +19352,7 @@
         <v>27</v>
       </c>
       <c r="C97" s="7" t="str">
-        <f>VLOOKUP(B97,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B97,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D97" s="7" t="s">
@@ -19021,11 +19406,11 @@
         <v>49</v>
       </c>
       <c r="C98" s="5" t="str">
-        <f>VLOOKUP(B98,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B98,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D98" t="str">
-        <f t="shared" ref="D98:D101" si="22">E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;"_"&amp;A98&amp;"_"&amp;I98&amp;"_"&amp;J98&amp;"_"&amp;K98&amp;"_"&amp;L98&amp;"_"&amp;M98</f>
+        <f>E98&amp;"_"&amp;F98&amp;"_"&amp;G98&amp;"_"&amp;H98&amp;"_"&amp;A98&amp;"_"&amp;I98&amp;"_"&amp;J98&amp;"_"&amp;K98&amp;"_"&amp;L98&amp;"_"&amp;M98</f>
         <v>LSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOM_MIN_LFM_LRU</v>
       </c>
       <c r="E98" t="s">
@@ -19086,7 +19471,7 @@
         <v>0</v>
       </c>
       <c r="AD98">
-        <f t="shared" ref="AD98:AD101" si="23">COUNTA(AF98:AO98)</f>
+        <f>COUNTA(AF98:AO98)</f>
         <v>2</v>
       </c>
       <c r="AE98">
@@ -19109,11 +19494,11 @@
         <v>49</v>
       </c>
       <c r="C99" s="5" t="str">
-        <f>VLOOKUP(B99,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B99,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D99" t="str">
-        <f t="shared" si="22"/>
+        <f>E99&amp;"_"&amp;F99&amp;"_"&amp;G99&amp;"_"&amp;H99&amp;"_"&amp;A99&amp;"_"&amp;I99&amp;"_"&amp;J99&amp;"_"&amp;K99&amp;"_"&amp;L99&amp;"_"&amp;M99</f>
         <v>LSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOM_MIN_LFM_RF</v>
       </c>
       <c r="E99" t="s">
@@ -19174,7 +19559,7 @@
         <v>0</v>
       </c>
       <c r="AD99">
-        <f t="shared" si="23"/>
+        <f>COUNTA(AF99:AO99)</f>
         <v>2</v>
       </c>
       <c r="AE99">
@@ -19197,11 +19582,11 @@
         <v>49</v>
       </c>
       <c r="C100" s="5" t="str">
-        <f>VLOOKUP(B100,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B100,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D100" t="str">
-        <f t="shared" si="22"/>
+        <f>E100&amp;"_"&amp;F100&amp;"_"&amp;G100&amp;"_"&amp;H100&amp;"_"&amp;A100&amp;"_"&amp;I100&amp;"_"&amp;J100&amp;"_"&amp;K100&amp;"_"&amp;L100&amp;"_"&amp;M100</f>
         <v>ROM_ATOM_VMIN_K_POSTHVQK_TITO_ATOM_MIN_LFM_ROM</v>
       </c>
       <c r="E100" t="s">
@@ -19262,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="AD100">
-        <f t="shared" si="23"/>
+        <f>COUNTA(AF100:AO100)</f>
         <v>2</v>
       </c>
       <c r="AE100">
@@ -19285,11 +19670,11 @@
         <v>49</v>
       </c>
       <c r="C101" s="5" t="str">
-        <f>VLOOKUP(B101,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B101,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D101" t="str">
-        <f t="shared" si="22"/>
+        <f>E101&amp;"_"&amp;F101&amp;"_"&amp;G101&amp;"_"&amp;H101&amp;"_"&amp;A101&amp;"_"&amp;I101&amp;"_"&amp;J101&amp;"_"&amp;K101&amp;"_"&amp;L101&amp;"_"&amp;M101</f>
         <v>SSA_ATOM_VMIN_K_POSTHVQK_TITO_ATOML2_MIN_LFM_L2_ALL</v>
       </c>
       <c r="E101" t="s">
@@ -19350,7 +19735,7 @@
         <v>0</v>
       </c>
       <c r="AD101">
-        <f t="shared" si="23"/>
+        <f>COUNTA(AF101:AO101)</f>
         <v>2</v>
       </c>
       <c r="AE101">
@@ -19371,7 +19756,7 @@
         <v>42</v>
       </c>
       <c r="C102" s="7" t="str">
-        <f>VLOOKUP(B102,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B102,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D102" s="7"/>
@@ -19421,7 +19806,7 @@
         <v>27</v>
       </c>
       <c r="C103" s="7" t="str">
-        <f>VLOOKUP(B103,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B103,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D103" s="7" t="s">
@@ -19475,7 +19860,7 @@
         <v>27</v>
       </c>
       <c r="C104" s="5" t="str">
-        <f>VLOOKUP(B104,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B104,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D104" t="s">
@@ -19485,7 +19870,7 @@
         <v>109</v>
       </c>
       <c r="AD104">
-        <f t="shared" ref="AD104:AD108" si="24">COUNTA(AF104:AO104)</f>
+        <f>COUNTA(AF104:AO104)</f>
         <v>2</v>
       </c>
       <c r="AE104">
@@ -19508,11 +19893,11 @@
         <v>49</v>
       </c>
       <c r="C105" s="5" t="str">
-        <f>VLOOKUP(B105,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B105,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D105" t="str">
-        <f t="shared" ref="D105:D108" si="25">E105&amp;"_"&amp;F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;"_"&amp;A105&amp;"_"&amp;I105&amp;"_"&amp;J105&amp;"_"&amp;K105&amp;"_"&amp;L105&amp;"_"&amp;M105</f>
+        <f>E105&amp;"_"&amp;F105&amp;"_"&amp;G105&amp;"_"&amp;H105&amp;"_"&amp;A105&amp;"_"&amp;I105&amp;"_"&amp;J105&amp;"_"&amp;K105&amp;"_"&amp;L105&amp;"_"&amp;M105</f>
         <v>SSA_ATOM_VMIN_K_END_TITO_ATOML2_MIN_LFM_L2_ALL</v>
       </c>
       <c r="E105" t="s">
@@ -19573,7 +19958,7 @@
         <v>0</v>
       </c>
       <c r="AD105">
-        <f t="shared" si="24"/>
+        <f>COUNTA(AF105:AO105)</f>
         <v>2</v>
       </c>
       <c r="AE105">
@@ -19596,11 +19981,11 @@
         <v>49</v>
       </c>
       <c r="C106" s="5" t="str">
-        <f>VLOOKUP(B106,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B106,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D106" t="str">
-        <f t="shared" si="25"/>
+        <f>E106&amp;"_"&amp;F106&amp;"_"&amp;G106&amp;"_"&amp;H106&amp;"_"&amp;A106&amp;"_"&amp;I106&amp;"_"&amp;J106&amp;"_"&amp;K106&amp;"_"&amp;L106&amp;"_"&amp;M106</f>
         <v>LSA_ATOM_VMIN_K_END_TITO_ATOML2_MIN_LFM_L2_LRU</v>
       </c>
       <c r="E106" t="s">
@@ -19661,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="AD106">
-        <f t="shared" si="24"/>
+        <f>COUNTA(AF106:AO106)</f>
         <v>2</v>
       </c>
       <c r="AE106">
@@ -19684,11 +20069,11 @@
         <v>49</v>
       </c>
       <c r="C107" s="5" t="str">
-        <f>VLOOKUP(B107,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B107,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D107" t="str">
-        <f t="shared" si="25"/>
+        <f>E107&amp;"_"&amp;F107&amp;"_"&amp;G107&amp;"_"&amp;H107&amp;"_"&amp;A107&amp;"_"&amp;I107&amp;"_"&amp;J107&amp;"_"&amp;K107&amp;"_"&amp;L107&amp;"_"&amp;M107</f>
         <v>LSA_ATOM_VMIN_K_END_TITO_ATOM_MIN_LFM_RF_ALL</v>
       </c>
       <c r="E107" t="s">
@@ -19749,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="AD107">
-        <f t="shared" si="24"/>
+        <f>COUNTA(AF107:AO107)</f>
         <v>2</v>
       </c>
       <c r="AE107">
@@ -19772,11 +20157,11 @@
         <v>49</v>
       </c>
       <c r="C108" s="5" t="str">
-        <f>VLOOKUP(B108,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B108,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D108" t="str">
-        <f t="shared" si="25"/>
+        <f>E108&amp;"_"&amp;F108&amp;"_"&amp;G108&amp;"_"&amp;H108&amp;"_"&amp;A108&amp;"_"&amp;I108&amp;"_"&amp;J108&amp;"_"&amp;K108&amp;"_"&amp;L108&amp;"_"&amp;M108</f>
         <v>LSA_ATOM_VMIN_K_END_TITO_ATOM_MIN_LFM_ROM</v>
       </c>
       <c r="E108" t="s">
@@ -19837,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="AD108">
-        <f t="shared" si="24"/>
+        <f>COUNTA(AF108:AO108)</f>
         <v>2</v>
       </c>
       <c r="AE108">
@@ -19858,7 +20243,7 @@
         <v>42</v>
       </c>
       <c r="C109" s="5" t="str">
-        <f>VLOOKUP(B109,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B109,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -19870,7 +20255,7 @@
         <v>27</v>
       </c>
       <c r="C110" s="8" t="str">
-        <f>VLOOKUP(B110,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B110,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D110" t="s">
@@ -19880,7 +20265,7 @@
         <v>109</v>
       </c>
       <c r="AD110">
-        <f t="shared" ref="AD110:AD112" si="26">COUNTA(AF110:AO110)</f>
+        <f>COUNTA(AF110:AO110)</f>
         <v>2</v>
       </c>
       <c r="AE110">
@@ -19901,7 +20286,7 @@
         <v>49</v>
       </c>
       <c r="C111" s="8" t="str">
-        <f>VLOOKUP(B111,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B111,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D111" t="str">
@@ -19966,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="AD111">
-        <f t="shared" si="26"/>
+        <f>COUNTA(AF111:AO111)</f>
         <v>2</v>
       </c>
       <c r="AE111">
@@ -19989,7 +20374,7 @@
         <v>49</v>
       </c>
       <c r="C112" s="8" t="str">
-        <f>VLOOKUP(B112,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B112,[1]templateLookup!A:B,2,0)</f>
         <v>PrimeVminSearchTestMethod</v>
       </c>
       <c r="D112" t="str">
@@ -20054,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="AD112">
-        <f t="shared" si="26"/>
+        <f>COUNTA(AF112:AO112)</f>
         <v>2</v>
       </c>
       <c r="AE112">
@@ -20075,7 +20460,7 @@
         <v>42</v>
       </c>
       <c r="C113" s="8" t="str">
-        <f>VLOOKUP(B113,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B113,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
     </row>
@@ -20087,7 +20472,7 @@
         <v>42</v>
       </c>
       <c r="C114" s="7" t="str">
-        <f>VLOOKUP(B114,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B114,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D114" s="7"/>
@@ -20137,7 +20522,7 @@
         <v>93</v>
       </c>
       <c r="C115" t="str">
-        <f>VLOOKUP(B115,templateLookup!A:B,2,0)</f>
+        <f>VLOOKUP(B115,[1]templateLookup!A:B,2,0)</f>
         <v>COMPOSITE</v>
       </c>
       <c r="D115" t="s">
@@ -20146,7 +20531,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO115" xr:uid="{E78E7DAD-E2E3-41CA-AC6B-36D49F2F3F66}"/>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32002,7 +32386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085EAE81-7B4D-421F-AB9D-4D5523112C76}">
   <dimension ref="A1:AN131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="U1" sqref="U1:U1048576"/>
     </sheetView>
   </sheetViews>
@@ -39060,11 +39444,11 @@
         <v>1</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" ref="AE71:AE85" si="59">D72</f>
+        <f t="shared" ref="AE71:AE84" si="59">D72</f>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
       <c r="AF71" t="str">
-        <f t="shared" ref="AF71:AF85" si="60">D72</f>
+        <f t="shared" ref="AF71:AF84" si="60">D72</f>
         <v>SSA_VPU_VMIN_E_PREHVQK_T_VCCSA_LFM_X_TILE_0</v>
       </c>
     </row>

--- a/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
+++ b/lighterFluid/inputs/lnlArrayMasterSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eoghanoc\source\repos\lighterFluid\lighterFluid\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85EBD7B-DCCB-4F2E-9BD1-E4EE053BCC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453B25C1-8C53-4E3D-AF80-A8FF3A549E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21993,9 +21993,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3B8437-3DCF-4B36-BC4E-3AB927DD0A96}">
   <dimension ref="A1:AQ106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AN25" sqref="AN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22999,43 +22999,43 @@
         <v>39</v>
       </c>
       <c r="AH11" s="6" t="str">
-        <f t="shared" ref="AH11:AH12" si="14">$D12</f>
+        <f t="shared" ref="AH11:AH13" si="14">$D12</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
       </c>
-      <c r="AI11" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ11" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK11" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL11" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI11" s="6" t="str">
+        <f>$D12</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
+      </c>
+      <c r="AJ11" s="6" t="str">
+        <f t="shared" ref="AJ11:AL11" si="15">$D12</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
+      </c>
+      <c r="AK11" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
+      </c>
+      <c r="AL11" s="6" t="str">
+        <f t="shared" si="15"/>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
       </c>
       <c r="AM11" s="6" t="str">
         <f>$D12</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
       </c>
       <c r="AN11" s="6" t="str">
-        <f t="shared" ref="AN11:AQ12" si="15">$D12</f>
+        <f t="shared" ref="AN11:AQ12" si="16">$D12</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
       </c>
       <c r="AO11" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
       </c>
       <c r="AP11" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
       </c>
       <c r="AQ11" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_BISR_CORE_ALL</v>
       </c>
     </row>
@@ -23122,7 +23122,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="6">
-        <f t="shared" ref="AF12" si="16">COUNTA(AH12:AQ12)</f>
+        <f t="shared" ref="AF12" si="17">COUNTA(AH12:AQ12)</f>
         <v>10</v>
       </c>
       <c r="AG12" s="6" t="s">
@@ -23132,40 +23132,40 @@
         <f t="shared" si="14"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
-      <c r="AI12" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ12" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK12" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL12" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI12" s="6" t="str">
+        <f>$D13</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ12" s="6" t="str">
+        <f t="shared" ref="AJ12" si="18">$D13</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK12" s="6" t="str">
+        <f t="shared" ref="AK12" si="19">$D13</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL12" s="6" t="str">
+        <f t="shared" ref="AL12" si="20">$D13</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
       <c r="AM12" s="6" t="str">
         <f>$D13</f>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
       <c r="AN12" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
       <c r="AO12" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
       <c r="AP12" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
       <c r="AQ12" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
     </row>
@@ -23254,29 +23254,29 @@
       <c r="AG13" s="6">
         <v>1</v>
       </c>
-      <c r="AH13" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI13" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ13" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK13" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL13" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM13" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AH13" s="6" t="str">
+        <f>$D13</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AI13" s="6" t="str">
+        <f t="shared" ref="AI13:AM13" si="21">$D13</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ13" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK13" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL13" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AM13" s="6" t="str">
+        <f t="shared" si="21"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_0_RASTER_CORE_ALL</v>
       </c>
       <c r="AN13" s="6"/>
       <c r="AO13" s="6"/>
@@ -23366,50 +23366,50 @@
         <v>0</v>
       </c>
       <c r="AF14" s="6">
-        <f t="shared" ref="AF14:AF25" si="17">COUNTA(AH14:AQ14)</f>
+        <f t="shared" ref="AF14:AF25" si="22">COUNTA(AH14:AQ14)</f>
         <v>10</v>
       </c>
       <c r="AG14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH14" s="6" t="str">
-        <f t="shared" ref="AH14:AH24" si="18">$D15</f>
+        <f t="shared" ref="AH14:AH16" si="23">$D15</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
       </c>
-      <c r="AI14" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ14" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK14" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL14" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI14" s="6" t="str">
+        <f>$D15</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
+      </c>
+      <c r="AJ14" s="6" t="str">
+        <f t="shared" ref="AJ14:AJ15" si="24">$D15</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
+      </c>
+      <c r="AK14" s="6" t="str">
+        <f t="shared" ref="AK14:AK15" si="25">$D15</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
+      </c>
+      <c r="AL14" s="6" t="str">
+        <f t="shared" ref="AL14:AL15" si="26">$D15</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
       </c>
       <c r="AM14" s="6" t="str">
-        <f t="shared" ref="AM14:AM24" si="19">$D15</f>
+        <f>$D15</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
       </c>
       <c r="AN14" s="6" t="str">
-        <f t="shared" ref="AN14:AN15" si="20">$D15</f>
+        <f t="shared" ref="AN14:AN15" si="27">$D15</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
       </c>
       <c r="AO14" s="6" t="str">
-        <f t="shared" ref="AO14:AO15" si="21">$D15</f>
+        <f t="shared" ref="AO14:AO15" si="28">$D15</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
       </c>
       <c r="AP14" s="6" t="str">
-        <f t="shared" ref="AP14:AP15" si="22">$D15</f>
+        <f t="shared" ref="AP14:AP15" si="29">$D15</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
       </c>
       <c r="AQ14" s="6" t="str">
-        <f t="shared" ref="AQ14:AQ15" si="23">$D15</f>
+        <f t="shared" ref="AQ14:AQ15" si="30">$D15</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_BISR_CORE_ALL</v>
       </c>
     </row>
@@ -23496,50 +23496,50 @@
         <v>0</v>
       </c>
       <c r="AF15" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AG15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH15" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
-      <c r="AI15" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ15" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK15" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL15" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI15" s="6" t="str">
+        <f>$D16</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ15" s="6" t="str">
+        <f t="shared" si="24"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK15" s="6" t="str">
+        <f t="shared" si="25"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL15" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
       <c r="AM15" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f>$D16</f>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
       <c r="AN15" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="27"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
       <c r="AO15" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="28"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
       <c r="AP15" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="29"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
       <c r="AQ15" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
     </row>
@@ -23622,35 +23622,35 @@
         <v>0</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AG16" s="6">
         <v>1</v>
       </c>
-      <c r="AH16" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI16" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ16" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK16" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL16" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM16" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AH16" s="6" t="str">
+        <f>$D16</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AI16" s="6" t="str">
+        <f t="shared" ref="AI16:AM16" si="31">$D16</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ16" s="6" t="str">
+        <f t="shared" si="31"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK16" s="6" t="str">
+        <f t="shared" si="31"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL16" s="6" t="str">
+        <f t="shared" si="31"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AM16" s="6" t="str">
+        <f t="shared" si="31"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_1_RASTER_CORE_ALL</v>
       </c>
       <c r="AN16" s="6"/>
       <c r="AO16" s="6"/>
@@ -23740,50 +23740,50 @@
         <v>0</v>
       </c>
       <c r="AF17" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AG17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH17" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AH17:AH19" si="32">$D18</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
       </c>
-      <c r="AI17" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ17" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK17" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL17" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI17" s="6" t="str">
+        <f>$D18</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
+      </c>
+      <c r="AJ17" s="6" t="str">
+        <f t="shared" ref="AJ17:AJ18" si="33">$D18</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
+      </c>
+      <c r="AK17" s="6" t="str">
+        <f t="shared" ref="AK17:AK18" si="34">$D18</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
+      </c>
+      <c r="AL17" s="6" t="str">
+        <f t="shared" ref="AL17:AL18" si="35">$D18</f>
+        <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
       </c>
       <c r="AM17" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f>$D18</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
       </c>
       <c r="AN17" s="6" t="str">
-        <f t="shared" ref="AN17:AN18" si="24">$D18</f>
+        <f t="shared" ref="AN17:AN18" si="36">$D18</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
       </c>
       <c r="AO17" s="6" t="str">
-        <f t="shared" ref="AO17:AO18" si="25">$D18</f>
+        <f t="shared" ref="AO17:AO18" si="37">$D18</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
       </c>
       <c r="AP17" s="6" t="str">
-        <f t="shared" ref="AP17:AP18" si="26">$D18</f>
+        <f t="shared" ref="AP17:AP18" si="38">$D18</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
       </c>
       <c r="AQ17" s="6" t="str">
-        <f t="shared" ref="AQ17:AQ18" si="27">$D18</f>
+        <f t="shared" ref="AQ17:AQ18" si="39">$D18</f>
         <v>SSA_CORE_HRY_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_BISR_CORE_ALL</v>
       </c>
     </row>
@@ -23870,50 +23870,50 @@
         <v>0</v>
       </c>
       <c r="AF18" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AG18" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH18" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
-      <c r="AI18" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ18" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK18" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL18" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI18" s="6" t="str">
+        <f>$D19</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ18" s="6" t="str">
+        <f t="shared" si="33"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK18" s="6" t="str">
+        <f t="shared" si="34"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL18" s="6" t="str">
+        <f t="shared" si="35"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
       <c r="AM18" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f>$D19</f>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
       <c r="AN18" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="36"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
       <c r="AO18" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="37"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
       <c r="AP18" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="38"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
       <c r="AQ18" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
     </row>
@@ -23996,35 +23996,35 @@
         <v>0</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AG19" s="6">
         <v>1</v>
       </c>
-      <c r="AH19" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI19" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ19" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK19" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL19" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM19" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AH19" s="6" t="str">
+        <f>$D19</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AI19" s="6" t="str">
+        <f t="shared" ref="AI19:AM19" si="40">$D19</f>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ19" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK19" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL19" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AM19" s="6" t="str">
+        <f t="shared" si="40"/>
+        <v>SSA_CORE_RASTER_E_BEGIN_TITO_VCCSA_LFM_X_PMUCS_RASTER_CORE_ALL</v>
       </c>
       <c r="AN19" s="6"/>
       <c r="AO19" s="6"/>
@@ -24114,50 +24114,50 @@
         <v>0</v>
       </c>
       <c r="AF20" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AG20" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH20" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AH20:AH22" si="41">$D21</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
       </c>
-      <c r="AI20" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ20" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK20" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL20" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI20" s="6" t="str">
+        <f>$D21</f>
+        <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
+      </c>
+      <c r="AJ20" s="6" t="str">
+        <f t="shared" ref="AJ20:AJ21" si="42">$D21</f>
+        <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
+      </c>
+      <c r="AK20" s="6" t="str">
+        <f t="shared" ref="AK20:AK21" si="43">$D21</f>
+        <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
+      </c>
+      <c r="AL20" s="6" t="str">
+        <f t="shared" ref="AL20:AL21" si="44">$D21</f>
+        <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AM20" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f>$D21</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AN20" s="6" t="str">
-        <f t="shared" ref="AN20:AN21" si="28">$D21</f>
+        <f t="shared" ref="AN20:AN21" si="45">$D21</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AO20" s="6" t="str">
-        <f t="shared" ref="AO20:AO21" si="29">$D21</f>
+        <f t="shared" ref="AO20:AO21" si="46">$D21</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AP20" s="6" t="str">
-        <f t="shared" ref="AP20:AP21" si="30">$D21</f>
+        <f t="shared" ref="AP20:AP21" si="47">$D21</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AQ20" s="6" t="str">
-        <f t="shared" ref="AQ20:AQ21" si="31">$D21</f>
+        <f t="shared" ref="AQ20:AQ21" si="48">$D21</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_BISR_CORE_ALL</v>
       </c>
     </row>
@@ -24244,50 +24244,50 @@
         <v>0</v>
       </c>
       <c r="AF21" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AG21" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH21" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="41"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
-      <c r="AI21" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ21" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK21" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL21" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI21" s="6" t="str">
+        <f>$D22</f>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ21" s="6" t="str">
+        <f t="shared" si="42"/>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK21" s="6" t="str">
+        <f t="shared" si="43"/>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL21" s="6" t="str">
+        <f t="shared" si="44"/>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AM21" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f>$D22</f>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AN21" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="45"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AO21" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="46"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AP21" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="47"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AQ21" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="48"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
     </row>
@@ -24370,35 +24370,35 @@
         <v>0</v>
       </c>
       <c r="AF22" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AG22" s="6">
         <v>1</v>
       </c>
-      <c r="AH22" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI22" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ22" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK22" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL22" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM22" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AH22" s="6" t="str">
+        <f>$D22</f>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AI22" s="6" t="str">
+        <f t="shared" ref="AI22:AM22" si="49">$D22</f>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AJ22" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AK22" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AL22" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
+      </c>
+      <c r="AM22" s="6" t="str">
+        <f t="shared" si="49"/>
+        <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_MLC_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AN22" s="6"/>
       <c r="AO22" s="6"/>
@@ -24488,50 +24488,46 @@
         <v>0</v>
       </c>
       <c r="AF23" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AG23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH23" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="AH14:AH24" si="50">$D24</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_BISR_CORE_ALL</v>
       </c>
-      <c r="AI23" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ23" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK23" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL23" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="6">
+        <v>1</v>
       </c>
       <c r="AM23" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AM14:AM24" si="51">$D24</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AN23" s="6" t="str">
-        <f t="shared" ref="AN23:AN24" si="32">$D24</f>
+        <f t="shared" ref="AN23:AN24" si="52">$D24</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AO23" s="6" t="str">
-        <f t="shared" ref="AO23:AO24" si="33">$D24</f>
+        <f t="shared" ref="AO23:AO24" si="53">$D24</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AP23" s="6" t="str">
-        <f t="shared" ref="AP23:AP24" si="34">$D24</f>
+        <f t="shared" ref="AP23:AP24" si="54">$D24</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_BISR_CORE_ALL</v>
       </c>
       <c r="AQ23" s="6" t="str">
-        <f t="shared" ref="AQ23:AQ24" si="35">$D24</f>
+        <f t="shared" ref="AQ23:AQ24" si="55">$D24</f>
         <v>LSA_CORE_HRY_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_BISR_CORE_ALL</v>
       </c>
     </row>
@@ -24618,50 +24614,46 @@
         <v>0</v>
       </c>
       <c r="AF24" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="AG24" s="6" t="s">
         <v>39</v>
       </c>
       <c r="AH24" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="50"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_RASTER_CORE_ALL</v>
       </c>
-      <c r="AI24" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ24" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK24" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL24" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AI24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="6">
+        <v>1</v>
       </c>
       <c r="AM24" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="51"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AN24" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="52"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AO24" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="53"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AP24" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="54"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_RASTER_CORE_ALL</v>
       </c>
       <c r="AQ24" s="6" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="55"/>
         <v>LSA_CORE_RASTER_E_BEGIN_TITO_VCCIA_LFM_X_CORE_RF_RASTER_CORE_ALL</v>
       </c>
     </row>
@@ -24744,35 +24736,29 @@
         <v>0</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="AG25" s="6">
         <v>1</v>
       </c>
-      <c r="AH25" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AI25" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AJ25" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AK25" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AL25" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AM25" s="6" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="AH25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="6">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="6">
+        <v>1</v>
       </c>
       <c r="AN25" s="6"/>
       <c r="AO25" s="6"/>
@@ -24877,7 +24863,7 @@
       <c r="AD27" s="16"/>
       <c r="AE27" s="16"/>
       <c r="AF27" s="16">
-        <f t="shared" ref="AF27:AF49" si="36">COUNTA(AH27:AQ27)</f>
+        <f t="shared" ref="AF27:AF49" si="56">COUNTA(AH27:AQ27)</f>
         <v>2</v>
       </c>
       <c r="AG27" s="16" t="s">
@@ -24981,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG28" s="17" t="s">
@@ -25088,7 +25074,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG29" s="17" t="s">
@@ -25195,7 +25181,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG30" s="17" t="s">
@@ -25302,7 +25288,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG31" s="17" t="s">
@@ -25409,7 +25395,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG32" s="17" t="s">
@@ -25516,7 +25502,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG33" s="17" t="s">
@@ -25623,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG34" s="17" t="s">
@@ -25730,7 +25716,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG35" s="17" t="s">
@@ -25837,7 +25823,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG36" s="17" t="s">
@@ -25944,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG37" s="17" t="s">
@@ -26051,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="AF38" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG38" s="17" t="s">
@@ -26158,7 +26144,7 @@
         <v>0</v>
       </c>
       <c r="AF39" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG39" s="17" t="s">
@@ -26265,7 +26251,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG40" s="17" t="s">
@@ -26372,7 +26358,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG41" s="17" t="s">
@@ -26479,7 +26465,7 @@
         <v>0</v>
       </c>
       <c r="AF42" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG42" s="17" t="s">
@@ -26586,7 +26572,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG43" s="17" t="s">
@@ -26693,7 +26679,7 @@
         <v>0</v>
       </c>
       <c r="AF44" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG44" s="17" t="s">
@@ -26800,7 +26786,7 @@
         <v>0</v>
       </c>
       <c r="AF45" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG45" s="17" t="s">
@@ -26907,7 +26893,7 @@
         <v>0</v>
       </c>
       <c r="AF46" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG46" s="17" t="s">
@@ -27014,7 +27000,7 @@
         <v>0</v>
       </c>
       <c r="AF47" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG47" s="17" t="s">
@@ -27119,7 +27105,7 @@
         <v>0</v>
       </c>
       <c r="AF48" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG48" s="17" t="s">
@@ -27224,7 +27210,7 @@
         <v>0</v>
       </c>
       <c r="AF49" s="17">
-        <f t="shared" si="36"/>
+        <f t="shared" si="56"/>
         <v>3</v>
       </c>
       <c r="AG49" s="17" t="s">
@@ -27449,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="AF52" s="19">
-        <f t="shared" ref="AF52:AF71" si="37">COUNTA(AH52:AQ52)</f>
+        <f t="shared" ref="AF52:AF71" si="57">COUNTA(AH52:AQ52)</f>
         <v>9</v>
       </c>
       <c r="AG52" s="19" t="s">
@@ -27576,7 +27562,7 @@
         <v>0</v>
       </c>
       <c r="AF53" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG53" s="19" t="s">
@@ -27703,7 +27689,7 @@
         <v>0</v>
       </c>
       <c r="AF54" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG54" s="19" t="s">
@@ -27830,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="AF55" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG55" s="19" t="s">
@@ -27957,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG56" s="19" t="s">
@@ -28084,7 +28070,7 @@
         <v>0</v>
       </c>
       <c r="AF57" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG57" s="19" t="s">
@@ -28211,7 +28197,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG58" s="19" t="s">
@@ -28338,7 +28324,7 @@
         <v>0</v>
       </c>
       <c r="AF59" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG59" s="19" t="s">
@@ -28465,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="AF60" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG60" s="19" t="s">
@@ -28592,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG61" s="19" t="s">
@@ -28719,7 +28705,7 @@
         <v>0</v>
       </c>
       <c r="AF62" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG62" s="19" t="s">
@@ -28846,7 +28832,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG63" s="19" t="s">
@@ -28973,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="AF64" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG64" s="19" t="s">
@@ -29100,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG65" s="19" t="s">
@@ -29227,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG66" s="19" t="s">
@@ -29354,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="AF67" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG67" s="19" t="s">
@@ -29481,7 +29467,7 @@
         <v>0</v>
       </c>
       <c r="AF68" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG68" s="19" t="s">
@@ -29608,7 +29594,7 @@
         <v>0</v>
       </c>
       <c r="AF69" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG69" s="19" t="s">
@@ -29735,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="AF70" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG70" s="19" t="s">
@@ -29862,7 +29848,7 @@
         <v>0</v>
       </c>
       <c r="AF71" s="19">
-        <f t="shared" si="37"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="AG71" s="19" t="s">
@@ -30326,7 +30312,7 @@
         <v>0</v>
       </c>
       <c r="AF77">
-        <f t="shared" ref="AF77:AF80" si="38">COUNTA(AH77:AQ77)</f>
+        <f t="shared" ref="AF77:AF80" si="58">COUNTA(AH77:AQ77)</f>
         <v>2</v>
       </c>
       <c r="AG77">
@@ -30414,7 +30400,7 @@
         <v>0</v>
       </c>
       <c r="AF78">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="AG78">
@@ -30502,7 +30488,7 @@
         <v>0</v>
       </c>
       <c r="AF79">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="AG79">
@@ -30590,7 +30576,7 @@
         <v>0</v>
       </c>
       <c r="AF80">
-        <f t="shared" si="38"/>
+        <f t="shared" si="58"/>
         <v>2</v>
       </c>
       <c r="AG80">
@@ -30878,7 +30864,7 @@
         <v>0</v>
       </c>
       <c r="AF84">
-        <f t="shared" ref="AF84" si="39">COUNTA(AH84:AQ84)</f>
+        <f t="shared" ref="AF84" si="59">COUNTA(AH84:AQ84)</f>
         <v>5</v>
       </c>
       <c r="AG84" t="s">
@@ -31169,7 +31155,7 @@
         <v>0</v>
       </c>
       <c r="AF88">
-        <f t="shared" ref="AF88" si="40">COUNTA(AH88:AQ88)</f>
+        <f t="shared" ref="AF88" si="60">COUNTA(AH88:AQ88)</f>
         <v>2</v>
       </c>
       <c r="AG88">
@@ -31433,7 +31419,7 @@
         <v>0</v>
       </c>
       <c r="AF91">
-        <f t="shared" ref="AF91" si="41">COUNTA(AH91:AQ91)</f>
+        <f t="shared" ref="AF91" si="61">COUNTA(AH91:AQ91)</f>
         <v>2</v>
       </c>
       <c r="AG91">
@@ -31780,7 +31766,7 @@
         <v>0</v>
       </c>
       <c r="AF96">
-        <f t="shared" ref="AF96" si="42">COUNTA(AH96:AQ96)</f>
+        <f t="shared" ref="AF96" si="62">COUNTA(AH96:AQ96)</f>
         <v>2</v>
       </c>
       <c r="AG96">
@@ -32044,7 +32030,7 @@
         <v>0</v>
       </c>
       <c r="AF99">
-        <f t="shared" ref="AF99" si="43">COUNTA(AH99:AQ99)</f>
+        <f t="shared" ref="AF99" si="63">COUNTA(AH99:AQ99)</f>
         <v>2</v>
       </c>
       <c r="AG99">
@@ -32329,7 +32315,7 @@
         <v>0</v>
       </c>
       <c r="AF103">
-        <f t="shared" ref="AF103" si="44">COUNTA(AH103:AQ103)</f>
+        <f t="shared" ref="AF103" si="64">COUNTA(AH103:AQ103)</f>
         <v>2</v>
       </c>
       <c r="AG103">
